--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1220.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1220.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8608268990399346</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04304134495199673</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04304134495199673</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06886615192319477</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06162116313703912</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01162116313703911</v>
+        <v>0.01613626565885214</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008797308533853278</v>
+        <v>0.01221527534818788</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0009147118603865106</v>
+        <v>0.001678033175301227</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007323381802121108</v>
+        <v>0.0007864115088418503</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001652748133144782</v>
+        <v>0.005163766016229115</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007425835034626559</v>
+        <v>0.0007753172946389286</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.002999999999999975</v>
+        <v>0.008492544937263091</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0005046717171717128</v>
+        <v>0.0007716193494576224</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.008893437563314399</v>
+        <v>0.001678033175301227</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007133787651894286</v>
+        <v>0.0007864115088418503</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002708751400920591</v>
+        <v>0.003999999999999997</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001464676360424222</v>
+        <v>0.00181681818181818</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003640114708537374</v>
+        <v>0.009999999999999981</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001485167006925312</v>
+        <v>0.001610654416505477</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.007664094023353579</v>
+        <v>0.01600000000000001</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001532099184113159</v>
+        <v>0.001468135904499542</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01662553379521176</v>
+        <v>0.003999999999999997</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001426757530378857</v>
+        <v>0.00181681818181818</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003261446301749835</v>
+        <v>0.004676083327101094</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002197014540636332</v>
+        <v>0.002359234526525551</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.005497281842734285</v>
+        <v>0.01292999542279408</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002227750510387967</v>
+        <v>0.002325951883916786</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.0103052002731108</v>
+        <v>0.02158376265040346</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002298148776169738</v>
+        <v>0.002314858048372867</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02100000000000002</v>
+        <v>0.004676083327101094</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.001907659090909092</v>
+        <v>0.002359234526525551</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006456201742799504</v>
+        <v>0.005992129706546188</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002932436177951092</v>
+        <v>0.003145646035367401</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.006859431652292081</v>
+        <v>0.0159255594777428</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002970334013850624</v>
+        <v>0.003101269178555714</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01395506157558474</v>
+        <v>0.02698437800829456</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003064198368226318</v>
+        <v>0.00308647739783049</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02719285920917019</v>
+        <v>0.005992129706546188</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002853515060757714</v>
+        <v>0.003145646035367401</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002932436177951092</v>
+        <v>0.00181681818181818</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006456201742799504</v>
+        <v>0.003999999999999997</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.005354836723876856</v>
+        <v>0.007045940317568229</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003661690901060553</v>
+        <v>0.003932057544209252</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.008261746253767299</v>
+        <v>0.01920571538930832</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003712917517313279</v>
+        <v>0.003876586473194643</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01672331883262085</v>
+        <v>0.03193902350236699</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003830247960282897</v>
+        <v>0.003858096747288113</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03110650565801076</v>
+        <v>0.007045940317568229</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003566893825947143</v>
+        <v>0.003932057544209252</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.00614123376617725</v>
+        <v>0.008239554172581202</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004394029081272665</v>
+        <v>0.004718469053051101</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.008999999999999994</v>
+        <v>0.02155978008638193</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004087840909090906</v>
+        <v>0.004651903767833572</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01891961294606442</v>
+        <v>0.03630082068718626</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004596297552339476</v>
+        <v>0.004629716096745735</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03507622139046618</v>
+        <v>0.008239554172581202</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004280272591136572</v>
+        <v>0.004718469053051101</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008832696112343268</v>
+        <v>0.00907501028399911</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005126367261484775</v>
+        <v>0.005504880561892952</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01002864173269293</v>
+        <v>0.02437707049785479</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005198084524238591</v>
+        <v>0.005427221062472501</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02175358481776091</v>
+        <v>0.04042289111731828</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005362347144396057</v>
+        <v>0.005401335446203357</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03835405158901412</v>
+        <v>0.00907501028399911</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.004993651356326001</v>
+        <v>0.005504880561892952</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.008450601443239017</v>
+        <v>0.01025434766423597</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005858705441696886</v>
+        <v>0.006291292070734802</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.0107871562028914</v>
+        <v>0.0264469035526182</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005940668027701247</v>
+        <v>0.006202538357111429</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02423487534955571</v>
+        <v>0.04435835634732854</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006128396736452636</v>
+        <v>0.006172954795660979</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04209204143613243</v>
+        <v>0.01025434766423597</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005707030121515429</v>
+        <v>0.006291292070734802</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.008016327439728632</v>
+        <v>0.01097960532570576</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006591043621908996</v>
+        <v>0.007077703579576653</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01176378543440609</v>
+        <v>0.02875859617956342</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006683251531163902</v>
+        <v>0.006977855651750357</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02647312544329419</v>
+        <v>0.04646033793178284</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006894446328509216</v>
+        <v>0.006944574145118601</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04464223611429874</v>
+        <v>0.01097960532570576</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006420408886704858</v>
+        <v>0.007077703579576653</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01055125178267625</v>
+        <v>0.01205282228082249</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007323381802121107</v>
+        <v>0.007864115088418503</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01207778552946277</v>
+        <v>0.03010146530758154</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007425835034626558</v>
+        <v>0.007753172946389286</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02817797600082181</v>
+        <v>0.0484710128920724</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007660495920565794</v>
+        <v>0.007412711911907459</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.0484710128920724</v>
+        <v>0.01205282228082249</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007338584792788383</v>
+        <v>0.007864115088418503</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01107675215294599</v>
+        <v>0.01277603754200017</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008055719982333218</v>
+        <v>0.008650526597260353</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01294841259028721</v>
+        <v>0.03230363927546226</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008168418538089214</v>
+        <v>0.00867166654470386</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03055906792398383</v>
+        <v>0.0503528631986625</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008426545512622374</v>
+        <v>0.008487812844033847</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04932947880268534</v>
+        <v>0.01277603754200017</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007847166417083714</v>
+        <v>0.008650526597260353</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01162116313703911</v>
+        <v>0.0134512901216528</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008797308533853278</v>
+        <v>0.009436938106102202</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01329492271910519</v>
+        <v>0.03313054148334585</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008911002041551869</v>
+        <v>0.009303807535667143</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03230363927546226</v>
+        <v>0.05273713777953154</v>
       </c>
       <c r="M77" t="n">
-        <v>0.0090570739466907</v>
+        <v>0.009259432193491469</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0520997923875377</v>
+        <v>0.0134512901216528</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008560545182273144</v>
+        <v>0.009436938106102202</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01217595380503796</v>
+        <v>0.01428061903219437</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009520396342757439</v>
+        <v>0.01022334961494405</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0139365720181425</v>
+        <v>0.03457463032939168</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009653585545014526</v>
+        <v>0.01007912483030607</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03437751912746645</v>
+        <v>0.05478713239693894</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009958644696735533</v>
+        <v>0.01003105154294909</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05486697944275148</v>
+        <v>0.01428061903219437</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009273923947462572</v>
+        <v>0.01022334961494405</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01175713695351797</v>
+        <v>0.01516606328603889</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01025273452296955</v>
+        <v>0.0110097611237859</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01429261658962491</v>
+        <v>0.03540125948374093</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01039616904847718</v>
+        <v>0.010854442124945</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03584484482450706</v>
+        <v>0.05580248991467746</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01072469428879211</v>
+        <v>0.01080267089240671</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05742274921242213</v>
+        <v>0.01516606328603889</v>
       </c>
       <c r="O79" t="n">
-        <v>0.009987302712652002</v>
+        <v>0.0110097611237859</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01235371185396177</v>
+        <v>0.01550966189560038</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01098507270318166</v>
+        <v>0.01179617263262775</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0151823125357782</v>
+        <v>0.03700990445950475</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01113875255193984</v>
+        <v>0.01162975941958393</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03761978975317176</v>
+        <v>0.0583828531965398</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01149074388084869</v>
+        <v>0.01157429024186434</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05995881094064515</v>
+        <v>0.01550966189560038</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01070068147784143</v>
+        <v>0.01179617263262775</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01296163548663341</v>
+        <v>0.01613626565885214</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01171741088339377</v>
+        <v>0.01221527534818788</v>
       </c>
       <c r="J81" t="n">
+        <v>0.03770004076979427</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.01240507671422286</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.06012786510631868</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.01234590959132196</v>
+      </c>
+      <c r="N81" t="n">
         <v>0.01613626565885214</v>
       </c>
-      <c r="K81" t="n">
+      <c r="O81" t="n">
         <v>0.01221527534818788</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0.03989200971018508</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.01225679347290527</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.06216687387151598</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.01141406024303086</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01357686483179697</v>
+        <v>0.01702048378954495</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01244974906360588</v>
+        <v>0.01336899565031145</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01634196293819293</v>
+        <v>0.0389711439277205</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01262391955886515</v>
+        <v>0.01318039400886179</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04155116049227189</v>
+        <v>0.06103716850780688</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01302284306496185</v>
+        <v>0.01311752894077958</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06453864724913028</v>
+        <v>0.01702048378954495</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01212743900822029</v>
+        <v>0.01336899565031145</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0151953568697165</v>
+        <v>0.01732284831904646</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01318208724381799</v>
+        <v>0.01415540715915331</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01715030652923624</v>
+        <v>0.04032268944639464</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0133665030623278</v>
+        <v>0.01395571130350071</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04378689789615681</v>
+        <v>0.0635104062647972</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01378889265701843</v>
+        <v>0.0138891482902372</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06716584031758333</v>
+        <v>0.01732284831904646</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01284081777340972</v>
+        <v>0.01415540715915331</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01481306858065608</v>
+        <v>0.01812400252837727</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0139144254240301</v>
+        <v>0.01494181866799515</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01793777771853125</v>
+        <v>0.04135415283892777</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01410908656579046</v>
+        <v>0.01473102859813964</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04538887771856465</v>
+        <v>0.06444722124108226</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01455494224907501</v>
+        <v>0.01466076763969483</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06914016232097059</v>
+        <v>0.01812400252837727</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01355419653859914</v>
+        <v>0.01494181866799515</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01642595694487976</v>
+        <v>0.01882314181798292</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01464676360424221</v>
+        <v>0.01572823017683701</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01888953569775816</v>
+        <v>0.04276500961843094</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01485167006925312</v>
+        <v>0.01550634589277857</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04694675575622007</v>
+        <v>0.06664725630045487</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01532099184113159</v>
+        <v>0.01543238698915245</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07115332250338768</v>
+        <v>0.01882314181798292</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01426757530378857</v>
+        <v>0.01572823017683701</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01502997894265161</v>
+        <v>0.01941946158830886</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01537910178445433</v>
+        <v>0.01651464168567885</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02019073965859722</v>
+        <v>0.04365473529801533</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01559425357271577</v>
+        <v>0.0162816631874175</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04905018780584777</v>
+        <v>0.06801015430670776</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01608704143318817</v>
+        <v>0.01620400633861007</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07289703010893001</v>
+        <v>0.01941946158830886</v>
       </c>
       <c r="O86" t="n">
-        <v>0.014980954068978</v>
+        <v>0.01651464168567885</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0156210915542357</v>
+        <v>0.01971215723980058</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01611143996466644</v>
+        <v>0.01730105319452071</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02102654879272868</v>
+        <v>0.04482280539079203</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01633683707617843</v>
+        <v>0.01705698048205643</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05068882966417251</v>
+        <v>0.06953555812363377</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01685309102524475</v>
+        <v>0.01697562568806769</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07556299438169306</v>
+        <v>0.01971215723980058</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01569433283416743</v>
+        <v>0.01730105319452071</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01819525175989609</v>
+        <v>0.02060042417290356</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01684377814487855</v>
+        <v>0.01808746470336256</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02218212229183276</v>
+        <v>0.0458686954098721</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01707942057964108</v>
+        <v>0.01783229777669536</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05165233712791897</v>
+        <v>0.07112311061502546</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01761914061730133</v>
+        <v>0.01774724503752531</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07774292456577225</v>
+        <v>0.02060042417290356</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01640771159935686</v>
+        <v>0.01808746470336256</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01874841653989685</v>
+        <v>0.02098345778806329</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01757611632509066</v>
+        <v>0.0188738762122044</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02314261934758972</v>
+        <v>0.04669188086836668</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01782200408310374</v>
+        <v>0.01860761507133429</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05313036599381191</v>
+        <v>0.07217245464467581</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01838519020935791</v>
+        <v>0.01851886438698294</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07922852990526319</v>
+        <v>0.02098345778806329</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01712109036454629</v>
+        <v>0.0188738762122044</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01727654287450203</v>
+        <v>0.02146045348572527</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01830845450530277</v>
+        <v>0.01966028772104626</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02439319915167978</v>
+        <v>0.04799183727938686</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0185645875865664</v>
+        <v>0.01938293236597322</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05461257205857598</v>
+        <v>0.07388323307637729</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01915123980141449</v>
+        <v>0.01929048373644056</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08091151964426113</v>
+        <v>0.02146045348572527</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01783446912973571</v>
+        <v>0.01966028772104626</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01977558774397572</v>
+        <v>0.022030606666335</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01904079268551488</v>
+        <v>0.02044669922988811</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0254190208957832</v>
+        <v>0.04876804015604372</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01930717109002905</v>
+        <v>0.02015824966061214</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05608861111893595</v>
+        <v>0.07545508877392287</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01991728939347107</v>
+        <v>0.02006210308589819</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08318360302686179</v>
+        <v>0.022030606666335</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01854784789492514</v>
+        <v>0.02044669922988811</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01824150812858197</v>
+        <v>0.02269311273033792</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01977313086572699</v>
+        <v>0.02123311073872996</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02620524377158019</v>
+        <v>0.04931996501144847</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02004975459349171</v>
+        <v>0.02093356695525107</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05734813897161653</v>
+        <v>0.07698766460110507</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02068333898552764</v>
+        <v>0.02083372243535581</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08443648929716047</v>
+        <v>0.02269311273033792</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01926122666011457</v>
+        <v>0.02123311073872996</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01867026100858486</v>
+        <v>0.02344716707817955</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0205054690459391</v>
+        <v>0.02201952224757181</v>
       </c>
       <c r="J93" t="n">
-        <v>0.027037026970751</v>
+        <v>0.0503470873587121</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02079233809695437</v>
+        <v>0.02170888424989</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05858081141334243</v>
+        <v>0.07738060342171688</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02144938857758423</v>
+        <v>0.02160534178481343</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08616188769925281</v>
+        <v>0.02344716707817955</v>
       </c>
       <c r="O93" t="n">
-        <v>0.019974605425304</v>
+        <v>0.02201952224757181</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02005780336424844</v>
+        <v>0.02379196511030536</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02123780722615121</v>
+        <v>0.02280593375641366</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02819952968497588</v>
+        <v>0.05134888271094579</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02153492160041702</v>
+        <v>0.02248420154452893</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05917628424083834</v>
+        <v>0.07953354809955093</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02221543816964081</v>
+        <v>0.02237696113427105</v>
       </c>
       <c r="N94" t="n">
-        <v>0.08735150747723419</v>
+        <v>0.02379196511030536</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02068798419049343</v>
+        <v>0.02280593375641366</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02140009217583678</v>
+        <v>0.02452670222716087</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02197014540636332</v>
+        <v>0.02359234526525551</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02897791110593506</v>
+        <v>0.05232482658126059</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02227750510387968</v>
+        <v>0.02325951883916786</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06002421325082904</v>
+        <v>0.0804461414983999</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02298148776169738</v>
+        <v>0.02314858048372867</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08799705787520007</v>
+        <v>0.02452670222716087</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02140136295568286</v>
+        <v>0.02359234526525551</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01969308442361393</v>
+        <v>0.02485057382919151</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02270248358657543</v>
+        <v>0.02437875677409736</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02945733042530875</v>
+        <v>0.05307439448276763</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02302008860734233</v>
+        <v>0.02403483613380679</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06021425424003921</v>
+        <v>0.08171802648205656</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02374753735375397</v>
+        <v>0.0239201998331863</v>
       </c>
       <c r="N96" t="n">
-        <v>0.08959024813724592</v>
+        <v>0.02485057382919151</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02211474172087229</v>
+        <v>0.02437875677409736</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02093273708784397</v>
+        <v>0.02536277531684282</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02343482176678754</v>
+        <v>0.02516516828293921</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02992294683477724</v>
+        <v>0.05409706192857802</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02376267211080499</v>
+        <v>0.02481015342844571</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06123606300519355</v>
+        <v>0.08304884591431377</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02451358694581054</v>
+        <v>0.02469181918264392</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09032278750746731</v>
+        <v>0.02536277531684282</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02282812048606172</v>
+        <v>0.02516516828293921</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02011500714879098</v>
+        <v>0.02606250209056026</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02416715994699965</v>
+        <v>0.02595157979178106</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03055991952602072</v>
+        <v>0.05479230443180289</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02450525561426764</v>
+        <v>0.02558547072308464</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0614792953430168</v>
+        <v>0.08383824265896411</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02527963653786712</v>
+        <v>0.02546343853210154</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09038638522995968</v>
+        <v>0.02606250209056026</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02354149925125114</v>
+        <v>0.02595157979178106</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.020235851586719</v>
+        <v>0.02654894955078932</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02489949812721176</v>
+        <v>0.02673799130062291</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03065340769071946</v>
+        <v>0.05525959750555326</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0252478391177303</v>
+        <v>0.02636078801772358</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06143139704570355</v>
+        <v>0.08488585957980044</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0260456861299237</v>
+        <v>0.02623505788155916</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09107275054881842</v>
+        <v>0.02654894955078932</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02425487801644058</v>
+        <v>0.02673799130062291</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02229122738189209</v>
+        <v>0.02692131309797549</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02563183630742387</v>
+        <v>0.02752440280946476</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03108857052055368</v>
+        <v>0.05599841666294034</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02599042262119295</v>
+        <v>0.0271361053123625</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06113247182199821</v>
+        <v>0.08609133954061549</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02681173572198028</v>
+        <v>0.02700667723101679</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09097359270813909</v>
+        <v>0.02692131309797549</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02496825678163</v>
+        <v>0.02752440280946476</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02227990094313382</v>
+        <v>0.02727878813256425</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02636417448763598</v>
+        <v>0.02831081431830661</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03097646207528683</v>
+        <v>0.05700823741707517</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02673300612465561</v>
+        <v>0.02791142260700143</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06038699799289188</v>
+        <v>0.08635432540520194</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02757778531403686</v>
+        <v>0.02777829658047441</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09138062095201704</v>
+        <v>0.02727878813256425</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02568163554681943</v>
+        <v>0.02831081431830661</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02121111355962215</v>
+        <v>0.02762057005500113</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0270965126678481</v>
+        <v>0.02909722582714846</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03088645779684634</v>
+        <v>0.05778853528106884</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02747558962811826</v>
+        <v>0.02868673990164036</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05983202498758336</v>
+        <v>0.08777446003735256</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02834383490609345</v>
+        <v>0.02854991592993203</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0916411870239911</v>
+        <v>0.02762057005500113</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02639501431200886</v>
+        <v>0.02909722582714846</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02109170430193667</v>
+        <v>0.02834585426573154</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0278288508480602</v>
+        <v>0.02988363733599031</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03083117918554426</v>
+        <v>0.05803878576803251</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02821817313158092</v>
+        <v>0.02946205719627928</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05890460223527161</v>
+        <v>0.08855138630086012</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02910988449815002</v>
+        <v>0.02932153527938966</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09082180899305348</v>
+        <v>0.02834585426573154</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02710839307719828</v>
+        <v>0.02988363733599031</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.01992813952275131</v>
+        <v>0.028553836165201</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02856118902827232</v>
+        <v>0.03067004884483216</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03041920854661091</v>
+        <v>0.05875846439107724</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02896075663504358</v>
+        <v>0.03023737449091822</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0578417791651554</v>
+        <v>0.08908474705951741</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0298759340902066</v>
+        <v>0.03009315462884728</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09075447007031823</v>
+        <v>0.028553836165201</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02782177184238771</v>
+        <v>0.03067004884483216</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02172688557473999</v>
+        <v>0.02914371115385504</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02929352720848443</v>
+        <v>0.03145646035367401</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03025912818527658</v>
+        <v>0.0593470466633142</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02970334013850623</v>
+        <v>0.03101269178555715</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05698060520643361</v>
+        <v>0.09027418517711705</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03064198368226318</v>
+        <v>0.0308647739783049</v>
       </c>
       <c r="N105" t="n">
-        <v>0.08947122558328496</v>
+        <v>0.02914371115385504</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02853515060757715</v>
+        <v>0.03145646035367401</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01949440881057663</v>
+        <v>0.02931467463213909</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03002586538869654</v>
+        <v>0.03224287186251586</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02995952040677156</v>
+        <v>0.06000400809785439</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03044592364196889</v>
+        <v>0.03178800908019607</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05615812978830514</v>
+        <v>0.09051934351745178</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03140803327431976</v>
+        <v>0.03163639332776252</v>
       </c>
       <c r="N106" t="n">
-        <v>0.08790413085945314</v>
+        <v>0.02931467463213909</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02924852937276657</v>
+        <v>0.03224287186251586</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.01923717558293517</v>
+        <v>0.02976592200049864</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03075820356890865</v>
+        <v>0.03302928337135771</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02952896751632615</v>
+        <v>0.06042882420780901</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03118850714543154</v>
+        <v>0.032563326374835</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05501140233996885</v>
+        <v>0.09121986494431444</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03217408286637634</v>
+        <v>0.03240801267722014</v>
       </c>
       <c r="N107" t="n">
-        <v>0.08728524122632236</v>
+        <v>0.02976592200049864</v>
       </c>
       <c r="O107" t="n">
-        <v>0.029961908137956</v>
+        <v>0.03302928337135771</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02096165224448954</v>
+        <v>0.03019664865937922</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03149054174912076</v>
+        <v>0.03381569488019956</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02937605181917066</v>
+        <v>0.06102097050628916</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0319310906488942</v>
+        <v>0.03333864366947394</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05357747229062354</v>
+        <v>0.09257539232149781</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03294013245843291</v>
+        <v>0.03317963202667776</v>
       </c>
       <c r="N108" t="n">
-        <v>0.0860466120113923</v>
+        <v>0.03019664865937922</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03067528690314543</v>
+        <v>0.03381569488019956</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02067430514791365</v>
+        <v>0.03050605000922628</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03222287992933287</v>
+        <v>0.03460210638904141</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02880935562053534</v>
+        <v>0.0615799225064059</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03267367415235686</v>
+        <v>0.03411396096411286</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05269338906946816</v>
+        <v>0.09268556851279458</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0337061820504895</v>
+        <v>0.03395125137613539</v>
       </c>
       <c r="N109" t="n">
-        <v>0.08452029854216231</v>
+        <v>0.03050605000922628</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03138866566833486</v>
+        <v>0.03460210638904141</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02038160064588145</v>
+        <v>0.03079332145048531</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03295521810954499</v>
+        <v>0.03538851789788326</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02863746122565052</v>
+        <v>0.06180515572127035</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03341625765581951</v>
+        <v>0.03488927825875179</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05189620210570151</v>
+        <v>0.09315003638199737</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03447223164254607</v>
+        <v>0.03472287072559301</v>
       </c>
       <c r="N110" t="n">
-        <v>0.08283835614613205</v>
+        <v>0.03079332145048531</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03210204443352429</v>
+        <v>0.03538851789788326</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01909000509106683</v>
+        <v>0.0309576583836018</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03368755628975709</v>
+        <v>0.03617492940672511</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02806895093974647</v>
+        <v>0.06229614566399361</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03415884115928217</v>
+        <v>0.03566459555339072</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05072296082852251</v>
+        <v>0.0936684387928991</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03523828123460265</v>
+        <v>0.03549449007505063</v>
       </c>
       <c r="N111" t="n">
-        <v>0.08093284015080099</v>
+        <v>0.0309576583836018</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03281542319871372</v>
+        <v>0.03617492940672511</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01980598483614376</v>
+        <v>0.03099825620902125</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0344198944699692</v>
+        <v>0.03696134091556696</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02781240706805352</v>
+        <v>0.06305236784768681</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03490142466274482</v>
+        <v>0.03643991284802964</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04991071466712996</v>
+        <v>0.09474041860929239</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03600433082665924</v>
+        <v>0.03626610942450825</v>
       </c>
       <c r="N112" t="n">
-        <v>0.08033580588366884</v>
+        <v>0.03099825620902125</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03352880196390315</v>
+        <v>0.03696134091556696</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01753600623378612</v>
+        <v>0.03131431032718912</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03515223265018132</v>
+        <v>0.03774775242440881</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02747641191580193</v>
+        <v>0.063373297785461</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03564400816620748</v>
+        <v>0.03721523014266857</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04979651305072277</v>
+        <v>0.09516561869497003</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03677038041871581</v>
+        <v>0.03703772877396588</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07797930867223496</v>
+        <v>0.03131431032718912</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03424218072909258</v>
+        <v>0.03774775242440881</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01728653563666786</v>
+        <v>0.03140501613855093</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03588457083039343</v>
+        <v>0.03853416393325066</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02726954778822201</v>
+        <v>0.06355841099042736</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03638659166967013</v>
+        <v>0.0379905474373075</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04941740540849981</v>
+        <v>0.0951436819137248</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03753643001077239</v>
+        <v>0.0378093481234235</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07699540384399906</v>
+        <v>0.03140501613855093</v>
       </c>
       <c r="O114" t="n">
-        <v>0.034955559494282</v>
+        <v>0.03853416393325066</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01806403939746291</v>
+        <v>0.03156956904355215</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03661690901060553</v>
+        <v>0.03932057544209251</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02670039699054406</v>
+        <v>0.06370718297569691</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03712917517313279</v>
+        <v>0.03876586473194643</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0494866233679401</v>
+        <v>0.09557425112934931</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03830247960282897</v>
+        <v>0.03858096747288112</v>
       </c>
       <c r="N115" t="n">
-        <v>0.07561614672646055</v>
+        <v>0.03156956904355215</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03566893825947143</v>
+        <v>0.03932057544209251</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01787498386884519</v>
+        <v>0.03190716444263828</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03734924719081765</v>
+        <v>0.04010698695093436</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02647754182799837</v>
+        <v>0.06411908925438084</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03787175867659544</v>
+        <v>0.03954118202658536</v>
       </c>
       <c r="L116" t="n">
-        <v>0.04946504254297646</v>
+        <v>0.09555696920563655</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03906852919488555</v>
+        <v>0.03935258682233875</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0750735926471191</v>
+        <v>0.03190716444263828</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03638231702466086</v>
+        <v>0.04010698695093436</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01672583540348863</v>
+        <v>0.03201699773625474</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03808158537102976</v>
+        <v>0.04089339845977621</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02660956460581522</v>
+        <v>0.06379360533959019</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0386143421800581</v>
+        <v>0.04031649932122429</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04911952132316325</v>
+        <v>0.09579147900637897</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03983457878694213</v>
+        <v>0.04012420617179637</v>
       </c>
       <c r="N117" t="n">
-        <v>0.07329979693347416</v>
+        <v>0.03201699773625474</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03709569578985029</v>
+        <v>0.04089339845977621</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01662306035406715</v>
+        <v>0.03199826432484712</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03881392355124186</v>
+        <v>0.04167980996861807</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02650504762922491</v>
+        <v>0.06383020674443615</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03935692568352076</v>
+        <v>0.04109181661586322</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04964505200880212</v>
+        <v>0.09587742339536953</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04060062837899871</v>
+        <v>0.04089582552125399</v>
       </c>
       <c r="N118" t="n">
-        <v>0.07312681491302536</v>
+        <v>0.03199826432484712</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03780907455503971</v>
+        <v>0.04167980996861807</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01657312507325469</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03954626173145398</v>
+        <v>0.04246622147745991</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02627243177003925</v>
+        <v>0.06422836898202972</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04009950918698341</v>
+        <v>0.04186713391050215</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05003662690019481</v>
+        <v>0.09641444523640097</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04136667797105529</v>
+        <v>0.04166744487071161</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07248670191327217</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03852245332022915</v>
+        <v>0.04246622147745991</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0185743745342787</v>
+        <v>0.03197187898874142</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04027859991166609</v>
+        <v>0.04325263298630176</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02639272642321158</v>
+        <v>0.06460727855092452</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04084209269044607</v>
+        <v>0.04264245120514108</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05018923829764294</v>
+        <v>0.09694202578414479</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04213272756311187</v>
+        <v>0.04243906422016924</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07181151326171425</v>
+        <v>0.03197187898874142</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03923583208541857</v>
+        <v>0.04325263298630176</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01660142643528632</v>
+        <v>0.03226628372528191</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0410109380918782</v>
+        <v>0.04403904449514361</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02634639181200632</v>
+        <v>0.06420727812220509</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04158467619390873</v>
+        <v>0.04341776849978</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05049787850144821</v>
+        <v>0.09664029272975705</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04289877715516845</v>
+        <v>0.04321068356962685</v>
       </c>
       <c r="N121" t="n">
-        <v>0.07210310858446611</v>
+        <v>0.03226628372528191</v>
       </c>
       <c r="O121" t="n">
-        <v>0.03994921085060801</v>
+        <v>0.04403904449514361</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01865062879298773</v>
+        <v>0.03194121666046745</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04174327627209031</v>
+        <v>0.04482545600398546</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02653115607261974</v>
+        <v>0.0639915378687641</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04232725969737138</v>
+        <v>0.04419308579441893</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05095753981191234</v>
+        <v>0.09673655804093428</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04366482674722503</v>
+        <v>0.04398230291908448</v>
       </c>
       <c r="N122" t="n">
-        <v>0.07193656583909636</v>
+        <v>0.03194121666046745</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04066258961579743</v>
+        <v>0.04482545600398546</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01872059121951279</v>
+        <v>0.03209789255064101</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04247561445230243</v>
+        <v>0.04561186751282732</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02664474734124814</v>
+        <v>0.06434551228679336</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04306984320083404</v>
+        <v>0.04496840308905786</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05166321452933695</v>
+        <v>0.09601192780939677</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04443087633928161</v>
+        <v>0.0447539222685421</v>
       </c>
       <c r="N123" t="n">
-        <v>0.07208773934097806</v>
+        <v>0.03209789255064101</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04137596838098686</v>
+        <v>0.04561186751282732</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01880992332699133</v>
+        <v>0.03193729535786809</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04320795263251453</v>
+        <v>0.04639827902166917</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02668489375408778</v>
+        <v>0.06427050043085211</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04381242670429669</v>
+        <v>0.04574372038369679</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05240989495402371</v>
+        <v>0.09686798969457283</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04519692593133819</v>
+        <v>0.04552554161799973</v>
       </c>
       <c r="N124" t="n">
-        <v>0.07254905268623218</v>
+        <v>0.03193729535786809</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04208934714617629</v>
+        <v>0.04639827902166917</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01691723472755315</v>
+        <v>0.0320604090442141</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04394029081272664</v>
+        <v>0.04718469053051102</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02674932344733497</v>
+        <v>0.06406780135549953</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04455501020775935</v>
+        <v>0.04651903767833571</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05259257338627429</v>
+        <v>0.09660530204805651</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04596297552339477</v>
+        <v>0.04629716096745735</v>
       </c>
       <c r="N125" t="n">
-        <v>0.07331292947097934</v>
+        <v>0.0320604090442141</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04280272591136571</v>
+        <v>0.04718469053051102</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01904113503332808</v>
+        <v>0.03166821757174451</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04467262899293876</v>
+        <v>0.04797110203935286</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02713576455718594</v>
+        <v>0.0642387141152948</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04529759371122201</v>
+        <v>0.04729435497297465</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05320624212639041</v>
+        <v>0.09622442322144159</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04672902511545135</v>
+        <v>0.04706878031691497</v>
       </c>
       <c r="N126" t="n">
-        <v>0.07347179329134046</v>
+        <v>0.03166821757174451</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04351610467655515</v>
+        <v>0.04797110203935286</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01818023385644596</v>
+        <v>0.03176170490252475</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04540496717315087</v>
+        <v>0.04875751354819471</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02734194521983704</v>
+        <v>0.06358453776479711</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04604017721468466</v>
+        <v>0.04806967226761358</v>
       </c>
       <c r="L127" t="n">
-        <v>0.0538458934746737</v>
+        <v>0.0963259115663222</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04749507470750793</v>
+        <v>0.04784039966637259</v>
       </c>
       <c r="N127" t="n">
-        <v>0.07411806774343621</v>
+        <v>0.03176170490252475</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04422948344174458</v>
+        <v>0.04875751354819471</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01933314080903661</v>
+        <v>0.03154185499862029</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04613730535336297</v>
+        <v>0.04954392505703657</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0275655935714845</v>
+        <v>0.06380657135856571</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04678276071814732</v>
+        <v>0.0488449895622525</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05470651973142587</v>
+        <v>0.09561032543429238</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04826112429956451</v>
+        <v>0.04861201901583021</v>
       </c>
       <c r="N128" t="n">
-        <v>0.07504417642338757</v>
+        <v>0.03154185499862029</v>
       </c>
       <c r="O128" t="n">
-        <v>0.044942862206934</v>
+        <v>0.04954392505703657</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01849846550322985</v>
+        <v>0.03140965182209658</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04686964353357509</v>
+        <v>0.05033033656587842</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02780443774832464</v>
+        <v>0.06350611395115971</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04752534422160998</v>
+        <v>0.04962030685689143</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05558311319694861</v>
+        <v>0.09607822317694598</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04902717389162109</v>
+        <v>0.04938363836528784</v>
       </c>
       <c r="N129" t="n">
-        <v>0.07584254292731513</v>
+        <v>0.03140965182209658</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04565624097212343</v>
+        <v>0.05033033656587842</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01867481755115551</v>
+        <v>0.03146607933501909</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0476019817137872</v>
+        <v>0.05111674807472027</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02805620588655372</v>
+        <v>0.06338446459713837</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04826792772507263</v>
+        <v>0.05039562415153036</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05597066617154348</v>
+        <v>0.09543016314587716</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04979322348367767</v>
+        <v>0.05015525771474546</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07720559085133971</v>
+        <v>0.03146607933501909</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04636961973731286</v>
+        <v>0.05111674807472027</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01986080656494341</v>
+        <v>0.03131212149945323</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04833431989399931</v>
+        <v>0.05190315958356212</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02841862612236803</v>
+        <v>0.06304292235106082</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04901051122853529</v>
+        <v>0.05117094144616929</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05646417095551232</v>
+        <v>0.09546670369267979</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05055927307573425</v>
+        <v>0.05092687706420308</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07802574379158217</v>
+        <v>0.03131212149945323</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04708299850250228</v>
+        <v>0.05190315958356212</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0200550421567234</v>
+        <v>0.03094876227746446</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04906665807421142</v>
+        <v>0.05268957109240397</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02868942659196387</v>
+        <v>0.06268278626748636</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04975309473199794</v>
+        <v>0.05194625874080822</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0572586198491567</v>
+        <v>0.09508840316894779</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05132532266779083</v>
+        <v>0.0516984964136607</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07859542534416336</v>
+        <v>0.03094876227746446</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04779637726769172</v>
+        <v>0.05268957109240397</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01925613393862528</v>
+        <v>0.03097698563111827</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04979899625442353</v>
+        <v>0.05347598260124582</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02886633543153749</v>
+        <v>0.06220535540097405</v>
       </c>
       <c r="K133" t="n">
-        <v>0.0504956782354606</v>
+        <v>0.05272157603544715</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05794900515277829</v>
+        <v>0.09489581992627527</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0520913722598474</v>
+        <v>0.05247011576311832</v>
       </c>
       <c r="N133" t="n">
-        <v>0.0794070591052039</v>
+        <v>0.03097698563111827</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04850975603288115</v>
+        <v>0.05347598260124582</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01846269152277889</v>
+        <v>0.03049777552248006</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05053133443463564</v>
+        <v>0.05426239411008766</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0290470807772852</v>
+        <v>0.06201192880608317</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05123826173892326</v>
+        <v>0.05349689333008608</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05863031916667882</v>
+        <v>0.09458951231625617</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05285742185190399</v>
+        <v>0.05324173511257595</v>
       </c>
       <c r="N134" t="n">
-        <v>0.08055306867082479</v>
+        <v>0.03049777552248006</v>
       </c>
       <c r="O134" t="n">
-        <v>0.04922313479807058</v>
+        <v>0.05426239411008766</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01867332452131405</v>
+        <v>0.0306121159136153</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05126367261484775</v>
+        <v>0.05504880561892952</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02942939076540327</v>
+        <v>0.0617038055373729</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05198084524238591</v>
+        <v>0.054272210624725</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05929755419115992</v>
+        <v>0.09437003869048455</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05362347144396056</v>
+        <v>0.05401335446203357</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0818258776371466</v>
+        <v>0.0306121159136153</v>
       </c>
       <c r="O135" t="n">
-        <v>0.04993651356326</v>
+        <v>0.05504880561892952</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01988664254636056</v>
+        <v>0.03042099076658945</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05199601079505986</v>
+        <v>0.05583521712777138</v>
       </c>
       <c r="J136" t="n">
-        <v>0.029610993532088</v>
+        <v>0.06148228464940242</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05272342874584856</v>
+        <v>0.05504752791936393</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06004570252652328</v>
+        <v>0.09463795740055431</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05438952103601715</v>
+        <v>0.05478497381149119</v>
       </c>
       <c r="N136" t="n">
-        <v>0.08271790960029035</v>
+        <v>0.03042099076658945</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05064989232844943</v>
+        <v>0.05583521712777138</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02010125521004829</v>
+        <v>0.03022538404346795</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05272834897527197</v>
+        <v>0.05662162863661322</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02978961721353565</v>
+        <v>0.06114866519673093</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05346601224931122</v>
+        <v>0.05582284521400286</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06086975647307061</v>
+        <v>0.0939938267980594</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05515557062807373</v>
+        <v>0.05555659316094881</v>
       </c>
       <c r="N137" t="n">
-        <v>0.08372158815637665</v>
+        <v>0.03022538404346795</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05136327109363886</v>
+        <v>0.05662162863661322</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02131577212450705</v>
+        <v>0.02992627970631626</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05346068715548408</v>
+        <v>0.05740804014545507</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03016298994594251</v>
+        <v>0.06100424623391765</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05420859575277387</v>
+        <v>0.05659816250864179</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06146470833110351</v>
+        <v>0.09363820523459399</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0559216202201303</v>
+        <v>0.05632821251040643</v>
       </c>
       <c r="N138" t="n">
-        <v>0.08492933690152638</v>
+        <v>0.02992627970631626</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05207664985882829</v>
+        <v>0.05740804014545507</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02152880290186664</v>
+        <v>0.02972466171719983</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05419302533569619</v>
+        <v>0.05819445165429692</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03062883986550487</v>
+        <v>0.06035032681552169</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05495117925623653</v>
+        <v>0.05737347980328072</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06162555040092374</v>
+        <v>0.093771651061752</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05668766981218689</v>
+        <v>0.05709983185986406</v>
       </c>
       <c r="N139" t="n">
-        <v>0.0860335794318603</v>
+        <v>0.02972466171719983</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05279002862401772</v>
+        <v>0.05819445165429692</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02073895715425694</v>
+        <v>0.02962151403818411</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05492536351590831</v>
+        <v>0.05898086316313877</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03088489510841902</v>
+        <v>0.06038820599610234</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05569376275969919</v>
+        <v>0.05814879709791965</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0621472749828329</v>
+        <v>0.09329472263112726</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05745371940424347</v>
+        <v>0.05787145120932169</v>
       </c>
       <c r="N140" t="n">
-        <v>0.08752673934349919</v>
+        <v>0.02962151403818411</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05350340738920715</v>
+        <v>0.05898086316313877</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.0219448444938077</v>
+        <v>0.02911782063133456</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05565770169612041</v>
+        <v>0.05976727467198062</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03112888381088122</v>
+        <v>0.05961918283021875</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05643634626316184</v>
+        <v>0.05892411439255857</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06312487437713271</v>
+        <v>0.09340797829431385</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05821976899630004</v>
+        <v>0.05864307055877931</v>
       </c>
       <c r="N141" t="n">
-        <v>0.08800124023256395</v>
+        <v>0.02911782063133456</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05421678615439657</v>
+        <v>0.05976727467198062</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02214507453264882</v>
+        <v>0.0289145654587166</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05639003987633253</v>
+        <v>0.06055368618082246</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03135853410908776</v>
+        <v>0.05944455637243012</v>
       </c>
       <c r="K142" t="n">
-        <v>0.0571789297666245</v>
+        <v>0.0596994316871975</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06355334088412484</v>
+        <v>0.09291197640290588</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05898581858835662</v>
+        <v>0.05941468990823693</v>
       </c>
       <c r="N142" t="n">
-        <v>0.08964950569517516</v>
+        <v>0.0289145654587166</v>
       </c>
       <c r="O142" t="n">
-        <v>0.054930164919586</v>
+        <v>0.06055368618082246</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.0223382568829101</v>
+        <v>0.02891273248239569</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05712237805654463</v>
+        <v>0.06134009768966432</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03147157413923493</v>
+        <v>0.05916562567729566</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05792151327008715</v>
+        <v>0.06047474898183643</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06342766680411097</v>
+        <v>0.09270727530849726</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0597518681804132</v>
+        <v>0.06018630925769455</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0907639593274539</v>
+        <v>0.02891273248239569</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05564354368477543</v>
+        <v>0.06134009768966432</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02252300115672135</v>
+        <v>0.02871330566443731</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05785471623675675</v>
+        <v>0.06212650919850617</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03166573203751903</v>
+        <v>0.05828368979937454</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05866409677354981</v>
+        <v>0.06125006627647536</v>
       </c>
       <c r="L144" t="n">
-        <v>0.0639428444373927</v>
+        <v>0.09189443336268188</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06051791777246978</v>
+        <v>0.06095792860715218</v>
       </c>
       <c r="N144" t="n">
-        <v>0.09143702472552068</v>
+        <v>0.02871330566443731</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05635692244996486</v>
+        <v>0.06212650919850617</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02069791696621241</v>
+        <v>0.02861726896690689</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05858705441696885</v>
+        <v>0.06291292070734802</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03163873594013632</v>
+        <v>0.0580000477932259</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05940668027701246</v>
+        <v>0.06202538357111429</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06460727855092452</v>
+        <v>0.09197400891705387</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06128396736452636</v>
+        <v>0.0617295479566098</v>
       </c>
       <c r="N145" t="n">
-        <v>0.09226112548549642</v>
+        <v>0.02861726896690689</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05707030121515429</v>
+        <v>0.06291292070734802</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0228616139235131</v>
+        <v>0.02822560635186988</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05931939259718097</v>
+        <v>0.06369933221618987</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03178831398328309</v>
+        <v>0.05751599871340907</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06014926378047512</v>
+        <v>0.06280070086575322</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06430624599299314</v>
+        <v>0.09164656032320717</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06205001695658294</v>
+        <v>0.06250116730606742</v>
       </c>
       <c r="N146" t="n">
-        <v>0.09362868520350193</v>
+        <v>0.02822560635186988</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05778367998034371</v>
+        <v>0.06369933221618987</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02301270164075325</v>
+        <v>0.02803930178139173</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06005173077739309</v>
+        <v>0.06448574372503173</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03211219430315561</v>
+        <v>0.05773284161448314</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06089184728393778</v>
+        <v>0.06357601816039214</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06481674031110787</v>
+        <v>0.09111264593273571</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06281606654863951</v>
+        <v>0.06327278665552505</v>
       </c>
       <c r="N147" t="n">
-        <v>0.09413212747565802</v>
+        <v>0.02803930178139173</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05849705874553315</v>
+        <v>0.06448574372503173</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02214978973006267</v>
+        <v>0.02795933921753792</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06078406895760519</v>
+        <v>0.06527215523387357</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03227253131770426</v>
+        <v>0.05735187555100732</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06163443078740043</v>
+        <v>0.06435133545503108</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06502524917923155</v>
+        <v>0.09137282409723357</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06358211614069609</v>
+        <v>0.06404440600498267</v>
       </c>
       <c r="N148" t="n">
-        <v>0.0950638758980854</v>
+        <v>0.02795933921753792</v>
       </c>
       <c r="O148" t="n">
-        <v>0.05921043751072257</v>
+        <v>0.06527215523387357</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02324232627407822</v>
+        <v>0.02778670262237386</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06151640713781731</v>
+        <v>0.06605856674271542</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03240329204115193</v>
+        <v>0.0569743995775408</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06237701429086309</v>
+        <v>0.06512665274967</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06543154087188577</v>
+        <v>0.09042765316829471</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06434816573275268</v>
+        <v>0.06481602535444028</v>
       </c>
       <c r="N149" t="n">
-        <v>0.09591635406690485</v>
+        <v>0.02778670262237386</v>
       </c>
       <c r="O149" t="n">
-        <v>0.05992381627591201</v>
+        <v>0.06605856674271542</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.0213918058688188</v>
+        <v>0.02752237595796503</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06224874531802941</v>
+        <v>0.06684497825155726</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03229537004858549</v>
+        <v>0.05650171274864282</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06311959779432574</v>
+        <v>0.06590197004430894</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06563538366359206</v>
+        <v>0.09017769149751309</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06511421532480925</v>
+        <v>0.06558764470389791</v>
       </c>
       <c r="N150" t="n">
-        <v>0.09608198557823727</v>
+        <v>0.02752237595796503</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06063719504110143</v>
+        <v>0.06684497825155726</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02351379106544612</v>
+        <v>0.02746734318637685</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06298108349824152</v>
+        <v>0.06763138976039912</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03248664117151208</v>
+        <v>0.05593511411887256</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0638621812977884</v>
+        <v>0.06667728733894787</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06563654582887207</v>
+        <v>0.09032349743648266</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06588026491686583</v>
+        <v>0.06635926405335553</v>
       </c>
       <c r="N151" t="n">
-        <v>0.09694202578414479</v>
+        <v>0.02746734318637685</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06135057380629086</v>
+        <v>0.06763138976039912</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02163763542586043</v>
+        <v>0.02722075610566008</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06371342167845363</v>
+        <v>0.06841780126924098</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03247699192990847</v>
+        <v>0.05537590274278914</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06460476480125106</v>
+        <v>0.06745260463358678</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06543479564224744</v>
+        <v>0.08956562933679746</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06664631450892242</v>
+        <v>0.06713088340281315</v>
       </c>
       <c r="N152" t="n">
-        <v>0.09707739528731535</v>
+        <v>0.02722075610566008</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06206395257148029</v>
+        <v>0.06841780126924098</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02376291664238121</v>
+        <v>0.02727577380357205</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06444575985866574</v>
+        <v>0.06920421277808282</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03256630884375139</v>
+        <v>0.05552537767495183</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06534734830471371</v>
+        <v>0.06822792192822572</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06602990137823966</v>
+        <v>0.08920464555005159</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06741236410097899</v>
+        <v>0.06790250275227078</v>
       </c>
       <c r="N153" t="n">
-        <v>0.09780108351437045</v>
+        <v>0.02727577380357205</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06277733133666971</v>
+        <v>0.06920421277808282</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02288921240732791</v>
+        <v>0.02683160576853798</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06517809803887785</v>
+        <v>0.06999062428692467</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03255447843301762</v>
+        <v>0.05498483796991982</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06608993180817636</v>
+        <v>0.06900323922286465</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06602163131137045</v>
+        <v>0.08874110442783889</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06817841369303557</v>
+        <v>0.06867412210172839</v>
       </c>
       <c r="N154" t="n">
-        <v>0.09732358910254618</v>
+        <v>0.02683160576853798</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06349071010185915</v>
+        <v>0.06999062428692467</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02401610041301997</v>
+        <v>0.02678821283391755</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06591043621908997</v>
+        <v>0.07077703579576652</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03274138721768387</v>
+        <v>0.05455558268225227</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06683251531163903</v>
+        <v>0.06977855651750357</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06660975371616135</v>
+        <v>0.08867556432175333</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06894446328509214</v>
+        <v>0.06944574145118602</v>
       </c>
       <c r="N155" t="n">
-        <v>0.09804420682566894</v>
+        <v>0.02678821283391755</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06420408886704858</v>
+        <v>0.07077703579576652</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02214315835177687</v>
+        <v>0.02664555583307036</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06664277439930207</v>
+        <v>0.07156344730460838</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03302692171772695</v>
+        <v>0.05423891086650839</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06757509881510168</v>
+        <v>0.07055387381214251</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06679403686713392</v>
+        <v>0.08770858358338901</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06971051287714873</v>
+        <v>0.07021736080064364</v>
       </c>
       <c r="N156" t="n">
-        <v>0.09856223145756499</v>
+        <v>0.02664555583307036</v>
       </c>
       <c r="O156" t="n">
-        <v>0.064917467632238</v>
+        <v>0.07156344730460838</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02326996391591805</v>
+        <v>0.02660359559935607</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06737511257951419</v>
+        <v>0.07234985881345023</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03301096845312357</v>
+        <v>0.05393612157724739</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06831768231856433</v>
+        <v>0.07132919110678143</v>
       </c>
       <c r="L157" t="n">
-        <v>0.0668742490388099</v>
+        <v>0.08804072056433987</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07047656246920531</v>
+        <v>0.07098898015010126</v>
       </c>
       <c r="N157" t="n">
-        <v>0.0992769577720608</v>
+        <v>0.02660359559935607</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06563084639742743</v>
+        <v>0.07234985881345023</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02239609479776297</v>
+        <v>0.02636229296613424</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0681074507597263</v>
+        <v>0.07313627032229207</v>
       </c>
       <c r="J158" t="n">
-        <v>0.0331934139438505</v>
+        <v>0.05394238250944711</v>
       </c>
       <c r="K158" t="n">
-        <v>0.069060265822027</v>
+        <v>0.07210450840142035</v>
       </c>
       <c r="L158" t="n">
-        <v>0.06655015850571069</v>
+        <v>0.08697253361619983</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07124261206126188</v>
+        <v>0.07176059949955889</v>
       </c>
       <c r="N158" t="n">
-        <v>0.09988768054298269</v>
+        <v>0.02636229296613424</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06634422516261686</v>
+        <v>0.07313627032229207</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02352112868963108</v>
+        <v>0.02642160876676454</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0688397889399384</v>
+        <v>0.07392268183113393</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03307414470988448</v>
+        <v>0.05355050410529361</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06980284932548965</v>
+        <v>0.07287982569605929</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06732153354235806</v>
+        <v>0.08660458109056307</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07200866165331847</v>
+        <v>0.07253221884901651</v>
       </c>
       <c r="N159" t="n">
-        <v>0.09979369454415687</v>
+        <v>0.02642160876676454</v>
       </c>
       <c r="O159" t="n">
-        <v>0.0670576039278063</v>
+        <v>0.07392268183113393</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02364464328384182</v>
+        <v>0.02628150383460653</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06957212712015051</v>
+        <v>0.07470909333997577</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03305304727120231</v>
+        <v>0.05286026745865735</v>
       </c>
       <c r="K160" t="n">
-        <v>0.0705454328289523</v>
+        <v>0.07365514299069822</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06688814242327354</v>
+        <v>0.08633742133902339</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07277471124537505</v>
+        <v>0.07330383819847412</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1002942945494099</v>
+        <v>0.02628150383460653</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06777098269299571</v>
+        <v>0.07470909333997577</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.0227662162727147</v>
+        <v>0.02614193900301992</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07030446530036263</v>
+        <v>0.07549550484881762</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03333000814778066</v>
+        <v>0.05287147267087036</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07128801633241495</v>
+        <v>0.07443046028533715</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06764975342297871</v>
+        <v>0.08647161271317483</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07354076083743162</v>
+        <v>0.07407545754793175</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1003887753325681</v>
+        <v>0.02614193900301992</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06848436145818515</v>
+        <v>0.07549550484881762</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02288542534856911</v>
+        <v>0.02590287510536424</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07103680348057474</v>
+        <v>0.07628191635765946</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03350491385959636</v>
+        <v>0.05278391984326467</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07203059983587762</v>
+        <v>0.07520577757997608</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06740613481599522</v>
+        <v>0.08640771356461135</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07430681042948821</v>
+        <v>0.07484707689738938</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1010764316674577</v>
+        <v>0.02590287510536424</v>
       </c>
       <c r="O162" t="n">
-        <v>0.06919774022337458</v>
+        <v>0.07628191635765946</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02500184820372454</v>
+        <v>0.02566427297499918</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07176914166078685</v>
+        <v>0.07706832786650132</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03347765092662612</v>
+        <v>0.05189740907717216</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07277318333934027</v>
+        <v>0.075981094874615</v>
       </c>
       <c r="L163" t="n">
-        <v>0.0679570548768447</v>
+        <v>0.08544628224492712</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07507286002154478</v>
+        <v>0.075618696246847</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1018565583279051</v>
+        <v>0.02566427297499918</v>
       </c>
       <c r="O163" t="n">
-        <v>0.069911118988564</v>
+        <v>0.07706832786650132</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02511506253050044</v>
+        <v>0.02562609344528433</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07250147984099897</v>
+        <v>0.07785473937534318</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03364810586884671</v>
+        <v>0.05191174047392483</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07351576684280292</v>
+        <v>0.07675641216925393</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06780228188004861</v>
+        <v>0.08558787710571586</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07583890961360136</v>
+        <v>0.07639031559630463</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1015284500877368</v>
+        <v>0.02562609344528433</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07062449775375343</v>
+        <v>0.07785473937534318</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02322464602121626</v>
+        <v>0.02558829734957932</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07323381802121107</v>
+        <v>0.07864115088418502</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03371616520623488</v>
+        <v>0.05152671413485455</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07425835034626559</v>
+        <v>0.07753172946389286</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06784158410012869</v>
+        <v>0.08453305649857173</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07660495920565795</v>
+        <v>0.07716193494576225</v>
       </c>
       <c r="N165" t="n">
-        <v>0.102591401720779</v>
+        <v>0.02558829734957932</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07133787651894286</v>
+        <v>0.07864115088418502</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02433017636819145</v>
+        <v>0.02525084552124376</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07396615620142319</v>
+        <v>0.07942756239302687</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03368171545876737</v>
+        <v>0.0514421301612934</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07500093384972824</v>
+        <v>0.0783070467585318</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06837472981160647</v>
+        <v>0.0848823787750887</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07737100879771452</v>
+        <v>0.07793355429521986</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1029447080008579</v>
+        <v>0.02525084552124376</v>
       </c>
       <c r="O166" t="n">
-        <v>0.0720512552841323</v>
+        <v>0.07942756239302687</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02443123126374547</v>
+        <v>0.02521369879363726</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0746984943816353</v>
+        <v>0.08021397390186873</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03354464314642097</v>
+        <v>0.05125778865457337</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07574351735319089</v>
+        <v>0.07908236405317072</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06850148728900357</v>
+        <v>0.08393542327968739</v>
       </c>
       <c r="M167" t="n">
-        <v>0.0781370583897711</v>
+        <v>0.0787051736446775</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1024876637018002</v>
+        <v>0.02521369879363726</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07276463404932172</v>
+        <v>0.08021397390186873</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02552738840019778</v>
+        <v>0.02497681800011947</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07543083256184741</v>
+        <v>0.08100038541071058</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03390483478917238</v>
+        <v>0.05067348971602625</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07648610085665355</v>
+        <v>0.07985768134780964</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0685216248068416</v>
+        <v>0.08358983665686903</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07890310798182769</v>
+        <v>0.07947679299413511</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1031195635974321</v>
+        <v>0.02497681800011947</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07347801281451115</v>
+        <v>0.08100038541071058</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02561822546986781</v>
+        <v>0.02474016397405002</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07616317074205951</v>
+        <v>0.08178679691955243</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0336621769069984</v>
+        <v>0.05068903344698422</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07722868436011621</v>
+        <v>0.08063299864244858</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06863491063964217</v>
+        <v>0.08384478078782703</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07966915757388426</v>
+        <v>0.08024841234359274</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1034397024615799</v>
+        <v>0.02474016397405002</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07419139157970057</v>
+        <v>0.08178679691955243</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02370332016507506</v>
+        <v>0.02490369754878849</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07689550892227164</v>
+        <v>0.08257320842839427</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03391655601987574</v>
+        <v>0.05040421994877906</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07797126786357886</v>
+        <v>0.0814083159370875</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06824111306192682</v>
+        <v>0.08269949129823512</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08043520716594084</v>
+        <v>0.08102003169305036</v>
       </c>
       <c r="N170" t="n">
-        <v>0.10354737506807</v>
+        <v>0.02490369754878849</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07490477034489</v>
+        <v>0.08257320842839427</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02478225017813896</v>
+        <v>0.02456737955769452</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07762784710248373</v>
+        <v>0.08335961993723613</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03406785864778121</v>
+        <v>0.04971884932274279</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07871385136704152</v>
+        <v>0.08218363323172644</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06874000034821717</v>
+        <v>0.08285320381376732</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08120125675799743</v>
+        <v>0.08179165104250798</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1045418761907288</v>
+        <v>0.02456737955769452</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07561814911007943</v>
+        <v>0.08335961993723613</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02485459320137894</v>
+        <v>0.02433117083412774</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07836018528269585</v>
+        <v>0.08414603144607798</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03401597131069149</v>
+        <v>0.04973272167020745</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07945643487050418</v>
+        <v>0.08295895052636537</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06843134077303492</v>
+        <v>0.08210515396009715</v>
       </c>
       <c r="M172" t="n">
-        <v>0.081967306350054</v>
+        <v>0.08256327039196561</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1044225006033825</v>
+        <v>0.02433117083412774</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07633152787526887</v>
+        <v>0.08414603144607798</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0239199269271145</v>
+        <v>0.02429503221144774</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07909252346290796</v>
+        <v>0.08493244295491982</v>
       </c>
       <c r="J173" t="n">
-        <v>0.0341607805285834</v>
+        <v>0.04944563709250491</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08019901837396683</v>
+        <v>0.08373426782100429</v>
       </c>
       <c r="L173" t="n">
-        <v>0.0686149026109015</v>
+        <v>0.0822545773628986</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08273335594211058</v>
+        <v>0.08333488974142322</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1046885430798576</v>
+        <v>0.02429503221144774</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07704490664045829</v>
+        <v>0.08493244295491982</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02497782904766507</v>
+        <v>0.02415892452301419</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07982486164312007</v>
+        <v>0.08571885446376167</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03420217282143367</v>
+        <v>0.04915739569096716</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08094160187742949</v>
+        <v>0.08450958511564322</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06889045413633868</v>
+        <v>0.08160070964784544</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08349940553416717</v>
+        <v>0.08410650909088084</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1049392983939804</v>
+        <v>0.02415892452301419</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07775828540564772</v>
+        <v>0.08571885446376167</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0260278772553501</v>
+        <v>0.02422280860218666</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08055719982333218</v>
+        <v>0.08650526597260352</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03394003470921902</v>
+        <v>0.04856779756692622</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08168418538089214</v>
+        <v>0.08528490241028215</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06895776362386796</v>
+        <v>0.0810427864406113</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08426545512622374</v>
+        <v>0.08487812844033847</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1048740613195773</v>
+        <v>0.02422280860218666</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07847166417083715</v>
+        <v>0.08650526597260352</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02606964924248906</v>
+        <v>0.02408664528232483</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08128953800354428</v>
+        <v>0.08729167748144538</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03417425271191625</v>
+        <v>0.04827664282171398</v>
       </c>
       <c r="K176" t="n">
-        <v>0.0824267688843548</v>
+        <v>0.08606021970492107</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0688165993480109</v>
+        <v>0.08058004336687014</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08503150471828032</v>
+        <v>0.08564974778979609</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1054921266304745</v>
+        <v>0.02408664528232483</v>
       </c>
       <c r="O176" t="n">
-        <v>0.07918504293602657</v>
+        <v>0.08729167748144538</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02610272270140138</v>
+        <v>0.02375039539678825</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08202187618375641</v>
+        <v>0.08807808899028723</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03420471334950208</v>
+        <v>0.04848373155666241</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08316935238781746</v>
+        <v>0.08683553699956001</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06896672958328923</v>
+        <v>0.08021171605229577</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08579755431033691</v>
+        <v>0.0864213671392537</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1055927891004986</v>
+        <v>0.02375039539678825</v>
       </c>
       <c r="O177" t="n">
-        <v>0.07989842170121601</v>
+        <v>0.08807808899028723</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02512667532440654</v>
+        <v>0.02371401977893661</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08275421436396851</v>
+        <v>0.08886450049912907</v>
       </c>
       <c r="J178" t="n">
-        <v>0.0343313031419533</v>
+        <v>0.0476888638731035</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08391193589128011</v>
+        <v>0.08761085429419894</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06880792260422444</v>
+        <v>0.08063704012256184</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08656360390239348</v>
+        <v>0.08719298648871134</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1058753435034758</v>
+        <v>0.02371401977893661</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08061180046640543</v>
+        <v>0.08886450049912907</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02414108480382399</v>
+        <v>0.02337747926212948</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08348655254418062</v>
+        <v>0.08965091200797093</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03425390860924662</v>
+        <v>0.04789183987236922</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08465451939474276</v>
+        <v>0.08838617158883787</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06933994668533822</v>
+        <v>0.07945525120334224</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08732965349445006</v>
+        <v>0.08796460583816895</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1056390846132325</v>
+        <v>0.02337747926212948</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08132517923159487</v>
+        <v>0.08965091200797093</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02414550681606214</v>
+        <v>0.0235407346797265</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08421889072439273</v>
+        <v>0.09043732351681279</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03417241627135882</v>
+        <v>0.04739245965579153</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08539710289820542</v>
+        <v>0.08916148888347679</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06916257010115207</v>
+        <v>0.07956558492031063</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08809570308650665</v>
+        <v>0.08873622518762658</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1060833072035949</v>
+        <v>0.0235407346797265</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08203855799678429</v>
+        <v>0.09043732351681279</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02413402103714509</v>
+        <v>0.0231037468650873</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08495122890460485</v>
+        <v>0.09122373502565463</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03428671264826665</v>
+        <v>0.04729052332470238</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08613968640166808</v>
+        <v>0.08993680617811572</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06937556112618767</v>
+        <v>0.07956727689914106</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08886175267856322</v>
+        <v>0.0895078445370842</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1062073060483896</v>
+        <v>0.0231037468650873</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08275193676197372</v>
+        <v>0.09122373502565463</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02510290754205797</v>
+        <v>0.0231664766515715</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08568356708481695</v>
+        <v>0.09201014653449648</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03419668425994685</v>
+        <v>0.04698583098043371</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08688226990513073</v>
+        <v>0.09071212347275465</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06947734550073148</v>
+        <v>0.07885956276550704</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0896278022706198</v>
+        <v>0.09027946388654182</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1064103759214427</v>
+        <v>0.0231664766515715</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08346531552716314</v>
+        <v>0.09201014653449648</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02405312986498912</v>
+        <v>0.02282888487253869</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08641590526502907</v>
+        <v>0.09279655804333833</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03420221762637618</v>
+        <v>0.04657818272431755</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08762485340859338</v>
+        <v>0.09148744076739358</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06931886489260652</v>
+        <v>0.07784167814508258</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09039385186267639</v>
+        <v>0.09105108323599946</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1060918115965808</v>
+        <v>0.02282888487253869</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08417869429235257</v>
+        <v>0.09279655804333833</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02398565154012686</v>
+        <v>0.02299093236134853</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08714824344524118</v>
+        <v>0.09358296955218019</v>
       </c>
       <c r="J184" t="n">
-        <v>0.0343025531335711</v>
+        <v>0.04636737865768578</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08836743691205605</v>
+        <v>0.0922627580620325</v>
       </c>
       <c r="L184" t="n">
-        <v>0.068779430893606</v>
+        <v>0.07771285866354138</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09115990145473296</v>
+        <v>0.09182270258545708</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1059509078476301</v>
+        <v>0.02299093236134853</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08489207305754201</v>
+        <v>0.09358296955218019</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02490143610165955</v>
+        <v>0.02285257995136061</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08788058162545329</v>
+        <v>0.09436938106102204</v>
       </c>
       <c r="J185" t="n">
-        <v>0.0341867511264668</v>
+        <v>0.04565321888187043</v>
       </c>
       <c r="K185" t="n">
-        <v>0.0891100204155187</v>
+        <v>0.09303807535667143</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06896439564887544</v>
+        <v>0.07737233994655718</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09192595104678954</v>
+        <v>0.09259432193491469</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1064869594484171</v>
+        <v>0.02285257995136061</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08560545182273142</v>
+        <v>0.09436938106102204</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02380144708377551</v>
+        <v>0.02261378847593458</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08861291980566539</v>
+        <v>0.09515579256986388</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03415156091504505</v>
+        <v>0.04523550349820346</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08985260391898135</v>
+        <v>0.09381339265131036</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06867911130356016</v>
+        <v>0.07731935761980385</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09269200063884613</v>
+        <v>0.09336594128437233</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1062992611727679</v>
+        <v>0.02261378847593458</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08631883058792086</v>
+        <v>0.09515579256986388</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02468664802066312</v>
+        <v>0.02247451876843003</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08934525798587752</v>
+        <v>0.09594220407870573</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03409781871839794</v>
+        <v>0.0454140326080168</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09059518742244402</v>
+        <v>0.0945887099459493</v>
       </c>
       <c r="L187" t="n">
-        <v>0.0684289300028057</v>
+        <v>0.07605314730895513</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0934580502309027</v>
+        <v>0.09413756063382994</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1064545220209894</v>
+        <v>0.02247451876843003</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08703220935311029</v>
+        <v>0.09594220407870573</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02455800244651071</v>
+        <v>0.02243473166220661</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09007759616608961</v>
+        <v>0.09672861558754758</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03422636075561758</v>
+        <v>0.04458860631264241</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09133777092590667</v>
+        <v>0.09536402724058822</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06761920389175743</v>
+        <v>0.07647294463968485</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09422409982295928</v>
+        <v>0.09490917998328756</v>
       </c>
       <c r="N188" t="n">
-        <v>0.106721577167934</v>
+        <v>0.02243473166220661</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08774558811829972</v>
+        <v>0.09672861558754758</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02341647389550659</v>
+        <v>0.02219438799062393</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09080993434630173</v>
+        <v>0.09751502709638943</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03413802324579608</v>
+        <v>0.04475902471341231</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09208035442936932</v>
+        <v>0.09613934453522716</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06725528511556089</v>
+        <v>0.07587798523766681</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09499014941501586</v>
+        <v>0.09568079933274519</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1061044935978213</v>
+        <v>0.02219438799062393</v>
       </c>
       <c r="O189" t="n">
-        <v>0.08845896688348916</v>
+        <v>0.09751502709638943</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02326302590183916</v>
+        <v>0.02185344858704162</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09154227252651384</v>
+        <v>0.09830143860523127</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03373364240802555</v>
+        <v>0.04392508791165842</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09282293793283199</v>
+        <v>0.09691466182986608</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06664252581936139</v>
+        <v>0.0746675047285747</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09575619900707244</v>
+        <v>0.09645241868220281</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1056073403776108</v>
+        <v>0.02185344858704162</v>
       </c>
       <c r="O190" t="n">
-        <v>0.08917234564867857</v>
+        <v>0.09830143860523127</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02409862199969671</v>
+        <v>0.02201187428481928</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09227461070672595</v>
+        <v>0.09908785011407313</v>
       </c>
       <c r="J191" t="n">
-        <v>0.0339140544613981</v>
+        <v>0.04388659600871267</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09356552143629464</v>
+        <v>0.097689979124505</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06648627814830446</v>
+        <v>0.07404073873808253</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09652224859912902</v>
+        <v>0.09722403803166042</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1057341865742615</v>
+        <v>0.02201187428481928</v>
       </c>
       <c r="O191" t="n">
-        <v>0.08988572441386801</v>
+        <v>0.09908785011407313</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0239242257232676</v>
+        <v>0.02186962591731652</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09300694888693806</v>
+        <v>0.09987426162291499</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0335800956250058</v>
+        <v>0.04374334910590708</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09430810493975729</v>
+        <v>0.09846529641914394</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06589189424753553</v>
+        <v>0.07359692289186381</v>
       </c>
       <c r="M192" t="n">
-        <v>0.0972882981911856</v>
+        <v>0.09799565738111805</v>
       </c>
       <c r="N192" t="n">
-        <v>0.104789101254733</v>
+        <v>0.02186962591731652</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09059910317905744</v>
+        <v>0.09987426162291499</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02474080060674019</v>
+        <v>0.02172666431789301</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09373928706715018</v>
+        <v>0.1006606731317568</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03363260211794081</v>
+        <v>0.04319514730457363</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09505068844321996</v>
+        <v>0.09924061371378286</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06526472626219998</v>
+        <v>0.07303529281559262</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09805434778324218</v>
+        <v>0.09876727673057567</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1046761534859843</v>
+        <v>0.02172666431789301</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09131248194424686</v>
+        <v>0.1006606731317568</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02254931018430281</v>
+        <v>0.02128283148979977</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09447162524736229</v>
+        <v>0.1014470846405987</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03337241015929521</v>
+        <v>0.04244118063342725</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09579327194668261</v>
+        <v>0.1000159310084218</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06461012633744329</v>
+        <v>0.07315508413494254</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09882039737529875</v>
+        <v>0.0995388960800333</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1042994123349748</v>
+        <v>0.02128283148979977</v>
       </c>
       <c r="O194" t="n">
-        <v>0.0920258607094363</v>
+        <v>0.1014470846405987</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0223507179901438</v>
+        <v>0.02143395645463661</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0952039634275744</v>
+        <v>0.1022334961494405</v>
       </c>
       <c r="J195" t="n">
-        <v>0.0333003559681611</v>
+        <v>0.0421801646344438</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09653585545014526</v>
+        <v>0.1007912483030607</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06333344661841087</v>
+        <v>0.07255553247558749</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09958644696735534</v>
+        <v>0.1003105154294909</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1034629468686639</v>
+        <v>0.02143395645463661</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09273923947462571</v>
+        <v>0.1022334961494405</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02214598755845151</v>
+        <v>0.02117877023688131</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0959363016077865</v>
+        <v>0.1030199076582824</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03301727576363059</v>
+        <v>0.04181233448075811</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09727843895360792</v>
+        <v>0.1015665655976997</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06274003925024821</v>
+        <v>0.07163587346320105</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1003524965594119</v>
+        <v>0.1010821347789485</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1029708261540105</v>
+        <v>0.02117877023688131</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09345261823981516</v>
+        <v>0.1030199076582824</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02393608242341427</v>
+        <v>0.02111834628005407</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09666863978799861</v>
+        <v>0.1038063191671242</v>
       </c>
       <c r="J197" t="n">
-        <v>0.0328240057647958</v>
+        <v>0.04173797716227332</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09802102245707058</v>
+        <v>0.1023418828923386</v>
       </c>
       <c r="L197" t="n">
-        <v>0.0620352563781007</v>
+        <v>0.07089534272345732</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1011185461514685</v>
+        <v>0.1018537541284062</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1015271192579743</v>
+        <v>0.02111834628005407</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09416599700500457</v>
+        <v>0.1038063191671242</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02272196611922043</v>
+        <v>0.02085375802767517</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09740097796821073</v>
+        <v>0.1045927306759661</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03252138219074882</v>
+        <v>0.04145737966889265</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09876360596053323</v>
+        <v>0.1031172001869775</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06132445014711382</v>
+        <v>0.07063317588202983</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1018845957435251</v>
+        <v>0.1026253734778638</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1009358952475143</v>
+        <v>0.02085375802767517</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09487937577019401</v>
+        <v>0.1045927306759661</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02150460218005835</v>
+        <v>0.02048607892326484</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09813331614842284</v>
+        <v>0.1053791421848079</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03251024126058177</v>
+        <v>0.04077082899051918</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09950618946399588</v>
+        <v>0.1038925174816164</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06111297270243299</v>
+        <v>0.06964860856459254</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1026506453355817</v>
+        <v>0.1033969928273214</v>
       </c>
       <c r="N199" t="n">
-        <v>0.10060122318959</v>
+        <v>0.02048607892326484</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09559275453538343</v>
+        <v>0.1053791421848079</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02228495414011635</v>
+        <v>0.02031638241034332</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09886565432863495</v>
+        <v>0.1061655536936498</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03229141919338675</v>
+        <v>0.04057861211705613</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1002487729674585</v>
+        <v>0.1046678347762554</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06020617618920363</v>
+        <v>0.06884087639681918</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1034166949276382</v>
+        <v>0.104168612176779</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09962717215116051</v>
+        <v>0.02031638241034332</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09630613330057286</v>
+        <v>0.1061655536936498</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02306398553358279</v>
+        <v>0.02044574193243084</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09959799250884706</v>
+        <v>0.1069519652024916</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03196575220825586</v>
+        <v>0.03988101603840663</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1009913564709212</v>
+        <v>0.1054431520708943</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05970941275257122</v>
+        <v>0.06800921500438356</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1041827445196948</v>
+        <v>0.1049402315262366</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09881781119918503</v>
+        <v>0.02044574193243084</v>
       </c>
       <c r="O201" t="n">
-        <v>0.0970195120657623</v>
+        <v>0.1069519652024916</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02184265989464599</v>
+        <v>0.02017523093304763</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1003303306890592</v>
+        <v>0.1077383767113335</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03153407652428121</v>
+        <v>0.03967832774447391</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1017339399743838</v>
+        <v>0.1062184693655332</v>
       </c>
       <c r="L202" t="n">
-        <v>0.0585280345376811</v>
+        <v>0.06695286001295936</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1049487941117514</v>
+        <v>0.1057118508756943</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09757720940062303</v>
+        <v>0.02017523093304763</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09773289083095171</v>
+        <v>0.1077383767113335</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.0206219407574943</v>
+        <v>0.01990592285571394</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1010626688692713</v>
+        <v>0.1085247882201753</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03139722836055492</v>
+        <v>0.03927083422516103</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1024765234778465</v>
+        <v>0.1069937866601722</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05836739368967886</v>
+        <v>0.0668268169710573</v>
       </c>
       <c r="M203" t="n">
-        <v>0.105714843703808</v>
+        <v>0.1064834702251519</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09670943582243369</v>
+        <v>0.01990592285571394</v>
       </c>
       <c r="O203" t="n">
-        <v>0.09844626959614115</v>
+        <v>0.1085247882201753</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02140279165631608</v>
+        <v>0.01973889114395</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1017950070494834</v>
+        <v>0.1093111997290172</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03115604393616907</v>
+        <v>0.03875882247037124</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1032191069813092</v>
+        <v>0.1077691039548111</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05743284235370982</v>
+        <v>0.06554122851171595</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1064808932958646</v>
+        <v>0.1072550895746095</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09531855953157625</v>
+        <v>0.01973889114395</v>
       </c>
       <c r="O204" t="n">
-        <v>0.09915964836133058</v>
+        <v>0.1093111997290172</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02118617612529967</v>
+        <v>0.01967520924127607</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1025273452296955</v>
+        <v>0.110097611237859</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03091135947021578</v>
+        <v>0.03854257947000769</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1039616904847718</v>
+        <v>0.10854442124945</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05692973267491946</v>
+        <v>0.06459960311317164</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1072469428879211</v>
+        <v>0.1080267089240671</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09490864959501011</v>
+        <v>0.01967520924127607</v>
       </c>
       <c r="O205" t="n">
-        <v>0.09987302712652001</v>
+        <v>0.110097611237859</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02097305769863338</v>
+        <v>0.0193159505912124</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1032596834099076</v>
+        <v>0.1108840227467009</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0305640111817872</v>
+        <v>0.03832239221397352</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1047042739882345</v>
+        <v>0.1093197385440889</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05636341679845322</v>
+        <v>0.0630311444184668</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1080129924799777</v>
+        <v>0.1087983282735248</v>
       </c>
       <c r="N206" t="n">
-        <v>0.0930837750796944</v>
+        <v>0.0193159505912124</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1005864058917094</v>
+        <v>0.1108840227467009</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.0207643999105056</v>
+        <v>0.01936218863727916</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1039920215901197</v>
+        <v>0.1116704342555428</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03041483528997535</v>
+        <v>0.0374985476921719</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1054468574916971</v>
+        <v>0.1100950558387279</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05563924686945654</v>
+        <v>0.06076505607064436</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1087790420720343</v>
+        <v>0.1095699476229824</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09264800505258858</v>
+        <v>0.01936218863727916</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1012997846568989</v>
+        <v>0.1116704342555428</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01956116629510463</v>
+        <v>0.01921499682299664</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1047243597703318</v>
+        <v>0.1124568457643846</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03006466801387242</v>
+        <v>0.03687133289450598</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1061894409951598</v>
+        <v>0.1108703731333668</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05516223234259107</v>
+        <v>0.05923054171274683</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1095450916640909</v>
+        <v>0.11034156697244</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09130540858065173</v>
+        <v>0.01921499682299664</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1020131634220883</v>
+        <v>0.1124568457643846</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02036432038661886</v>
+        <v>0.01887544859188509</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1054566979505439</v>
+        <v>0.1132432572732264</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02991434557257043</v>
+        <v>0.03694103481087893</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1069320244986224</v>
+        <v>0.1116456904280057</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05490590561745737</v>
+        <v>0.0567568049878171</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1103111412561475</v>
+        <v>0.1111131863218976</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09036005473084324</v>
+        <v>0.01887544859188509</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1027265421872777</v>
+        <v>0.1132432572732264</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01917482571923659</v>
+        <v>0.0187446173874647</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1061890361307561</v>
+        <v>0.1140296687820683</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02966470418516155</v>
+        <v>0.03620794043119388</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1076746080020851</v>
+        <v>0.1124210077226447</v>
       </c>
       <c r="L210" t="n">
-        <v>0.0544510864199606</v>
+        <v>0.05437304953889777</v>
       </c>
       <c r="M210" t="n">
-        <v>0.111077190848204</v>
+        <v>0.1118848056713553</v>
       </c>
       <c r="N210" t="n">
-        <v>0.08941601257012227</v>
+        <v>0.0187446173874647</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1034399209524672</v>
+        <v>0.1140296687820683</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02099364582714617</v>
+        <v>0.01892357665325575</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1069213743109682</v>
+        <v>0.1148160802909101</v>
       </c>
       <c r="J211" t="n">
-        <v>0.0293165800707379</v>
+        <v>0.03597233674535411</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1084171915055477</v>
+        <v>0.1131963250172836</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05369782974747597</v>
+        <v>0.05190847900903145</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1118432404402606</v>
+        <v>0.1126564250208129</v>
       </c>
       <c r="N211" t="n">
-        <v>0.08837735116544826</v>
+        <v>0.01892357665325575</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1041532997176566</v>
+        <v>0.1148160802909101</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01982174424453596</v>
+        <v>0.01871339983277846</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1076537124911803</v>
+        <v>0.115602491799752</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02917080944839151</v>
+        <v>0.03563451074326265</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1091597750090104</v>
+        <v>0.1139716423119225</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05364619059737852</v>
+        <v>0.04999229704126101</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1126092900323172</v>
+        <v>0.1134280443702705</v>
       </c>
       <c r="N212" t="n">
-        <v>0.0868481395837804</v>
+        <v>0.01871339983277846</v>
       </c>
       <c r="O212" t="n">
-        <v>0.104866678482846</v>
+        <v>0.115602491799752</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.0186600845055943</v>
+        <v>0.01851516036955307</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1083860506713924</v>
+        <v>0.1163889033085938</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02882822853721458</v>
+        <v>0.03519474941482276</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1099023585124731</v>
+        <v>0.1147469596065614</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05279622396704342</v>
+        <v>0.04775370727862899</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1133753396243738</v>
+        <v>0.1141996637197281</v>
       </c>
       <c r="N213" t="n">
-        <v>0.08633244689207797</v>
+        <v>0.01851516036955307</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1055800572480354</v>
+        <v>0.1163889033085938</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01950963014450952</v>
+        <v>0.01832982296413917</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1091183888516045</v>
+        <v>0.1171753148174357</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02858967355629914</v>
+        <v>0.03425333974993755</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1106449420159357</v>
+        <v>0.1155222769012004</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05224798485384577</v>
+        <v>0.04582191336417818</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1141413892164303</v>
+        <v>0.1149712830691857</v>
       </c>
       <c r="N214" t="n">
-        <v>0.08553434215730032</v>
+        <v>0.01832982296413917</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1062934360132249</v>
+        <v>0.1171753148174357</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01836848054661534</v>
+        <v>0.0184499699883513</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1098507270318166</v>
+        <v>0.1179617263262775</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02845318165020598</v>
+        <v>0.03421056873851017</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1113875255193984</v>
+        <v>0.1162975941958393</v>
       </c>
       <c r="L215" t="n">
-        <v>0.0524015282551607</v>
+        <v>0.04332611894095129</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1149074388084869</v>
+        <v>0.1157429024186434</v>
       </c>
       <c r="N215" t="n">
-        <v>0.08395789444640656</v>
+        <v>0.0184499699883513</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1070068147784143</v>
+        <v>0.1179617263262775</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01822848091286402</v>
+        <v>0.01817061143494185</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1105830652120287</v>
+        <v>0.1187481378351194</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02821178599805031</v>
+        <v>0.03346672337044385</v>
       </c>
       <c r="K216" t="n">
-        <v>0.112130109022861</v>
+        <v>0.1170729114904782</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05135690916836338</v>
+        <v>0.04109552765199104</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1156734884005435</v>
+        <v>0.116514521768101</v>
       </c>
       <c r="N216" t="n">
-        <v>0.08290717282635601</v>
+        <v>0.01817061143494185</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1077201935436037</v>
+        <v>0.1187481378351194</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.0180890692096548</v>
+        <v>0.01829179344031844</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1113154033922408</v>
+        <v>0.1195345493439612</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02806513248026336</v>
+        <v>0.03342209063564169</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1128726925263237</v>
+        <v>0.1178482287851171</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05151418259082891</v>
+        <v>0.03905934314033999</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1164395379926001</v>
+        <v>0.1172861411175586</v>
       </c>
       <c r="N217" t="n">
-        <v>0.08218624636410815</v>
+        <v>0.01829179344031844</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1084335723087931</v>
+        <v>0.1195345493439612</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01995026061936547</v>
+        <v>0.01811356214088886</v>
       </c>
       <c r="G218" t="n">
-        <v>0.112047741572453</v>
+        <v>0.1203209608528031</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02791325243889038</v>
+        <v>0.03267695752400687</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1136152760297863</v>
+        <v>0.1186235460797561</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05057340351993239</v>
+        <v>0.03644676904904098</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1172055875846567</v>
+        <v>0.1180577604670162</v>
       </c>
       <c r="N218" t="n">
-        <v>0.08149192989841664</v>
+        <v>0.01811356214088886</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1091469510739826</v>
+        <v>0.1203209608528031</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01981207032437376</v>
+        <v>0.0182359636730608</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1127800797526651</v>
+        <v>0.1211073723616449</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02755617721597656</v>
+        <v>0.0326316110254426</v>
       </c>
       <c r="K219" t="n">
-        <v>0.114357859533249</v>
+        <v>0.119398863374395</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05053462695304906</v>
+        <v>0.03518700902113664</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1179716371767132</v>
+        <v>0.1188293798164739</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0807939866178094</v>
+        <v>0.0182359636730608</v>
       </c>
       <c r="O219" t="n">
-        <v>0.109860329839172</v>
+        <v>0.1211073723616449</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01867451350705742</v>
+        <v>0.01815904417324198</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1135124179328772</v>
+        <v>0.1218937838704868</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02739393815356718</v>
+        <v>0.03198633812985194</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1151004430367116</v>
+        <v>0.1201741806690339</v>
       </c>
       <c r="L220" t="n">
-        <v>0.04959790788755389</v>
+        <v>0.03360926669966974</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1187376867687698</v>
+        <v>0.1196009991659315</v>
       </c>
       <c r="N220" t="n">
-        <v>0.07938859401617376</v>
+        <v>0.01815904417324198</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1105737086043614</v>
+        <v>0.1218937838704868</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0175376053497942</v>
+        <v>0.01788284977784008</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1142447561130893</v>
+        <v>0.1226801953793286</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02712656659370741</v>
+        <v>0.03164142582713816</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1158430265401743</v>
+        <v>0.1209494979636729</v>
       </c>
       <c r="L221" t="n">
-        <v>0.04936330132082209</v>
+        <v>0.03144274572768291</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1195037363608264</v>
+        <v>0.1203726185153891</v>
       </c>
       <c r="N221" t="n">
-        <v>0.07907576026997254</v>
+        <v>0.01788284977784008</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1112870873695509</v>
+        <v>0.1226801953793286</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01740136103496185</v>
+        <v>0.01780742662326286</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1149770942933014</v>
+        <v>0.1234666068881705</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02675409387844252</v>
+        <v>0.03089716110720434</v>
       </c>
       <c r="K222" t="n">
-        <v>0.116585610043637</v>
+        <v>0.1217248152583118</v>
       </c>
       <c r="L222" t="n">
-        <v>0.04883086225022884</v>
+        <v>0.03001664974821883</v>
       </c>
       <c r="M222" t="n">
-        <v>0.120269785952883</v>
+        <v>0.1211442378648467</v>
       </c>
       <c r="N222" t="n">
-        <v>0.07815549355566864</v>
+        <v>0.01780742662326286</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1120004661347403</v>
+        <v>0.1234666068881705</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01726579574493813</v>
+        <v>0.017732820845918</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1157094324735135</v>
+        <v>0.1242530183970123</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02647655134981775</v>
+        <v>0.03025383095995374</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1173281935470996</v>
+        <v>0.1225001325529507</v>
       </c>
       <c r="L223" t="n">
-        <v>0.04880064567314918</v>
+        <v>0.02946018240432025</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1210358355449396</v>
+        <v>0.1219158572143044</v>
       </c>
       <c r="N223" t="n">
-        <v>0.07692780204972488</v>
+        <v>0.017732820845918</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1127138448999297</v>
+        <v>0.1242530183970123</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01713092466210077</v>
+        <v>0.01765907858221322</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1164417706537256</v>
+        <v>0.1250394299058542</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02629397034987829</v>
+        <v>0.02991172237528938</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1180707770505623</v>
+        <v>0.1232754498475897</v>
       </c>
       <c r="L224" t="n">
-        <v>0.04847270658695826</v>
+        <v>0.02840254733902986</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1218018851369961</v>
+        <v>0.122687476563762</v>
       </c>
       <c r="N224" t="n">
-        <v>0.07639269392860415</v>
+        <v>0.01765907858221322</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1134272236651191</v>
+        <v>0.1250394299058542</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01899676296882753</v>
+        <v>0.01778624596855624</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1171741088339377</v>
+        <v>0.125825841414696</v>
       </c>
       <c r="J225" t="n">
-        <v>0.0257063822206694</v>
+        <v>0.0297711223431146</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1188133605540249</v>
+        <v>0.1240507671422286</v>
       </c>
       <c r="L225" t="n">
-        <v>0.04794709998903127</v>
+        <v>0.02877294819539039</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1225679347290527</v>
+        <v>0.1234590959132196</v>
       </c>
       <c r="N225" t="n">
-        <v>0.07465017736876928</v>
+        <v>0.01778624596855624</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1141406024303086</v>
+        <v>0.125825841414696</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01786332584749616</v>
+        <v>0.01771436914135477</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1179064470141498</v>
+        <v>0.1266122529235379</v>
       </c>
       <c r="J226" t="n">
-        <v>0.0255138183042363</v>
+        <v>0.0293323178533324</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1195559440574876</v>
+        <v>0.1248260844368675</v>
       </c>
       <c r="L226" t="n">
-        <v>0.04752388087674325</v>
+        <v>0.02861545882877503</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1233339843211093</v>
+        <v>0.1242307152626772</v>
       </c>
       <c r="N226" t="n">
-        <v>0.07360026054668306</v>
+        <v>0.01771436914135477</v>
       </c>
       <c r="O226" t="n">
-        <v>0.114853981195498</v>
+        <v>0.1266122529235379</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0187306284804844</v>
+        <v>0.01734349423701653</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1186387851943619</v>
+        <v>0.1273986644323797</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02541630994262421</v>
+        <v>0.0284955958958461</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1202985275609502</v>
+        <v>0.1256014017315064</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04660310424746941</v>
+        <v>0.0283781463875496</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1241000339131659</v>
+        <v>0.1250023346121348</v>
       </c>
       <c r="N227" t="n">
-        <v>0.07344295163880837</v>
+        <v>0.01734349423701653</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1155673599606874</v>
+        <v>0.1273986644323797</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01659868605017002</v>
+        <v>0.01727366739194919</v>
       </c>
       <c r="G228" t="n">
-        <v>0.119371123374574</v>
+        <v>0.1281850759412216</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02481388847787838</v>
+        <v>0.02846120716709208</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1210411110644129</v>
+        <v>0.1263767190261454</v>
       </c>
       <c r="L228" t="n">
-        <v>0.04618482509858479</v>
+        <v>0.02814203845627333</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1248660835052224</v>
+        <v>0.1257739539615924</v>
       </c>
       <c r="N228" t="n">
-        <v>0.07187825882160809</v>
+        <v>0.01727366739194919</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1162807387258769</v>
+        <v>0.1281850759412216</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01846751373893074</v>
+        <v>0.01740493474256051</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1201034615547862</v>
+        <v>0.1289714874500635</v>
       </c>
       <c r="J229" t="n">
-        <v>0.024606585252044</v>
+        <v>0.02762727564024833</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1217836945678756</v>
+        <v>0.1271520363207843</v>
       </c>
       <c r="L229" t="n">
-        <v>0.04616909842746458</v>
+        <v>0.02820712355416427</v>
       </c>
       <c r="M229" t="n">
-        <v>0.125632133097279</v>
+        <v>0.1265455733110501</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07140619027154504</v>
+        <v>0.01740493474256051</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1169941174910663</v>
+        <v>0.1289714874500635</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01733712672914434</v>
+        <v>0.0171373424252582</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1208357997349983</v>
+        <v>0.1297578989589053</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02429443160716634</v>
+        <v>0.0277926151609007</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1225262780713382</v>
+        <v>0.1279273536154232</v>
       </c>
       <c r="L230" t="n">
-        <v>0.04585597923148391</v>
+        <v>0.02827339020044028</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1263981826893356</v>
+        <v>0.1273171926605077</v>
       </c>
       <c r="N230" t="n">
-        <v>0.06972675416508201</v>
+        <v>0.0171373424252582</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1177074962562557</v>
+        <v>0.1297578989589053</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01820754020318855</v>
+        <v>0.01717093657644997</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1215681379152104</v>
+        <v>0.1305443104677471</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02417745888529063</v>
+        <v>0.02695722657528274</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1232688615748009</v>
+        <v>0.1287026709100622</v>
       </c>
       <c r="L231" t="n">
-        <v>0.0453455225080179</v>
+        <v>0.02834082691431927</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1271642322813922</v>
+        <v>0.1280888120099653</v>
       </c>
       <c r="N231" t="n">
-        <v>0.06903995867868201</v>
+        <v>0.01717093657644997</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1184208750214451</v>
+        <v>0.1305443104677471</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01807876934344112</v>
+        <v>0.01710576333254352</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1223004760954225</v>
+        <v>0.131330721976589</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02365569842846206</v>
+        <v>0.02672111072962782</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1240114450782635</v>
+        <v>0.1294779882047011</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04483778325444165</v>
+        <v>0.02820942221501915</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1279302818734488</v>
+        <v>0.1288604313594229</v>
       </c>
       <c r="N232" t="n">
-        <v>0.06784581198880774</v>
+        <v>0.01710576333254352</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1191342537866346</v>
+        <v>0.131330721976589</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01795082933227981</v>
+        <v>0.01724186882994656</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1230328142756346</v>
+        <v>0.1321171334854308</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02342918157872591</v>
+        <v>0.02638426847016948</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1247540285817262</v>
+        <v>0.13025330549934</v>
       </c>
       <c r="L233" t="n">
-        <v>0.0444328164681303</v>
+        <v>0.02837916462175788</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1286963314655054</v>
+        <v>0.1296320507088806</v>
       </c>
       <c r="N233" t="n">
-        <v>0.06734432227192211</v>
+        <v>0.01724186882994656</v>
       </c>
       <c r="O233" t="n">
-        <v>0.119847632551824</v>
+        <v>0.1321171334854308</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01782373535208234</v>
+        <v>0.01697929920506681</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1237651524558467</v>
+        <v>0.1329035449942727</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02299793967812735</v>
+        <v>0.0260467006431411</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1254966120851888</v>
+        <v>0.1310286227939789</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04403067714645903</v>
+        <v>0.02795004265375339</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1294623810575619</v>
+        <v>0.1304036700583382</v>
       </c>
       <c r="N234" t="n">
-        <v>0.06583549770448799</v>
+        <v>0.01697929920506681</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1205610113170134</v>
+        <v>0.1329035449942727</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01569750258522651</v>
+        <v>0.016818100594312</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1244974906360588</v>
+        <v>0.1336899565031145</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02286200406871168</v>
+        <v>0.02500840809477617</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1262391955886515</v>
+        <v>0.1318039400886179</v>
       </c>
       <c r="L235" t="n">
-        <v>0.0435314202868029</v>
+        <v>0.02822204483022361</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1302284306496185</v>
+        <v>0.1311752894077958</v>
       </c>
       <c r="N235" t="n">
-        <v>0.06501934646296825</v>
+        <v>0.016818100594312</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1212743900822029</v>
+        <v>0.1336899565031145</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01557214621409003</v>
+        <v>0.01685831913408982</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1252298288162709</v>
+        <v>0.1344763680119564</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02232140609252407</v>
+        <v>0.0249693916713081</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1269817790921141</v>
+        <v>0.1325792573832568</v>
       </c>
       <c r="L236" t="n">
-        <v>0.0434351008865371</v>
+        <v>0.02839515967038631</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1309944802416751</v>
+        <v>0.1319469087572535</v>
       </c>
       <c r="N236" t="n">
-        <v>0.06409587672382555</v>
+        <v>0.01685831913408982</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1219877688473923</v>
+        <v>0.1344763680119564</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01744768142105066</v>
+        <v>0.016700000960808</v>
       </c>
       <c r="G237" t="n">
-        <v>0.125962166996483</v>
+        <v>0.1352627795207982</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02187617709160979</v>
+        <v>0.02462965221897043</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1277243625955768</v>
+        <v>0.1333545746778957</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04314177394303667</v>
+        <v>0.02806937569345963</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1317605298337317</v>
+        <v>0.1327185281067111</v>
       </c>
       <c r="N237" t="n">
-        <v>0.06316509666352293</v>
+        <v>0.016700000960808</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1227011476125817</v>
+        <v>0.1352627795207982</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01532412338848615</v>
+        <v>0.01664319221087422</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1266945051766951</v>
+        <v>0.1360491910296401</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02162634840801403</v>
+        <v>0.02408919058399658</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1284669460990394</v>
+        <v>0.1341298919725346</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04225149445367685</v>
+        <v>0.02764468141866128</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1325265794257882</v>
+        <v>0.1334901474561687</v>
       </c>
       <c r="N238" t="n">
-        <v>0.06182701445852323</v>
+        <v>0.01664319221087422</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1234145263777712</v>
+        <v>0.1360491910296401</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01720148729877424</v>
+        <v>0.01668793902069624</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1274268433569073</v>
+        <v>0.136835602538482</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02117195138378206</v>
+        <v>0.02374800761262003</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1292095296025021</v>
+        <v>0.1349052092671736</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04186431741583269</v>
+        <v>0.02842106536520933</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1332926290178448</v>
+        <v>0.1342617668056263</v>
       </c>
       <c r="N239" t="n">
-        <v>0.06148163828528908</v>
+        <v>0.01668793902069624</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1241279051429606</v>
+        <v>0.136835602538482</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.0160797883342927</v>
+        <v>0.01653428752668175</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1281591815371194</v>
+        <v>0.1376220140473238</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02111301736095907</v>
+        <v>0.02330610415107415</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1299521131059648</v>
+        <v>0.1356805265618125</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04188029782687938</v>
+        <v>0.02839851605232163</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1340586786099014</v>
+        <v>0.135033386155084</v>
       </c>
       <c r="N240" t="n">
-        <v>0.06012897632028363</v>
+        <v>0.01653428752668175</v>
       </c>
       <c r="O240" t="n">
-        <v>0.12484128390815</v>
+        <v>0.1376220140473238</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01695904167741925</v>
+        <v>0.01678228386523843</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1288915197173315</v>
+        <v>0.1384084255561656</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02044957768159032</v>
+        <v>0.02276348104559248</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1306946966094274</v>
+        <v>0.1364558438564514</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04139949068419194</v>
+        <v>0.0278770219992161</v>
       </c>
       <c r="M241" t="n">
-        <v>0.134824728201958</v>
+        <v>0.1358050055045416</v>
       </c>
       <c r="N241" t="n">
-        <v>0.05846903673996962</v>
+        <v>0.01678228386523843</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1255546626733394</v>
+        <v>0.1384084255561656</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01483926251053168</v>
+        <v>0.01673197417277406</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1296238578975436</v>
+        <v>0.1391948370650075</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02008166368772103</v>
+        <v>0.02202013914240844</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1314372801128901</v>
+        <v>0.1372311611510904</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04072195098514561</v>
+        <v>0.02835657172511069</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1355907777940145</v>
+        <v>0.1365766248539992</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0576018277208098</v>
+        <v>0.01673197417277406</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1262680414385289</v>
+        <v>0.1391948370650075</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0167204660160077</v>
+        <v>0.0164834045856963</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1303561960777557</v>
+        <v>0.1399812485738493</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01990930672139642</v>
+        <v>0.02147607928775552</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1321798636163527</v>
+        <v>0.1380064784457293</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04034773372711545</v>
+        <v>0.0278371537492233</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1363568273860711</v>
+        <v>0.1373482442034568</v>
       </c>
       <c r="N243" t="n">
-        <v>0.05702735743926712</v>
+        <v>0.0164834045856963</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1269814202037183</v>
+        <v>0.1399812485738493</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01660266737622507</v>
+        <v>0.01643662124041288</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1310885342579678</v>
+        <v>0.1407676600826912</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01943253812466172</v>
+        <v>0.02163130232786717</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1329224471198154</v>
+        <v>0.1387817957403682</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04047689390747664</v>
+        <v>0.02801875659077185</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1371228769781277</v>
+        <v>0.1381198635529144</v>
       </c>
       <c r="N244" t="n">
-        <v>0.05614563407180434</v>
+        <v>0.01643662124041288</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1276947989689077</v>
+        <v>0.1407676600826912</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01448588177356157</v>
+        <v>0.01649167027333154</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1318208724381799</v>
+        <v>0.141554071591533</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01915138923956218</v>
+        <v>0.0206858091089768</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1336650306232781</v>
+        <v>0.1395571130350071</v>
       </c>
       <c r="L245" t="n">
-        <v>0.0398094865236043</v>
+        <v>0.02810136876897418</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1378889265701843</v>
+        <v>0.138891482902372</v>
       </c>
       <c r="N245" t="n">
-        <v>0.05415666579488443</v>
+        <v>0.01649167027333154</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1284081777340972</v>
+        <v>0.141554071591533</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0153701243903949</v>
+        <v>0.01624859782085994</v>
       </c>
       <c r="G246" t="n">
-        <v>0.132553210618392</v>
+        <v>0.1423404831003749</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01876589140814301</v>
+        <v>0.02043960047731794</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1344076141267407</v>
+        <v>0.1403324303296461</v>
       </c>
       <c r="L246" t="n">
-        <v>0.03974556657287351</v>
+        <v>0.02788497880304841</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1386549761622409</v>
+        <v>0.1396631022518297</v>
       </c>
       <c r="N246" t="n">
-        <v>0.05326046078497015</v>
+        <v>0.01624859782085994</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1291215564992866</v>
+        <v>0.1423404831003749</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01525541040910285</v>
+        <v>0.01650745001940582</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1332855487986041</v>
+        <v>0.1431268946092168</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01817607597244947</v>
+        <v>0.01989267727912397</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1351501976302034</v>
+        <v>0.141107747624285</v>
       </c>
       <c r="L247" t="n">
-        <v>0.03888518905265945</v>
+        <v>0.02826957521221229</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1394210257542975</v>
+        <v>0.1404347216012873</v>
       </c>
       <c r="N247" t="n">
-        <v>0.05285702721852442</v>
+        <v>0.01650745001940582</v>
       </c>
       <c r="O247" t="n">
-        <v>0.129834935264476</v>
+        <v>0.1431268946092168</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01614175501206314</v>
+        <v>0.01626827300537689</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1340178869788163</v>
+        <v>0.1439133061180586</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01808197427452674</v>
+        <v>0.01974504036062841</v>
       </c>
       <c r="K248" t="n">
-        <v>0.135892781133666</v>
+        <v>0.1418830649189239</v>
       </c>
       <c r="L248" t="n">
-        <v>0.03882840896033724</v>
+        <v>0.02815514651568368</v>
       </c>
       <c r="M248" t="n">
-        <v>0.140187075346354</v>
+        <v>0.1412063409507449</v>
       </c>
       <c r="N248" t="n">
-        <v>0.05134637327200992</v>
+        <v>0.01626827300537689</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1305483140296654</v>
+        <v>0.1439133061180586</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01502917338165353</v>
+        <v>0.0164311129151809</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1347502251590284</v>
+        <v>0.1446997176269005</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01758361765642007</v>
+        <v>0.01889669056806467</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1366353646371287</v>
+        <v>0.1426583822135629</v>
       </c>
       <c r="L249" t="n">
-        <v>0.038075281293282</v>
+        <v>0.0274416812326807</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1409531249384106</v>
+        <v>0.1419779603002025</v>
       </c>
       <c r="N249" t="n">
-        <v>0.05002850712188978</v>
+        <v>0.0164311129151809</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1312616927948549</v>
+        <v>0.1446997176269005</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01491768070025178</v>
+        <v>0.0161960158852255</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1354825633392405</v>
+        <v>0.1454861291357423</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01708103746017468</v>
+        <v>0.01844762874766626</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1373779481405913</v>
+        <v>0.1434336995082018</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03832586104886881</v>
+        <v>0.02832916788242118</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1417191745304672</v>
+        <v>0.1427495796496601</v>
       </c>
       <c r="N250" t="n">
-        <v>0.04910343694462654</v>
+        <v>0.0161960158852255</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1319750715600443</v>
+        <v>0.1454861291357423</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01380729215023561</v>
+        <v>0.01626302805191844</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1362149015194526</v>
+        <v>0.1462725406445841</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01677426502783586</v>
+        <v>0.01799785574566659</v>
       </c>
       <c r="K251" t="n">
-        <v>0.138120531644054</v>
+        <v>0.1442090168028407</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03778020322447287</v>
+        <v>0.02741759498412294</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1424852241225238</v>
+        <v>0.1435211989991178</v>
       </c>
       <c r="N251" t="n">
-        <v>0.04777117091668326</v>
+        <v>0.01626302805191844</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1326884503252337</v>
+        <v>0.1462725406445841</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01569802291398281</v>
+        <v>0.01603219555166743</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1369472396996647</v>
+        <v>0.147058952153426</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01616333170144875</v>
+        <v>0.01764737240829911</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1388631151475166</v>
+        <v>0.1449843340974797</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03743836281746932</v>
+        <v>0.0277069510570041</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1432512737145804</v>
+        <v>0.1442928183485754</v>
       </c>
       <c r="N252" t="n">
-        <v>0.04713171721452269</v>
+        <v>0.01603219555166743</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1334018290904232</v>
+        <v>0.147058952153426</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01558988817387111</v>
+        <v>0.01600356452088018</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1376795778798768</v>
+        <v>0.1478453636622679</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01604826882305864</v>
+        <v>0.0172961795817973</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1396056986509793</v>
+        <v>0.1457596513921186</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03710039482523325</v>
+        <v>0.02759722462028247</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1440173233066369</v>
+        <v>0.145064437698033</v>
       </c>
       <c r="N253" t="n">
-        <v>0.04518508401460775</v>
+        <v>0.01600356452088018</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1341152078556126</v>
+        <v>0.1478453636622679</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01348290311227824</v>
+        <v>0.01617718109596439</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1384119160600889</v>
+        <v>0.1486317751711097</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01542910773471072</v>
+        <v>0.01714427811239463</v>
       </c>
       <c r="K254" t="n">
-        <v>0.140348282154442</v>
+        <v>0.1465349686867575</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03686635424513979</v>
+        <v>0.02748840419317583</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1447833728986935</v>
+        <v>0.1458360570474906</v>
       </c>
       <c r="N254" t="n">
-        <v>0.04463127949340123</v>
+        <v>0.01617718109596439</v>
       </c>
       <c r="O254" t="n">
-        <v>0.134828586620802</v>
+        <v>0.1486317751711097</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01337708291158198</v>
+        <v>0.01625309141332777</v>
       </c>
       <c r="G255" t="n">
-        <v>0.139144254240301</v>
+        <v>0.1494181866799515</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01520587977845027</v>
+        <v>0.01649166884632458</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1410908656579046</v>
+        <v>0.1473102859813964</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03643629607456403</v>
+        <v>0.02818047829490233</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1455494224907501</v>
+        <v>0.1466076763969482</v>
       </c>
       <c r="N255" t="n">
-        <v>0.04297031182736605</v>
+        <v>0.01625309141332777</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1355419653859914</v>
+        <v>0.1494181866799515</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01527244275416006</v>
+        <v>0.01623134160937806</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1398765924205131</v>
+        <v>0.1502045981887934</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01467861629632247</v>
+        <v>0.01613835262982052</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1418334491613673</v>
+        <v>0.1480856032760354</v>
       </c>
       <c r="L256" t="n">
-        <v>0.0362102753108812</v>
+        <v>0.02757343544467983</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1463154720828067</v>
+        <v>0.1473792957464059</v>
       </c>
       <c r="N256" t="n">
-        <v>0.04190218919296496</v>
+        <v>0.01623134160937806</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1362553441511809</v>
+        <v>0.1502045981887934</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01516899782239024</v>
+        <v>0.01611197782052295</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1406089306007253</v>
+        <v>0.1509910096976352</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01424734863037258</v>
+        <v>0.01558433030911596</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1425760326648299</v>
+        <v>0.1488609205706743</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03588834695146634</v>
+        <v>0.02826726416172609</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1470815216748632</v>
+        <v>0.1481509150958635</v>
       </c>
       <c r="N257" t="n">
-        <v>0.04122691976666087</v>
+        <v>0.01611197782052295</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1369687229163703</v>
+        <v>0.1509910096976352</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01406676329865027</v>
+        <v>0.01609504618317019</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1413412687809374</v>
+        <v>0.1517774212064771</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01371210812264581</v>
+        <v>0.01532960273044437</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1433186161682926</v>
+        <v>0.1496362378653132</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03567056599369459</v>
+        <v>0.02756195296525921</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1478475712669198</v>
+        <v>0.1489225344453211</v>
       </c>
       <c r="N258" t="n">
-        <v>0.04024451172491655</v>
+        <v>0.01609504618317019</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1376821016815597</v>
+        <v>0.1517774212064771</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01496575436531788</v>
+        <v>0.01608059283372744</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1420736069611495</v>
+        <v>0.1525638327153189</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01347292611518741</v>
+        <v>0.01437417074003919</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1440611996717552</v>
+        <v>0.1504115551599522</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03515698743494111</v>
+        <v>0.02825749037449704</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1486136208589764</v>
+        <v>0.1496941537947788</v>
       </c>
       <c r="N259" t="n">
-        <v>0.03845497324419506</v>
+        <v>0.01608059283372744</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1383954804467492</v>
+        <v>0.1525638327153189</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01486598620477085</v>
+        <v>0.01606866390860245</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1428059451413616</v>
+        <v>0.1533502442241608</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01302983395004258</v>
+        <v>0.0141180351841339</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1448037831752179</v>
+        <v>0.1511868724545911</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03444766627258103</v>
+        <v>0.02815386490865751</v>
       </c>
       <c r="M260" t="n">
-        <v>0.149379670451033</v>
+        <v>0.1504657731442364</v>
       </c>
       <c r="N260" t="n">
-        <v>0.03785831250095895</v>
+        <v>0.01606866390860245</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1391088592119386</v>
+        <v>0.1533502442241608</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.0147674739993869</v>
+        <v>0.01605930554420291</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1435382833215737</v>
+        <v>0.1541366557330026</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01248286296925656</v>
+        <v>0.0135611969089619</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1455463666786805</v>
+        <v>0.15196218974923</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03474265750398944</v>
+        <v>0.02825106508695857</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1501457200430896</v>
+        <v>0.151237392493694</v>
       </c>
       <c r="N261" t="n">
-        <v>0.03645453767167128</v>
+        <v>0.01605930554420291</v>
       </c>
       <c r="O261" t="n">
-        <v>0.139822237977128</v>
+        <v>0.1541366557330026</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01267023293154379</v>
+        <v>0.01585256387693657</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1442706215017858</v>
+        <v>0.1549230672418445</v>
       </c>
       <c r="J262" t="n">
-        <v>0.0119320445148746</v>
+        <v>0.01340365676075667</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1462889501821432</v>
+        <v>0.1527375070438689</v>
       </c>
       <c r="L262" t="n">
-        <v>0.0338420161265415</v>
+        <v>0.0282490794286181</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1509117696351462</v>
+        <v>0.1520090118431516</v>
       </c>
       <c r="N262" t="n">
-        <v>0.03504365693279465</v>
+        <v>0.01585256387693657</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1405356167423174</v>
+        <v>0.1549230672418445</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01457427818361929</v>
+        <v>0.0158484850432111</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1450029596819979</v>
+        <v>0.1557094787506864</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01167740992894192</v>
+        <v>0.0128454155857517</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1470315336856058</v>
+        <v>0.1535128243385079</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03384579713761232</v>
+        <v>0.02734789645285396</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1516778192272027</v>
+        <v>0.1527806311926093</v>
       </c>
       <c r="N263" t="n">
-        <v>0.03422567846079233</v>
+        <v>0.0158484850432111</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1412489955075069</v>
+        <v>0.1557094787506864</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.0144796249379911</v>
+        <v>0.01614711517943423</v>
       </c>
       <c r="G264" t="n">
-        <v>0.14573529786221</v>
+        <v>0.1564958902595282</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01101899055350374</v>
+        <v>0.01208647423018042</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1477741171890685</v>
+        <v>0.1542881416331468</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03325405553457705</v>
+        <v>0.02804750467888417</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1524438688192593</v>
+        <v>0.1535522505420669</v>
       </c>
       <c r="N264" t="n">
-        <v>0.03250061043212688</v>
+        <v>0.01614711517943423</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1419623742726963</v>
+        <v>0.1564958902595282</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1220.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1220.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8608268990399346</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04304134495199673</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04304134495199673</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06886615192319477</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08482480697119804</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01613626565885214</v>
+        <v>0.03482480697119803</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01221527534818788</v>
+        <v>0.01658785544165516</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001678033175301227</v>
+        <v>0.001391045782149172</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007864115088418503</v>
+        <v>0.0005712914691076279</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.005163766016229115</v>
+        <v>0.001718270809345231</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007753172946389286</v>
+        <v>0.0007864115088418503</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.008492544937263091</v>
+        <v>0.005396645033718311</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007716193494576224</v>
+        <v>0.0007740154826720903</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001678033175301227</v>
+        <v>0.009000000000000008</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007864115088418503</v>
+        <v>0.0008175681818181825</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.002766756735435423</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.00181681818181818</v>
+        <v>0.001142582938215256</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.009999999999999981</v>
+        <v>0.003960715218546983</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001610654416505477</v>
+        <v>0.001572823017683701</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01600000000000001</v>
+        <v>0.01045763043258174</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001468135904499542</v>
+        <v>0.001548030965344181</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.01480965676011409</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.00181681818181818</v>
+        <v>0.001542750580532258</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004676083327101094</v>
+        <v>0.004127406342315461</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002359234526525551</v>
+        <v>0.001713874407322884</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01292999542279408</v>
+        <v>0.005432725755372604</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002325951883916786</v>
+        <v>0.002359234526525551</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02158376265040346</v>
+        <v>0.01499999999999999</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002314858048372867</v>
+        <v>0.00229396235078053</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.004676083327101094</v>
+        <v>0.02030449294906056</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002359234526525551</v>
+        <v>0.002314125870798388</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005992129706546188</v>
+        <v>0.005473268085246036</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003145646035367401</v>
+        <v>0.002285165876430512</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.0159255594777428</v>
+        <v>0.007239694947589505</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003101269178555714</v>
+        <v>0.003145646035367401</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02698437800829456</v>
+        <v>0.01797611327523374</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.00308647739783049</v>
+        <v>0.003096061930688361</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.005992129706546188</v>
+        <v>0.02662393921954154</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003145646035367401</v>
+        <v>0.003085501161064517</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.00181681818181818</v>
+        <v>0.01172974471180438</v>
       </c>
       <c r="B70" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.02582480697119804</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007045940317568229</v>
+        <v>0.006804615446683898</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003932057544209252</v>
+        <v>0.002856457345538139</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01920571538930832</v>
+        <v>0.008</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003876586473194643</v>
+        <v>0.003633636363636364</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03193902350236699</v>
+        <v>0.02065350961344031</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003858096747288113</v>
+        <v>0.003870077413360451</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.007045940317568229</v>
+        <v>0.03199802094518811</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003932057544209252</v>
+        <v>0.003856876451330646</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008239554172581202</v>
+        <v>0.008121721909085763</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004718469053051101</v>
+        <v>0.003427748814645767</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02155978008638193</v>
+        <v>0.00943190260148364</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004651903767833572</v>
+        <v>0.004718469053051101</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03630082068718626</v>
+        <v>0.02375507862508078</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004629716096745735</v>
+        <v>0.004644092896032542</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.008239554172581202</v>
+        <v>0.03635676349963202</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004718469053051101</v>
+        <v>0.004628251741596775</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.00907501028399911</v>
+        <v>0.009424860954908382</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005504880561892952</v>
+        <v>0.003999040283753395</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02437707049785479</v>
+        <v>0.0103683222199506</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005427221062472501</v>
+        <v>0.005504880561892952</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04042289111731828</v>
+        <v>0.02578390466648894</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005401335446203357</v>
+        <v>0.005418108378704632</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.00907501028399911</v>
+        <v>0.04013019225650455</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005504880561892952</v>
+        <v>0.005399627031862904</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01025434766423597</v>
+        <v>0.01071430606660849</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006291292070734802</v>
+        <v>0.004570331752861023</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.0264469035526182</v>
+        <v>0.01112887573555144</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006202538357111429</v>
+        <v>0.006291292070734802</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04435835634732854</v>
+        <v>0.02764307209399855</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006172954795660979</v>
+        <v>0.006192123861376722</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01025434766423597</v>
+        <v>0.043748332589437</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006291292070734802</v>
+        <v>0.006171002322129034</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01097960532570576</v>
+        <v>0.01199033072664282</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007077703579576653</v>
+        <v>0.005141623221968651</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02875859617956342</v>
+        <v>0.01202201503784002</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006977855651750357</v>
+        <v>0.007077703579576653</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04646033793178284</v>
+        <v>0.02993566526394348</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006944574145118601</v>
+        <v>0.006966139344048813</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01097960532570576</v>
+        <v>0.04724120987206104</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007077703579576653</v>
+        <v>0.006942377612395164</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01205282228082249</v>
+        <v>0.01325320841746811</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007864115088418503</v>
+        <v>0.005712914691076278</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03010146530758154</v>
+        <v>0.01245619201637021</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007753172946389286</v>
+        <v>0.007864115088418503</v>
       </c>
       <c r="L75" s="172" t="n">
+        <v>0.03096476853265759</v>
+      </c>
+      <c r="M75" s="170" t="n">
+        <v>0.007740154826720903</v>
+      </c>
+      <c r="N75" s="171" t="n">
         <v>0.0484710128920724</v>
       </c>
-      <c r="M75" s="170" t="n">
-        <v>0.007412711911907459</v>
-      </c>
-      <c r="N75" s="171" t="n">
-        <v>0.01205282228082249</v>
-      </c>
       <c r="O75" s="172" t="n">
-        <v>0.007864115088418503</v>
+        <v>0.007338584792788383</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01277603754200017</v>
+        <v>0.01450321262154111</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008650526597260353</v>
+        <v>0.006284206160183906</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
+        <v>0.01333985856069581</v>
+      </c>
+      <c r="K76" s="171" t="n">
+        <v>0.008650526597260353</v>
+      </c>
+      <c r="L76" s="172" t="n">
         <v>0.03230363927546226</v>
       </c>
-      <c r="K76" s="171" t="n">
-        <v>0.00867166654470386</v>
-      </c>
-      <c r="L76" s="172" t="n">
-        <v>0.0503528631986625</v>
-      </c>
       <c r="M76" s="170" t="n">
-        <v>0.008487812844033847</v>
+        <v>0.008233703587900636</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01277603754200017</v>
+        <v>0.05108654032668397</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008650526597260353</v>
+        <v>0.008485128192927422</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.0134512901216528</v>
+        <v>0.01574061682131854</v>
       </c>
       <c r="G77" t="n">
+        <v>0.006855497629291534</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01378146656037074</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009436938106102202</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.03313054148334585</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009303807535667143</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.05273713777953154</v>
+        <v>0.03336951581612016</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009259432193491469</v>
+        <v>0.009288185792065085</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0134512901216528</v>
+        <v>0.05300147213742595</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009436938106102202</v>
+        <v>0.00925650348319355</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01428061903219437</v>
+        <v>0.01696569449925715</v>
       </c>
       <c r="G78" t="n">
+        <v>0.007426789098399161</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01448946790494879</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01022334961494405</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.03457463032939168</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01007912483030607</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.05478713239693894</v>
+        <v>0.03467416030977644</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01003105154294909</v>
+        <v>0.01006220127473718</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01428061903219437</v>
+        <v>0.0549786637487551</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01022334961494405</v>
+        <v>0.01002787877345968</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01516606328603889</v>
+        <v>0.01817871913781368</v>
       </c>
       <c r="G79" t="n">
+        <v>0.007998080567506789</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0151723144839838</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.0110097611237859</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.03540125948374093</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.010854442124945</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.05580248991467746</v>
+        <v>0.03626282581736956</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01080267089240671</v>
+        <v>0.01083621675740926</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01516606328603889</v>
+        <v>0.05621788573585873</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0110097611237859</v>
+        <v>0.01079925406372581</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01550966189560038</v>
+        <v>0.01937996421944486</v>
       </c>
       <c r="G80" t="n">
+        <v>0.008569372036614419</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.0155384581870297</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01179617263262775</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.03700990445950475</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01162975941958393</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.0583828531965398</v>
+        <v>0.03733496487357918</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01157429024186434</v>
+        <v>0.01161023224008136</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01550966189560038</v>
+        <v>0.05831890867392459</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01179617263262775</v>
+        <v>0.01157062935399194</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
+        <v>0.02056970322660742</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.009140663505722046</v>
+      </c>
+      <c r="J81" t="n">
         <v>0.01613626565885214</v>
       </c>
-      <c r="G81" t="n">
+      <c r="K81" t="n">
         <v>0.01221527534818788</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.03770004076979427</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01240507671422286</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.06012786510631868</v>
+        <v>0.0384900300130849</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01234590959132196</v>
+        <v>0.01238424772275344</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01613626565885214</v>
+        <v>0.06028150313814007</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01221527534818788</v>
+        <v>0.01234200464425807</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01702048378954495</v>
+        <v>0.02174820964175812</v>
       </c>
       <c r="G82" t="n">
+        <v>0.009711954974829672</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01695923325548457</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01336899565031145</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.0389711439277205</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01318039400886179</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.06103716850780688</v>
+        <v>0.03962747377056641</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01311752894077958</v>
+        <v>0.01315826320542554</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01702048378954495</v>
+        <v>0.06210543970369287</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01336899565031145</v>
+        <v>0.0131133799345242</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01732284831904646</v>
+        <v>0.02291575694735367</v>
       </c>
       <c r="G83" t="n">
+        <v>0.0102832464439373</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01742516898294721</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01415540715915331</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.04032268944639464</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01395571130350071</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.0635104062647972</v>
+        <v>0.04044674868070333</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0138891482902372</v>
+        <v>0.01393227868809763</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01732284831904646</v>
+        <v>0.0634904889457702</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01415540715915331</v>
+        <v>0.01388475522479033</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01812400252837727</v>
+        <v>0.02407261862585084</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01085453791304493</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01789401004104986</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01494181866799515</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.04135415283892777</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01473102859813964</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.06444722124108226</v>
+        <v>0.04204730727817524</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01466076763969483</v>
+        <v>0.01470629417076972</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01812400252837727</v>
+        <v>0.06523642143955988</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01494181866799515</v>
+        <v>0.01465613051505645</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01882314181798292</v>
+        <v>0.02521906815970632</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01142582938215256</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01866478020803777</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01572823017683701</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.04276500961843094</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01550634589277857</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.06664725630045487</v>
+        <v>0.04262860209766184</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01543238698915245</v>
+        <v>0.01548030965344181</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01882314181798292</v>
+        <v>0.06694300776024936</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01572823017683701</v>
+        <v>0.01542750580532259</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01941946158830886</v>
+        <v>0.02582480697119804</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01172974471180438</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01903650326215621</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01651464168567885</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.04365473529801533</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.0162816631874175</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.06801015430670776</v>
+        <v>0.04419008567384272</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01620400633861007</v>
+        <v>0.0162543251361139</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01941946158830886</v>
+        <v>0.06881001848302615</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01651464168567885</v>
+        <v>0.01619888109558871</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01971215723980058</v>
+        <v>0.02752029424091159</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01256841232036781</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01960820298165045</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01730105319452071</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.04482280539079203</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01705698048205643</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.06953555812363377</v>
+        <v>0.04523121054139748</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01697562568806769</v>
+        <v>0.01702834061878599</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01971215723980058</v>
+        <v>0.07013722418307783</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01730105319452071</v>
+        <v>0.01697025638585484</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02060042417290356</v>
+        <v>0.0286880426240917</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01313970378947544</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.02027890314476576</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01808746470336256</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.0458686954098721</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01783229777669536</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.07112311061502546</v>
+        <v>0.04625142923500589</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01774724503752531</v>
+        <v>0.01780235610145808</v>
       </c>
       <c r="N88" t="n">
-        <v>0.02060042417290356</v>
+        <v>0.07112439543559174</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01808746470336256</v>
+        <v>0.01774163167612097</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02098345778806329</v>
+        <v>0.02984442761846442</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01371099525858307</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.02074762752974742</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.0188738762122044</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.04669188086836668</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01860761507133429</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.07217245464467581</v>
+        <v>0.04695019428934744</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01851886438698294</v>
+        <v>0.01857637158413017</v>
       </c>
       <c r="N89" t="n">
-        <v>0.02098345778806329</v>
+        <v>0.07257130281575563</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0188738762122044</v>
+        <v>0.0185130069663871</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02146045348572527</v>
+        <v>0.03097064618110185</v>
       </c>
       <c r="G90" t="n">
+        <v>0.0142822867276907</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.02151339991484071</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01966028772104626</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.04799183727938686</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01938293236597322</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.07388323307637729</v>
+        <v>0.04822695823910184</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01929048373644056</v>
+        <v>0.01935038706680226</v>
       </c>
       <c r="N90" t="n">
-        <v>0.02146045348572527</v>
+        <v>0.07397771689875687</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01966028772104626</v>
+        <v>0.01928438225665323</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.022030606666335</v>
+        <v>0.03204789526907609</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01485357819679832</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02197524407829088</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02044669922988811</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.04876804015604372</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02015824966061214</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.07545508877392287</v>
+        <v>0.04898117361894869</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02006210308589819</v>
+        <v>0.02012440254947435</v>
       </c>
       <c r="N91" t="n">
-        <v>0.022030606666335</v>
+        <v>0.07534340825978314</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02044669922988811</v>
+        <v>0.02005575754691936</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02269311273033792</v>
+        <v>0.03305737183945919</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01542486966590595</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02263218379834324</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02123311073872996</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.04931996501144847</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02093356695525107</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.07698766460110507</v>
+        <v>0.04951229296356763</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02083372243535581</v>
+        <v>0.02089841803214644</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02269311273033792</v>
+        <v>0.07676814747402183</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02123311073872996</v>
+        <v>0.02082713283718549</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02344716707817955</v>
+        <v>0.03398027284932322</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01599616113501358</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02288324285324303</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02201952224757181</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.0503470873587121</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02170888424989</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.07738060342171688</v>
+        <v>0.0508197688076383</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02160534178481343</v>
+        <v>0.02167243351481853</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02344716707817955</v>
+        <v>0.07825170511666046</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02201952224757181</v>
+        <v>0.02159850812745162</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02379196511030536</v>
+        <v>0.03482480697119803</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01658785544165516</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.0236274450212355</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02280593375641366</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.05134888271094579</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02248420154452893</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.07953354809955093</v>
+        <v>0.05140305368584033</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02237696113427105</v>
+        <v>0.02244644899749062</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02379196511030536</v>
+        <v>0.07919385176288679</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02280593375641366</v>
+        <v>0.02236988341771775</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02452670222716087</v>
+        <v>0.03554685850458637</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01713874407322884</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.023963814080566</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02359234526525551</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.05232482658126059</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02325951883916786</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.0804461414983999</v>
+        <v>0.05256160013285335</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02314858048372867</v>
+        <v>0.02322046448016271</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02452670222716087</v>
+        <v>0.08049435798788801</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02359234526525551</v>
+        <v>0.02314125870798388</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02485057382919151</v>
+        <v>0.03628368408100429</v>
       </c>
       <c r="G96" t="n">
+        <v>0.01771003554233646</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02469137380947972</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02437875677409736</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.05307439448276763</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02403483613380679</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.08171802648205656</v>
+        <v>0.05319486068335699</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0239201998331863</v>
+        <v>0.0239944799628348</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02485057382919151</v>
+        <v>0.08215299436685192</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02437875677409736</v>
+        <v>0.02391263399825001</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02536277531684282</v>
+        <v>0.03700660147595974</v>
       </c>
       <c r="G97" t="n">
+        <v>0.01828132701144409</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02530914798622197</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02516516828293921</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.05409706192857802</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02481015342844571</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.08304884591431377</v>
+        <v>0.05390228787203097</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02469181918264392</v>
+        <v>0.02476849544550689</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02536277531684282</v>
+        <v>0.08286953147496584</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02516516828293921</v>
+        <v>0.02468400928851613</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02606250209056026</v>
+        <v>0.03771386737335895</v>
       </c>
       <c r="G98" t="n">
+        <v>0.01885261848055172</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02581616038903804</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02595157979178106</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.05479230443180289</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02558547072308464</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.08383824265896411</v>
+        <v>0.05508333423355477</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02546343853210154</v>
+        <v>0.02554251092817898</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02606250209056026</v>
+        <v>0.08364373988741747</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02595157979178106</v>
+        <v>0.02545538457878226</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02654894955078932</v>
+        <v>0.03840373845710818</v>
       </c>
       <c r="G99" t="n">
+        <v>0.01942390994965934</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.02631143479617318</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02673799130062291</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.05525959750555326</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02636078801772358</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.08488585957980044</v>
+        <v>0.05553745230260812</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02623505788155916</v>
+        <v>0.02631652641085107</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02654894955078932</v>
+        <v>0.08507539017939419</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02673799130062291</v>
+        <v>0.02622675986904839</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02692131309797549</v>
+        <v>0.03907447141111376</v>
       </c>
       <c r="G100" t="n">
+        <v>0.01999520141876697</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.02659399498587266</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02752440280946476</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.05599841666294034</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.0271361053123625</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.08609133954061549</v>
+        <v>0.05606409461387069</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02700667723101679</v>
+        <v>0.02709054189352316</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02692131309797549</v>
+        <v>0.08556425292608366</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02752440280946476</v>
+        <v>0.02699813515931453</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02727878813256425</v>
+        <v>0.0397243229192819</v>
       </c>
       <c r="G101" t="n">
+        <v>0.0205664928878746</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.02726286473638176</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02831081431830661</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.05700823741707517</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02791142260700143</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.08635432540520194</v>
+        <v>0.05706271370202196</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02777829658047441</v>
+        <v>0.02786455737619525</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02727878813256425</v>
+        <v>0.08711009870267339</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02831081431830661</v>
+        <v>0.02776951044958065</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02762057005500113</v>
+        <v>0.04035154966551886</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02113778435698223</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.02761706782594575</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02909722582714846</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.05778853528106884</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02868673990164036</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.08777446003735256</v>
+        <v>0.05793276210174172</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02854991592993203</v>
+        <v>0.02863857285886734</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02762057005500113</v>
+        <v>0.0875126980843508</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02909722582714846</v>
+        <v>0.02854088573984678</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02834585426573154</v>
+        <v>0.04095440833373092</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02170907582608986</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.0281556280328099</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02988363733599031</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.05803878576803251</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02946205719627928</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.08855138630086012</v>
+        <v>0.05817369234770955</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02932153527938966</v>
+        <v>0.02941258834153944</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02834585426573154</v>
+        <v>0.08837182164630353</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02988363733599031</v>
+        <v>0.02931226103011291</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.028553836165201</v>
+        <v>0.04153115560782435</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02228036729519749</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02847756913521948</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03067004884483216</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.05875846439107724</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03023737449091822</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.08908474705951741</v>
+        <v>0.05898495697460507</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03009315462884728</v>
+        <v>0.03018660382421152</v>
       </c>
       <c r="N104" t="n">
-        <v>0.028553836165201</v>
+        <v>0.08958723996371909</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03067004884483216</v>
+        <v>0.03008363632037904</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02914371115385504</v>
+        <v>0.04208004817170543</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02285165876430511</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.02888191491141978</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03145646035367401</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.0593470466633142</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03101269178555715</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.09027418517711705</v>
+        <v>0.05926600851710795</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0308647739783049</v>
+        <v>0.03096061930688361</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02914371115385504</v>
+        <v>0.09055872361178502</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03145646035367401</v>
+        <v>0.03085501161064517</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02931467463213909</v>
+        <v>0.04259934270928039</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02342295023341274</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02906768913965607</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03224287186251586</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.06000400809785439</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03178800908019607</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.09051934351745178</v>
+        <v>0.06001629950989776</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03163639332776252</v>
+        <v>0.0317346347895557</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02931467463213909</v>
+        <v>0.09118604316568862</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03224287186251586</v>
+        <v>0.0316263869009113</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02976592200049864</v>
+        <v>0.04308729590445552</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02399424170252037</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.02953391559817359</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03302928337135771</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.06042882420780901</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.032563326374835</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.09121986494431444</v>
+        <v>0.06053528248765419</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03240801267722014</v>
+        <v>0.0325086502722278</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02976592200049864</v>
+        <v>0.09146896920061781</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03302928337135771</v>
+        <v>0.03239776219117742</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03019664865937922</v>
+        <v>0.04354216444113706</v>
       </c>
       <c r="G108" t="n">
+        <v>0.024565533171628</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.02977961806521764</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03381569488019956</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.06102097050628916</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03333864366947394</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.09257539232149781</v>
+        <v>0.06092240998505682</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03317963202667776</v>
+        <v>0.03328266575489989</v>
       </c>
       <c r="N108" t="n">
-        <v>0.03019664865937922</v>
+        <v>0.09220727229175973</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03381569488019956</v>
+        <v>0.03316913748144355</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03050605000922628</v>
+        <v>0.0439622050032313</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02513682464073562</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.0301038203190335</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03460210638904141</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.0615799225064059</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03411396096411286</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.09268556851279458</v>
+        <v>0.06147713453678536</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03395125137613539</v>
+        <v>0.03405668123757197</v>
       </c>
       <c r="N109" t="n">
-        <v>0.03050605000922628</v>
+        <v>0.09310072301430217</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03460210638904141</v>
+        <v>0.03394051277170969</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03079332145048531</v>
+        <v>0.0443456742746445</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02570811610984325</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.03070554613786641</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03538851789788326</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.06180515572127035</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03488927825875179</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.09315003638199737</v>
+        <v>0.06189890867751938</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03472287072559301</v>
+        <v>0.03483069672024406</v>
       </c>
       <c r="N110" t="n">
-        <v>0.03079332145048531</v>
+        <v>0.09354909194343258</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03538851789788326</v>
+        <v>0.03471188806197582</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0309576583836018</v>
+        <v>0.04469082893928292</v>
       </c>
       <c r="G111" t="n">
+        <v>0.02627940757895088</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.03068381929996168</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03617492940672511</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.06229614566399361</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03566459555339072</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.0936684387928991</v>
+        <v>0.06258718494193857</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03549449007505063</v>
+        <v>0.03560471220291615</v>
       </c>
       <c r="N111" t="n">
-        <v>0.0309576583836018</v>
+        <v>0.09355214965433845</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03617492940672511</v>
+        <v>0.03548326335224194</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03099825620902125</v>
+        <v>0.04499592568105281</v>
       </c>
       <c r="G112" t="n">
+        <v>0.02685069904805851</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.03123766358356457</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03696134091556696</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.06305236784768681</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03643991284802964</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.09474041860929239</v>
+        <v>0.06304141586472253</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03626610942450825</v>
+        <v>0.03637872768558825</v>
       </c>
       <c r="N112" t="n">
-        <v>0.03099825620902125</v>
+        <v>0.09440966672220741</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03696134091556696</v>
+        <v>0.03625463864250807</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03131431032718912</v>
+        <v>0.04525922118386045</v>
       </c>
       <c r="G113" t="n">
+        <v>0.02742199051716614</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.03116610276692033</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03774775242440881</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.063373297785461</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03721523014266857</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.09516561869497003</v>
+        <v>0.06306105398055084</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03703772877396588</v>
+        <v>0.03715274316826034</v>
       </c>
       <c r="N113" t="n">
-        <v>0.03131431032718912</v>
+        <v>0.09452141372222689</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03774775242440881</v>
+        <v>0.0370260139327742</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03140501613855093</v>
+        <v>0.04549906761671429</v>
       </c>
       <c r="G114" t="n">
+        <v>0.02799328198627376</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.03156816062827425</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03853416393325066</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.06355841099042736</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.0379905474373075</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.0951436819137248</v>
+        <v>0.06324555182410324</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0378093481234235</v>
+        <v>0.03792675865093242</v>
       </c>
       <c r="N114" t="n">
-        <v>0.03140501613855093</v>
+        <v>0.09558716122958455</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03853416393325066</v>
+        <v>0.03779738922304034</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03156956904355215</v>
+        <v>0.04573600955481223</v>
       </c>
       <c r="G115" t="n">
+        <v>0.02856457345538139</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.0318428609458716</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03932057544209251</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.06370718297569691</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03876586473194643</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.09557425112934931</v>
+        <v>0.06359436193005927</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03858096747288112</v>
+        <v>0.03870077413360452</v>
       </c>
       <c r="N115" t="n">
-        <v>0.03156956904355215</v>
+        <v>0.09510667981946763</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03932057544209251</v>
+        <v>0.03856876451330647</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03190716444263828</v>
+        <v>0.04596997596096367</v>
       </c>
       <c r="G116" t="n">
+        <v>0.02913586492448902</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.03168922749795769</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.04010698695093436</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.06411908925438084</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03954118202658536</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.09555696920563655</v>
+        <v>0.06410693683309862</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03935258682233875</v>
+        <v>0.03947478961627661</v>
       </c>
       <c r="N116" t="n">
-        <v>0.03190716444263828</v>
+        <v>0.09567974006706398</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04010698695093436</v>
+        <v>0.03934013980357259</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03201699773625474</v>
+        <v>0.04620089214499356</v>
       </c>
       <c r="G117" t="n">
+        <v>0.02970715639359664</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.03200628406277771</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04089339845977621</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.06379360533959019</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04031649932122429</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.09579147900637897</v>
+        <v>0.06368272906790096</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04012420617179637</v>
+        <v>0.0402488050989487</v>
       </c>
       <c r="N117" t="n">
-        <v>0.03201699773625474</v>
+        <v>0.09590611254756093</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04089339845977621</v>
+        <v>0.04011151509383872</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03199826432484712</v>
+        <v>0.04642868341672691</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03027844786270428</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.031993054418577</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04167980996861807</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.06383020674443615</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04109181661586322</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.09587742339536953</v>
+        <v>0.06422119116914579</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04089582552125399</v>
+        <v>0.04102282058162079</v>
       </c>
       <c r="N118" t="n">
-        <v>0.03199826432484712</v>
+        <v>0.09608556783614608</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04167980996861807</v>
+        <v>0.04088289038410485</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
+        <v>0.04665327508598869</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.03084973933181191</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.03227253131770426</v>
       </c>
-      <c r="G119" t="n">
+      <c r="K119" t="n">
         <v>0.04246622147745991</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.06422836898202972</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04186713391050215</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.09641444523640097</v>
+        <v>0.06452177567151285</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04166744487071161</v>
+        <v>0.04179683606429287</v>
       </c>
       <c r="N119" t="n">
-        <v>0.03227253131770426</v>
+        <v>0.09671787650800695</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04246622147745991</v>
+        <v>0.04165426567437098</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03197187898874142</v>
+        <v>0.0468745924626039</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03142103080091953</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.03217183161609441</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04325263298630176</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.06460727855092452</v>
       </c>
-      <c r="K120" t="n">
-        <v>0.04264245120514108</v>
-      </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
+        <v>0.04257085154696497</v>
+      </c>
+      <c r="N120" t="n">
         <v>0.09694202578414479</v>
       </c>
-      <c r="M120" t="n">
-        <v>0.04243906422016924</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.03197187898874142</v>
-      </c>
       <c r="O120" t="n">
-        <v>0.04325263298630176</v>
+        <v>0.04242564096463711</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03226628372528191</v>
+        <v>0.04709256085639751</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03199232227002716</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.03196929879215318</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04403904449514361</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.06420727812220509</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04341776849978</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.09664029272975705</v>
+        <v>0.06420712201833217</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04321068356962685</v>
+        <v>0.04334486702963706</v>
       </c>
       <c r="N121" t="n">
-        <v>0.03226628372528191</v>
+        <v>0.09624013630230593</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04403904449514361</v>
+        <v>0.04319701625490324</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03194121666046745</v>
+        <v>0.0473071055771945</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03256361373913479</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.03195627431359034</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04482545600398546</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.0639915378687641</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04419308579441893</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.09673655804093428</v>
+        <v>0.06459755882483367</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04398230291908448</v>
+        <v>0.04411888251230915</v>
       </c>
       <c r="N122" t="n">
-        <v>0.03194121666046745</v>
+        <v>0.09613462375034776</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04482545600398546</v>
+        <v>0.04396839154516936</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03209789255064101</v>
+        <v>0.04751815193481983</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03313490520824242</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.03203364776281341</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04561186751282732</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.06434551228679336</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04496840308905786</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.09601192780939677</v>
+        <v>0.06416502727966364</v>
       </c>
       <c r="M123" t="n">
-        <v>0.0447539222685421</v>
+        <v>0.04489289799498124</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03209789255064101</v>
+        <v>0.09620019501708515</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04561186751282732</v>
+        <v>0.0447397668354355</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03193729535786809</v>
+        <v>0.04772562523909853</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03370619667735004</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.03200182641188737</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04639827902166917</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.06427050043085211</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04574372038369679</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.09686798969457283</v>
+        <v>0.06401043959473571</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04552554161799973</v>
+        <v>0.04566691347765333</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03193729535786809</v>
+        <v>0.0963385624779205</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04639827902166917</v>
+        <v>0.04551114212570163</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.0320604090442141</v>
+        <v>0.04792945079985558</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03427748814645767</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.03206121753287716</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04718469053051102</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.06406780135549953</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04651903767833571</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.09660530204805651</v>
+        <v>0.06433464526310667</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04629716096745735</v>
+        <v>0.04644092896032542</v>
       </c>
       <c r="N125" t="n">
-        <v>0.0320604090442141</v>
+        <v>0.09645069168800224</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04718469053051102</v>
+        <v>0.04628251741596776</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03166821757174451</v>
+        <v>0.04812955392691593</v>
       </c>
       <c r="G126" t="n">
+        <v>0.0348487796155653</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.03211222839784778</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04797110203935286</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.0642387141152948</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04729435497297465</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.09622442322144159</v>
+        <v>0.06383849377783352</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04706878031691497</v>
+        <v>0.04721494444299751</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03166821757174451</v>
+        <v>0.0963375482024787</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04797110203935286</v>
+        <v>0.04705389270623388</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03176170490252475</v>
+        <v>0.04832585993010458</v>
       </c>
       <c r="G127" t="n">
+        <v>0.03542007108467293</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.03205526627886418</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04875751354819471</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.06358453776479711</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04806967226761358</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.0963259115663222</v>
+        <v>0.06372283463197312</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04784039966637259</v>
+        <v>0.04798895992566959</v>
       </c>
       <c r="N127" t="n">
-        <v>0.03176170490252475</v>
+        <v>0.09560009757649829</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04875751354819471</v>
+        <v>0.04782526799650002</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03154185499862029</v>
+        <v>0.0485182941192465</v>
       </c>
       <c r="G128" t="n">
+        <v>0.03599136255378056</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.03199073844799134</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04954392505703657</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.06380657135856571</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.0488449895622525</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.09561032543429238</v>
+        <v>0.06358851731858237</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04861201901583021</v>
+        <v>0.04876297540834169</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03154185499862029</v>
+        <v>0.09603930536520938</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04954392505703657</v>
+        <v>0.04859664328676614</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03140965182209658</v>
+        <v>0.0487067818041667</v>
       </c>
       <c r="G129" t="n">
+        <v>0.03656265402288818</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.03171905217729422</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05033033656587842</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.06350611395115971</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04962030685689143</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.09607822317694598</v>
+        <v>0.06343639133071821</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04938363836528784</v>
+        <v>0.04953699089101378</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03140965182209658</v>
+        <v>0.09525613712376041</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05033033656587842</v>
+        <v>0.04936801857703227</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03146607933501909</v>
+        <v>0.04889124829469014</v>
       </c>
       <c r="G130" t="n">
+        <v>0.03713394549199581</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.03184061473883781</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05111674807472027</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.06338446459713837</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05039562415153036</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.09543016314587716</v>
+        <v>0.06316730616143751</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05015525771474546</v>
+        <v>0.05031100637368587</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03146607933501909</v>
+        <v>0.09585155840729975</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05111674807472027</v>
+        <v>0.0501393938672984</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03131212149945323</v>
+        <v>0.04907161890064182</v>
       </c>
       <c r="G131" t="n">
+        <v>0.03770523696110344</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.03145583340468708</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05190315958356212</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.06304292235106082</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05117094144616929</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.09546670369267979</v>
+        <v>0.06308211130379712</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05092687706420308</v>
+        <v>0.05108502185635796</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03131212149945323</v>
+        <v>0.09532653477097563</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05190315958356212</v>
+        <v>0.05091076915756453</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03094876227746446</v>
+        <v>0.04924781893184669</v>
       </c>
       <c r="G132" t="n">
+        <v>0.03827652843021107</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.03166511544690696</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05268957109240397</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.06268278626748636</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05194625874080822</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.09508840316894779</v>
+        <v>0.06328165625085408</v>
       </c>
       <c r="M132" t="n">
-        <v>0.0516984964136607</v>
+        <v>0.05185903733903005</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03094876227746446</v>
+        <v>0.09528203176993671</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05268957109240397</v>
+        <v>0.05168214444783066</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03097698563111827</v>
+        <v>0.04941977369812977</v>
       </c>
       <c r="G133" t="n">
+        <v>0.03884781989931869</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.03136886813756247</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05347598260124582</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.06220535540097405</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05272157603544715</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.09489581992627527</v>
+        <v>0.06296679049566514</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05247011576311832</v>
+        <v>0.05263305282170214</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03097698563111827</v>
+        <v>0.09511901495933112</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05347598260124582</v>
+        <v>0.05245351973809679</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03049777552248006</v>
+        <v>0.04958740850931603</v>
       </c>
       <c r="G134" t="n">
+        <v>0.03941911136842632</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.03136749874871855</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05426239411008766</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.06201192880608317</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05349689333008608</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.09458951231625617</v>
+        <v>0.06273836353128731</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05324173511257595</v>
+        <v>0.05340706830437423</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03049777552248006</v>
+        <v>0.0948384498943074</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05426239411008766</v>
+        <v>0.05322489502836292</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0306121159136153</v>
+        <v>0.04975064867523044</v>
       </c>
       <c r="G135" t="n">
+        <v>0.03999040283753395</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.03116141455244019</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05504880561892952</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.0617038055373729</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.054272210624725</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.09437003869048455</v>
+        <v>0.06239722485077748</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05401335446203357</v>
+        <v>0.05418108378704631</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0306121159136153</v>
+        <v>0.09454130213001383</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05504880561892952</v>
+        <v>0.05399627031862905</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03042099076658945</v>
+        <v>0.04990941950569801</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04056169430664158</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.03105102282079235</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05583521712777138</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.06148228464940242</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05504752791936393</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.09463795740055431</v>
+        <v>0.06214422394719249</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05478497381149119</v>
+        <v>0.05495509926971841</v>
       </c>
       <c r="N136" t="n">
-        <v>0.03042099076658945</v>
+        <v>0.09432853722159884</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05583521712777138</v>
+        <v>0.05476764560889517</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03022538404346795</v>
+        <v>0.0500636463105437</v>
       </c>
       <c r="G137" t="n">
+        <v>0.0411329857757492</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.03083673082584001</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05662162863661322</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.06114866519673093</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05582284521400286</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.0939938267980594</v>
+        <v>0.06178021031358927</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05555659316094881</v>
+        <v>0.0557291147523905</v>
       </c>
       <c r="N137" t="n">
-        <v>0.03022538404346795</v>
+        <v>0.09340112072421086</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05662162863661322</v>
+        <v>0.05553902089916131</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02992627970631626</v>
+        <v>0.05021325439959249</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04170427724485683</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.03101894583964811</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05740804014545507</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.06100424623391765</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05659816250864179</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.09363820523459399</v>
+        <v>0.06170603344302475</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05632821251040643</v>
+        <v>0.0565031302350626</v>
       </c>
       <c r="N138" t="n">
-        <v>0.02992627970631626</v>
+        <v>0.09286001819299816</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05740804014545507</v>
+        <v>0.05631039618942743</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02972466171719983</v>
+        <v>0.05035816908266939</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04227556871396446</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.03069807513428165</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05819445165429692</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.06035032681552169</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05737347980328072</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.093771651061752</v>
+        <v>0.06132254282855584</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05709983185986406</v>
+        <v>0.05727714571773469</v>
       </c>
       <c r="N139" t="n">
-        <v>0.02972466171719983</v>
+        <v>0.0927061951831093</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05819445165429692</v>
+        <v>0.05708177147969357</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02962151403818411</v>
+        <v>0.05049831566959936</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04284686018307209</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.0306745259818056</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05898086316313877</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.06038820599610234</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05814879709791965</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.09329472263112726</v>
+        <v>0.0608305879632394</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05787145120932169</v>
+        <v>0.05805116120040677</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02962151403818411</v>
+        <v>0.09274061724969251</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05898086316313877</v>
+        <v>0.05785314676995969</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02911782063133456</v>
+        <v>0.05063361947020738</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04341815165217972</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.03044870565428492</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05976727467198062</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.05961918283021875</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05892411439255857</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.09340797829431385</v>
+        <v>0.06103101834013233</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05864307055877931</v>
+        <v>0.05882517668307887</v>
       </c>
       <c r="N141" t="n">
-        <v>0.02911782063133456</v>
+        <v>0.09226424994789623</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05976727467198062</v>
+        <v>0.05862452206022582</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0289145654587166</v>
+        <v>0.05076400579431845</v>
       </c>
       <c r="G142" t="n">
+        <v>0.04398944312128734</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.0304210214237846</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06055368618082246</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.05944455637243012</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.0596994316871975</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.09291197640290588</v>
+        <v>0.06012468345229161</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05941468990823693</v>
+        <v>0.05959919216575096</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0289145654587166</v>
+        <v>0.09147805883286886</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06055368618082246</v>
+        <v>0.05939589735049195</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02891273248239569</v>
+        <v>0.05088939995175754</v>
       </c>
       <c r="G143" t="n">
+        <v>0.04456073459039497</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.03009188056236957</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06134009768966432</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.05916562567729566</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06047474898183643</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.09270727530849726</v>
+        <v>0.06041243279277403</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06018630925769455</v>
+        <v>0.06037320764842304</v>
       </c>
       <c r="N143" t="n">
-        <v>0.02891273248239569</v>
+        <v>0.09128300945975865</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06134009768966432</v>
+        <v>0.06016727264075809</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02871330566443731</v>
+        <v>0.05100972725234967</v>
       </c>
       <c r="G144" t="n">
+        <v>0.0451320260595026</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.03026169034210482</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06212650919850617</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.05828368979937454</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06125006627647536</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.09189443336268188</v>
+        <v>0.05949511585463654</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06095792860715218</v>
+        <v>0.06114722313109514</v>
       </c>
       <c r="N144" t="n">
-        <v>0.02871330566443731</v>
+        <v>0.09128006738371425</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06212650919850617</v>
+        <v>0.06093864793102421</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02861726896690689</v>
+        <v>0.05112491300591974</v>
       </c>
       <c r="G145" t="n">
+        <v>0.04570331752861023</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.03003085803505534</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06291292070734802</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.0580000477932259</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06202538357111429</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.09197400891705387</v>
+        <v>0.05917358213093607</v>
       </c>
       <c r="M145" t="n">
-        <v>0.0617295479566098</v>
+        <v>0.06192123861376722</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02861726896690689</v>
+        <v>0.09017019815988381</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06291292070734802</v>
+        <v>0.06171002322129034</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02822560635186988</v>
+        <v>0.05123488252229281</v>
       </c>
       <c r="G146" t="n">
+        <v>0.04627460899771785</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.02979979091328608</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06369933221618987</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.05751599871340907</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06280070086575322</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.09164656032320717</v>
+        <v>0.05914868111472948</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06250116730606742</v>
+        <v>0.06269525409643932</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02822560635186988</v>
+        <v>0.09055436734341576</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06369933221618987</v>
+        <v>0.06248139851155646</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02803930178139173</v>
+        <v>0.05133956111129385</v>
       </c>
       <c r="G147" t="n">
+        <v>0.04684590046682548</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.02956889624886203</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06448574372503173</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.05773284161448314</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06357601816039214</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.09111264593273571</v>
+        <v>0.05912126229907372</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06327278665552505</v>
+        <v>0.06346926957911141</v>
       </c>
       <c r="N147" t="n">
-        <v>0.02803930178139173</v>
+        <v>0.09003354048945855</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06448574372503173</v>
+        <v>0.06325277380182259</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02795933921753792</v>
+        <v>0.0514388740827478</v>
       </c>
       <c r="G148" t="n">
+        <v>0.04741719193593311</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.02973858131384813</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06527215523387357</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.05735187555100732</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06435133545503108</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.09137282409723357</v>
+        <v>0.05859217517702564</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06404440600498267</v>
+        <v>0.06424328506178349</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02795933921753792</v>
+        <v>0.08880868315316054</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06527215523387357</v>
+        <v>0.06402414909208873</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02778670262237386</v>
+        <v>0.05153274674647968</v>
       </c>
       <c r="G149" t="n">
+        <v>0.04798848340504074</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.02930925338030939</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06605856674271542</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.0569743995775408</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06512665274967</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.09042765316829471</v>
+        <v>0.05796226924164219</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06481602535444028</v>
+        <v>0.06501730054445559</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02778670262237386</v>
+        <v>0.08918076088967009</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06605856674271542</v>
+        <v>0.06479552438235485</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02752237595796503</v>
+        <v>0.05162110441231448</v>
       </c>
       <c r="G150" t="n">
+        <v>0.04855977487414836</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.02918131972031074</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06684497825155726</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.05650171274864282</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06590197004430894</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.09017769149751309</v>
+        <v>0.05763239398598025</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06558764470389791</v>
+        <v>0.06579131602712768</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02752237595796503</v>
+        <v>0.0879507392541356</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06684497825155726</v>
+        <v>0.06556689967262098</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02746734318637685</v>
+        <v>0.05170387239007716</v>
       </c>
       <c r="G151" t="n">
+        <v>0.04913106634325599</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.02905518760591716</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06763138976039912</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.05593511411887256</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06667728733894787</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.09032349743648266</v>
+        <v>0.05750339890309669</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06635926405335553</v>
+        <v>0.06656533150979978</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02746734318637685</v>
+        <v>0.08791958380170545</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06763138976039912</v>
+        <v>0.06633827496288711</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02722075610566008</v>
+        <v>0.0517809759895927</v>
       </c>
       <c r="G152" t="n">
+        <v>0.04970235781236362</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.02903126430919362</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06841780126924098</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.05537590274278914</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06745260463358678</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.08956562933679746</v>
+        <v>0.05697613348604846</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06713088340281315</v>
+        <v>0.06733934699247186</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02722075610566008</v>
+        <v>0.08768826008752806</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06841780126924098</v>
+        <v>0.06710965025315324</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02727577380357205</v>
+        <v>0.05185234052068611</v>
       </c>
       <c r="G153" t="n">
+        <v>0.05027364928147125</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.02910995710220513</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06920421277808282</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.05552537767495183</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06822792192822572</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.08920464555005159</v>
+        <v>0.05655144722789246</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06790250275227078</v>
+        <v>0.06811336247514395</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02727577380357205</v>
+        <v>0.08665773366675167</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06920421277808282</v>
+        <v>0.06788102554341938</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02683160576853798</v>
+        <v>0.05191789129318234</v>
       </c>
       <c r="G154" t="n">
+        <v>0.05084494075057888</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.0289916732570166</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.06999062428692467</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.05498483796991982</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06900323922286465</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.08874110442783889</v>
+        <v>0.05683018962168554</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06867412210172839</v>
+        <v>0.06888737795781603</v>
       </c>
       <c r="N154" t="n">
-        <v>0.02683160576853798</v>
+        <v>0.08692897009452488</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06999062428692467</v>
+        <v>0.0686524008336855</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02678821283391755</v>
+        <v>0.05197755361690642</v>
       </c>
       <c r="G155" t="n">
+        <v>0.0514162322196865</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.02867682004569304</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07077703579576652</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.05455558268225227</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06977855651750357</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.08867556432175333</v>
+        <v>0.05611321016048468</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06944574145118602</v>
+        <v>0.06966139344048812</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02678821283391755</v>
+        <v>0.08640293492599593</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07077703579576652</v>
+        <v>0.06942377612395163</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02664555583307036</v>
+        <v>0.05203125280168328</v>
       </c>
       <c r="G156" t="n">
+        <v>0.05198752368879413</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.02866580474029941</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07156344730460838</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.05423891086650839</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07055387381214251</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.08770858358338901</v>
+        <v>0.05610135833734675</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07021736080064364</v>
+        <v>0.07043540892316022</v>
       </c>
       <c r="N156" t="n">
-        <v>0.02664555583307036</v>
+        <v>0.0862805937163133</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07156344730460838</v>
+        <v>0.07019515141421775</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02660359559935607</v>
+        <v>0.05207891415733793</v>
       </c>
       <c r="G157" t="n">
+        <v>0.05255881515790176</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.02845903461290068</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07234985881345023</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.05393612157724739</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07132919110678143</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.08804072056433987</v>
+        <v>0.0555954836453286</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07098898015010126</v>
+        <v>0.07120942440583231</v>
       </c>
       <c r="N157" t="n">
-        <v>0.02660359559935607</v>
+        <v>0.08536291202062524</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07234985881345023</v>
+        <v>0.07096652670448389</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02636229296613424</v>
+        <v>0.05212046299369533</v>
       </c>
       <c r="G158" t="n">
+        <v>0.05313010662700939</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.02825548928374273</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07313627032229207</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.05394238250944711</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07210450840142035</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.08697253361619983</v>
+        <v>0.05519047892548498</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07176059949955889</v>
+        <v>0.07198343988850439</v>
       </c>
       <c r="N158" t="n">
-        <v>0.02636229296613424</v>
+        <v>0.08484195837809438</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07313627032229207</v>
+        <v>0.07173790199475003</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02642160876676454</v>
+        <v>0.05215582462058051</v>
       </c>
       <c r="G159" t="n">
+        <v>0.05370139809611701</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.02845286909930753</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07392268183113393</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.05355050410529361</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07287982569605929</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.08660458109056307</v>
+        <v>0.05477668151510187</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07253221884901651</v>
+        <v>0.07275745537117649</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02642160876676454</v>
+        <v>0.08460357320399686</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07392268183113393</v>
+        <v>0.07250927728501615</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02628150383460653</v>
+        <v>0.05218492434781841</v>
       </c>
       <c r="G160" t="n">
+        <v>0.05427268956522464</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.02835102191304152</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07470909333997577</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.05286026745865735</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07365514299069822</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.08633742133902339</v>
+        <v>0.05495424564180101</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07330383819847412</v>
+        <v>0.07353147085384858</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02628150383460653</v>
+        <v>0.08384807561741886</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07470909333997577</v>
+        <v>0.07328065257528228</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02614193900301992</v>
+        <v>0.05220768748523404</v>
       </c>
       <c r="G161" t="n">
+        <v>0.05484398103433227</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.02824983250251607</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07549550484881762</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.05287147267087036</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07443046028533715</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.08647161271317483</v>
+        <v>0.05432349846599857</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07407545754793175</v>
+        <v>0.07430548633652068</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02614193900301992</v>
+        <v>0.08367601612997133</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07549550484881762</v>
+        <v>0.0740520278655484</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02590287510536424</v>
+        <v>0.05222403934265236</v>
       </c>
       <c r="G162" t="n">
+        <v>0.0554152725034399</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.02794918564530248</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07628191635765946</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.05278391984326467</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07520577757997608</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.08640771356461135</v>
+        <v>0.05378476714811056</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07484707689738938</v>
+        <v>0.07507950181919276</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02590287510536424</v>
+        <v>0.08308794525326524</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07628191635765946</v>
+        <v>0.07482340315581454</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02566427297499918</v>
+        <v>0.05223390522989835</v>
       </c>
       <c r="G163" t="n">
+        <v>0.05598656397254752</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.02794896611897212</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07706832786650132</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.05189740907717216</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.075981094874615</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.08544628224492712</v>
+        <v>0.05333837884855316</v>
       </c>
       <c r="M163" t="n">
-        <v>0.075618696246847</v>
+        <v>0.07585351730186485</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02566427297499918</v>
+        <v>0.08218441349891159</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07706832786650132</v>
+        <v>0.07559477844608067</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02562609344528433</v>
+        <v>0.05223721045679704</v>
       </c>
       <c r="G164" t="n">
+        <v>0.05655785544165515</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.0278490587010963</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07785473937534318</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.05191174047392483</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07675641216925393</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.08558787710571586</v>
+        <v>0.05348466072774241</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07639031559630463</v>
+        <v>0.07662753278453695</v>
       </c>
       <c r="N164" t="n">
-        <v>0.02562609344528433</v>
+        <v>0.08226597137852137</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07785473937534318</v>
+        <v>0.0763661537363468</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02558829734957932</v>
+        <v>0.05223721045679704</v>
       </c>
       <c r="G165" t="n">
+        <v>0.05655785544165515</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.02774934816924637</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07864115088418502</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.05152671413485455</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07753172946389286</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.08453305649857173</v>
+        <v>0.05262393994609441</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07716193494576225</v>
+        <v>0.07740154826720903</v>
       </c>
       <c r="N165" t="n">
-        <v>0.02558829734957932</v>
+        <v>0.08183316940370555</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07864115088418502</v>
+        <v>0.07713752902661293</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02525084552124376</v>
+        <v>0.05134590405991706</v>
       </c>
       <c r="G166" t="n">
+        <v>0.05655758691319114</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.0274497193009937</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07942756239302687</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.0514421301612934</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.0783070467585318</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.0848823787750887</v>
+        <v>0.05285654366402529</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07793355429521986</v>
+        <v>0.07817556374988112</v>
       </c>
       <c r="N166" t="n">
-        <v>0.02525084552124376</v>
+        <v>0.08138655808607509</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07942756239302687</v>
+        <v>0.07790890431687907</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02521369879363726</v>
+        <v>0.0504646568300853</v>
       </c>
       <c r="G167" t="n">
+        <v>0.05655731838472713</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.02755005687390956</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.08021397390186873</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.05125778865457337</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07908236405317072</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.08393542327968739</v>
+        <v>0.05198279904195108</v>
       </c>
       <c r="M167" t="n">
-        <v>0.0787051736446775</v>
+        <v>0.07894957923255322</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02521369879363726</v>
+        <v>0.08012668793724093</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08021397390186873</v>
+        <v>0.07868027960714519</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02497681800011947</v>
+        <v>0.04959395900724355</v>
       </c>
       <c r="G168" t="n">
+        <v>0.0565570498562631</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.02755024566556533</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08100038541071058</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.05067348971602625</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.07985768134780964</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.08358983665686903</v>
+        <v>0.05160303324028792</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07947679299413511</v>
+        <v>0.0797235947152253</v>
       </c>
       <c r="N168" t="n">
-        <v>0.02497681800011947</v>
+        <v>0.07945410946881409</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08100038541071058</v>
+        <v>0.07945165489741131</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02474016397405002</v>
+        <v>0.04873430083144718</v>
       </c>
       <c r="G169" t="n">
+        <v>0.05655678132779909</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.02745017045353233</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08178679691955243</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.05068903344698422</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08063299864244858</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.08384478078782703</v>
+        <v>0.05111757341945197</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08024841234359274</v>
+        <v>0.0804976101978974</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02474016397405002</v>
+        <v>0.07916937319240569</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08178679691955243</v>
+        <v>0.08022303018767744</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02490369754878849</v>
+        <v>0.04788617254263757</v>
       </c>
       <c r="G170" t="n">
+        <v>0.05655651279933507</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.02724971601538193</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08257320842839427</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.05040421994877906</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.0814083159370875</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.08269949129823512</v>
+        <v>0.05102674673985919</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08102003169305036</v>
+        <v>0.08127162568056949</v>
       </c>
       <c r="N170" t="n">
-        <v>0.02490369754878849</v>
+        <v>0.07897302961962649</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08257320842839427</v>
+        <v>0.08099440547794357</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02456737955769452</v>
+        <v>0.04705006438079424</v>
       </c>
       <c r="G171" t="n">
+        <v>0.05655624427087105</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.02694876712868545</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08335961993723613</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.04971884932274279</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08218363323172644</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.08285320381376732</v>
+        <v>0.05053088036192574</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08179165104250798</v>
+        <v>0.08204564116324158</v>
       </c>
       <c r="N171" t="n">
-        <v>0.02456737955769452</v>
+        <v>0.07766562926208764</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08335961993723613</v>
+        <v>0.0817657807682097</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02433117083412774</v>
+        <v>0.04622646658586114</v>
       </c>
       <c r="G172" t="n">
+        <v>0.05655597574240703</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.02684720857101419</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08414603144607798</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.04973272167020745</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08295895052636537</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.08210515396009715</v>
+        <v>0.04993030144606772</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08256327039196561</v>
+        <v>0.08281965664591366</v>
       </c>
       <c r="N172" t="n">
-        <v>0.02433117083412774</v>
+        <v>0.07704772263139997</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08414603144607798</v>
+        <v>0.08253715605847582</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02429503221144774</v>
+        <v>0.0454158693978895</v>
       </c>
       <c r="G173" t="n">
+        <v>0.05655570721394301</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.02704492511993953</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08493244295491982</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.04944563709250491</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08373426782100429</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.0822545773628986</v>
+        <v>0.0499253371527012</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08333488974142322</v>
+        <v>0.08359367212858575</v>
       </c>
       <c r="N173" t="n">
-        <v>0.02429503221144774</v>
+        <v>0.07701986023917456</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08493244295491982</v>
+        <v>0.08330853134874196</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02415892452301419</v>
+        <v>0.04461876305682273</v>
       </c>
       <c r="G174" t="n">
+        <v>0.056555438685479</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.0268418015530328</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08571885446376167</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.04915739569096716</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08450958511564322</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.08160070964784544</v>
+        <v>0.04971631464224233</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08410650909088084</v>
+        <v>0.08436768761125785</v>
       </c>
       <c r="N174" t="n">
-        <v>0.02415892452301419</v>
+        <v>0.07628259259702236</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08571885446376167</v>
+        <v>0.08407990663900808</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02422280860218666</v>
+        <v>0.04383563780264033</v>
       </c>
       <c r="G175" t="n">
+        <v>0.05655517015701499</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.02653772264786533</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08650526597260352</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.04856779756692622</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08528490241028215</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.0810427864406113</v>
+        <v>0.04910356107510716</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08487812844033847</v>
+        <v>0.08514170309392993</v>
       </c>
       <c r="N175" t="n">
-        <v>0.02422280860218666</v>
+        <v>0.07523647021655439</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08650526597260352</v>
+        <v>0.08485128192927421</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02408664528232483</v>
+        <v>0.04306698387528871</v>
       </c>
       <c r="G176" t="n">
+        <v>0.05655490162855096</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.02643257318200846</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08729167748144538</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.04827664282171398</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08606021970492107</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.08058004336687014</v>
+        <v>0.0482874036117118</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08564974778979609</v>
+        <v>0.08591571857660202</v>
       </c>
       <c r="N176" t="n">
-        <v>0.02408664528232483</v>
+        <v>0.07538204360938155</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08729167748144538</v>
+        <v>0.08562265721954035</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02375039539678825</v>
+        <v>0.04231329151481428</v>
       </c>
       <c r="G177" t="n">
+        <v>0.05655463310008695</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.02662623793303355</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08807808899028723</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.04848373155666241</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08683553699956001</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.08021171605229577</v>
+        <v>0.0480681694124723</v>
       </c>
       <c r="M177" t="n">
-        <v>0.0864213671392537</v>
+        <v>0.08668973405927412</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02375039539678825</v>
+        <v>0.07431986328711493</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08807808899028723</v>
+        <v>0.08639403250980647</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02371401977893661</v>
+        <v>0.04157505096116281</v>
       </c>
       <c r="G178" t="n">
+        <v>0.05655436457162293</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.02621860167851191</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08886450049912907</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.0476888638731035</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08761085429419894</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.08063704012256184</v>
+        <v>0.04794618563780484</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08719298648871134</v>
+        <v>0.0874637495419462</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02371401977893661</v>
+        <v>0.07395047976136543</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08886450049912907</v>
+        <v>0.08716540780007261</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02337747926212948</v>
+        <v>0.04085275245431382</v>
       </c>
       <c r="G179" t="n">
+        <v>0.05655409604315892</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.02620954919601486</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08965091200797093</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.04789183987236922</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08838617158883787</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.07945525120334224</v>
+        <v>0.04702177944812544</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08796460583816895</v>
+        <v>0.0882377650246183</v>
       </c>
       <c r="N179" t="n">
-        <v>0.02337747926212948</v>
+        <v>0.07277444354374407</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08965091200797093</v>
+        <v>0.08793678309033873</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0235407346797265</v>
+        <v>0.04014688623421645</v>
       </c>
       <c r="G180" t="n">
+        <v>0.05655382751469489</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.02629896526311377</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09043732351681279</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.04739245965579153</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.08916148888347679</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.07956558492031063</v>
+        <v>0.0466952780038502</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08873622518762658</v>
+        <v>0.08901178050729039</v>
       </c>
       <c r="N180" t="n">
-        <v>0.0235407346797265</v>
+        <v>0.07179230514586177</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09043732351681279</v>
+        <v>0.08870815838060486</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.0231037468650873</v>
+        <v>0.03945794254091171</v>
       </c>
       <c r="G181" t="n">
+        <v>0.05655355898623088</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.02618673465737996</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09122373502565463</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.04729052332470238</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.08993680617811572</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.07956727689914106</v>
+        <v>0.04646700846539523</v>
       </c>
       <c r="M181" t="n">
-        <v>0.0895078445370842</v>
+        <v>0.08978579598996247</v>
       </c>
       <c r="N181" t="n">
-        <v>0.0231037468650873</v>
+        <v>0.07150461507932959</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09122373502565463</v>
+        <v>0.089479533670871</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0231664766515715</v>
+        <v>0.03878641161434802</v>
       </c>
       <c r="G182" t="n">
+        <v>0.05655329045776686</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.0258727421563848</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09201014653449648</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.04698583098043371</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09071212347275465</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.07885956276550704</v>
+        <v>0.04573729799317666</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09027946388654182</v>
+        <v>0.09055981147263457</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0231664766515715</v>
+        <v>0.07061192385575843</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09201014653449648</v>
+        <v>0.09025090896113712</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02282888487253869</v>
+        <v>0.03813278369450491</v>
       </c>
       <c r="G183" t="n">
+        <v>0.05655302192930284</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.02585687253769958</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09279655804333833</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.04657818272431755</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09148744076739358</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.07784167814508258</v>
+        <v>0.04560647374761054</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09105108323599946</v>
+        <v>0.09133382695530666</v>
       </c>
       <c r="N183" t="n">
-        <v>0.02282888487253869</v>
+        <v>0.06971478198675934</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09279655804333833</v>
+        <v>0.09102228425140325</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02299093236134853</v>
+        <v>0.03749754902133464</v>
       </c>
       <c r="G184" t="n">
+        <v>0.05655275340083882</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.02553901057889567</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09358296955218019</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.04636737865768578</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.0922627580620325</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.07771285866354138</v>
+        <v>0.04537486288911299</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09182270258545708</v>
+        <v>0.09210784243797875</v>
       </c>
       <c r="N184" t="n">
-        <v>0.02299093236134853</v>
+        <v>0.06921373998394331</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09358296955218019</v>
+        <v>0.09179365954166939</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02285257995136061</v>
+        <v>0.03688119783487204</v>
       </c>
       <c r="G185" t="n">
+        <v>0.0565524848723748</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.02551904105754438</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09436938106102204</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.04565321888187043</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09303807535667143</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.07737233994655718</v>
+        <v>0.04484279257810003</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09259432193491469</v>
+        <v>0.09288185792065085</v>
       </c>
       <c r="N185" t="n">
-        <v>0.02285257995136061</v>
+        <v>0.06880934835892122</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09436938106102204</v>
+        <v>0.09256503483193551</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02261378847593458</v>
+        <v>0.0362842203750686</v>
       </c>
       <c r="G186" t="n">
+        <v>0.05655221634391079</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.02539684875121707</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09515579256986388</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.04523550349820346</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09381339265131036</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.07731935761980385</v>
+        <v>0.04431058997498788</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09336594128437233</v>
+        <v>0.09365587340332293</v>
       </c>
       <c r="N186" t="n">
-        <v>0.02261378847593458</v>
+        <v>0.06760215762330418</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09515579256986388</v>
+        <v>0.09333641012220165</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02247451876843003</v>
+        <v>0.03570710688190384</v>
       </c>
       <c r="G187" t="n">
+        <v>0.05655194781544678</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.0251723184374851</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09594220407870573</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.0454140326080168</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.0945887099459493</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.07605314730895513</v>
+        <v>0.04367858224019255</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09413756063382994</v>
+        <v>0.09442988888599502</v>
       </c>
       <c r="N187" t="n">
-        <v>0.02247451876843003</v>
+        <v>0.06699271828870312</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09594220407870573</v>
+        <v>0.09410778541246777</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02243473166220661</v>
+        <v>0.03515034759533345</v>
       </c>
       <c r="G188" t="n">
+        <v>0.05655167928698275</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.02504533489391976</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09672861558754758</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.04458860631264241</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09536402724058822</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.07647294463968485</v>
+        <v>0.04344709653413018</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09490917998328756</v>
+        <v>0.0952039043686671</v>
       </c>
       <c r="N188" t="n">
-        <v>0.02243473166220661</v>
+        <v>0.06638158086672902</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09672861558754758</v>
+        <v>0.0948791607027339</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02219438799062393</v>
+        <v>0.0346144327553855</v>
       </c>
       <c r="G189" t="n">
+        <v>0.05655141075851874</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.0251157828980924</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09751502709638943</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.04475902471341231</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09613934453522716</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.07587798523766681</v>
+        <v>0.04291646001721683</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09568079933274519</v>
+        <v>0.09597791985133919</v>
       </c>
       <c r="N189" t="n">
-        <v>0.02219438799062393</v>
+        <v>0.06596929586899275</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09751502709638943</v>
+        <v>0.09565053599300004</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02185344858704162</v>
+        <v>0.03409785078876523</v>
       </c>
       <c r="G190" t="n">
+        <v>0.05655114223005472</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.02478354722757437</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09830143860523127</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.04392508791165842</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09691466182986608</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.0746675047285747</v>
+        <v>0.04228699984986858</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09645241868220281</v>
+        <v>0.09675193533401129</v>
       </c>
       <c r="N190" t="n">
-        <v>0.02185344858704162</v>
+        <v>0.06555641380710547</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09830143860523127</v>
+        <v>0.09642191128326616</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02201187428481928</v>
+        <v>0.0335890810559538</v>
       </c>
       <c r="G191" t="n">
+        <v>0.05655087370159071</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.02494851265993699</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09908785011407313</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.04388659600871267</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.097689979124505</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.07404073873808253</v>
+        <v>0.04235904319250158</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09722403803166042</v>
+        <v>0.09752595081668337</v>
       </c>
       <c r="N191" t="n">
-        <v>0.02201187428481928</v>
+        <v>0.06444348519267806</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09908785011407313</v>
+        <v>0.09719328657353228</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02186962591731652</v>
+        <v>0.03308661198365912</v>
       </c>
       <c r="G192" t="n">
+        <v>0.05655060517312668</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.02481056397275162</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09987426162291499</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.04374334910590708</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09846529641914394</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.07359692289186381</v>
+        <v>0.04163291720553186</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09799565738111805</v>
+        <v>0.09829996629935547</v>
       </c>
       <c r="N192" t="n">
-        <v>0.02186962591731652</v>
+        <v>0.0639310605373215</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09987426162291499</v>
+        <v>0.09796466186379842</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02172666431789301</v>
+        <v>0.03259093381190447</v>
       </c>
       <c r="G193" t="n">
+        <v>0.05655033664466267</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.02456561396384174</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.1006606731317568</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.04319514730457363</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09924061371378286</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.07303529281559262</v>
+        <v>0.04129957365127532</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09876727673057567</v>
+        <v>0.09907398178202756</v>
       </c>
       <c r="N193" t="n">
-        <v>0.02172666431789301</v>
+        <v>0.06320900932469636</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1006606731317568</v>
+        <v>0.09873603715406454</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02128283148979977</v>
+        <v>0.03210253678064736</v>
       </c>
       <c r="G194" t="n">
+        <v>0.05655006811619865</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.02420908820996012</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1014470846405987</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.04244118063342725</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1000159310084218</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.07315508413494254</v>
+        <v>0.04054837154434116</v>
       </c>
       <c r="M194" t="n">
-        <v>0.0995388960800333</v>
+        <v>0.09984799726469964</v>
       </c>
       <c r="N194" t="n">
-        <v>0.02128283148979977</v>
+        <v>0.06206506147668123</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1014470846405987</v>
+        <v>0.09950741244433067</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02143395645463661</v>
+        <v>0.03162191112986729</v>
       </c>
       <c r="G195" t="n">
+        <v>0.05654979958773464</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.0241417219485683</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1022334961494405</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.0421801646344438</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1007912483030607</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.07255553247558749</v>
+        <v>0.04018065738703103</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1003105154294909</v>
+        <v>0.1006220127473717</v>
       </c>
       <c r="N195" t="n">
-        <v>0.02143395645463661</v>
+        <v>0.06110046997599933</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1022334961494405</v>
+        <v>0.1002787877345968</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02117877023688131</v>
+        <v>0.03114954709952344</v>
       </c>
       <c r="G196" t="n">
+        <v>0.05654953105927061</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.02386426714732665</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1030199076582824</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.04181233448075811</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1015665655976997</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.07163587346320105</v>
+        <v>0.03959781117360253</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1010821347789485</v>
+        <v>0.1013960282300438</v>
       </c>
       <c r="N196" t="n">
-        <v>0.02117877023688131</v>
+        <v>0.06071652678061434</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1030199076582824</v>
+        <v>0.1010501630248629</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02111834628005407</v>
+        <v>0.03068593492963643</v>
       </c>
       <c r="G197" t="n">
+        <v>0.0565492625308066</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.02377747577389552</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1038063191671242</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.04173797716227332</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1023418828923386</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.07089534272345732</v>
+        <v>0.03960121289831336</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1018537541284062</v>
+        <v>0.1021700437127159</v>
       </c>
       <c r="N197" t="n">
-        <v>0.02111834628005407</v>
+        <v>0.05961452384849009</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1038063191671242</v>
+        <v>0.1018215383151291</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02085375802767517</v>
+        <v>0.03023156486016507</v>
       </c>
       <c r="G198" t="n">
+        <v>0.05654899400234258</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.02348209979593532</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1045927306759661</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.04145737966889265</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1031172001869775</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.07063317588202983</v>
+        <v>0.03889224255542106</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1026253734778638</v>
+        <v>0.102944059195388</v>
       </c>
       <c r="N198" t="n">
-        <v>0.02085375802767517</v>
+        <v>0.05869575313759029</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1045927306759661</v>
+        <v>0.1025929136053952</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02048607892326484</v>
+        <v>0.02978692713108887</v>
       </c>
       <c r="G199" t="n">
+        <v>0.05654872547387857</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.02337889118110634</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1053791421848079</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.04077082899051918</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1038925174816164</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.06964860856459254</v>
+        <v>0.03867228013918333</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1033969928273214</v>
+        <v>0.1037180746780601</v>
       </c>
       <c r="N199" t="n">
-        <v>0.02048607892326484</v>
+        <v>0.05826150660587875</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1053791421848079</v>
+        <v>0.1033642888956613</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02031638241034332</v>
+        <v>0.02935251198236866</v>
       </c>
       <c r="G200" t="n">
+        <v>0.05654845694541454</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.023268601897069</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1061655536936498</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.04057861211705613</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1046678347762554</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.06884087639681918</v>
+        <v>0.03774270564385784</v>
       </c>
       <c r="M200" t="n">
-        <v>0.104168612176779</v>
+        <v>0.1044920901607322</v>
       </c>
       <c r="N200" t="n">
-        <v>0.02031638241034332</v>
+        <v>0.05701307621131929</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1061655536936498</v>
+        <v>0.1041356641859274</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02044574193243084</v>
+        <v>0.02892880965402183</v>
       </c>
       <c r="G201" t="n">
+        <v>0.05654818841695053</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.02285198391148363</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1069519652024916</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.03988101603840663</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1054431520708943</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.06800921500438356</v>
+        <v>0.03720489906370214</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1049402315262366</v>
+        <v>0.1052661056434043</v>
       </c>
       <c r="N201" t="n">
-        <v>0.02044574193243084</v>
+        <v>0.05685175391187558</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1069519652024916</v>
+        <v>0.1049070394761936</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02017523093304763</v>
+        <v>0.02851631038600871</v>
       </c>
       <c r="G202" t="n">
+        <v>0.05654791988848652</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.02282978919201062</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1077383767113335</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.03967832774447391</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1062184693655332</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.06695286001295936</v>
+        <v>0.03696024039297399</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1057118508756943</v>
+        <v>0.1060401211260764</v>
       </c>
       <c r="N202" t="n">
-        <v>0.02017523093304763</v>
+        <v>0.05617883166551146</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1077383767113335</v>
+        <v>0.1056784147664597</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01990592285571394</v>
+        <v>0.02811550441830885</v>
       </c>
       <c r="G203" t="n">
+        <v>0.0565476513600225</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.0226027697063103</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1085247882201753</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.03927083422516103</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1069937866601722</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.0668268169710573</v>
+        <v>0.03611010962593089</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1064834702251519</v>
+        <v>0.1068141366087485</v>
       </c>
       <c r="N203" t="n">
-        <v>0.01990592285571394</v>
+        <v>0.0551956014301907</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1085247882201753</v>
+        <v>0.1064497900567258</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01973889114395</v>
+        <v>0.02772688199088515</v>
       </c>
       <c r="G204" t="n">
+        <v>0.05654738283155848</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.02217167742204307</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1093111997290172</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.03875882247037124</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1077691039548111</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.06554122851171595</v>
+        <v>0.03565588675683054</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1072550895746095</v>
+        <v>0.1075881520914206</v>
       </c>
       <c r="N204" t="n">
-        <v>0.01973889114395</v>
+        <v>0.05360335516387699</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1093111997290172</v>
+        <v>0.107221165346992</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01967520924127607</v>
+        <v>0.02735093334375096</v>
       </c>
       <c r="G205" t="n">
+        <v>0.05654711430309446</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.02213726430686924</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.110097611237859</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.03854257947000769</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.10854442124945</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.06459960311317164</v>
+        <v>0.03499895177993062</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1080267089240671</v>
+        <v>0.1083621675740926</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01967520924127607</v>
+        <v>0.05330338482453428</v>
       </c>
       <c r="O205" t="n">
-        <v>0.110097611237859</v>
+        <v>0.1079925406372581</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0193159505912124</v>
+        <v>0.0269881487168686</v>
       </c>
       <c r="G206" t="n">
+        <v>0.05654684577463045</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.02200028232844925</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1108840227467009</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.03832239221397352</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1093197385440889</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.0630311444184668</v>
+        <v>0.03464068468948869</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1087983282735248</v>
+        <v>0.1091361830567647</v>
       </c>
       <c r="N206" t="n">
-        <v>0.0193159505912124</v>
+        <v>0.0517969823701262</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1108840227467009</v>
+        <v>0.1087639159275242</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01936218863727916</v>
+        <v>0.02663901835021761</v>
       </c>
       <c r="G207" t="n">
+        <v>0.05654657724616643</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.02176148345444337</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1116704342555428</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.0374985476921719</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1100950558387279</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.06076505607064436</v>
+        <v>0.03368246547976245</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1095699476229824</v>
+        <v>0.1099101985394368</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01936218863727916</v>
+        <v>0.05158543975861651</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1116704342555428</v>
+        <v>0.1095352912177903</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01921499682299664</v>
+        <v>0.02630403248376324</v>
       </c>
       <c r="G208" t="n">
+        <v>0.05654630871770241</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.02142161965251203</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1124568457643846</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.03687133289450598</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1108703731333668</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.05923054171274683</v>
+        <v>0.03352567414500948</v>
       </c>
       <c r="M208" t="n">
-        <v>0.11034156697244</v>
+        <v>0.1106842140221089</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01921499682299664</v>
+        <v>0.05047004894796914</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1124568457643846</v>
+        <v>0.1103066665080565</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01887544859188509</v>
+        <v>0.0259836813575142</v>
       </c>
       <c r="G209" t="n">
+        <v>0.05654604018923839</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.02098144289031559</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1132432572732264</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.03694103481087893</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1116456904280057</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.0567568049878171</v>
+        <v>0.03267169067948747</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1111131863218976</v>
+        <v>0.111458229504781</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01887544859188509</v>
+        <v>0.04935210189614769</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1132432572732264</v>
+        <v>0.1110780417983226</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0187446173874647</v>
+        <v>0.0256784552114351</v>
       </c>
       <c r="G210" t="n">
+        <v>0.05654577166077437</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.02094170513551438</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1140296687820683</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.03620794043119388</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1124210077226447</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.05437304953889777</v>
+        <v>0.03242189507745399</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1118848056713553</v>
+        <v>0.1122322449874531</v>
       </c>
       <c r="N210" t="n">
-        <v>0.0187446173874647</v>
+        <v>0.04833289056111589</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1140296687820683</v>
+        <v>0.1118494170885888</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01892357665325575</v>
+        <v>0.02538884428550545</v>
       </c>
       <c r="G211" t="n">
+        <v>0.05654550313231036</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.02050315835576877</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1148160802909101</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.03597233674535411</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1131963250172836</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.05190847900903145</v>
+        <v>0.03187766733316674</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1126564250208129</v>
+        <v>0.1130062604701252</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01892357665325575</v>
+        <v>0.04711370690083783</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1148160802909101</v>
+        <v>0.1126207923788549</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01871339983277846</v>
+        <v>0.02511533881969327</v>
       </c>
       <c r="G212" t="n">
+        <v>0.05654523460384633</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.02046655451873913</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.115602491799752</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.03563451074326265</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1139716423119225</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.04999229704126101</v>
+        <v>0.03154038744088339</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1134280443702705</v>
+        <v>0.1137802759527973</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01871339983277846</v>
+        <v>0.04699584287327696</v>
       </c>
       <c r="O212" t="n">
-        <v>0.115602491799752</v>
+        <v>0.113392167669121</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01851516036955307</v>
+        <v>0.02485842905400187</v>
       </c>
       <c r="G213" t="n">
+        <v>0.05654496607538232</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.02023264559208582</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1163889033085938</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.03519474941482276</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1147469596065614</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.04775370727862899</v>
+        <v>0.03081143539486147</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1141996637197281</v>
+        <v>0.1145542914354694</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01851516036955307</v>
+        <v>0.04558059043639717</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1163889033085938</v>
+        <v>0.1141635429593871</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01832982296413917</v>
+        <v>0.02461860522839852</v>
       </c>
       <c r="G214" t="n">
+        <v>0.05654469754691831</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.02010218354346921</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1171753148174357</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.03425333974993755</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1155222769012004</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.04582191336417818</v>
+        <v>0.03019219118935873</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1149712830691857</v>
+        <v>0.1153283069181415</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01832982296413917</v>
+        <v>0.04496924154816223</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1171753148174357</v>
+        <v>0.1149349182496533</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.0184499699883513</v>
+        <v>0.02461860522839852</v>
       </c>
       <c r="G215" t="n">
+        <v>0.05654469754691831</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01967592034054967</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1179617263262775</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.03421056873851017</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1162975941958393</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.04332611894095129</v>
+        <v>0.02938403481863272</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1157429024186434</v>
+        <v>0.1161023224008135</v>
       </c>
       <c r="N215" t="n">
-        <v>0.0184499699883513</v>
+        <v>0.04396308816653594</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1179617263262775</v>
+        <v>0.1157062935399194</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01817061143494185</v>
+        <v>0.02398555634204336</v>
       </c>
       <c r="G216" t="n">
+        <v>0.05645178264403011</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.01955460795098754</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1187481378351194</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.03346672337044385</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1170729114904782</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.04109552765199104</v>
+        <v>0.02898834627694108</v>
       </c>
       <c r="M216" t="n">
-        <v>0.116514521768101</v>
+        <v>0.1168763378834856</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01817061143494185</v>
+        <v>0.04286342224948209</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1187481378351194</v>
+        <v>0.1164776688301855</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01829179344031844</v>
+        <v>0.02335965126003795</v>
       </c>
       <c r="G217" t="n">
+        <v>0.05635886774114194</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.01933899834244319</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1195345493439612</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.03342209063564169</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1178482287851171</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.03905934314033999</v>
+        <v>0.02860650555854147</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1172861411175586</v>
+        <v>0.1176503533661577</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01829179344031844</v>
+        <v>0.04197153575496437</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1195345493439612</v>
+        <v>0.1172490441204516</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01811356214088886</v>
+        <v>0.02274123797603491</v>
       </c>
       <c r="G218" t="n">
+        <v>0.05626595283825375</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.01912984348257699</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1203209608528031</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.03267695752400687</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1186235460797561</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.03644676904904098</v>
+        <v>0.02803989265769158</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1180577604670162</v>
+        <v>0.1184243688488298</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01811356214088886</v>
+        <v>0.04128872064094657</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1203209608528031</v>
+        <v>0.1180204194107178</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0182359636730608</v>
+        <v>0.02213066448368715</v>
       </c>
       <c r="G219" t="n">
+        <v>0.05617303793536556</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01872789533904931</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1211073723616449</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.0326316110254426</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.119398863374395</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.03518700902113664</v>
+        <v>0.02788988756864896</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1188293798164739</v>
+        <v>0.1191983843315019</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0182359636730608</v>
+        <v>0.0405162688653925</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1211073723616449</v>
+        <v>0.1187917947009839</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01815904417324198</v>
+        <v>0.02152827877664749</v>
       </c>
       <c r="G220" t="n">
+        <v>0.05608012303247736</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.01863390587952046</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1218937838704868</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.03198633812985194</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1201741806690339</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.03360926669966974</v>
+        <v>0.02765787028567132</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1196009991659315</v>
+        <v>0.119972399814174</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01815904417324198</v>
+        <v>0.03995547238626601</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1218937838704868</v>
+        <v>0.11956316999125</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01788284977784008</v>
+        <v>0.02093442884856882</v>
       </c>
       <c r="G221" t="n">
+        <v>0.05598720812958918</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.01864862707165089</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1226801953793286</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.03164142582713816</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1209494979636729</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.03144274572768291</v>
+        <v>0.02684522080301621</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1203726185153891</v>
+        <v>0.1207464152968461</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01788284977784008</v>
+        <v>0.03890762316153068</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1226801953793286</v>
+        <v>0.1203345452815162</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01780742662326286</v>
+        <v>0.0203494626931038</v>
       </c>
       <c r="G222" t="n">
+        <v>0.055894293226701</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.01837281088310087</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1234666068881705</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.03089716110720434</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1217248152583118</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.03001664974821883</v>
+        <v>0.0263533191149414</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1211442378648467</v>
+        <v>0.1215204307795182</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01780742662326286</v>
+        <v>0.03797401314915044</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1234666068881705</v>
+        <v>0.1211059205717823</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.017732820845918</v>
+        <v>0.01977372830390534</v>
       </c>
       <c r="G223" t="n">
+        <v>0.0558013783238128</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.01810720928153083</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1242530183970123</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.03025383095995374</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1225001325529507</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.02946018240432025</v>
+        <v>0.02608354521570441</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1219158572143044</v>
+        <v>0.1222944462621903</v>
       </c>
       <c r="N223" t="n">
-        <v>0.017732820845918</v>
+        <v>0.03685593430708906</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1242530183970123</v>
+        <v>0.1218772958620484</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01765907858221322</v>
+        <v>0.01920757367462632</v>
       </c>
       <c r="G224" t="n">
+        <v>0.05570846342092463</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.01785257423460113</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1250394299058542</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.02991172237528938</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1232754498475897</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.02840254733902986</v>
+        <v>0.02563727909956293</v>
       </c>
       <c r="M224" t="n">
-        <v>0.122687476563762</v>
+        <v>0.1230684617448624</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01765907858221322</v>
+        <v>0.03625467859331016</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1250394299058542</v>
+        <v>0.1226486711523146</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01778624596855624</v>
+        <v>0.01865134679891942</v>
       </c>
       <c r="G225" t="n">
+        <v>0.05561554851803643</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.01790965770997208</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.125825841414696</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.0297711223431146</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1240507671422286</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.02877294819539039</v>
+        <v>0.02561590076077458</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1234590959132196</v>
+        <v>0.1238424772275344</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01778624596855624</v>
+        <v>0.03497153796577762</v>
       </c>
       <c r="O225" t="n">
-        <v>0.125825841414696</v>
+        <v>0.1234200464425807</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01771436914135477</v>
+        <v>0.01810539567043752</v>
       </c>
       <c r="G226" t="n">
+        <v>0.05552263361514825</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.0178792116753041</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1266122529235379</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.0293323178533324</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1248260844368675</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.02861545882877503</v>
+        <v>0.02512079019359698</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1242307152626772</v>
+        <v>0.1246164927102065</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01771436914135477</v>
+        <v>0.03420780438245524</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1266122529235379</v>
+        <v>0.1241914217328468</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01734349423701653</v>
+        <v>0.01757006828283352</v>
       </c>
       <c r="G227" t="n">
+        <v>0.05542971871226007</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.01746198809825752</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1273986644323797</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.0284955958958461</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1256014017315064</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.0283781463875496</v>
+        <v>0.02525332739228781</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1250023346121348</v>
+        <v>0.1253905081928786</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01734349423701653</v>
+        <v>0.03386476980130682</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1273986644323797</v>
+        <v>0.1249627970231129</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01727366739194919</v>
+        <v>0.0170457126297601</v>
       </c>
       <c r="G228" t="n">
+        <v>0.05533680380937187</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.01735873894649272</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1281850759412216</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.02846120716709208</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1263767190261454</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.02814203845627333</v>
+        <v>0.02461489235110464</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1257739539615924</v>
+        <v>0.1261645236755507</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01727366739194919</v>
+        <v>0.03314372618029604</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1281850759412216</v>
+        <v>0.1257341723133791</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01740493474256051</v>
+        <v>0.01653267670487014</v>
       </c>
       <c r="G229" t="n">
+        <v>0.05524388890648368</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.01727021618767002</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1289714874500635</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.02762727564024833</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1271520363207843</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.02820712355416427</v>
+        <v>0.02440686506430523</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1265455733110501</v>
+        <v>0.1269385391582228</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01740493474256051</v>
+        <v>0.03214596547738668</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1289714874500635</v>
+        <v>0.1265055476036452</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.0171373424252582</v>
+        <v>0.01603130850181646</v>
       </c>
       <c r="G230" t="n">
+        <v>0.0551509740035955</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.01729707295323675</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1297578989589053</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.0277926151609007</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1279273536154232</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.02827339020044028</v>
+        <v>0.02433045509996878</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1273171926605077</v>
+        <v>0.1277125546408949</v>
       </c>
       <c r="N230" t="n">
-        <v>0.0171373424252582</v>
+        <v>0.0317726686122537</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1297578989589053</v>
+        <v>0.1272769228939113</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01717093657644997</v>
+        <v>0.01554195601425194</v>
       </c>
       <c r="G231" t="n">
+        <v>0.05505805910070732</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.01733059710634473</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1305443104677471</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.02695722657528274</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1287026709100622</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.02834082691431927</v>
+        <v>0.02426804814210981</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1280888120099653</v>
+        <v>0.128486570123567</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01717093657644997</v>
+        <v>0.03071265054403705</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1305443104677471</v>
+        <v>0.1280482981841775</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01710576333254352</v>
+        <v>0.01506496723582929</v>
       </c>
       <c r="G232" t="n">
+        <v>0.05496514419781912</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.01726483885059309</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.131330721976589</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.02672111072962782</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1294779882047011</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.02820942221501915</v>
+        <v>0.02400729994492626</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1288604313594229</v>
+        <v>0.1292605856062391</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01710576333254352</v>
+        <v>0.03085790539977351</v>
       </c>
       <c r="O232" t="n">
-        <v>0.131330721976589</v>
+        <v>0.1288196734744436</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01724186882994656</v>
+        <v>0.01460069016020137</v>
       </c>
       <c r="G233" t="n">
+        <v>0.05487222929493094</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.01729987614656424</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1321171334854308</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.02638426847016948</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.13025330549934</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.02837916462175788</v>
+        <v>0.0240484067824081</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1296320507088806</v>
+        <v>0.1300346010889112</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01724186882994656</v>
+        <v>0.03010856380987043</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1321171334854308</v>
+        <v>0.1295910487647097</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01697929920506681</v>
+        <v>0.01414947278102105</v>
       </c>
       <c r="G234" t="n">
+        <v>0.05477931439204275</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.01723578695484057</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1329035449942727</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.0260467006431411</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1310286227939789</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.02795004265375339</v>
+        <v>0.02359156492854536</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1304036700583382</v>
+        <v>0.1308086165715833</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01697929920506681</v>
+        <v>0.02896475640473511</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1329035449942727</v>
+        <v>0.1303624240549758</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.016818100594312</v>
+        <v>0.01371166309194106</v>
       </c>
       <c r="G235" t="n">
+        <v>0.05468639948915457</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.01717264923600452</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1336899565031145</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.02500840809477617</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1318039400886179</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.02822204483022361</v>
+        <v>0.02333697065732804</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1311752894077958</v>
+        <v>0.1315826320542554</v>
       </c>
       <c r="N235" t="n">
-        <v>0.016818100594312</v>
+        <v>0.02872661381477493</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1336899565031145</v>
+        <v>0.131133799345242</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01685831913408982</v>
+        <v>0.01328760908661426</v>
       </c>
       <c r="G236" t="n">
+        <v>0.05459348458626637</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.01701054095063848</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1344763680119564</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.0249693916713081</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1325792573832568</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.02839515967038631</v>
+        <v>0.02338482024274618</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1319469087572535</v>
+        <v>0.1323566475369274</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01685831913408982</v>
+        <v>0.02809426667039727</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1344763680119564</v>
+        <v>0.1319051746355081</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.016700000960808</v>
+        <v>0.01287765875869352</v>
       </c>
       <c r="G237" t="n">
+        <v>0.05450056968337819</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.01684954005932482</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1352627795207982</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.02462965221897043</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1333545746778957</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.02806937569345963</v>
+        <v>0.02323530995878983</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1327185281067111</v>
+        <v>0.1331306630195996</v>
       </c>
       <c r="N237" t="n">
-        <v>0.016700000960808</v>
+        <v>0.02746784560200954</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1352627795207982</v>
+        <v>0.1326765499257742</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01664319221087422</v>
+        <v>0.01248216010183156</v>
       </c>
       <c r="G238" t="n">
+        <v>0.05440765478049001</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.01698972452264601</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1360491910296401</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.02408919058399658</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1341298919725346</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.02764468141866128</v>
+        <v>0.02338863607944897</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1334901474561687</v>
+        <v>0.1339046785022716</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01664319221087422</v>
+        <v>0.02654748124001904</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1360491910296401</v>
+        <v>0.1334479252160403</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01668793902069624</v>
+        <v>0.01210146110968124</v>
       </c>
       <c r="G239" t="n">
+        <v>0.05431473987760181</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.01673117230118439</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.136835602538482</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.02374800761262003</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1349052092671736</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.02842106536520933</v>
+        <v>0.02274499487871356</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1342617668056263</v>
+        <v>0.1346786939849437</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01668793902069624</v>
+        <v>0.02573330421483311</v>
       </c>
       <c r="O239" t="n">
-        <v>0.136835602538482</v>
+        <v>0.1342193005063065</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01653428752668175</v>
+        <v>0.01173448880181305</v>
       </c>
       <c r="G240" t="n">
+        <v>0.05422182497471362</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.01677396135552239</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1376220140473238</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.02330610415107415</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1356805265618125</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.02839851605232163</v>
+        <v>0.02290458263057377</v>
       </c>
       <c r="M240" t="n">
-        <v>0.135033386155084</v>
+        <v>0.1354527094676158</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01653428752668175</v>
+        <v>0.02592544515685929</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1376220140473238</v>
+        <v>0.1349906757965726</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01678228386523843</v>
+        <v>0.01137306532738579</v>
       </c>
       <c r="G241" t="n">
+        <v>0.05412891007182544</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.01671816964624244</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1384084255561656</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.02276348104559248</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1364558438564514</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.0278770219992161</v>
+        <v>0.02266759560901949</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1358050055045416</v>
+        <v>0.1362267249502879</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01678228386523843</v>
+        <v>0.02472403469650469</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1384084255561656</v>
+        <v>0.1357620510868388</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01673197417277406</v>
+        <v>0.01101611770596986</v>
       </c>
       <c r="G242" t="n">
+        <v>0.05403599516893726</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.01676387513392692</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1391948370650075</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.02202013914240844</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1372311611510904</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.02835657172511069</v>
+        <v>0.0226342300880408</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1365766248539992</v>
+        <v>0.13700074043296</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01673197417277406</v>
+        <v>0.02472920346417673</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1391948370650075</v>
+        <v>0.1365334263771049</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0164834045856963</v>
+        <v>0.01066399393121811</v>
       </c>
       <c r="G243" t="n">
+        <v>0.05394308026604906</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.01651115577915825</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1399812485738493</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.02147607928775552</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1380064784457293</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.0278371537492233</v>
+        <v>0.02260468234162774</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1373482442034568</v>
+        <v>0.1377747559156321</v>
       </c>
       <c r="N243" t="n">
-        <v>0.0164834045856963</v>
+        <v>0.02394108209028295</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1399812485738493</v>
+        <v>0.137304801667371</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01643662124041288</v>
+        <v>0.01031704199678341</v>
       </c>
       <c r="G244" t="n">
+        <v>0.05385016536316088</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.01636008954251882</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1407676600826912</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.02163130232786717</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1387817957403682</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.02801875659077185</v>
+        <v>0.02247914864377026</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1381198635529144</v>
+        <v>0.1385487713983042</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01643662124041288</v>
+        <v>0.02335980120523046</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1407676600826912</v>
+        <v>0.1380761769576371</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01649167027333154</v>
+        <v>0.009975609896318502</v>
       </c>
       <c r="G245" t="n">
+        <v>0.05375725046027269</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.01641075438459103</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.141554071591533</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.0206858091089768</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1395571130350071</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.02810136876897418</v>
+        <v>0.02235782526845836</v>
       </c>
       <c r="M245" t="n">
-        <v>0.138891482902372</v>
+        <v>0.1393227868809762</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01649167027333154</v>
+        <v>0.02288549143942675</v>
       </c>
       <c r="O245" t="n">
-        <v>0.141554071591533</v>
+        <v>0.1388475522479033</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01624859782085994</v>
+        <v>0.009640045623476215</v>
       </c>
       <c r="G246" t="n">
+        <v>0.0536643355573845</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.01626322826595732</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1423404831003749</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.02043960047731794</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1403324303296461</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.02788497880304841</v>
+        <v>0.02224090848968216</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1396631022518297</v>
+        <v>0.1400968023636484</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01624859782085994</v>
+        <v>0.02171828342327925</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1423404831003749</v>
+        <v>0.1396189275381694</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01650745001940582</v>
+        <v>0.009310697171909396</v>
       </c>
       <c r="G247" t="n">
+        <v>0.05357142065449631</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.01651758914720004</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1431268946092168</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.01989267727912397</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.141107747624285</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.02826957521221229</v>
+        <v>0.02222859458143159</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1404347216012873</v>
+        <v>0.1408708178463204</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01650745001940582</v>
+        <v>0.02125830778719523</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1431268946092168</v>
+        <v>0.1403903028284355</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01626827300537689</v>
+        <v>0.008987912535270891</v>
       </c>
       <c r="G248" t="n">
+        <v>0.05347850575160813</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.01647391498890165</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1439133061180586</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.01974504036062841</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1418830649189239</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.02815514651568368</v>
+        <v>0.02202107981769677</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1412063409507449</v>
+        <v>0.1416448333289925</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01626827300537689</v>
+        <v>0.02090569516158203</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1439133061180586</v>
+        <v>0.1411616781187016</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.0164311129151809</v>
+        <v>0.008672039707213447</v>
       </c>
       <c r="G249" t="n">
+        <v>0.05338559084871995</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.0163322837516445</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1446997176269005</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.01889669056806467</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1426583822135629</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.0274416812326807</v>
+        <v>0.0214185604724676</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1419779603002025</v>
+        <v>0.1424188488116646</v>
       </c>
       <c r="N249" t="n">
-        <v>0.0164311129151809</v>
+        <v>0.02046057617684699</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1446997176269005</v>
+        <v>0.1419330534089678</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.0161960158852255</v>
+        <v>0.008363426681389917</v>
       </c>
       <c r="G250" t="n">
+        <v>0.05329267594583175</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.01629277339601105</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1454861291357423</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.01844762874766626</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1434336995082018</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.02832916788242118</v>
+        <v>0.02152123281973414</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1427495796496601</v>
+        <v>0.1431928642943367</v>
       </c>
       <c r="N250" t="n">
-        <v>0.0161960158852255</v>
+        <v>0.02022308146339769</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1454861291357423</v>
+        <v>0.1427044286992339</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01626302805191844</v>
+        <v>0.00806242145145316</v>
       </c>
       <c r="G251" t="n">
+        <v>0.05319976104294357</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.01625546188258367</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1462725406445841</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.01799785574566659</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1442090168028407</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.02741759498412294</v>
+        <v>0.02162929313348644</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1435211989991178</v>
+        <v>0.1439668797770088</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01626302805191844</v>
+        <v>0.01909334165164128</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1462725406445841</v>
+        <v>0.1434758039895001</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01603219555166743</v>
+        <v>0.00776937201105591</v>
       </c>
       <c r="G252" t="n">
+        <v>0.05310684614005538</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.01622042717194477</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.147058952153426</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.01764737240829911</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1449843340974797</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.0277069510570041</v>
+        <v>0.02114293768771458</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1442928183485754</v>
+        <v>0.1447408952596809</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01603219555166743</v>
+        <v>0.01877148737198508</v>
       </c>
       <c r="O252" t="n">
-        <v>0.147058952153426</v>
+        <v>0.1442471792797662</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01600356452088018</v>
+        <v>0.007484626353851033</v>
       </c>
       <c r="G253" t="n">
+        <v>0.05301393123716719</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.01598774722467677</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1478453636622679</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.0172961795817973</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1457596513921186</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.02759722462028247</v>
+        <v>0.02106236275640841</v>
       </c>
       <c r="M253" t="n">
-        <v>0.145064437698033</v>
+        <v>0.145514910742353</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01600356452088018</v>
+        <v>0.01835764925483663</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1478453636622679</v>
+        <v>0.1450185545700323</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01617718109596439</v>
+        <v>0.007208532473491382</v>
       </c>
       <c r="G254" t="n">
+        <v>0.05292101633427902</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.01625750000136206</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1486317751711097</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.01714427811239463</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1465349686867575</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.02748840419317583</v>
+        <v>0.02128776461355805</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1458360570474906</v>
+        <v>0.1462889262250251</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01617718109596439</v>
+        <v>0.01755195793060327</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1486317751711097</v>
+        <v>0.1457899298602984</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01625309141332777</v>
+        <v>0.006941438363629704</v>
       </c>
       <c r="G255" t="n">
+        <v>0.05282810143139082</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.01592976346258307</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1494181866799515</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.01649166884632458</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1473102859813964</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.02818047829490233</v>
+        <v>0.02131933953315349</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1466076763969482</v>
+        <v>0.1470629417076972</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01625309141332777</v>
+        <v>0.01735454402969211</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1494181866799515</v>
+        <v>0.1465613051505646</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01623134160937806</v>
+        <v>0.006683692017918852</v>
       </c>
       <c r="G256" t="n">
+        <v>0.05273518652850263</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.01620461556892216</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1502045981887934</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.01613835262982052</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1480856032760354</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.02757343544467983</v>
+        <v>0.02145728378918479</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1473792957464059</v>
+        <v>0.1478369571903693</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01623134160937806</v>
+        <v>0.01676553818251081</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1502045981887934</v>
+        <v>0.1473326804408307</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01611197782052295</v>
+        <v>0.006435641430011629</v>
       </c>
       <c r="G257" t="n">
+        <v>0.05264227162561444</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.01588213428096179</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1509910096976352</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.01558433030911596</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1488609205706743</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.02826726416172609</v>
+        <v>0.02090179365564196</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1481509150958635</v>
+        <v>0.1486109726730414</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01611197782052295</v>
+        <v>0.01598507101946672</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1509910096976352</v>
+        <v>0.1481040557310968</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01609504618317019</v>
+        <v>0.006197634593560902</v>
       </c>
       <c r="G258" t="n">
+        <v>0.05254935672272626</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.0158623975592843</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1517774212064771</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.01532960273044437</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1496362378653132</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.02756195296525921</v>
+        <v>0.02105306540651497</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1489225344453211</v>
+        <v>0.1493849881557134</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01609504618317019</v>
+        <v>0.01581327317096698</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1517774212064771</v>
+        <v>0.1488754310213629</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01608059283372744</v>
+        <v>0.005970019502219447</v>
       </c>
       <c r="G259" t="n">
+        <v>0.05245644181983807</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.01584548336447215</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1525638327153189</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.01437417074003919</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1504115551599522</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.02825749037449704</v>
+        <v>0.0213112953157939</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1496941537947788</v>
+        <v>0.1501590036383855</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01608059283372744</v>
+        <v>0.01575027526741907</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1525638327153189</v>
+        <v>0.1496468063116291</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01606866390860245</v>
+        <v>0.005753144149640094</v>
       </c>
       <c r="G260" t="n">
+        <v>0.05236352691694988</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.01583146965710773</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1533502442241608</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.0141180351841339</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1511868724545911</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.02815386490865751</v>
+        <v>0.02077667965746874</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1504657731442364</v>
+        <v>0.1509330191210576</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01606866390860245</v>
+        <v>0.01519620793923043</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1533502442241608</v>
+        <v>0.1504181816018952</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01605930554420291</v>
+        <v>0.005547356529475647</v>
       </c>
       <c r="G261" t="n">
+        <v>0.0522706120140617</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.01592043439777341</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1541366557330026</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.0135611969089619</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.15196218974923</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.02825106508695857</v>
+        <v>0.02084941470552948</v>
       </c>
       <c r="M261" t="n">
-        <v>0.151237392493694</v>
+        <v>0.1517070346037297</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01605930554420291</v>
+        <v>0.01425120181680828</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1541366557330026</v>
+        <v>0.1511895568921613</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01585256387693657</v>
+        <v>0.005353004635378932</v>
       </c>
       <c r="G262" t="n">
+        <v>0.05217769711117351</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.01581245554705167</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1549230672418445</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.01340365676075667</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1527375070438689</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.0282490794286181</v>
+        <v>0.0208296967339662</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1520090118431516</v>
+        <v>0.1524810500864018</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01585256387693657</v>
+        <v>0.01371538753056006</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1549230672418445</v>
+        <v>0.1519609321824275</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0158484850432111</v>
+        <v>0.005170436461002771</v>
       </c>
       <c r="G263" t="n">
+        <v>0.05208478220828532</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.01580761106552485</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1557094787506864</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.0128454155857517</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1535128243385079</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.02734789645285396</v>
+        <v>0.02101772201676891</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1527806311926093</v>
+        <v>0.1532550655690739</v>
       </c>
       <c r="N263" t="n">
-        <v>0.0158484850432111</v>
+        <v>0.01348889571089312</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1557094787506864</v>
+        <v>0.1527323074726936</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01614711517943423</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.05199186730539714</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.01580597891377537</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1564958902595282</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.01208647423018042</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1542881416331468</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.02804750467888417</v>
+        <v>0.02071368682792757</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1535522505420669</v>
+        <v>0.154029081051746</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01614711517943423</v>
+        <v>0.01317185698821483</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1564958902595282</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1535036827629597</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.0519787094106603</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005662741894727319</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05197897793912431</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006321686131768992</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05197924646758833</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.00697678750159219</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05197951499605234</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007628000794721264</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05197978352451636</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008275280801623722</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05198005205298038</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008918582312823588</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.0519803205814444</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009557860118788709</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05198058910990842</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01019306901004274</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05198085763837244</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01082416377705388</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05198112616683645</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01145109921034546</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05198139469530047</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01207383010038604</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05198166322376448</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01269231123769856</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.0519819317522285</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01330649741275194</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05198220028069252</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01391634341606877</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05198246880915654</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01452180403811836</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05198273733762055</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01512283406942289</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05198300586608457</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01571938830045206</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05198327439454858</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01631142152171484</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.0519835429230126</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01689888852371981</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05198381145147662</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01748174409693726</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05198407997994064</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01805994303188839</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05198434850840466</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01863344011904389</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05198461703686867</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01920219014892456</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05198488556533269</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01976614791200149</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05198515409379671</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02032545280427041</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05198542262226073</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02088116724905453</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05198569115072474</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02143343064234918</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05198595967918876</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.0219821977746262</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05198622820765277</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.0225274234364053</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05198649673611679</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02306906241815857</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05198676526458081</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.0236070695104055</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05198703379304483</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02414139950361845</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05198730232150885</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02467200718830505</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05198757084997286</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02519884735497255</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05198783937843688</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02572187479409391</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05198810790690089</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.0262410442961877</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05198837643536491</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02675631065172718</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05198864496382893</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02726762865123063</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05198891349229295</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02777495308517162</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05198918202075696</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02827823874406813</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05198945054922098</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02877744041839404</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05198971907768499</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02927251289866694</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05198998760614901</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.02976341097536115</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05199025613461303</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03025008943899387</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05199052466307705</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03073250308003975</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05199079319154107</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03121060668901566</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05199106172000509</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03168435505639663</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.0519913302484691</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03215370297269911</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05199159877693312</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03261860522839852</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05199186730539714</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03261860522839852</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.0519787094106603</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03311378082409324</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05207216137047652</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03360427477824012</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05216561333029274</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03408995490992086</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05225906529010896</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03457068903821719</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05235251724992518</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03504634498221091</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05244596920974141</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03551679056098368</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05253942116955762</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03598189359361726</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05263287312937384</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03644152189919341</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05272632508919006</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03689554329679389</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05281977704900629</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03734382560550035</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05291322900882251</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03778623664439457</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05300668096863873</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.0382226442325583</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05310013292845495</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03865291618907326</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05319358488827117</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03907692033302126</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.0532870368480874</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.03949452448348389</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05338048880790362</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.03990559645954298</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05347394076771984</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04031000408028026</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05356739272753606</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04070761516477745</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05366084468735228</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04109829753211629</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.0537542966471685</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04148191900137859</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05384774860698473</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04185834739164594</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05394120056680095</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04222745052200017</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05403465252661717</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04258909621152301</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05412810448643339</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04294315227929619</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05422155644624961</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04329002628315103</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05431500840606584</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.0436328244746667</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05440846036588206</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04397195441167453</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05450191232569828</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04430728391325624</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.0545953642855145</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04463868079849358</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05468881624533072</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04496601288646831</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05478226820514694</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04528914799626215</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05487572016496317</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04560795394695682</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05496917212477938</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04592229855763404</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05506262408459561</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04623204964737559</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05515607604441183</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04653707503526317</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05524952800422805</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.0468372425403786</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05534297996404428</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04713241998180347</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.0554364319238605</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.04742247517861963</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05552988388367672</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04770727594990879</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05562333584349294</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04798669011475266</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05571678780330915</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.04826058549223302</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05581023976312537</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.0485288299014316</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05590369172294161</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.04879129116143009</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05599714368275782</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.04904783709131025</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05609059564257404</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.04929833551015384</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05618404760239026</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.04954265423704258</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05627749956220648</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.04978066109105821</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05637095152202271</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05001222389128245</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05646440348183893</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05023721045679704</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05655785544165515</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04382480697119803</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05655785544165515</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.05045286252291079</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05815291155022746</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.05065242725464939</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05974796765879976</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05083652825866131</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06134302376737207</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05100578914159511</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06293807987594435</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05116083351009929</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06453313598451667</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.05130228497082235</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06612819209308897</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.05143076713041283</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06772324820166127</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05154690359551922</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06931830431023357</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.05165131797279004</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07091336041880587</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05174463386887383</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07250841652737817</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.05182747489041908</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07410347263595048</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.05190046464407429</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07569852874452278</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05196422673648802</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07729358485309508</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05201938477430875</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07888864096166739</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05206656236418502</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.0804836970702397</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05210638311276532</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.082078753178812</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.05213947062669818</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.0836738092873843</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.05216644851263213</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08526886539595661</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.05218794037721563</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08686392150452892</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05220456982709725</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.0884589776131012</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.0522169604689255</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.0900540337216735</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05222573590934885</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09164908983024582</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.05223151975501587</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09324414593881812</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.05223493561257506</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09483920204739041</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05223660708867491</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09643425815596271</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05223715778996394</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09802931426453503</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05223499778633942</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09962437037310733</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.05216120229989841</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1012194264816796</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.05198849249026926</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1028144825902519</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.05172456288135404</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1044095386988242</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.05137710799705483</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1060045948073965</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.05095382236127374</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1075996509159688</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.05046240049791286</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1091947070245411</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.04991053693087422</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1107897631331134</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.04930592618405998</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1123848192416857</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.04865626278137219</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.113979875350258</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.04796924124671293</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1155749314588303</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.04725255610398427</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1171699875674026</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.04651390187708835</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.118765043675975</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04576097308992721</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1203600997845473</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04500146426640294</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1219551558931196</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04424306993041766</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1235502120016919</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04349348460587341</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1251452681102642</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04276040281667231</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1267403242188365</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04205151908671641</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1283353803274088</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04137452793990783</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1299304364359811</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04073712390014866</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1315254925445534</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04014700149134093</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1331205486531257</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.03961185523738681</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.134715604761698</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.03913937966218831</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1363106608702703</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.03872123585755998</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1379057169788426</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.03829949238720102</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1395007730874149</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.03786996009384652</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1410958291959872</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.03743477416902557</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1426908853045595</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.03699606980426731</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1442859414131318</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.03655598219110087</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1458809975217041</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03611664652105536</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1474760536302764</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03568019798565992</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1490711097388487</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.03524877177644365</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.0348245030849357</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1522612219559933</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03440952710266518</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1538562780645656</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03400597902116121</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1554513341731379</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03361599403195292</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1570463902817102</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03324170732656943</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1586414463902825</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03288525409653987</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1602365024988548</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03254876953339336</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1618315586074271</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03223438882865901</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1634266147159994</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03194424717386595</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1650216708245717</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03168047976054331</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.166616726933144</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03144522178022024</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1682117830417163</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.0312406084244258</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1698068391502886</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03106877488468916</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.171401895258861</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03093185635253943</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1729969513674333</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03083198801950574</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1745920074760056</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03077130507711722</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1761870635845779</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03075189621620831</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1777821196931502</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03075194346568585</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1793771758017225</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03075224970006341</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1809722319102948</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03075306244414163</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.182567288018867</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.0307546292227211</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1841623441274394</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03075719756060245</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1857574002360117</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03076101498258626</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.187352456344584</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03076632901347316</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1889475124531563</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03077338717806375</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1905425685617286</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03078243700115866</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1921376246703009</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03079372600755847</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1937326807788732</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03080750172206381</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1953277368874455</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03082401166947529</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1969227929960178</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.0308435033745935</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1985178491045901</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03086622436221906</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2001129052131624</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03089242215715259</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2017079613217347</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03092234428419469</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.203303017430307</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03095623826814598</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2048980735388793</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03099435163380706</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2064931296474516</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03103693190597854</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2080881857560239</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03108422660946102</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2096832418645962</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03113648326905514</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2112782979731685</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03119394940956147</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2128733540817408</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03125687255578066</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2144684101903131</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1220.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1220.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08482480697119804</v>
+        <v>0.06162116313703912</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03482480697119803</v>
+        <v>0.01162116313703911</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01658785544165516</v>
+        <v>0.008797308533853278</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001391045782149172</v>
+        <v>0.004076690752076076</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005712914691076279</v>
+        <v>0.001626429733925144</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001718270809345231</v>
+        <v>0.003755785765647515</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007864115088418503</v>
+        <v>0.001633576938643104</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.005396645033718311</v>
+        <v>0.01518271045946726</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007740154826720903</v>
+        <v>0.002445409965606488</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.009000000000000008</v>
+        <v>0.02617434696171911</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0008175681818181825</v>
+        <v>0.002264477593203274</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002766756735435423</v>
+        <v>0.006456201742799504</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001142582938215256</v>
+        <v>0.002932436177951092</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003960715218546983</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001572823017683701</v>
+        <v>0.003406534090909087</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01045763043258174</v>
+        <v>0.01780441371140942</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001548030965344181</v>
+        <v>0.003273709807323241</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01480965676011409</v>
+        <v>0.0309625957026971</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001542750580532258</v>
+        <v>0.003262262945353819</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004127406342315461</v>
+        <v>0.006665521133249488</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001713874407322884</v>
+        <v>0.004879289201775432</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.005432725755372604</v>
+        <v>0.009752012097613783</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002359234526525551</v>
+        <v>0.004900730815929314</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01499999999999999</v>
+        <v>0.0214846768780122</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.00229396235078053</v>
+        <v>0.004910564710984861</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02030449294906056</v>
+        <v>0.03646522946109643</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002314125870798388</v>
+        <v>0.004893394418030728</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005473268085246036</v>
+        <v>0.009064373447697574</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002285165876430512</v>
+        <v>0.006505718935700578</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.007239694947589505</v>
+        <v>0.01213213533650075</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003145646035367401</v>
+        <v>0.006534307754572417</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01797611327523374</v>
+        <v>0.02504189207313032</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003096061930688361</v>
+        <v>0.006547419614646482</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02662393921954154</v>
+        <v>0.04138397549282596</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003085501161064517</v>
+        <v>0.006524525890707638</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01172974471180438</v>
+        <v>0.002932436177951092</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02582480697119804</v>
+        <v>0.006456201742799504</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006804615446683898</v>
+        <v>0.01162116313703911</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.002856457345538139</v>
+        <v>0.008797308533853278</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.008</v>
+        <v>0.01410375248679199</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003633636363636364</v>
+        <v>0.008167884693215522</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02065350961344031</v>
+        <v>0.02770287889699868</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003870077413360451</v>
+        <v>0.008184274518308101</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03199802094518811</v>
+        <v>0.04450077896073074</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003856876451330646</v>
+        <v>0.008155657363384548</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008121721909085763</v>
+        <v>0.01121276808361161</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003427748814645767</v>
+        <v>0.009758578403550865</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.00943190260148364</v>
+        <v>0.01613626565885214</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004718469053051101</v>
+        <v>0.01021960227272726</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02375507862508078</v>
+        <v>0.03009445694985219</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004644092896032542</v>
+        <v>0.009821129421969723</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03635676349963202</v>
+        <v>0.0484710128920724</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004628251741596775</v>
+        <v>0.009732954545454539</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009424860954908382</v>
+        <v>0.01318871542756255</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.003999040283753395</v>
+        <v>0.01138500813747601</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0103683222199506</v>
+        <v>0.01698008361918851</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005504880561892952</v>
+        <v>0.01143503857050173</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02578390466648894</v>
+        <v>0.03230363927546226</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005418108378704632</v>
+        <v>0.01087191731141198</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04013019225650455</v>
+        <v>0.05151684573204074</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005399627031862904</v>
+        <v>0.01141792030873837</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01071430606660849</v>
+        <v>0.01412943768511205</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.004570331752861023</v>
+        <v>0.01301143787140116</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01112887573555144</v>
+        <v>0.01824119379481678</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006291292070734802</v>
+        <v>0.01306861550914483</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02764307209399855</v>
+        <v>0.03548439482259061</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006192123861376722</v>
+        <v>0.01309483922929296</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.043748332589437</v>
+        <v>0.05530816751301387</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006171002322129034</v>
+        <v>0.01304905178141528</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01199033072664282</v>
+        <v>0.01503057167566325</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005141623221968651</v>
+        <v>0.0146378676053263</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01202201503784002</v>
+        <v>0.01984912735506839</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007077703579576653</v>
+        <v>0.01470219244778794</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02993566526394348</v>
+        <v>0.03811537326409245</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006966139344048813</v>
+        <v>0.01473169413295458</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04724120987206104</v>
+        <v>0.05933834238178015</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006942377612395164</v>
+        <v>0.01468018325409218</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01325320841746811</v>
+        <v>0.01388775421861931</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.005712914691076278</v>
+        <v>0.01626429733925144</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01245619201637021</v>
+        <v>0.02079816286282256</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007864115088418503</v>
+        <v>0.01633576938643104</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03096476853265759</v>
+        <v>0.04019495194252676</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007740154826720903</v>
+        <v>0.0163685490366162</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.0484710128920724</v>
+        <v>0.06297456514260596</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007338584792788383</v>
+        <v>0.0163113147267691</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01450321262154111</v>
+        <v>0.01569662213338339</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.006284206160183906</v>
+        <v>0.01789072707317659</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01333985856069581</v>
+        <v>0.02208257888095852</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008650526597260353</v>
+        <v>0.01796934632507415</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03230363927546226</v>
+        <v>0.04290152380292397</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008233703587900636</v>
+        <v>0.01800540394027782</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05108654032668397</v>
+        <v>0.06678403059975768</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008485128192927422</v>
+        <v>0.01794244619944601</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01574061682131854</v>
+        <v>0.01545281223935864</v>
       </c>
       <c r="G77" t="n">
-        <v>0.006855497629291534</v>
+        <v>0.01951715680710173</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01378146656037074</v>
+        <v>0.02319665397235555</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009436938106102202</v>
+        <v>0.01960292326371725</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03336951581612016</v>
+        <v>0.04501348179031453</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009288185792065085</v>
+        <v>0.01964225884393945</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05300147213742595</v>
+        <v>0.07013393355750169</v>
       </c>
       <c r="O77" t="n">
-        <v>0.00925650348319355</v>
+        <v>0.01957357767212291</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01696569449925715</v>
+        <v>0.01715196135594824</v>
       </c>
       <c r="G78" t="n">
-        <v>0.007426789098399161</v>
+        <v>0.02114358654102688</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01448946790494879</v>
+        <v>0.02423466669989285</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01022334961494405</v>
+        <v>0.02123650020236036</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03467416030977644</v>
+        <v>0.0474092188497289</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01006220127473718</v>
+        <v>0.02127911374760106</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0549786637487551</v>
+        <v>0.07319146882010441</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01002787877345968</v>
+        <v>0.02120470914479982</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01817871913781368</v>
+        <v>0.01878970630255533</v>
       </c>
       <c r="G79" t="n">
-        <v>0.007998080567506789</v>
+        <v>0.02277001627495202</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0151723144839838</v>
+        <v>0.02509089562644969</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0110097611237859</v>
+        <v>0.02287007714100346</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03626282581736956</v>
+        <v>0.04966712792619749</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01083621675740926</v>
+        <v>0.02291596865126269</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05621788573585873</v>
+        <v>0.07632383119183228</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01079925406372581</v>
+        <v>0.02283584061747673</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01937996421944486</v>
+        <v>0.01836168389858307</v>
       </c>
       <c r="G80" t="n">
-        <v>0.008569372036614419</v>
+        <v>0.02439644600887717</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0155384581870297</v>
+        <v>0.02615961931490529</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01179617263262775</v>
+        <v>0.02450365407964656</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03733496487357918</v>
+        <v>0.05146560196475072</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01161023224008136</v>
+        <v>0.02455282355492431</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05831890867392459</v>
+        <v>0.07889821547695142</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01157062935399194</v>
+        <v>0.02446697209015364</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02056970322660742</v>
+        <v>0.01986353096343463</v>
       </c>
       <c r="G81" t="n">
-        <v>0.009140663505722046</v>
+        <v>0.02602287574280231</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01613626565885214</v>
+        <v>0.0270351163281389</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01221527534818788</v>
+        <v>0.02613723101828967</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0384900300130849</v>
+        <v>0.05278303391041914</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01238424772275344</v>
+        <v>0.02618967845858593</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06028150313814007</v>
+        <v>0.08148181647972857</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01234200464425807</v>
+        <v>0.02609810356283055</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02174820964175812</v>
+        <v>0.01829088431651315</v>
       </c>
       <c r="G82" t="n">
-        <v>0.009711954974829672</v>
+        <v>0.02764930547672745</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01695923325548457</v>
+        <v>0.02761166522902973</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01336899565031145</v>
+        <v>0.02777080795693277</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03962747377056641</v>
+        <v>0.05449781670823312</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01315826320542554</v>
+        <v>0.02782653336224755</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06210543970369287</v>
+        <v>0.08304182900442986</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0131133799345242</v>
+        <v>0.02772923503550746</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02291575694735367</v>
+        <v>0.02063938077722179</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0102832464439373</v>
+        <v>0.0292757352106526</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01742516898294721</v>
+        <v>0.02828354458045704</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01415540715915331</v>
+        <v>0.02940438489557588</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04044674868070333</v>
+        <v>0.05618834330322311</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01393227868809763</v>
+        <v>0.02946338826590917</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0634904889457702</v>
+        <v>0.0846454478553218</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01388475522479033</v>
+        <v>0.02936036650818437</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02407261862585084</v>
+        <v>0.01892190898055688</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01085453791304493</v>
+        <v>0.03090216494457774</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01789401004104986</v>
+        <v>0.02854503294530009</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01494181866799515</v>
+        <v>0.03103796183421898</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04204730727817524</v>
+        <v>0.05693300664041956</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01470629417076972</v>
+        <v>0.03110024316957079</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06523642143955988</v>
+        <v>0.08626368016601765</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01465613051505645</v>
+        <v>0.03099149798086128</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02521906815970632</v>
+        <v>0.02119266791271409</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01142582938215256</v>
+        <v>0.03252859467850289</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01866478020803777</v>
+        <v>0.02883173264967229</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01572823017683701</v>
+        <v>0.03267153877286209</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04262860209766184</v>
+        <v>0.05794442490044616</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01548030965344181</v>
+        <v>0.03273709807323241</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06694300776024936</v>
+        <v>0.08711290685243406</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01542750580532259</v>
+        <v>0.03262262945353819</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02582480697119804</v>
+        <v>0.01945440266249292</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01172974471180438</v>
+        <v>0.03415502441242804</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01903650326215621</v>
+        <v>0.0292068360591973</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01651464168567885</v>
+        <v>0.03430511571150519</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04419008567384272</v>
+        <v>0.05870510988714914</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0162543251361139</v>
+        <v>0.03437395297689403</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06881001848302615</v>
+        <v>0.08892814707506952</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01619888109558871</v>
+        <v>0.0342537609262151</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02752029424091159</v>
+        <v>0.01970533015464384</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01256841232036781</v>
+        <v>0.03578145414635318</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01960820298165045</v>
+        <v>0.02986875483067027</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01730105319452071</v>
+        <v>0.03593869265014829</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04523121054139748</v>
+        <v>0.05934109513142832</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01702834061878599</v>
+        <v>0.03601080788055565</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07013722418307783</v>
+        <v>0.08970189907410198</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01697025638585484</v>
+        <v>0.03588489239889201</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.0286880426240917</v>
+        <v>0.01994366731391731</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01313970378947544</v>
+        <v>0.03740788388027832</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02027890314476576</v>
+        <v>0.02991498033777104</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01808746470336256</v>
+        <v>0.0375722695887914</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04625142923500589</v>
+        <v>0.06014732825149344</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01780235610145808</v>
+        <v>0.03764766278421727</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07112439543559174</v>
+        <v>0.09032666108970921</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01774163167612097</v>
+        <v>0.03751602387156892</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02984442761846442</v>
+        <v>0.02216763106506376</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01371099525858307</v>
+        <v>0.03903431361420346</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02074762752974742</v>
+        <v>0.03034300395417938</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0188738762122044</v>
+        <v>0.03920584652743451</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04695019428934744</v>
+        <v>0.06071875686555397</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01857637158413017</v>
+        <v>0.03928451768787889</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07257130281575563</v>
+        <v>0.09119493136206885</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0185130069663871</v>
+        <v>0.03914715534424582</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03097064618110185</v>
+        <v>0.02137543833283365</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0142822867276907</v>
+        <v>0.04066074334812861</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02151339991484071</v>
+        <v>0.03085031705357513</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01966028772104626</v>
+        <v>0.04083942346607761</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04822695823910184</v>
+        <v>0.06095032859181965</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01935038706680226</v>
+        <v>0.04092137259154052</v>
       </c>
       <c r="N90" t="n">
-        <v>0.07397771689875687</v>
+        <v>0.0920992081313588</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01928438225665323</v>
+        <v>0.04077828681692273</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03204789526907609</v>
+        <v>0.02256530604197739</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01485357819679832</v>
+        <v>0.04228717308205375</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02197524407829088</v>
+        <v>0.03113441100963808</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02044669922988811</v>
+        <v>0.04247300040472071</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04898117361894869</v>
+        <v>0.06193699104849984</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02012440254947435</v>
+        <v>0.04255822749520213</v>
       </c>
       <c r="N91" t="n">
-        <v>0.07534340825978314</v>
+        <v>0.09343198963775684</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02005575754691936</v>
+        <v>0.04240941828959965</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03305737183945919</v>
+        <v>0.02273545111724547</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01542486966590595</v>
+        <v>0.0439136028159789</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02263218379834324</v>
+        <v>0.031192777196048</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02123311073872996</v>
+        <v>0.04410657734336382</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04951229296356763</v>
+        <v>0.06257369185380429</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02089841803214644</v>
+        <v>0.04419508239886375</v>
       </c>
       <c r="N92" t="n">
-        <v>0.07676814747402183</v>
+        <v>0.09428577412144068</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02082713283718549</v>
+        <v>0.04404054976227656</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03398027284932322</v>
+        <v>0.02188409048338835</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01599616113501358</v>
+        <v>0.04554003254990404</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02288324285324303</v>
+        <v>0.03162290698648475</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02201952224757181</v>
+        <v>0.04574015428200692</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0508197688076383</v>
+        <v>0.06255537862594254</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02167243351481853</v>
+        <v>0.04583193730252538</v>
       </c>
       <c r="N93" t="n">
-        <v>0.07825170511666046</v>
+        <v>0.09475305982258803</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02159850812745162</v>
+        <v>0.04567168123495347</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03482480697119803</v>
+        <v>0.02300944106515641</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01658785544165516</v>
+        <v>0.04716646228382918</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0236274450212355</v>
+        <v>0.03182229175462807</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02280593375641366</v>
+        <v>0.04737373122065002</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05140305368584033</v>
+        <v>0.06307699898312413</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02244644899749062</v>
+        <v>0.04746879220618699</v>
       </c>
       <c r="N94" t="n">
-        <v>0.07919385176288679</v>
+        <v>0.09482634498137676</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02236988341771775</v>
+        <v>0.04730281270763038</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03554685850458637</v>
+        <v>0.02210971978730016</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01713874407322884</v>
+        <v>0.04879289201775433</v>
       </c>
       <c r="J95" t="n">
-        <v>0.023963814080566</v>
+        <v>0.03168842287415784</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02359234526525551</v>
+        <v>0.04900730815929313</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05256160013285335</v>
+        <v>0.06353350054355872</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02322046448016271</v>
+        <v>0.04910564710984861</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08049435798788801</v>
+        <v>0.09609812783798471</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02314125870798388</v>
+        <v>0.04893394418030729</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03628368408100429</v>
+        <v>0.02318314357457</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01771003554233646</v>
+        <v>0.05041932175167947</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02469137380947972</v>
+        <v>0.0320187917187538</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02437875677409736</v>
+        <v>0.05064088509793623</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05319486068335699</v>
+        <v>0.06401983092545588</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0239944799628348</v>
+        <v>0.05074250201351023</v>
       </c>
       <c r="N96" t="n">
-        <v>0.08215299436685192</v>
+        <v>0.09596090663258944</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02391263399825001</v>
+        <v>0.0505650756529842</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03700660147595974</v>
+        <v>0.02324232627407822</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01828132701144409</v>
+        <v>0.05204575148560462</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02530914798622197</v>
+        <v>0.03211088966209576</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02516516828293921</v>
+        <v>0.05227446203657934</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05390228787203097</v>
+        <v>0.06383093774702517</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02476849544550689</v>
+        <v>0.05237935691717185</v>
       </c>
       <c r="N97" t="n">
-        <v>0.08286953147496584</v>
+        <v>0.09650717960536881</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02468400928851613</v>
+        <v>0.05219620712566111</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03771386737335895</v>
+        <v>0.02224231050396303</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01885261848055172</v>
+        <v>0.05367218121952975</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02581616038903804</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02595157979178106</v>
+        <v>0.05390803897522244</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05508333423355477</v>
+        <v>0.06460727855092452</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02554251092817898</v>
+        <v>0.05401621182083347</v>
       </c>
       <c r="N98" t="n">
-        <v>0.08364373988741747</v>
+        <v>0.09694202578414479</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02545538457878226</v>
+        <v>0.05382733859833801</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03840373845710818</v>
+        <v>0.02223391150659212</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01942390994965934</v>
+        <v>0.0552986109534549</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02631143479617318</v>
+        <v>0.03227142116974913</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02673799130062291</v>
+        <v>0.05554161591386555</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05553745230260812</v>
+        <v>0.06450727118201846</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02631652641085107</v>
+        <v>0.0556530667244951</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08507539017939419</v>
+        <v>0.09673155955704654</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02622675986904839</v>
+        <v>0.05545847007101493</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03907447141111376</v>
+        <v>0.02321074915241576</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01999520141876697</v>
+        <v>0.05692504068738004</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02659399498587266</v>
+        <v>0.03195387121917947</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02752440280946476</v>
+        <v>0.05717519285250865</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05606409461387069</v>
+        <v>0.06458610283533026</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02709054189352316</v>
+        <v>0.05728992162815671</v>
       </c>
       <c r="N100" t="n">
-        <v>0.08556425292608366</v>
+        <v>0.09636354962643245</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02699813515931453</v>
+        <v>0.05708960154369183</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0397243229192819</v>
+        <v>0.02117376317351149</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0205664928878746</v>
+        <v>0.05855147042130519</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02726286473638176</v>
+        <v>0.03191600910407275</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02831081431830661</v>
+        <v>0.05880876979115175</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05706271370202196</v>
+        <v>0.0640232293723656</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02786455737619525</v>
+        <v>0.05892677653181833</v>
       </c>
       <c r="N101" t="n">
-        <v>0.08711009870267339</v>
+        <v>0.09663567953408897</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02776951044958065</v>
+        <v>0.05872073301636874</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04035154966551886</v>
+        <v>0.02212389330195685</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02113778435698223</v>
+        <v>0.06017790015523033</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02761706782594575</v>
+        <v>0.03185915694284447</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02909722582714846</v>
+        <v>0.06044234672979485</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05793276210174172</v>
+        <v>0.06422131729941571</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02863857285886734</v>
+        <v>0.06056363143547996</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0875126980843508</v>
+        <v>0.09645190292378109</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02854088573984678</v>
+        <v>0.06035186448904566</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04095440833373092</v>
+        <v>0.0210620792698294</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02170907582608986</v>
+        <v>0.06180432988915548</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0281556280328099</v>
+        <v>0.03198463685391015</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02988363733599031</v>
+        <v>0.06207592366843797</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05817369234770955</v>
+        <v>0.06378302936738675</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02941258834153944</v>
+        <v>0.06220048633914158</v>
       </c>
       <c r="N103" t="n">
-        <v>0.08837182164630353</v>
+        <v>0.09591617343927394</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02931226103011291</v>
+        <v>0.06198299596172256</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04153115560782435</v>
+        <v>0.02298926080920671</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02228036729519749</v>
+        <v>0.06343075962308063</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02847756913521948</v>
+        <v>0.03169377095568533</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03067004884483216</v>
+        <v>0.06370950060708107</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05898495697460507</v>
+        <v>0.06371102832718484</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03018660382421152</v>
+        <v>0.0638373412428032</v>
       </c>
       <c r="N104" t="n">
-        <v>0.08958723996371909</v>
+        <v>0.0955324447243327</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03008363632037904</v>
+        <v>0.06361412743439947</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04208004817170543</v>
+        <v>0.0209063776521663</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02285165876430511</v>
+        <v>0.06505718935700577</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02888191491141978</v>
+        <v>0.0315878813665855</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03145646035367401</v>
+        <v>0.06534307754572417</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05926600851710795</v>
+        <v>0.06390797692971614</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03096061930688361</v>
+        <v>0.06547419614646481</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09055872361178502</v>
+        <v>0.09490467042272221</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03085501161064517</v>
+        <v>0.06524525890707639</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04259934270928039</v>
+        <v>0.02281436953078577</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02342295023341274</v>
+        <v>0.06668361909093092</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02906768913965607</v>
+        <v>0.03166829020502616</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03224287186251586</v>
+        <v>0.06697665448436728</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06001629950989776</v>
+        <v>0.06307653792588686</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0317346347895557</v>
+        <v>0.06711105105012644</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09118604316568862</v>
+        <v>0.09483680417820778</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0316263869009113</v>
+        <v>0.06687639037975329</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04308729590445552</v>
+        <v>0.02271417617714264</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02399424170252037</v>
+        <v>0.06831004882485607</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02953391559817359</v>
+        <v>0.03143631958942288</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03302928337135771</v>
+        <v>0.06861023142301038</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06053528248765419</v>
+        <v>0.06311937406660306</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0325086502722278</v>
+        <v>0.06874790595378806</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09146896920061781</v>
+        <v>0.09493279963455431</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03239776219117742</v>
+        <v>0.0685075218524302</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04354216444113706</v>
+        <v>0.02060673732331447</v>
       </c>
       <c r="G108" t="n">
-        <v>0.024565533171628</v>
+        <v>0.06993647855878121</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02977961806521764</v>
+        <v>0.03149329163819112</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03381569488019956</v>
+        <v>0.07024380836165349</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06092240998505682</v>
+        <v>0.06303914810277103</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03328266575489989</v>
+        <v>0.07038476085744967</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09220727229175973</v>
+        <v>0.09359661043552697</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03316913748144355</v>
+        <v>0.07013865332510712</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.0439622050032313</v>
+        <v>0.02249299270137883</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02513682464073562</v>
+        <v>0.07156290829270635</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0301038203190335</v>
+        <v>0.03104052846974643</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03460210638904141</v>
+        <v>0.07187738530029658</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06147713453678536</v>
+        <v>0.06223852278529685</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03405668123757197</v>
+        <v>0.0720216157611113</v>
       </c>
       <c r="N109" t="n">
-        <v>0.09310072301430217</v>
+        <v>0.09373219022489082</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03394051277170969</v>
+        <v>0.07176978479778402</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0443456742746445</v>
+        <v>0.02037388204341323</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02570811610984325</v>
+        <v>0.07318933802663148</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03070554613786641</v>
+        <v>0.03107935220250432</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03538851789788326</v>
+        <v>0.0735109622389397</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06189890867751938</v>
+        <v>0.0619201608650867</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03483069672024406</v>
+        <v>0.07365847066477292</v>
       </c>
       <c r="N110" t="n">
-        <v>0.09354909194343258</v>
+        <v>0.09274349264641085</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03471188806197582</v>
+        <v>0.07340091627046093</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04469082893928292</v>
+        <v>0.02025034508149526</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02627940757895088</v>
+        <v>0.07481576776055664</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03068381929996168</v>
+        <v>0.03081108495488029</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03617492940672511</v>
+        <v>0.07514453917758279</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06258718494193857</v>
+        <v>0.06168672509304673</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03560471220291615</v>
+        <v>0.07529532556843453</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09355214965433845</v>
+        <v>0.09273447134385226</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03548326335224194</v>
+        <v>0.07503204774313783</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04499592568105281</v>
+        <v>0.02212332154770249</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02685069904805851</v>
+        <v>0.07644219749448178</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03123766358356457</v>
+        <v>0.03063704884528988</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03696134091556696</v>
+        <v>0.0767781161162259</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06304141586472253</v>
+        <v>0.06124087822008317</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03637872768558825</v>
+        <v>0.07693218047209616</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09440966672220741</v>
+        <v>0.09180907996098009</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03625463864250807</v>
+        <v>0.07666317921581474</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04525922118386045</v>
+        <v>0.02199375117411242</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02742199051716614</v>
+        <v>0.07806862722840692</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03116610276692033</v>
+        <v>0.03055856599214858</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03774775242440881</v>
+        <v>0.07841169305486902</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06306105398055084</v>
+        <v>0.06138528299710208</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03715274316826034</v>
+        <v>0.07856903537575778</v>
       </c>
       <c r="N113" t="n">
-        <v>0.09452141372222689</v>
+        <v>0.0915712721415593</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0370260139327742</v>
+        <v>0.07829431068849164</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04549906761671429</v>
+        <v>0.02086257369280264</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02799328198627376</v>
+        <v>0.07969505696233208</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03156816062827425</v>
+        <v>0.03027695851387194</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03853416393325066</v>
+        <v>0.08004526999351211</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06324555182410324</v>
+        <v>0.06112260217500967</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03792675865093242</v>
+        <v>0.08020589027941941</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09558716122958455</v>
+        <v>0.09122500152935509</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03779738922304034</v>
+        <v>0.07992544216116856</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04573600955481223</v>
+        <v>0.01973072883585072</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02856457345538139</v>
+        <v>0.08132148669625722</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0318428609458716</v>
+        <v>0.03029354852887543</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03932057544209251</v>
+        <v>0.08167884693215521</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06359436193005927</v>
+        <v>0.06015549850471213</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03870077413360452</v>
+        <v>0.08184274518308103</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09510667981946763</v>
+        <v>0.09027422176813243</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03856876451330647</v>
+        <v>0.08155657363384547</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04596997596096367</v>
+        <v>0.02159915633533415</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02913586492448902</v>
+        <v>0.08294791643018236</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03168922749795769</v>
+        <v>0.02980965815557461</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04010698695093436</v>
+        <v>0.08331242387079832</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06410693683309862</v>
+        <v>0.06028663473711557</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03947478961627661</v>
+        <v>0.08347960008674264</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09567974006706398</v>
+        <v>0.08942288650165647</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03934013980357259</v>
+        <v>0.08318770510652239</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04620089214499356</v>
+        <v>0.02046879592333056</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02970715639359664</v>
+        <v>0.0845743461641075</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03200628406277771</v>
+        <v>0.02972660951238497</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04089339845977621</v>
+        <v>0.08494600080944142</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06368272906790096</v>
+        <v>0.06001867362312618</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0402488050989487</v>
+        <v>0.08511645499040425</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09590611254756093</v>
+        <v>0.08897494937369232</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04011151509383872</v>
+        <v>0.08481883657919929</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04642868341672691</v>
+        <v>0.02133483440955313</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03027844786270428</v>
+        <v>0.08620077589803266</v>
       </c>
       <c r="J118" t="n">
-        <v>0.031993054418577</v>
+        <v>0.02974567658257814</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04167980996861807</v>
+        <v>0.08657957774808453</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06422119116914579</v>
+        <v>0.05905427791365012</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04102282058162079</v>
+        <v>0.08675330989406588</v>
       </c>
       <c r="N118" t="n">
-        <v>0.09608556783614608</v>
+        <v>0.08923061646899122</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04088289038410485</v>
+        <v>0.0864499680518762</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04665327508598869</v>
+        <v>0.02118226991136984</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03084973933181191</v>
+        <v>0.0878272056319578</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03227253131770426</v>
+        <v>0.02955002087964002</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04246622147745991</v>
+        <v>0.08821315468672764</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06452177567151285</v>
+        <v>0.05907674712108446</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04179683606429287</v>
+        <v>0.0883901647977275</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09671787650800695</v>
+        <v>0.08812562155662584</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04165426567437098</v>
+        <v>0.08808109952455312</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0468745924626039</v>
+        <v>0.02001302366629581</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03142103080091953</v>
+        <v>0.08945363536588294</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03217183161609441</v>
+        <v>0.02902826538213547</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04325263298630176</v>
+        <v>0.08984673162537073</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06460727855092452</v>
+        <v>0.05844621034517686</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04257085154696497</v>
+        <v>0.09002701970138913</v>
       </c>
       <c r="N120" t="n">
-        <v>0.09694202578414479</v>
+        <v>0.08744526148693482</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04242564096463711</v>
+        <v>0.08971223099723002</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04709256085639751</v>
+        <v>0.02083015743377081</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03199232227002716</v>
+        <v>0.09108006509980808</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03196929879215318</v>
+        <v>0.02898471770990189</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04403904449514361</v>
+        <v>0.09148030856401385</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06420712201833217</v>
+        <v>0.05826937014051961</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04334486702963706</v>
+        <v>0.09166387460505075</v>
       </c>
       <c r="N121" t="n">
-        <v>0.09624013630230593</v>
+        <v>0.08720241770390452</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04319701625490324</v>
+        <v>0.09134336246990693</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.0473071055771945</v>
+        <v>0.01863673297323454</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03256361373913479</v>
+        <v>0.09270649483373324</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03195627431359034</v>
+        <v>0.02852368548277687</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04482545600398546</v>
+        <v>0.09311388550265694</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06459755882483367</v>
+        <v>0.0574549020678575</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04411888251230915</v>
+        <v>0.09330072950871236</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09613462375034776</v>
+        <v>0.08580997165152127</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04396839154516936</v>
+        <v>0.09297449394258385</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04751815193481983</v>
+        <v>0.01943581204412683</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03313490520824242</v>
+        <v>0.09433292456765836</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03203364776281341</v>
+        <v>0.02834947632059777</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04561186751282732</v>
+        <v>0.09474746244130004</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06416502727966364</v>
+        <v>0.0573114816879354</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04489289799498124</v>
+        <v>0.09493758441237399</v>
       </c>
       <c r="N123" t="n">
-        <v>0.09620019501708515</v>
+        <v>0.08478080477377126</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0447397668354355</v>
+        <v>0.09460562541526076</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04772562523909853</v>
+        <v>0.01823045640588739</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03370619667735004</v>
+        <v>0.0959593543015835</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03200182641188737</v>
+        <v>0.02806639784320213</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04639827902166917</v>
+        <v>0.09638103937994316</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06401043959473571</v>
+        <v>0.05624778456149801</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04566691347765333</v>
+        <v>0.0965744393160356</v>
       </c>
       <c r="N124" t="n">
-        <v>0.0963385624779205</v>
+        <v>0.08452779851464093</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04551114212570163</v>
+        <v>0.09623675688793766</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04792945079985558</v>
+        <v>0.01902372781795596</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03427748814645767</v>
+        <v>0.09758578403550866</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03206121753287716</v>
+        <v>0.02787875767042737</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04718469053051102</v>
+        <v>0.09801461631858625</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06433464526310667</v>
+        <v>0.05597248624929022</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04644092896032542</v>
+        <v>0.09821129421969722</v>
       </c>
       <c r="N125" t="n">
-        <v>0.09645069168800224</v>
+        <v>0.08316383431811647</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04628251741596776</v>
+        <v>0.09786788836061458</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04812955392691593</v>
+        <v>0.01781868803977233</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0348487796155653</v>
+        <v>0.0992122137694338</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03211222839784778</v>
+        <v>0.02749086342211102</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04797110203935286</v>
+        <v>0.09964819325722936</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06383849377783352</v>
+        <v>0.05509426231205675</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04721494444299751</v>
+        <v>0.09984814912335885</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0963375482024787</v>
+        <v>0.08230179362818424</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04705389270623388</v>
+        <v>0.09949901983329149</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04832585993010458</v>
+        <v>0.01761839883077623</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03542007108467293</v>
+        <v>0.1008386435033589</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03205526627886418</v>
+        <v>0.02720702271809051</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04875751354819471</v>
+        <v>0.1012817701958725</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06372283463197312</v>
+        <v>0.05452178831054247</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04798895992566959</v>
+        <v>0.1014850040270205</v>
       </c>
       <c r="N127" t="n">
-        <v>0.09560009757649829</v>
+        <v>0.08175455788883046</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04782526799650002</v>
+        <v>0.1011301513059684</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0485182941192465</v>
+        <v>0.01742592195040742</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03599136255378056</v>
+        <v>0.1024650732372841</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03199073844799134</v>
+        <v>0.02713154317820335</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04954392505703657</v>
+        <v>0.1029153471345156</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06358851731858237</v>
+        <v>0.05406373980549212</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04876297540834169</v>
+        <v>0.1031218589306821</v>
       </c>
       <c r="N128" t="n">
-        <v>0.09603930536520938</v>
+        <v>0.0811350085440416</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04859664328676614</v>
+        <v>0.1027612827786453</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0487067818041667</v>
+        <v>0.018239015264058</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03656265402288818</v>
+        <v>0.1040915029712092</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03171905217729422</v>
+        <v>0.02686873242228696</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05033033656587842</v>
+        <v>0.1045489240731587</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06343639133071821</v>
+        <v>0.05352879235765057</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04953699089101378</v>
+        <v>0.1047587138343437</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09525613712376041</v>
+        <v>0.08005397583133139</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04936801857703227</v>
+        <v>0.1043924142513222</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04889124829469014</v>
+        <v>0.01903607666608938</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03713394549199581</v>
+        <v>0.1057179327051344</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03184061473883781</v>
+        <v>0.02660088518652361</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05111674807472027</v>
+        <v>0.1061825010118018</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06316730616143751</v>
+        <v>0.05320256475105348</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05031100637368587</v>
+        <v>0.1063955687380053</v>
       </c>
       <c r="N130" t="n">
-        <v>0.09585155840729975</v>
+        <v>0.0796343604222895</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0501393938672984</v>
+        <v>0.1060235457239991</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04907161890064182</v>
+        <v>0.01881818559295204</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03770523696110344</v>
+        <v>0.1073443624390595</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03145583340468708</v>
+        <v>0.02620850334459331</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05190315958356212</v>
+        <v>0.1078160779504449</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06308211130379712</v>
+        <v>0.05282804950701159</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05108502185635796</v>
+        <v>0.1080324236416669</v>
       </c>
       <c r="N131" t="n">
-        <v>0.09532653477097563</v>
+        <v>0.07864489578030753</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05091076915756453</v>
+        <v>0.107654677196676</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04924781893184669</v>
+        <v>0.01858972495418095</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03827652843021107</v>
+        <v>0.1089707921729847</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03166511544690696</v>
+        <v>0.02599772793283935</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05268957109240397</v>
+        <v>0.109449654889088</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06328165625085408</v>
+        <v>0.05201325597169751</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05185903733903005</v>
+        <v>0.1096692785453286</v>
       </c>
       <c r="N132" t="n">
-        <v>0.09528203176993671</v>
+        <v>0.07730402169622541</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05168214444783066</v>
+        <v>0.1092858086693529</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04941977369812977</v>
+        <v>0.01635507765931105</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03884781989931869</v>
+        <v>0.1105972219069098</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03136886813756247</v>
+        <v>0.02567472531032103</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05347598260124582</v>
+        <v>0.1110832318277311</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06296679049566514</v>
+        <v>0.051370603212859</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05263305282170214</v>
+        <v>0.1113061334489902</v>
       </c>
       <c r="N133" t="n">
-        <v>0.09511901495933112</v>
+        <v>0.07693017796088325</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05245351973809679</v>
+        <v>0.1109169401420299</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04958740850931603</v>
+        <v>0.01611862661787733</v>
       </c>
       <c r="G134" t="n">
-        <v>0.03941911136842632</v>
+        <v>0.1122236516408349</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03136749874871855</v>
+        <v>0.0250456618360976</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05426239411008766</v>
+        <v>0.1127168087663742</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06273836353128731</v>
+        <v>0.05051251029824372</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05340706830437423</v>
+        <v>0.1129429883526518</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0948384498943074</v>
+        <v>0.07504180436512103</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05322489502836292</v>
+        <v>0.1125480716147068</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04975064867523044</v>
+        <v>0.0168847547394147</v>
       </c>
       <c r="G135" t="n">
-        <v>0.03999040283753395</v>
+        <v>0.1138500813747601</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03116141455244019</v>
+        <v>0.02501670386922833</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05504880561892952</v>
+        <v>0.1143503857050173</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06239722485077748</v>
+        <v>0.05025139629559941</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05418108378704631</v>
+        <v>0.1145798432563134</v>
       </c>
       <c r="N135" t="n">
-        <v>0.09454130213001383</v>
+        <v>0.07445734069977883</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05399627031862905</v>
+        <v>0.1141792030873837</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04990941950569801</v>
+        <v>0.01565784493345815</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04056169430664158</v>
+        <v>0.1154765111086852</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03105102282079235</v>
+        <v>0.02469401776877247</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05583521712777138</v>
+        <v>0.1159839626436604</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06214422394719249</v>
+        <v>0.04959968027267372</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05495509926971841</v>
+        <v>0.1162166981599751</v>
       </c>
       <c r="N136" t="n">
-        <v>0.09432853722159884</v>
+        <v>0.0739952267556967</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05476764560889517</v>
+        <v>0.1158103345600606</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.0500636463105437</v>
+        <v>0.01744228010954261</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0411329857757492</v>
+        <v>0.1171029408426104</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03083673082584001</v>
+        <v>0.02438376989378929</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05662162863661322</v>
+        <v>0.1176175395823035</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06178021031358927</v>
+        <v>0.04846978129721435</v>
       </c>
       <c r="M137" t="n">
-        <v>0.0557291147523905</v>
+        <v>0.1178535530636367</v>
       </c>
       <c r="N137" t="n">
-        <v>0.09340112072421086</v>
+        <v>0.07267390232371446</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05553902089916131</v>
+        <v>0.1174414660327375</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05021325439959249</v>
+        <v>0.01524244317720304</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04170427724485683</v>
+        <v>0.1187293705765355</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03101894583964811</v>
+        <v>0.02409212660333807</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05740804014545507</v>
+        <v>0.1192511165209466</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06170603344302475</v>
+        <v>0.0480741184369691</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0565031302350626</v>
+        <v>0.1194904079672983</v>
       </c>
       <c r="N138" t="n">
-        <v>0.09286001819299816</v>
+        <v>0.07151180719467237</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05631039618942743</v>
+        <v>0.1190725975054144</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05035816908266939</v>
+        <v>0.01506271704597439</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04227556871396446</v>
+        <v>0.1203558003104607</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03069807513428165</v>
+        <v>0.02362525425647805</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05819445165429692</v>
+        <v>0.1208846934595897</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06132254282855584</v>
+        <v>0.04732511075968551</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05727714571773469</v>
+        <v>0.1211272628709599</v>
       </c>
       <c r="N139" t="n">
-        <v>0.0927061951831093</v>
+        <v>0.07082738115941034</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05708177147969357</v>
+        <v>0.1207037289780913</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05049831566959936</v>
+        <v>0.01590748462539163</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04284686018307209</v>
+        <v>0.1219822300443858</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0306745259818056</v>
+        <v>0.0232893192122685</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05898086316313877</v>
+        <v>0.1225182703982328</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0608305879632394</v>
+        <v>0.04713517733311146</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05805116120040677</v>
+        <v>0.1227641177746215</v>
       </c>
       <c r="N140" t="n">
-        <v>0.09274061724969251</v>
+        <v>0.06993906400876843</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05785314676995969</v>
+        <v>0.1223348604507682</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05063361947020738</v>
+        <v>0.01678112882498971</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04341815165217972</v>
+        <v>0.123608659778311</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03044870565428492</v>
+        <v>0.02309048782976869</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05976727467198062</v>
+        <v>0.1241518473368759</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06103101834013233</v>
+        <v>0.04681673722499449</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05882517668307887</v>
+        <v>0.1244009726782832</v>
       </c>
       <c r="N141" t="n">
-        <v>0.09226424994789623</v>
+        <v>0.06936529553358661</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05862452206022582</v>
+        <v>0.1239659919234451</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05076400579431845</v>
+        <v>0.01568803255430357</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04398944312128734</v>
+        <v>0.1252350895122361</v>
       </c>
       <c r="J142" t="n">
-        <v>0.0304210214237846</v>
+        <v>0.02313492646803786</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06055368618082246</v>
+        <v>0.125785424275519</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06012468345229161</v>
+        <v>0.04648220950308241</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05959919216575096</v>
+        <v>0.1260378275819448</v>
       </c>
       <c r="N142" t="n">
-        <v>0.09147805883286886</v>
+        <v>0.06922451552470504</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05939589735049195</v>
+        <v>0.125597123396122</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05088939995175754</v>
+        <v>0.01663257872286818</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04456073459039497</v>
+        <v>0.1268615192461613</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03009188056236957</v>
+        <v>0.02282880148613532</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06134009768966432</v>
+        <v>0.1274190012141621</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06041243279277403</v>
+        <v>0.04634401323512283</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06037320764842304</v>
+        <v>0.1276746824856064</v>
       </c>
       <c r="N143" t="n">
-        <v>0.09128300945975865</v>
+        <v>0.06863516377296358</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06016727264075809</v>
+        <v>0.1272282548687989</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05100972725234967</v>
+        <v>0.01561839140137125</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0451320260595026</v>
+        <v>0.1284879489800864</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03026169034210482</v>
+        <v>0.02287827924312026</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06212650919850617</v>
+        <v>0.1290525781528052</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05949511585463654</v>
+        <v>0.04621456748886349</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06114722313109514</v>
+        <v>0.129311537389268</v>
       </c>
       <c r="N144" t="n">
-        <v>0.09128006738371425</v>
+        <v>0.06921568006920242</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06093864793102421</v>
+        <v>0.1288593863414759</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05112491300591974</v>
+        <v>0.01562292715220932</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04570331752861023</v>
+        <v>0.1301143787140115</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03003085803505534</v>
+        <v>0.02307693046615054</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06291292070734802</v>
+        <v>0.1306861550914483</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05917358213093607</v>
+        <v>0.04599593031645532</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06192123861376722</v>
+        <v>0.1309483922929296</v>
       </c>
       <c r="N145" t="n">
-        <v>0.09017019815988381</v>
+        <v>0.06862348087562675</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06171002322129034</v>
+        <v>0.1304905178141528</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05123488252229281</v>
+        <v>0.01563371898162998</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04627460899771785</v>
+        <v>0.1317408084479367</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02979979091328608</v>
+        <v>0.02298749353142483</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06369933221618987</v>
+        <v>0.1323197320300914</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05914868111472948</v>
+        <v>0.04591290903032422</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06269525409643932</v>
+        <v>0.1325852471965913</v>
       </c>
       <c r="N146" t="n">
-        <v>0.09055436734341576</v>
+        <v>0.06895980971528598</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06248139851155646</v>
+        <v>0.1321216492868297</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05133956111129385</v>
+        <v>0.01465044483503714</v>
       </c>
       <c r="G147" t="n">
-        <v>0.04684590046682548</v>
+        <v>0.1333672381818618</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02956889624886203</v>
+        <v>0.02300660263108771</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06448574372503173</v>
+        <v>0.1339533089687346</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05912126229907372</v>
+        <v>0.04594728065917023</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06346926957911141</v>
+        <v>0.1342221021002529</v>
       </c>
       <c r="N147" t="n">
-        <v>0.09003354048945855</v>
+        <v>0.06942149310174089</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06325277380182259</v>
+        <v>0.1337527807595066</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.0514388740827478</v>
+        <v>0.01567278265783474</v>
       </c>
       <c r="G148" t="n">
-        <v>0.04741719193593311</v>
+        <v>0.134993667915787</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02973858131384813</v>
+        <v>0.02313380466332174</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06527215523387357</v>
+        <v>0.1355868859073777</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05859217517702564</v>
+        <v>0.04569813265441919</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06424328506178349</v>
+        <v>0.1358589570039145</v>
       </c>
       <c r="N148" t="n">
-        <v>0.08880868315316054</v>
+        <v>0.06860717608587757</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06402414909208873</v>
+        <v>0.1353839122321835</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05153274674647968</v>
+        <v>0.01470041039542671</v>
       </c>
       <c r="G149" t="n">
-        <v>0.04798848340504074</v>
+        <v>0.1366200976497121</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02930925338030939</v>
+        <v>0.02316864652630941</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06605856674271542</v>
+        <v>0.1372204628460208</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05796226924164219</v>
+        <v>0.04576455246749681</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06501730054445559</v>
+        <v>0.1374958119075761</v>
       </c>
       <c r="N149" t="n">
-        <v>0.08918076088967009</v>
+        <v>0.06911550371858205</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06479552438235485</v>
+        <v>0.1370150437048604</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05162110441231448</v>
+        <v>0.01573300599321695</v>
       </c>
       <c r="G150" t="n">
-        <v>0.04855977487414836</v>
+        <v>0.1382465273836373</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02918131972031074</v>
+        <v>0.02321067511823328</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06684497825155726</v>
+        <v>0.1388540397846639</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05763239398598025</v>
+        <v>0.0463456275498289</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06579131602712768</v>
+        <v>0.1391326668112377</v>
       </c>
       <c r="N150" t="n">
-        <v>0.0879507392541356</v>
+        <v>0.06904512105074062</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06556689967262098</v>
+        <v>0.1386461751775373</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05170387239007716</v>
+        <v>0.01577024739660942</v>
       </c>
       <c r="G151" t="n">
-        <v>0.04913106634325599</v>
+        <v>0.1398729571175624</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02905518760591716</v>
+        <v>0.02325943733727591</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06763138976039912</v>
+        <v>0.140487616723307</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05750339890309669</v>
+        <v>0.04614044535284123</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06656533150979978</v>
+        <v>0.1407695217148993</v>
       </c>
       <c r="N151" t="n">
-        <v>0.08791958380170545</v>
+        <v>0.06979467313323912</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06633827496288711</v>
+        <v>0.1402773066502142</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.0517809759895927</v>
+        <v>0.01481181255100803</v>
       </c>
       <c r="G152" t="n">
-        <v>0.04970235781236362</v>
+        <v>0.1414993868514876</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02903126430919362</v>
+        <v>0.02311448008161977</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06841780126924098</v>
+        <v>0.1421211936619501</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05697613348604846</v>
+        <v>0.04654809332795956</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06733934699247186</v>
+        <v>0.142406376618561</v>
       </c>
       <c r="N152" t="n">
-        <v>0.08768826008752806</v>
+        <v>0.06946280501696384</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06710965025315324</v>
+        <v>0.1419084381228911</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05185234052068611</v>
+        <v>0.0168573794018167</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05027364928147125</v>
+        <v>0.1431258165854127</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02910995710220513</v>
+        <v>0.02317535024944743</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06920421277808282</v>
+        <v>0.1437547706005932</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05655144722789246</v>
+        <v>0.0463676589266096</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06811336247514395</v>
+        <v>0.1440432315222226</v>
       </c>
       <c r="N153" t="n">
-        <v>0.08665773366675167</v>
+        <v>0.07004816175280082</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06788102554341938</v>
+        <v>0.143539569595568</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05191789129318234</v>
+        <v>0.01490662589443936</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05084494075057888</v>
+        <v>0.1447522463193379</v>
       </c>
       <c r="J154" t="n">
-        <v>0.0289916732570166</v>
+        <v>0.02344159473894143</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06999062428692467</v>
+        <v>0.1453883475392363</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05683018962168554</v>
+        <v>0.04669822960021724</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06888737795781603</v>
+        <v>0.1456800864258842</v>
       </c>
       <c r="N154" t="n">
-        <v>0.08692897009452488</v>
+        <v>0.06954938839163616</v>
       </c>
       <c r="O154" t="n">
-        <v>0.0686524008336855</v>
+        <v>0.145170701068245</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05197755361690642</v>
+        <v>0.01495922997427995</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0514162322196865</v>
+        <v>0.146378676053263</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02867682004569304</v>
+        <v>0.02331276044828429</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07077703579576652</v>
+        <v>0.1470219244778794</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05611321016048468</v>
+        <v>0.04693889280020819</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06966139344048812</v>
+        <v>0.1473169413295458</v>
       </c>
       <c r="N155" t="n">
-        <v>0.08640293492599593</v>
+        <v>0.07036512998435596</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06942377612395163</v>
+        <v>0.1468018325409219</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05203125280168328</v>
+        <v>0.01501520366525396</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05198752368879413</v>
+        <v>0.1480051057871881</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02866580474029941</v>
+        <v>0.02348839427565855</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07156344730460838</v>
+        <v>0.1486555014165225</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05610135833734675</v>
+        <v>0.04668873597800816</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07043540892316022</v>
+        <v>0.1489537962332075</v>
       </c>
       <c r="N156" t="n">
-        <v>0.0862805937163133</v>
+        <v>0.07009403158184635</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07019515141421775</v>
+        <v>0.1484329640135988</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05207891415733793</v>
+        <v>0.01710656935306587</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05255881515790176</v>
+        <v>0.1496315355211133</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02845903461290068</v>
+        <v>0.0236837976335767</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07234985881345023</v>
+        <v>0.1502890783551656</v>
       </c>
       <c r="L157" t="n">
-        <v>0.0555954836453286</v>
+        <v>0.04736082676622469</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07120942440583231</v>
+        <v>0.1505906511368691</v>
       </c>
       <c r="N157" t="n">
-        <v>0.08536291202062524</v>
+        <v>0.0712082867957825</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07096652670448389</v>
+        <v>0.1500640954862757</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05212046299369533</v>
+        <v>0.01624772733264366</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05313010662700939</v>
+        <v>0.1512579652550384</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02825548928374273</v>
+        <v>0.02354984409221716</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07313627032229207</v>
+        <v>0.1519226552938087</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05519047892548498</v>
+        <v>0.04766356342272962</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07198343988850439</v>
+        <v>0.1522275060405307</v>
       </c>
       <c r="N158" t="n">
-        <v>0.08484195837809438</v>
+        <v>0.07113894726095321</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07173790199475003</v>
+        <v>0.1516952269589526</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05215582462058051</v>
+        <v>0.01642895555303832</v>
       </c>
       <c r="G159" t="n">
-        <v>0.05370139809611701</v>
+        <v>0.1528843949889636</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02845286909930753</v>
+        <v>0.02387836258650532</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07392268183113393</v>
+        <v>0.1535562322324518</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05477668151510187</v>
+        <v>0.0480977146933883</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07275745537117649</v>
+        <v>0.1538643609441923</v>
       </c>
       <c r="N159" t="n">
-        <v>0.08460357320399686</v>
+        <v>0.07225020303153401</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07250927728501615</v>
+        <v>0.1533263584316295</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05218492434781841</v>
+        <v>0.01564053196330084</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05427268956522464</v>
+        <v>0.1545108247228887</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02835102191304152</v>
+        <v>0.02435567506617212</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07470909333997577</v>
+        <v>0.1551898091710949</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05495424564180101</v>
+        <v>0.04803573293925933</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07353147085384858</v>
+        <v>0.155501215847854</v>
       </c>
       <c r="N160" t="n">
-        <v>0.08384807561741886</v>
+        <v>0.07250115146406244</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07328065257528228</v>
+        <v>0.1549574899043064</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05220768748523404</v>
+        <v>0.01787273451248224</v>
       </c>
       <c r="G161" t="n">
-        <v>0.05484398103433227</v>
+        <v>0.1561372544568138</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02824983250251607</v>
+        <v>0.02466810348094843</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07549550484881762</v>
+        <v>0.156823386109738</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05432349846599857</v>
+        <v>0.04865007052140111</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07430548633652068</v>
+        <v>0.1571380707515156</v>
       </c>
       <c r="N161" t="n">
-        <v>0.08367601612997133</v>
+        <v>0.07405088991507636</v>
       </c>
       <c r="O161" t="n">
-        <v>0.0740520278655484</v>
+        <v>0.1565886213769833</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05222403934265236</v>
+        <v>0.0171158411496335</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0554152725034399</v>
+        <v>0.157763684190739</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02794918564530248</v>
+        <v>0.02480196978056516</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07628191635765946</v>
+        <v>0.1584569630483811</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05378476714811056</v>
+        <v>0.04971317980087209</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07507950181919276</v>
+        <v>0.1587749256551772</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08308794525326524</v>
+        <v>0.07505851574111339</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07482340315581454</v>
+        <v>0.1582197528496602</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05223390522989835</v>
+        <v>0.0163601298238056</v>
       </c>
       <c r="G163" t="n">
-        <v>0.05598656397254752</v>
+        <v>0.1593901139246642</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02794896611897212</v>
+        <v>0.02514359591475322</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07706832786650132</v>
+        <v>0.1600905399870242</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05333837884855316</v>
+        <v>0.05059751313873079</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07585351730186485</v>
+        <v>0.1604117805588388</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08218441349891159</v>
+        <v>0.07588312629871125</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07559477844608067</v>
+        <v>0.1598508843223371</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05223721045679704</v>
+        <v>0.01759587848404957</v>
       </c>
       <c r="G164" t="n">
-        <v>0.05655785544165515</v>
+        <v>0.1610165436585893</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0278490587010963</v>
+        <v>0.02537930383324354</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07785473937534318</v>
+        <v>0.1617241169256673</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05348466072774241</v>
+        <v>0.05117552289603572</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07662753278453695</v>
+        <v>0.1620486354625004</v>
       </c>
       <c r="N164" t="n">
-        <v>0.08226597137852137</v>
+        <v>0.07718381894440773</v>
       </c>
       <c r="O164" t="n">
-        <v>0.0763661537363468</v>
+        <v>0.161482015795014</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05223721045679704</v>
+        <v>0.01881336507941637</v>
       </c>
       <c r="G165" t="n">
-        <v>0.05655785544165515</v>
+        <v>0.1626429733925144</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02774934816924637</v>
+        <v>0.02599541548576695</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07864115088418502</v>
+        <v>0.1633576938643104</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05262393994609441</v>
+        <v>0.05191966143384527</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07740154826720903</v>
+        <v>0.1636854903661621</v>
       </c>
       <c r="N165" t="n">
-        <v>0.08183316940370555</v>
+        <v>0.07791969103474033</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07713752902661293</v>
+        <v>0.1631131472676909</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05134590405991706</v>
+        <v>0.01900289382384602</v>
       </c>
       <c r="G166" t="n">
-        <v>0.05655758691319114</v>
+        <v>0.1642694031264396</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0274497193009937</v>
+        <v>0.0262782528220544</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07942756239302687</v>
+        <v>0.1649912708029535</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05285654366402529</v>
+        <v>0.052002381113218</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07817556374988112</v>
+        <v>0.1653223452698237</v>
       </c>
       <c r="N166" t="n">
-        <v>0.08138655808607509</v>
+        <v>0.07884983992624706</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07790890431687907</v>
+        <v>0.1647442787403678</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0504646568300853</v>
+        <v>0.01917425921187701</v>
       </c>
       <c r="G167" t="n">
-        <v>0.05655731838472713</v>
+        <v>0.1658958328603647</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02755005687390956</v>
+        <v>0.02632324034900305</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08021397390186873</v>
+        <v>0.1666248477415966</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05198279904195108</v>
+        <v>0.05240443746446272</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07894957923255322</v>
+        <v>0.1669592001734853</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08012668793724093</v>
+        <v>0.07917583275360096</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07868027960714519</v>
+        <v>0.1663754102130448</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04959395900724355</v>
+        <v>0.01934138720059947</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0565570498562631</v>
+        <v>0.1675222625942899</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02755024566556533</v>
+        <v>0.02665877502815196</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08100038541071058</v>
+        <v>0.1682584246802397</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05160303324028792</v>
+        <v>0.05307921632049273</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0797235947152253</v>
+        <v>0.1685960550771469</v>
       </c>
       <c r="N168" t="n">
-        <v>0.07945410946881409</v>
+        <v>0.07987974160638495</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07945165489741131</v>
+        <v>0.1680065416857217</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04873430083144718</v>
+        <v>0.01950458620273076</v>
       </c>
       <c r="G169" t="n">
-        <v>0.05655678132779909</v>
+        <v>0.169148692328215</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02745017045353233</v>
+        <v>0.02668862391226436</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08178679691955243</v>
+        <v>0.1698920016188828</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05111757341945197</v>
+        <v>0.05364239889276737</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0804976101978974</v>
+        <v>0.1702329099808085</v>
       </c>
       <c r="N169" t="n">
-        <v>0.07916937319240569</v>
+        <v>0.08046680900266667</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08022303018767744</v>
+        <v>0.1696376731583986</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04788617254263757</v>
+        <v>0.01766416463098826</v>
       </c>
       <c r="G170" t="n">
-        <v>0.05655651279933507</v>
+        <v>0.1707751220621402</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02724971601538193</v>
+        <v>0.02701322091026273</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08257320842839427</v>
+        <v>0.171525578557526</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05102674673985919</v>
+        <v>0.05379485907530632</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08127162568056949</v>
+        <v>0.1718697648844701</v>
       </c>
       <c r="N170" t="n">
-        <v>0.07897302961962649</v>
+        <v>0.0813383324974048</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08099440547794357</v>
+        <v>0.1712688046310755</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04705006438079424</v>
+        <v>0.01782043089808934</v>
       </c>
       <c r="G171" t="n">
-        <v>0.05655624427087105</v>
+        <v>0.1724015517960653</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02694876712868545</v>
+        <v>0.02743299993106965</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08335961993723613</v>
+        <v>0.1731591554961691</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05053088036192574</v>
+        <v>0.05433747076212914</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08204564116324158</v>
+        <v>0.1735066197881318</v>
       </c>
       <c r="N171" t="n">
-        <v>0.07766562926208764</v>
+        <v>0.08169560964555816</v>
       </c>
       <c r="O171" t="n">
-        <v>0.0817657807682097</v>
+        <v>0.1728999361037524</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04622646658586114</v>
+        <v>0.01997369341675139</v>
       </c>
       <c r="G172" t="n">
-        <v>0.05655597574240703</v>
+        <v>0.1740279815299904</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02684720857101419</v>
+        <v>0.02754839488360755</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08414603144607798</v>
+        <v>0.1747927324348122</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04993030144606772</v>
+        <v>0.05527110784725561</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08281965664591366</v>
+        <v>0.1751434746917934</v>
       </c>
       <c r="N172" t="n">
-        <v>0.07704772263139997</v>
+        <v>0.0828399380020855</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08253715605847582</v>
+        <v>0.1745310675764293</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0454158693978895</v>
+        <v>0.01812426059969174</v>
       </c>
       <c r="G173" t="n">
-        <v>0.05655570721394301</v>
+        <v>0.1756544112639156</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02704492511993953</v>
+        <v>0.02765983967679897</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08493244295491982</v>
+        <v>0.1764263093734553</v>
       </c>
       <c r="L173" t="n">
-        <v>0.0499253371527012</v>
+        <v>0.05569664422470533</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08359367212858575</v>
+        <v>0.176780329595455</v>
       </c>
       <c r="N173" t="n">
-        <v>0.07701986023917456</v>
+        <v>0.0832726151219455</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08330853134874196</v>
+        <v>0.1761621990491062</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04461876305682273</v>
+        <v>0.01927244085962781</v>
       </c>
       <c r="G174" t="n">
-        <v>0.056555438685479</v>
+        <v>0.1772808409978407</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0268418015530328</v>
+        <v>0.02806776821956643</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08571885446376167</v>
+        <v>0.1780598863120983</v>
       </c>
       <c r="L174" t="n">
-        <v>0.04971631464224233</v>
+        <v>0.05571495378849792</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08436768761125785</v>
+        <v>0.1784171844991166</v>
       </c>
       <c r="N174" t="n">
-        <v>0.07628259259702236</v>
+        <v>0.08409493856009687</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08407990663900808</v>
+        <v>0.1777933305217831</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04383563780264033</v>
+        <v>0.01841854260927695</v>
       </c>
       <c r="G175" t="n">
-        <v>0.05655517015701499</v>
+        <v>0.1789072707317659</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02653772264786533</v>
+        <v>0.02817261442083241</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08650526597260352</v>
+        <v>0.1796934632507415</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04910356107510716</v>
+        <v>0.05602691043265312</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08514170309392993</v>
+        <v>0.1800540394027783</v>
       </c>
       <c r="N175" t="n">
-        <v>0.07523647021655439</v>
+        <v>0.08450820587149838</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08485128192927421</v>
+        <v>0.17942446199446</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04306698387528871</v>
+        <v>0.01956287426135653</v>
       </c>
       <c r="G176" t="n">
-        <v>0.05655490162855096</v>
+        <v>0.180533700465691</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02643257318200846</v>
+        <v>0.02847481218951946</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08729167748144538</v>
+        <v>0.1813270401893846</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0482874036117118</v>
+        <v>0.05633338805119054</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08591571857660202</v>
+        <v>0.1816908943064399</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07538204360938155</v>
+        <v>0.0848137146111087</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08562265721954035</v>
+        <v>0.181055593467137</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04231329151481428</v>
+        <v>0.01870574422858391</v>
       </c>
       <c r="G177" t="n">
-        <v>0.05655463310008695</v>
+        <v>0.1821601301996162</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02662623793303355</v>
+        <v>0.02857479543455003</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08807808899028723</v>
+        <v>0.1829606171280277</v>
       </c>
       <c r="L177" t="n">
-        <v>0.0480681694124723</v>
+        <v>0.05713526053812981</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08668973405927412</v>
+        <v>0.1833277492101015</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07431986328711493</v>
+        <v>0.08621276233388669</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08639403250980647</v>
+        <v>0.1826867249398139</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04157505096116281</v>
+        <v>0.01885053401395128</v>
       </c>
       <c r="G178" t="n">
-        <v>0.05655436457162293</v>
+        <v>0.1837865599335413</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02621860167851191</v>
+        <v>0.02867395091464296</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08886450049912907</v>
+        <v>0.1845941940666708</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04794618563780484</v>
+        <v>0.05763381737106141</v>
       </c>
       <c r="M178" t="n">
-        <v>0.0874637495419462</v>
+        <v>0.1849646041137631</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07395047976136543</v>
+        <v>0.08601217001878181</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08716540780007261</v>
+        <v>0.1843178564124908</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04085275245431382</v>
+        <v>0.0200037711497433</v>
       </c>
       <c r="G179" t="n">
-        <v>0.05655409604315892</v>
+        <v>0.1854129896674665</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02620954919601486</v>
+        <v>0.02908375575393689</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08965091200797093</v>
+        <v>0.1862277710053139</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04702177944812544</v>
+        <v>0.05755038312297736</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0882377650246183</v>
+        <v>0.1866014590174247</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07277444354374407</v>
+        <v>0.08674580823284073</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08793678309033873</v>
+        <v>0.1859489878851677</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04014688623421645</v>
+        <v>0.02116080863578291</v>
       </c>
       <c r="G180" t="n">
-        <v>0.05655382751469489</v>
+        <v>0.1870394194013916</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02629896526311377</v>
+        <v>0.02920165594747717</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09043732351681279</v>
+        <v>0.187861347943957</v>
       </c>
       <c r="L180" t="n">
-        <v>0.0466952780038502</v>
+        <v>0.0580857756448841</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08901178050729039</v>
+        <v>0.1882383139210864</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07179230514586177</v>
+        <v>0.08810085046375349</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08870815838060486</v>
+        <v>0.1875801193578446</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03945794254091171</v>
+        <v>0.01931634848554186</v>
       </c>
       <c r="G181" t="n">
-        <v>0.05655355898623088</v>
+        <v>0.1886658491353167</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02618673465737996</v>
+        <v>0.02922019770527257</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09122373502565463</v>
+        <v>0.1894949248826001</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04646700846539523</v>
+        <v>0.05892498297883544</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08978579598996247</v>
+        <v>0.189875168824748</v>
       </c>
       <c r="N181" t="n">
-        <v>0.07150461507932959</v>
+        <v>0.08825500700586353</v>
       </c>
       <c r="O181" t="n">
-        <v>0.089479533670871</v>
+        <v>0.1892112508305215</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03878641161434802</v>
+        <v>0.01946509271249196</v>
       </c>
       <c r="G182" t="n">
-        <v>0.05655329045776686</v>
+        <v>0.1902922788692419</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0258727421563848</v>
+        <v>0.02973192723733184</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09201014653449648</v>
+        <v>0.1911285018212432</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04573729799317666</v>
+        <v>0.05885299316688536</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09055981147263457</v>
+        <v>0.1915120237284096</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07061192385575843</v>
+        <v>0.08938598815351428</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09025090896113712</v>
+        <v>0.1908423823031984</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03813278369450491</v>
+        <v>0.01960174333010501</v>
       </c>
       <c r="G183" t="n">
-        <v>0.05655302192930284</v>
+        <v>0.191918708603167</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02585687253769958</v>
+        <v>0.02992939075366378</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09279655804333833</v>
+        <v>0.1927620787598863</v>
       </c>
       <c r="L183" t="n">
-        <v>0.04560647374761054</v>
+        <v>0.05965479425108763</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09133382695530666</v>
+        <v>0.1931488786320712</v>
       </c>
       <c r="N183" t="n">
-        <v>0.06971478198675934</v>
+        <v>0.08937150420104906</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09102228425140325</v>
+        <v>0.1924735137758753</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03749754902133464</v>
+        <v>0.01972100235185272</v>
       </c>
       <c r="G184" t="n">
-        <v>0.05655275340083882</v>
+        <v>0.1935451383370922</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02553901057889567</v>
+        <v>0.03000513446427709</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09358296955218019</v>
+        <v>0.1943956556985294</v>
       </c>
       <c r="L184" t="n">
-        <v>0.04537486288911299</v>
+        <v>0.05961537427349622</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09210784243797875</v>
+        <v>0.1947857335357328</v>
       </c>
       <c r="N184" t="n">
-        <v>0.06921373998394331</v>
+        <v>0.09038926544281128</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09179365954166939</v>
+        <v>0.1941046452485522</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03688119783487204</v>
+        <v>0.02081757179120695</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0565524848723748</v>
+        <v>0.1951715680710173</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02551904105754438</v>
+        <v>0.03025170457918058</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09436938106102204</v>
+        <v>0.1960292326371725</v>
       </c>
       <c r="L185" t="n">
-        <v>0.04484279257810003</v>
+        <v>0.06021972127616501</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09288185792065085</v>
+        <v>0.1964225884393944</v>
       </c>
       <c r="N185" t="n">
-        <v>0.06880934835892122</v>
+        <v>0.09061698217314429</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09256503483193551</v>
+        <v>0.1957357767212292</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0362842203750686</v>
+        <v>0.02188649702080315</v>
       </c>
       <c r="G186" t="n">
-        <v>0.05655221634391079</v>
+        <v>0.1967979978049424</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02539684875121707</v>
+        <v>0.030161647308383</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09515579256986388</v>
+        <v>0.1976628095758156</v>
       </c>
       <c r="L186" t="n">
-        <v>0.04431058997498788</v>
+        <v>0.06055282330114783</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09365587340332293</v>
+        <v>0.1980594433430561</v>
       </c>
       <c r="N186" t="n">
-        <v>0.06760215762330418</v>
+        <v>0.09063236468639169</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09333641012220165</v>
+        <v>0.1973669081939061</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03570710688190384</v>
+        <v>0.01994338352064389</v>
       </c>
       <c r="G187" t="n">
-        <v>0.05655194781544678</v>
+        <v>0.1984244275388676</v>
       </c>
       <c r="J187" t="n">
-        <v>0.0251723184374851</v>
+        <v>0.03044238087394294</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09594220407870573</v>
+        <v>0.1992963865144587</v>
       </c>
       <c r="L187" t="n">
-        <v>0.04367858224019255</v>
+        <v>0.06041895366749256</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09442988888599502</v>
+        <v>0.1996962982467177</v>
       </c>
       <c r="N187" t="n">
-        <v>0.06699271828870312</v>
+        <v>0.09067185858653859</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09410778541246777</v>
+        <v>0.198998039666583</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03515034759533345</v>
+        <v>0.02199903767884655</v>
       </c>
       <c r="G188" t="n">
-        <v>0.05655167928698275</v>
+        <v>0.2000508572727927</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02504533489391976</v>
+        <v>0.03032057839334441</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09672861558754758</v>
+        <v>0.2009299634531018</v>
       </c>
       <c r="L188" t="n">
-        <v>0.04344709653413018</v>
+        <v>0.06107634584843546</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0952039043686671</v>
+        <v>0.2013331531503793</v>
       </c>
       <c r="N188" t="n">
-        <v>0.06638158086672902</v>
+        <v>0.09170580601268569</v>
       </c>
       <c r="O188" t="n">
-        <v>0.0948791607027339</v>
+        <v>0.2006291711392599</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0346144327553855</v>
+        <v>0.02105343999810378</v>
       </c>
       <c r="G189" t="n">
-        <v>0.05655141075851874</v>
+        <v>0.2016772870067179</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0251157828980924</v>
+        <v>0.030397031514941</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09751502709638943</v>
+        <v>0.2025635403917449</v>
       </c>
       <c r="L189" t="n">
-        <v>0.04291646001721683</v>
+        <v>0.0611302402502629</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09597791985133919</v>
+        <v>0.2029700080540409</v>
       </c>
       <c r="N189" t="n">
-        <v>0.06596929586899275</v>
+        <v>0.09163451984958576</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09565053599300004</v>
+        <v>0.2022603026119368</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03409785078876523</v>
+        <v>0.02010657098110825</v>
       </c>
       <c r="G190" t="n">
-        <v>0.05655114223005472</v>
+        <v>0.203303716740643</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02478354722757437</v>
+        <v>0.03037171280777694</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09830143860523127</v>
+        <v>0.204197117330388</v>
       </c>
       <c r="L190" t="n">
-        <v>0.04228699984986858</v>
+        <v>0.06118058162693818</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09675193533401129</v>
+        <v>0.2046068629577026</v>
       </c>
       <c r="N190" t="n">
-        <v>0.06555641380710547</v>
+        <v>0.09195791806810594</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09642191128326616</v>
+        <v>0.2038914340846137</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.0335890810559538</v>
+        <v>0.02115841113055262</v>
       </c>
       <c r="G191" t="n">
-        <v>0.05655087370159071</v>
+        <v>0.2049301464745682</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02494851265993699</v>
+        <v>0.03074459484089638</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09908785011407313</v>
+        <v>0.2058306942690311</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04235904319250158</v>
+        <v>0.06142731473242469</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09752595081668337</v>
+        <v>0.2062437178613642</v>
       </c>
       <c r="N191" t="n">
-        <v>0.06444348519267806</v>
+        <v>0.09147591863911314</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09719328657353228</v>
+        <v>0.2055225655572906</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03308661198365912</v>
+        <v>0.02220894094912957</v>
       </c>
       <c r="G192" t="n">
-        <v>0.05655060517312668</v>
+        <v>0.2065565762084933</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02481056397275162</v>
+        <v>0.03081565018334356</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09987426162291499</v>
+        <v>0.2074642712076742</v>
       </c>
       <c r="L192" t="n">
-        <v>0.04163291720553186</v>
+        <v>0.06147038432068583</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09829996629935547</v>
+        <v>0.2078805727650258</v>
       </c>
       <c r="N192" t="n">
-        <v>0.0639310605373215</v>
+        <v>0.09228843953347438</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09796466186379842</v>
+        <v>0.2071536970299675</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03259093381190447</v>
+        <v>0.02025814093953176</v>
       </c>
       <c r="G193" t="n">
-        <v>0.05655033664466267</v>
+        <v>0.2081830059424185</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02456561396384174</v>
+        <v>0.03088485140416272</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1006606731317568</v>
+        <v>0.2090978481463173</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04129957365127532</v>
+        <v>0.06170973514568501</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09907398178202756</v>
+        <v>0.2095174276686874</v>
       </c>
       <c r="N193" t="n">
-        <v>0.06320900932469636</v>
+        <v>0.0925953987220568</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09873603715406454</v>
+        <v>0.2087848285026444</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03210253678064736</v>
+        <v>0.02130599160445188</v>
       </c>
       <c r="G194" t="n">
-        <v>0.05655006811619865</v>
+        <v>0.2098094356763436</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02420908820996012</v>
+        <v>0.03065217107239805</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1014470846405987</v>
+        <v>0.2107314250849605</v>
       </c>
       <c r="L194" t="n">
-        <v>0.04054837154434116</v>
+        <v>0.06154531196138557</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09984799726469964</v>
+        <v>0.2111542825723491</v>
       </c>
       <c r="N194" t="n">
-        <v>0.06206506147668123</v>
+        <v>0.09289671417572715</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09950741244433067</v>
+        <v>0.2104159599753213</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03162191112986729</v>
+        <v>0.02135247344658257</v>
       </c>
       <c r="G195" t="n">
-        <v>0.05654979958773464</v>
+        <v>0.2114358654102687</v>
       </c>
       <c r="J195" t="n">
-        <v>0.0241417219485683</v>
+        <v>0.03071758175709373</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1022334961494405</v>
+        <v>0.2123650020236036</v>
       </c>
       <c r="L195" t="n">
-        <v>0.04018065738703103</v>
+        <v>0.06207705952175099</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1006220127473717</v>
+        <v>0.2127911374760106</v>
       </c>
       <c r="N195" t="n">
-        <v>0.06110046997599933</v>
+        <v>0.09319230386535271</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1002787877345968</v>
+        <v>0.2120470914479982</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03114954709952344</v>
+        <v>0.02039756696861651</v>
       </c>
       <c r="G196" t="n">
-        <v>0.05654953105927061</v>
+        <v>0.2130622951441939</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02386426714732665</v>
+        <v>0.03088105602729396</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1030199076582824</v>
+        <v>0.2139985789622466</v>
       </c>
       <c r="L196" t="n">
-        <v>0.03959781117360253</v>
+        <v>0.06190492258074456</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1013960282300438</v>
+        <v>0.2144279923796723</v>
       </c>
       <c r="N196" t="n">
-        <v>0.06071652678061434</v>
+        <v>0.0927820857618003</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1010501630248629</v>
+        <v>0.2136782229206751</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03068593492963643</v>
+        <v>0.02144125267324636</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0565492625308066</v>
+        <v>0.214688724878119</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02377747577389552</v>
+        <v>0.03104256645204299</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1038063191671242</v>
+        <v>0.2156321559008897</v>
       </c>
       <c r="L197" t="n">
-        <v>0.03960121289831336</v>
+        <v>0.06222884589232969</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1021700437127159</v>
+        <v>0.2160648472833339</v>
       </c>
       <c r="N197" t="n">
-        <v>0.05961452384849009</v>
+        <v>0.09336597783593698</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1018215383151291</v>
+        <v>0.2153093543933521</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03023156486016507</v>
+        <v>0.02048351106316481</v>
       </c>
       <c r="G198" t="n">
-        <v>0.05654899400234258</v>
+        <v>0.2163151546120442</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02348209979593532</v>
+        <v>0.03110208560038501</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1045927306759661</v>
+        <v>0.2172657328395328</v>
       </c>
       <c r="L198" t="n">
-        <v>0.03889224255542106</v>
+        <v>0.06194877421046974</v>
       </c>
       <c r="M198" t="n">
-        <v>0.102944059195388</v>
+        <v>0.2177017021869955</v>
       </c>
       <c r="N198" t="n">
-        <v>0.05869575313759029</v>
+        <v>0.09304389805862978</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1025929136053952</v>
+        <v>0.216940485866029</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02978692713108887</v>
+        <v>0.02152432264106451</v>
       </c>
       <c r="G199" t="n">
-        <v>0.05654872547387857</v>
+        <v>0.2179415843459693</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02337889118110634</v>
+        <v>0.03105958604136423</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1053791421848079</v>
+        <v>0.218899309778176</v>
       </c>
       <c r="L199" t="n">
-        <v>0.03867228013918333</v>
+        <v>0.06216465228912815</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1037180746780601</v>
+        <v>0.2193385570906571</v>
       </c>
       <c r="N199" t="n">
-        <v>0.05826150660587875</v>
+        <v>0.09341576440074562</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1033642888956613</v>
+        <v>0.2185716173387059</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02935251198236866</v>
+        <v>0.02256366790963813</v>
       </c>
       <c r="G200" t="n">
-        <v>0.05654845694541454</v>
+        <v>0.2195680140798945</v>
       </c>
       <c r="J200" t="n">
-        <v>0.023268601897069</v>
+        <v>0.03101504034402487</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1061655536936498</v>
+        <v>0.2205328867168191</v>
       </c>
       <c r="L200" t="n">
-        <v>0.03774270564385784</v>
+        <v>0.06227642488226826</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1044920901607322</v>
+        <v>0.2209754119943187</v>
       </c>
       <c r="N200" t="n">
-        <v>0.05701307621131929</v>
+        <v>0.09328149483315168</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1041356641859274</v>
+        <v>0.2202027488113828</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02892880965402183</v>
+        <v>0.02160152737157835</v>
       </c>
       <c r="G201" t="n">
-        <v>0.05654818841695053</v>
+        <v>0.2211944438138196</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02285198391148363</v>
+        <v>0.03136842107741108</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1069519652024916</v>
+        <v>0.2221664636554622</v>
       </c>
       <c r="L201" t="n">
-        <v>0.03720489906370214</v>
+        <v>0.06258403674385349</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1052661056434043</v>
+        <v>0.2226122668979804</v>
       </c>
       <c r="N201" t="n">
-        <v>0.05685175391187558</v>
+        <v>0.0938410073267148</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1049070394761936</v>
+        <v>0.2218338802840597</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02851631038600871</v>
+        <v>0.02163788152957783</v>
       </c>
       <c r="G202" t="n">
-        <v>0.05654791988848652</v>
+        <v>0.2228208735477448</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02282978919201062</v>
+        <v>0.03121970081056713</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1077383767113335</v>
+        <v>0.2238000405941053</v>
       </c>
       <c r="L202" t="n">
-        <v>0.03696024039297399</v>
+        <v>0.06288743262784721</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1060401211260764</v>
+        <v>0.224249121801642</v>
       </c>
       <c r="N202" t="n">
-        <v>0.05617883166551146</v>
+        <v>0.09439421985230206</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1056784147664597</v>
+        <v>0.2234650117567366</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02811550441830885</v>
+        <v>0.02267271088632924</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0565476513600225</v>
+        <v>0.2244473032816699</v>
       </c>
       <c r="J203" t="n">
-        <v>0.0226027697063103</v>
+        <v>0.03126885211253722</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1085247882201753</v>
+        <v>0.2254336175327484</v>
       </c>
       <c r="L203" t="n">
-        <v>0.03611010962593089</v>
+        <v>0.06268655728821279</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1068141366087485</v>
+        <v>0.2258859767053036</v>
       </c>
       <c r="N203" t="n">
-        <v>0.0551956014301907</v>
+        <v>0.09394105038078054</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1064497900567258</v>
+        <v>0.2250961432294135</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02772688199088515</v>
+        <v>0.02270599594452524</v>
       </c>
       <c r="G204" t="n">
-        <v>0.05654738283155848</v>
+        <v>0.2260737330155951</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02217167742204307</v>
+        <v>0.03131584755236554</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1093111997290172</v>
+        <v>0.2270671944713915</v>
       </c>
       <c r="L204" t="n">
-        <v>0.03565588675683054</v>
+        <v>0.06258135547891364</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1075881520914206</v>
+        <v>0.2275228316089652</v>
       </c>
       <c r="N204" t="n">
-        <v>0.05360335516387699</v>
+        <v>0.09408141688301708</v>
       </c>
       <c r="O204" t="n">
-        <v>0.107221165346992</v>
+        <v>0.2267272747020904</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02735093334375096</v>
+        <v>0.02273771720685851</v>
       </c>
       <c r="G205" t="n">
-        <v>0.05654711430309446</v>
+        <v>0.2277001627495202</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02213726430686924</v>
+        <v>0.0312606596990963</v>
       </c>
       <c r="K205" t="n">
-        <v>0.110097611237859</v>
+        <v>0.2287007714100346</v>
       </c>
       <c r="L205" t="n">
-        <v>0.03499895177993062</v>
+        <v>0.06297177195391312</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1083621675740926</v>
+        <v>0.2291596865126268</v>
       </c>
       <c r="N205" t="n">
-        <v>0.05330338482453428</v>
+        <v>0.09421523732987885</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1079925406372581</v>
+        <v>0.2283584061747673</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0269881487168686</v>
+        <v>0.02276785517602172</v>
       </c>
       <c r="G206" t="n">
-        <v>0.05654684577463045</v>
+        <v>0.2293265924834454</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02200028232844925</v>
+        <v>0.0314032611217737</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1108840227467009</v>
+        <v>0.2303343483486777</v>
       </c>
       <c r="L206" t="n">
-        <v>0.03464068468948869</v>
+        <v>0.06295775146717461</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1091361830567647</v>
+        <v>0.2307965414162885</v>
       </c>
       <c r="N206" t="n">
-        <v>0.0517969823701262</v>
+        <v>0.0945424296922327</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1087639159275242</v>
+        <v>0.2299895376474442</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02663901835021761</v>
+        <v>0.02179639035470751</v>
       </c>
       <c r="G207" t="n">
-        <v>0.05654657724616643</v>
+        <v>0.2309530222173705</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02176148345444337</v>
+        <v>0.03164362438944197</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1116704342555428</v>
+        <v>0.2319679252873208</v>
       </c>
       <c r="L207" t="n">
-        <v>0.03368246547976245</v>
+        <v>0.06323923877266152</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1099101985394368</v>
+        <v>0.2324333963199501</v>
       </c>
       <c r="N207" t="n">
-        <v>0.05158543975861651</v>
+        <v>0.09456291194094579</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1095352912177903</v>
+        <v>0.2316206691201211</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02630403248376324</v>
+        <v>0.02082330324560858</v>
       </c>
       <c r="G208" t="n">
-        <v>0.05654630871770241</v>
+        <v>0.2325794519512956</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02142161965251203</v>
+        <v>0.0315817220711453</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1124568457643846</v>
+        <v>0.2336015022259639</v>
       </c>
       <c r="L208" t="n">
-        <v>0.03352567414500948</v>
+        <v>0.06341617862433724</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1106842140221089</v>
+        <v>0.2340702512236117</v>
       </c>
       <c r="N208" t="n">
-        <v>0.05047004894796914</v>
+        <v>0.09497660204688507</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1103066665080565</v>
+        <v>0.233251800592798</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.0259836813575142</v>
+        <v>0.02184857435141759</v>
       </c>
       <c r="G209" t="n">
-        <v>0.05654604018923839</v>
+        <v>0.2342058816852208</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02098144289031559</v>
+        <v>0.03161752673592789</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1132432572732264</v>
+        <v>0.235235079164607</v>
       </c>
       <c r="L209" t="n">
-        <v>0.03267169067948747</v>
+        <v>0.06308851577616512</v>
       </c>
       <c r="M209" t="n">
-        <v>0.111458229504781</v>
+        <v>0.2357071061272733</v>
       </c>
       <c r="N209" t="n">
-        <v>0.04935210189614769</v>
+        <v>0.09468341798091739</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1110780417983226</v>
+        <v>0.2348829320654749</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0256784552114351</v>
+        <v>0.02187218417482722</v>
       </c>
       <c r="G210" t="n">
-        <v>0.05654577166077437</v>
+        <v>0.2358323114191459</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02094170513551438</v>
+        <v>0.03165101095283399</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1140296687820683</v>
+        <v>0.2368686561032501</v>
       </c>
       <c r="L210" t="n">
-        <v>0.03242189507745399</v>
+        <v>0.06315619498210856</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1122322449874531</v>
+        <v>0.237343961030935</v>
       </c>
       <c r="N210" t="n">
-        <v>0.04833289056111589</v>
+        <v>0.09518327771391005</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1118494170885888</v>
+        <v>0.2365140635381519</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02538884428550545</v>
+        <v>0.02189411321853011</v>
       </c>
       <c r="G211" t="n">
-        <v>0.05654550313231036</v>
+        <v>0.2374587411530711</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02050315835576877</v>
+        <v>0.03158214729090775</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1148160802909101</v>
+        <v>0.2385022330418932</v>
       </c>
       <c r="L211" t="n">
-        <v>0.03187766733316674</v>
+        <v>0.06331916099613097</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1130062604701252</v>
+        <v>0.2389808159345966</v>
       </c>
       <c r="N211" t="n">
-        <v>0.04711370690083783</v>
+        <v>0.09457609921672983</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1126207923788549</v>
+        <v>0.2381451950108288</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02511533881969327</v>
+        <v>0.02191434198521896</v>
       </c>
       <c r="G212" t="n">
-        <v>0.05654523460384633</v>
+        <v>0.2390851708869962</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02046655451873913</v>
+        <v>0.03181090831919341</v>
       </c>
       <c r="K212" t="n">
-        <v>0.115602491799752</v>
+        <v>0.2401358099805363</v>
       </c>
       <c r="L212" t="n">
-        <v>0.03154038744088339</v>
+        <v>0.0631773585721957</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1137802759527973</v>
+        <v>0.2406176708382582</v>
       </c>
       <c r="N212" t="n">
-        <v>0.04699584287327696</v>
+        <v>0.09546180046024388</v>
       </c>
       <c r="O212" t="n">
-        <v>0.113392167669121</v>
+        <v>0.2397763264835057</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02485842905400187</v>
+        <v>0.02193285097758641</v>
       </c>
       <c r="G213" t="n">
-        <v>0.05654496607538232</v>
+        <v>0.2407116006209213</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02023264559208582</v>
+        <v>0.03183726660673517</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1163889033085938</v>
+        <v>0.2417693869191794</v>
       </c>
       <c r="L213" t="n">
-        <v>0.03081143539486147</v>
+        <v>0.06323073246426619</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1145542914354694</v>
+        <v>0.2422545257419198</v>
       </c>
       <c r="N213" t="n">
-        <v>0.04558059043639717</v>
+        <v>0.09504029941531905</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1141635429593871</v>
+        <v>0.2414074579561826</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02461860522839852</v>
+        <v>0.02294962069832516</v>
       </c>
       <c r="G214" t="n">
-        <v>0.05654469754691831</v>
+        <v>0.2423380303548465</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02010218354346921</v>
+        <v>0.03186119472257726</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1171753148174357</v>
+        <v>0.2434029638578225</v>
       </c>
       <c r="L214" t="n">
-        <v>0.03019219118935873</v>
+        <v>0.06357922742630573</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1153283069181415</v>
+        <v>0.2438913806455814</v>
       </c>
       <c r="N214" t="n">
-        <v>0.04496924154816223</v>
+        <v>0.09491151405282244</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1149349182496533</v>
+        <v>0.2430385894288595</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02461860522839852</v>
+        <v>0.02196463165012782</v>
       </c>
       <c r="G215" t="n">
-        <v>0.05654469754691831</v>
+        <v>0.2439644600887717</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01967592034054967</v>
+        <v>0.03168266523576385</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1179617263262775</v>
+        <v>0.2450365407964657</v>
       </c>
       <c r="L215" t="n">
-        <v>0.02938403481863272</v>
+        <v>0.06372278821227778</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1161023224008135</v>
+        <v>0.2455282355492431</v>
       </c>
       <c r="N215" t="n">
-        <v>0.04396308816653594</v>
+        <v>0.09507536234362118</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1157062935399194</v>
+        <v>0.2446697209015364</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02398555634204336</v>
+        <v>0.02197786433568714</v>
       </c>
       <c r="G216" t="n">
-        <v>0.05645178264403011</v>
+        <v>0.2455908898226968</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01955460795098754</v>
+        <v>0.03170165071533917</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1187481378351194</v>
+        <v>0.2466701177351088</v>
       </c>
       <c r="L216" t="n">
-        <v>0.02898834627694108</v>
+        <v>0.0635613595761457</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1168763378834856</v>
+        <v>0.2471650904529047</v>
       </c>
       <c r="N216" t="n">
-        <v>0.04286342224948209</v>
+        <v>0.09573176225858204</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1164776688301855</v>
+        <v>0.2463008523742133</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02335965126003795</v>
+        <v>0.02098929925769571</v>
       </c>
       <c r="G217" t="n">
-        <v>0.05635886774114194</v>
+        <v>0.2472173195566219</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01933899834244319</v>
+        <v>0.03191812373034741</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1195345493439612</v>
+        <v>0.2483036946737519</v>
       </c>
       <c r="L217" t="n">
-        <v>0.02860650555854147</v>
+        <v>0.06349488627187289</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1176503533661577</v>
+        <v>0.2488019453565663</v>
       </c>
       <c r="N217" t="n">
-        <v>0.04197153575496437</v>
+        <v>0.09498063176857219</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1172490441204516</v>
+        <v>0.2479319838468902</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02274123797603491</v>
+        <v>0.02199891691884625</v>
       </c>
       <c r="G218" t="n">
-        <v>0.05626595283825375</v>
+        <v>0.2488437492905471</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01912984348257699</v>
+        <v>0.03163205684983282</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1203209608528031</v>
+        <v>0.249937271612395</v>
       </c>
       <c r="L218" t="n">
-        <v>0.02803989265769158</v>
+        <v>0.06342331305342272</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1184243688488298</v>
+        <v>0.250438800260228</v>
       </c>
       <c r="N218" t="n">
-        <v>0.04128872064094657</v>
+        <v>0.09572188884445854</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1180204194107178</v>
+        <v>0.2495631153195672</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02213066448368715</v>
+        <v>0.02300669782183142</v>
       </c>
       <c r="G219" t="n">
-        <v>0.05617303793536556</v>
+        <v>0.2504701790244722</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01872789533904931</v>
+        <v>0.03174342264283954</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1211073723616449</v>
+        <v>0.2515708485510381</v>
       </c>
       <c r="L219" t="n">
-        <v>0.02788988756864896</v>
+        <v>0.06384658467475859</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1191983843315019</v>
+        <v>0.2520756551638895</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0405162688653925</v>
+        <v>0.09555545145710814</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1187917947009839</v>
+        <v>0.2511942467922441</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02152827877664749</v>
+        <v>0.02301262246934386</v>
       </c>
       <c r="G220" t="n">
-        <v>0.05608012303247736</v>
+        <v>0.2520966087583973</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01863390587952046</v>
+        <v>0.03185219367841184</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1218937838704868</v>
+        <v>0.2532044254896812</v>
       </c>
       <c r="L220" t="n">
-        <v>0.02765787028567132</v>
+        <v>0.0636646458898438</v>
       </c>
       <c r="M220" t="n">
-        <v>0.119972399814174</v>
+        <v>0.2537125100675512</v>
       </c>
       <c r="N220" t="n">
-        <v>0.03995547238626601</v>
+        <v>0.09508123757738801</v>
       </c>
       <c r="O220" t="n">
-        <v>0.11956316999125</v>
+        <v>0.252825378264921</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02093442884856882</v>
+        <v>0.02301667136407628</v>
       </c>
       <c r="G221" t="n">
-        <v>0.05598720812958918</v>
+        <v>0.2537230384923225</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01864862707165089</v>
+        <v>0.03165834252559391</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1226801953793286</v>
+        <v>0.2548380024283243</v>
       </c>
       <c r="L221" t="n">
-        <v>0.02684522080301621</v>
+        <v>0.0633774414526419</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1207464152968461</v>
+        <v>0.2553493649712128</v>
       </c>
       <c r="N221" t="n">
-        <v>0.03890762316153068</v>
+        <v>0.09529916517616521</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1203345452815162</v>
+        <v>0.2544565097375979</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.0203494626931038</v>
+        <v>0.02201882500872133</v>
       </c>
       <c r="G222" t="n">
-        <v>0.055894293226701</v>
+        <v>0.2553494682262477</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01837281088310087</v>
+        <v>0.03166184175342994</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1234666068881705</v>
+        <v>0.2564715793669674</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0263533191149414</v>
+        <v>0.06388491611711614</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1215204307795182</v>
+        <v>0.2569862198748744</v>
       </c>
       <c r="N222" t="n">
-        <v>0.03797401314915044</v>
+        <v>0.09550915222430667</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1211059205717823</v>
+        <v>0.2560876412102748</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01977372830390534</v>
+        <v>0.02101495421409904</v>
       </c>
       <c r="G223" t="n">
-        <v>0.0558013783238128</v>
+        <v>0.2569758979601728</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01810720928153083</v>
+        <v>0.03186110996251086</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1242530183970123</v>
+        <v>0.2581051563056105</v>
       </c>
       <c r="L223" t="n">
-        <v>0.02608354521570441</v>
+        <v>0.06348597594501784</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1222944462621903</v>
+        <v>0.258623074778536</v>
       </c>
       <c r="N223" t="n">
-        <v>0.03685593430708906</v>
+        <v>0.09550305510769058</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1218772958620484</v>
+        <v>0.2577187726829517</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01920757367462632</v>
+        <v>0.02196415041817424</v>
       </c>
       <c r="G224" t="n">
-        <v>0.05570846342092463</v>
+        <v>0.2586023276940979</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01785257423460113</v>
+        <v>0.03160420907896218</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1250394299058542</v>
+        <v>0.2597387332442536</v>
       </c>
       <c r="L224" t="n">
-        <v>0.02563727909956293</v>
+        <v>0.06348485134177351</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1230684617448624</v>
+        <v>0.2602599296821976</v>
       </c>
       <c r="N224" t="n">
-        <v>0.03625467859331016</v>
+        <v>0.0951179806469708</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1226486711523146</v>
+        <v>0.2593499041556286</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01865134679891942</v>
+        <v>0.02186073031091621</v>
       </c>
       <c r="G225" t="n">
-        <v>0.05561554851803643</v>
+        <v>0.2602287574280231</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01790965770997208</v>
+        <v>0.03147210910026624</v>
       </c>
       <c r="K225" t="n">
-        <v>0.125825841414696</v>
+        <v>0.2613723101828967</v>
       </c>
       <c r="L225" t="n">
-        <v>0.02561590076077458</v>
+        <v>0.06303119920803268</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1238424772275344</v>
+        <v>0.2618967845858592</v>
       </c>
       <c r="N225" t="n">
-        <v>0.03497153796577762</v>
+        <v>0.09530922830959637</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1234200464425807</v>
+        <v>0.2609810356283055</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01810539567043752</v>
+        <v>0.02071077204886228</v>
       </c>
       <c r="G226" t="n">
-        <v>0.05552263361514825</v>
+        <v>0.2618551871619482</v>
       </c>
       <c r="J226" t="n">
-        <v>0.0178792116753041</v>
+        <v>0.03127336144536715</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1266122529235379</v>
+        <v>0.2630058871215398</v>
       </c>
       <c r="L226" t="n">
-        <v>0.02512079019359698</v>
+        <v>0.06314224213011982</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1246164927102065</v>
+        <v>0.2635336394895209</v>
       </c>
       <c r="N226" t="n">
-        <v>0.03420780438245524</v>
+        <v>0.09440237013495073</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1241914217328468</v>
+        <v>0.2626121671009825</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01757006828283352</v>
+        <v>0.02252035378854981</v>
       </c>
       <c r="G227" t="n">
-        <v>0.05542971871226007</v>
+        <v>0.2634816168958734</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01746198809825752</v>
+        <v>0.03131651753320909</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1273986644323797</v>
+        <v>0.2646394640601828</v>
       </c>
       <c r="L227" t="n">
-        <v>0.02525332739228781</v>
+        <v>0.06263520269435949</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1253905081928786</v>
+        <v>0.2651704943931825</v>
       </c>
       <c r="N227" t="n">
-        <v>0.03386476980130682</v>
+        <v>0.09352297816241734</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1249627970231129</v>
+        <v>0.2642432985736594</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0170457126297601</v>
+        <v>0.02229555368651611</v>
       </c>
       <c r="G228" t="n">
-        <v>0.05533680380937187</v>
+        <v>0.2651080466297985</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01735873894649272</v>
+        <v>0.03081012878273617</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1281850759412216</v>
+        <v>0.266273040998826</v>
       </c>
       <c r="L228" t="n">
-        <v>0.02461489235110464</v>
+        <v>0.06212730348707624</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1261645236755507</v>
+        <v>0.2668073492968441</v>
       </c>
       <c r="N228" t="n">
-        <v>0.03314372618029604</v>
+        <v>0.0924966244313794</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1257341723133791</v>
+        <v>0.2658744300463363</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01653267670487014</v>
+        <v>0.02104244989929855</v>
       </c>
       <c r="G229" t="n">
-        <v>0.05524388890648368</v>
+        <v>0.2667344763637237</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01727021618767002</v>
+        <v>0.03056274661289257</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1289714874500635</v>
+        <v>0.2679066179374691</v>
       </c>
       <c r="L229" t="n">
-        <v>0.02440686506430523</v>
+        <v>0.06113576709459465</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1269385391582228</v>
+        <v>0.2684442042005057</v>
       </c>
       <c r="N229" t="n">
-        <v>0.03214596547738668</v>
+        <v>0.09144888098122039</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1265055476036452</v>
+        <v>0.2675055615190132</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01603130850181646</v>
+        <v>0.02176712058343449</v>
       </c>
       <c r="G230" t="n">
-        <v>0.0551509740035955</v>
+        <v>0.2683609060976488</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01729707295323675</v>
+        <v>0.03018292244262241</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1297578989589053</v>
+        <v>0.2695401948761122</v>
       </c>
       <c r="L230" t="n">
-        <v>0.02433045509996878</v>
+        <v>0.06027781610323915</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1277125546408949</v>
+        <v>0.2700810591041674</v>
       </c>
       <c r="N230" t="n">
-        <v>0.0317726686122537</v>
+        <v>0.09020531985132368</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1272769228939113</v>
+        <v>0.2691366929916901</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01554195601425194</v>
+        <v>0.02147564389546123</v>
       </c>
       <c r="G231" t="n">
-        <v>0.05505805910070732</v>
+        <v>0.269987335831574</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01733059710634473</v>
+        <v>0.02987920769086982</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1305443104677471</v>
+        <v>0.2711737718147553</v>
       </c>
       <c r="L231" t="n">
-        <v>0.02426804814210981</v>
+        <v>0.05977067309933443</v>
       </c>
       <c r="M231" t="n">
-        <v>0.128486570123567</v>
+        <v>0.271717914007829</v>
       </c>
       <c r="N231" t="n">
-        <v>0.03071265054403705</v>
+        <v>0.08939151308107246</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1280482981841775</v>
+        <v>0.270767824464367</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01506496723582929</v>
+        <v>0.02017409799191616</v>
       </c>
       <c r="G232" t="n">
-        <v>0.05496514419781912</v>
+        <v>0.2716137655654991</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01726483885059309</v>
+        <v>0.02946015377657897</v>
       </c>
       <c r="K232" t="n">
-        <v>0.131330721976589</v>
+        <v>0.2728073487533984</v>
       </c>
       <c r="L232" t="n">
-        <v>0.02400729994492626</v>
+        <v>0.05893156066920494</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1292605856062391</v>
+        <v>0.2733547689114906</v>
       </c>
       <c r="N232" t="n">
-        <v>0.03085790539977351</v>
+        <v>0.08823303270985028</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1288196734744436</v>
+        <v>0.2723989559370439</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01460069016020137</v>
+        <v>0.02086856102933658</v>
       </c>
       <c r="G233" t="n">
-        <v>0.05487222929493094</v>
+        <v>0.2732401952994243</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01729987614656424</v>
+        <v>0.02883431211869399</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1321171334854308</v>
+        <v>0.2744409256920415</v>
       </c>
       <c r="L233" t="n">
-        <v>0.0240484067824081</v>
+        <v>0.05817770139917516</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1300346010889112</v>
+        <v>0.2749916238151522</v>
       </c>
       <c r="N233" t="n">
-        <v>0.03010856380987043</v>
+        <v>0.08635545077704032</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1295910487647097</v>
+        <v>0.2740300874097208</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01414947278102105</v>
+        <v>0.01956511116425986</v>
       </c>
       <c r="G234" t="n">
-        <v>0.05477931439204275</v>
+        <v>0.2748666250333494</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01723578695484057</v>
+        <v>0.02841023413615903</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1329035449942727</v>
+        <v>0.2760745026306846</v>
       </c>
       <c r="L234" t="n">
-        <v>0.02359156492854536</v>
+        <v>0.05672631787556975</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1308086165715833</v>
+        <v>0.2766284787188139</v>
       </c>
       <c r="N234" t="n">
-        <v>0.02896475640473511</v>
+        <v>0.08498433932202604</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1303624240549758</v>
+        <v>0.2756612188823978</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01371166309194106</v>
+        <v>0.01926982655322334</v>
       </c>
       <c r="G235" t="n">
-        <v>0.05468639948915457</v>
+        <v>0.2764930547672745</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01717264923600452</v>
+        <v>0.02809647124791823</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1336899565031145</v>
+        <v>0.2777080795693277</v>
       </c>
       <c r="L235" t="n">
-        <v>0.02333697065732804</v>
+        <v>0.05649463268471319</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1315826320542554</v>
+        <v>0.2782653336224755</v>
       </c>
       <c r="N235" t="n">
-        <v>0.02872661381477493</v>
+        <v>0.08384527038419087</v>
       </c>
       <c r="O235" t="n">
-        <v>0.131133799345242</v>
+        <v>0.2772923503550747</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01328760908661426</v>
+        <v>0.01898878535276436</v>
       </c>
       <c r="G236" t="n">
-        <v>0.05459348458626637</v>
+        <v>0.2781194845011997</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01701054095063848</v>
+        <v>0.0277015748729157</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1344763680119564</v>
+        <v>0.2793416565079708</v>
       </c>
       <c r="L236" t="n">
-        <v>0.02338482024274618</v>
+        <v>0.05569986841293006</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1323566475369274</v>
+        <v>0.2799021885261371</v>
       </c>
       <c r="N236" t="n">
-        <v>0.02809426667039727</v>
+        <v>0.08346381600291813</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1319051746355081</v>
+        <v>0.2789234818277516</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01287765875869352</v>
+        <v>0.01972806571942027</v>
       </c>
       <c r="G237" t="n">
-        <v>0.05450056968337819</v>
+        <v>0.2797459142351248</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01684954005932482</v>
+        <v>0.02723409643009564</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1352627795207982</v>
+        <v>0.280975233446614</v>
       </c>
       <c r="L237" t="n">
-        <v>0.02323530995878983</v>
+        <v>0.05445924764654483</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1331306630195996</v>
+        <v>0.2815390434297987</v>
       </c>
       <c r="N237" t="n">
-        <v>0.02746784560200954</v>
+        <v>0.08166554821759114</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1326765499257742</v>
+        <v>0.2805546133004285</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01248216010183156</v>
+        <v>0.01848692988140068</v>
       </c>
       <c r="G238" t="n">
-        <v>0.05440765478049001</v>
+        <v>0.28137234396905</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01698972452264601</v>
+        <v>0.02699613818180559</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1360491910296401</v>
+        <v>0.282608810385257</v>
       </c>
       <c r="L238" t="n">
-        <v>0.02338863607944897</v>
+        <v>0.0536794522292203</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1339046785022716</v>
+        <v>0.2831758983334604</v>
       </c>
       <c r="N238" t="n">
-        <v>0.02654748124001904</v>
+        <v>0.08095377017636479</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1334479252160403</v>
+        <v>0.2821857447731054</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01210146110968124</v>
+        <v>0.01924648751129553</v>
       </c>
       <c r="G239" t="n">
-        <v>0.05431473987760181</v>
+        <v>0.2829987737029751</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01673117230118439</v>
+        <v>0.0266609521841995</v>
       </c>
       <c r="K239" t="n">
-        <v>0.136835602538482</v>
+        <v>0.2842423873239001</v>
       </c>
       <c r="L239" t="n">
-        <v>0.02274499487871356</v>
+        <v>0.05340721727228556</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1346786939849437</v>
+        <v>0.2848127532371219</v>
       </c>
       <c r="N239" t="n">
-        <v>0.02573330421483311</v>
+        <v>0.07964828229752385</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1342193005063065</v>
+        <v>0.2838168762457823</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01173448880181305</v>
+        <v>0.01700513383485035</v>
       </c>
       <c r="G240" t="n">
-        <v>0.05422182497471362</v>
+        <v>0.2846252034369002</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01677396135552239</v>
+        <v>0.0262244918860542</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1376220140473238</v>
+        <v>0.2858759642625432</v>
       </c>
       <c r="L240" t="n">
-        <v>0.02290458263057377</v>
+        <v>0.05283242305206914</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1354527094676158</v>
+        <v>0.2864496081407836</v>
       </c>
       <c r="N240" t="n">
-        <v>0.02592544515685929</v>
+        <v>0.07853897578505575</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1349906757965726</v>
+        <v>0.2854480077184592</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01137306532738579</v>
+        <v>0.01876285445268689</v>
       </c>
       <c r="G241" t="n">
-        <v>0.05412891007182544</v>
+        <v>0.2862516331708254</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01671816964624244</v>
+        <v>0.02608673702874112</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1384084255561656</v>
+        <v>0.2875095412011863</v>
       </c>
       <c r="L241" t="n">
-        <v>0.02266759560901949</v>
+        <v>0.05205502876762538</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1362267249502879</v>
+        <v>0.2880864630444452</v>
       </c>
       <c r="N241" t="n">
-        <v>0.02472403469650469</v>
+        <v>0.07822579005785119</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1357620510868388</v>
+        <v>0.2870791391911361</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01101611770596986</v>
+        <v>0.01851963496542691</v>
       </c>
       <c r="G242" t="n">
-        <v>0.05403599516893726</v>
+        <v>0.2878780629047505</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01676387513392692</v>
+        <v>0.02564766735363162</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1391948370650075</v>
+        <v>0.2891431181398295</v>
       </c>
       <c r="L242" t="n">
-        <v>0.0226342300880408</v>
+        <v>0.05137499361800865</v>
       </c>
       <c r="M242" t="n">
-        <v>0.13700074043296</v>
+        <v>0.2897233179481068</v>
       </c>
       <c r="N242" t="n">
-        <v>0.02472920346417673</v>
+        <v>0.0764086645348005</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1365334263771049</v>
+        <v>0.288710270663813</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01066399393121811</v>
+        <v>0.0172754609736922</v>
       </c>
       <c r="G243" t="n">
-        <v>0.05394308026604906</v>
+        <v>0.2895044926386757</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01651115577915825</v>
+        <v>0.02520726260209712</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1399812485738493</v>
+        <v>0.2907766950784726</v>
       </c>
       <c r="L243" t="n">
-        <v>0.02260468234162774</v>
+        <v>0.05039227680227321</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1377747559156321</v>
+        <v>0.2913601728517684</v>
       </c>
       <c r="N243" t="n">
-        <v>0.02394108209028295</v>
+        <v>0.07588753863479403</v>
       </c>
       <c r="O243" t="n">
-        <v>0.137304801667371</v>
+        <v>0.2903414021364899</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01031704199678341</v>
+        <v>0.01803031807810451</v>
       </c>
       <c r="G244" t="n">
-        <v>0.05385016536316088</v>
+        <v>0.2911309223726009</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01636008954251882</v>
+        <v>0.02496550251550904</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1407676600826912</v>
+        <v>0.2924102720171157</v>
       </c>
       <c r="L244" t="n">
-        <v>0.02247914864377026</v>
+        <v>0.04970683751947336</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1385487713983042</v>
+        <v>0.2929970277554301</v>
       </c>
       <c r="N244" t="n">
-        <v>0.02335980120523046</v>
+        <v>0.07476235177672214</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1380761769576371</v>
+        <v>0.2919725336091668</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.009975609896318502</v>
+        <v>0.01778419187928559</v>
       </c>
       <c r="G245" t="n">
-        <v>0.05375725046027269</v>
+        <v>0.2927573521065259</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01641075438459103</v>
+        <v>0.02462236683523879</v>
       </c>
       <c r="K245" t="n">
-        <v>0.141554071591533</v>
+        <v>0.2940438489557588</v>
       </c>
       <c r="L245" t="n">
-        <v>0.02235782526845836</v>
+        <v>0.04901863496866352</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1393227868809762</v>
+        <v>0.2946338826590917</v>
       </c>
       <c r="N245" t="n">
-        <v>0.02288549143942675</v>
+        <v>0.07383304337947538</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1388475522479033</v>
+        <v>0.2936036650818437</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.009640045623476215</v>
+        <v>0.01653706797785723</v>
       </c>
       <c r="G246" t="n">
-        <v>0.0536643355573845</v>
+        <v>0.2943837818404511</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01626322826595732</v>
+        <v>0.02417783530265774</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1423404831003749</v>
+        <v>0.2956774258944019</v>
       </c>
       <c r="L246" t="n">
-        <v>0.02224090848968216</v>
+        <v>0.04882762834889792</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1400968023636484</v>
+        <v>0.2962707375627533</v>
       </c>
       <c r="N246" t="n">
-        <v>0.02171828342327925</v>
+        <v>0.07319955286194407</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1396189275381694</v>
+        <v>0.2952347965545206</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.009310697171909396</v>
+        <v>0.01728893197444117</v>
       </c>
       <c r="G247" t="n">
-        <v>0.05357142065449631</v>
+        <v>0.2960102115743762</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01651758914720004</v>
+        <v>0.02373188765913734</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1431268946092168</v>
+        <v>0.297311002833045</v>
       </c>
       <c r="L247" t="n">
-        <v>0.02222859458143159</v>
+        <v>0.04783377685923099</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1408708178463204</v>
+        <v>0.2979075924664149</v>
       </c>
       <c r="N247" t="n">
-        <v>0.02125830778719523</v>
+        <v>0.07156181964301861</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1403903028284355</v>
+        <v>0.2968659280271975</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.008987912535270891</v>
+        <v>0.01603976946965919</v>
       </c>
       <c r="G248" t="n">
-        <v>0.05347850575160813</v>
+        <v>0.2976366413083014</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01647391498890165</v>
+        <v>0.02358450364604896</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1439133061180586</v>
+        <v>0.2989445797716881</v>
       </c>
       <c r="L248" t="n">
-        <v>0.02202107981769677</v>
+        <v>0.0472370396987169</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1416448333289925</v>
+        <v>0.2995444473700766</v>
       </c>
       <c r="N248" t="n">
-        <v>0.02090569516158203</v>
+        <v>0.07081978314158938</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1411616781187016</v>
+        <v>0.2984970594998744</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008672039707213447</v>
+        <v>0.01478956606413304</v>
       </c>
       <c r="G249" t="n">
-        <v>0.05338559084871995</v>
+        <v>0.2992630710422265</v>
       </c>
       <c r="J249" t="n">
-        <v>0.0163322837516445</v>
+        <v>0.02323566300476401</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1446997176269005</v>
+        <v>0.3005781567103312</v>
       </c>
       <c r="L249" t="n">
-        <v>0.0214185604724676</v>
+        <v>0.0462373760664101</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1424188488116646</v>
+        <v>0.3011813022737381</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02046057617684699</v>
+        <v>0.0694733827765468</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1419330534089678</v>
+        <v>0.3001281909725513</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008363426681389917</v>
+        <v>0.0155383073584845</v>
       </c>
       <c r="G250" t="n">
-        <v>0.05329267594583175</v>
+        <v>0.3008895007761517</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01629277339601105</v>
+        <v>0.02288534547665391</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1454861291357423</v>
+        <v>0.3022117336489743</v>
       </c>
       <c r="L250" t="n">
-        <v>0.02152123281973414</v>
+        <v>0.04563474516136484</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1431928642943367</v>
+        <v>0.3028181571773998</v>
       </c>
       <c r="N250" t="n">
-        <v>0.02022308146339769</v>
+        <v>0.06842255796678126</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1427044286992339</v>
+        <v>0.3017593224452282</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.00806242145145316</v>
+        <v>0.01628597895333533</v>
       </c>
       <c r="G251" t="n">
-        <v>0.05319976104294357</v>
+        <v>0.3025159305100768</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01625546188258367</v>
+        <v>0.02253353080309006</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1462725406445841</v>
+        <v>0.3038453105876174</v>
       </c>
       <c r="L251" t="n">
-        <v>0.02162929313348644</v>
+        <v>0.04492910618263551</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1439668797770088</v>
+        <v>0.3044550120810614</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01909334165164128</v>
+        <v>0.06736724813118328</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1434758039895001</v>
+        <v>0.3033904539179051</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.00776937201105591</v>
+        <v>0.01403256644930728</v>
       </c>
       <c r="G252" t="n">
-        <v>0.05310684614005538</v>
+        <v>0.304142360244002</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01622042717194477</v>
+        <v>0.02198019872544386</v>
       </c>
       <c r="K252" t="n">
-        <v>0.147058952153426</v>
+        <v>0.3054788875262605</v>
       </c>
       <c r="L252" t="n">
-        <v>0.02114293768771458</v>
+        <v>0.04422041832927642</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1447408952596809</v>
+        <v>0.306091866984723</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01877148737198508</v>
+        <v>0.06640739268864304</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1442471792797662</v>
+        <v>0.3050215853905821</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007484626353851033</v>
+        <v>0.01577805544702212</v>
       </c>
       <c r="G253" t="n">
-        <v>0.05301393123716719</v>
+        <v>0.3057687899779271</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01598774722467677</v>
+        <v>0.02172532898508669</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1478453636622679</v>
+        <v>0.3071124644649036</v>
       </c>
       <c r="L253" t="n">
-        <v>0.02106236275640841</v>
+        <v>0.04380864080034186</v>
       </c>
       <c r="M253" t="n">
-        <v>0.145514910742353</v>
+        <v>0.3077287218883846</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01835764925483663</v>
+        <v>0.06554293105805098</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1450185545700323</v>
+        <v>0.306652716863259</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007208532473491382</v>
+        <v>0.01552243154710162</v>
       </c>
       <c r="G254" t="n">
-        <v>0.05292101633427902</v>
+        <v>0.3073952197118523</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01625750000136206</v>
+        <v>0.02126890132339002</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1486317751711097</v>
+        <v>0.3087460414035467</v>
       </c>
       <c r="L254" t="n">
-        <v>0.02128776461355805</v>
+        <v>0.04269373279488614</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1462889262250251</v>
+        <v>0.3093655767920462</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01755195793060327</v>
+        <v>0.06407380265829776</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1457899298602984</v>
+        <v>0.3082838483359359</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.006941438363629704</v>
+        <v>0.01326568035016754</v>
       </c>
       <c r="G255" t="n">
-        <v>0.05282810143139082</v>
+        <v>0.3090216494457774</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01592976346258307</v>
+        <v>0.0210108954817252</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1494181866799515</v>
+        <v>0.3103796183421898</v>
       </c>
       <c r="L255" t="n">
-        <v>0.02131933953315349</v>
+        <v>0.04197565351196364</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1470629417076972</v>
+        <v>0.3110024316957079</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01735454402969211</v>
+        <v>0.06309994690827353</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1465613051505646</v>
+        <v>0.3099149798086128</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006683692017918852</v>
+        <v>0.01500778745684166</v>
       </c>
       <c r="G256" t="n">
-        <v>0.05273518652850263</v>
+        <v>0.3106480791797026</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01620461556892216</v>
+        <v>0.02055129120146366</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1502045981887934</v>
+        <v>0.3120131952808329</v>
       </c>
       <c r="L256" t="n">
-        <v>0.02145728378918479</v>
+        <v>0.04175436215062869</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1478369571903693</v>
+        <v>0.3126392865993695</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01676553818251081</v>
+        <v>0.06252130322686866</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1473326804408307</v>
+        <v>0.3115461112812897</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006435641430011629</v>
+        <v>0.01474873846774571</v>
       </c>
       <c r="G257" t="n">
-        <v>0.05264227162561444</v>
+        <v>0.3122745089136277</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01588213428096179</v>
+        <v>0.02029006822397679</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1509910096976352</v>
+        <v>0.3136467722194761</v>
       </c>
       <c r="L257" t="n">
-        <v>0.02090179365564196</v>
+        <v>0.04072981790993552</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1486109726730414</v>
+        <v>0.3142761415030311</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01598507101946672</v>
+        <v>0.0614378110329738</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1481040557310968</v>
+        <v>0.3131772427539666</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006197634593560902</v>
+        <v>0.01348851898350147</v>
       </c>
       <c r="G258" t="n">
-        <v>0.05254935672272626</v>
+        <v>0.3139009386475529</v>
       </c>
       <c r="J258" t="n">
-        <v>0.0158623975592843</v>
+        <v>0.02002720629063598</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1517774212064771</v>
+        <v>0.3152803491581191</v>
       </c>
       <c r="L258" t="n">
-        <v>0.02105306540651497</v>
+        <v>0.03990197998893852</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1493849881557134</v>
+        <v>0.3159129964066927</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01581327317096698</v>
+        <v>0.059649409745479</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1488754310213629</v>
+        <v>0.3148083742266435</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.005970019502219447</v>
+        <v>0.01322711460473072</v>
       </c>
       <c r="G259" t="n">
-        <v>0.05245644181983807</v>
+        <v>0.315527368381478</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01584548336447215</v>
+        <v>0.01966268514281268</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1525638327153189</v>
+        <v>0.3169139260967622</v>
       </c>
       <c r="L259" t="n">
-        <v>0.0213112953157939</v>
+        <v>0.03917080758669206</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1501590036383855</v>
+        <v>0.3175498513103543</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01575027526741907</v>
+        <v>0.05885603878327506</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1496468063116291</v>
+        <v>0.3164395056993204</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005753144149640094</v>
+        <v>0.0139645109320552</v>
       </c>
       <c r="G260" t="n">
-        <v>0.05236352691694988</v>
+        <v>0.3171537981154032</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01583146965710773</v>
+        <v>0.01939648452187827</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1533502442241608</v>
+        <v>0.3185475030354054</v>
       </c>
       <c r="L260" t="n">
-        <v>0.02077667965746874</v>
+        <v>0.03833625990225037</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1509330191210576</v>
+        <v>0.319186706214016</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01519620793923043</v>
+        <v>0.0582576375652521</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1504181816018952</v>
+        <v>0.3180706371719974</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005547356529475647</v>
+        <v>0.0137006935660967</v>
       </c>
       <c r="G261" t="n">
-        <v>0.0522706120140617</v>
+        <v>0.3187802278493283</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01592043439777341</v>
+        <v>0.01892858416920416</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1541366557330026</v>
+        <v>0.3201810799740484</v>
       </c>
       <c r="L261" t="n">
-        <v>0.02084941470552948</v>
+        <v>0.03749829613466782</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1517070346037297</v>
+        <v>0.3208235611176776</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01425120181680828</v>
+        <v>0.0567541455103005</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1511895568921613</v>
+        <v>0.3197017686446743</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005353004635378932</v>
+        <v>0.01143564810747695</v>
       </c>
       <c r="G262" t="n">
-        <v>0.05217769711117351</v>
+        <v>0.3204066575832534</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01581245554705167</v>
+        <v>0.01835896382616174</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1549230672418445</v>
+        <v>0.3218146569126916</v>
       </c>
       <c r="L262" t="n">
-        <v>0.0208296967339662</v>
+        <v>0.03725687548299869</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1524810500864018</v>
+        <v>0.3224604160213392</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01371538753056006</v>
+        <v>0.0555455020373109</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1519609321824275</v>
+        <v>0.3213329001173512</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005170436461002771</v>
+        <v>0.01316936015681774</v>
       </c>
       <c r="G263" t="n">
-        <v>0.05208478220828532</v>
+        <v>0.3220330873171786</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01580761106552485</v>
+        <v>0.01798760323412243</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1557094787506864</v>
+        <v>0.3234482338513346</v>
       </c>
       <c r="L263" t="n">
-        <v>0.02101772201676891</v>
+        <v>0.03661195714629742</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1532550655690739</v>
+        <v>0.3240972709250008</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01348889571089312</v>
+        <v>0.05493164656517352</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1527323074726936</v>
+        <v>0.3229640315900281</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01290181531474082</v>
       </c>
       <c r="G264" t="n">
-        <v>0.05199186730539714</v>
+        <v>0.3236595170511037</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01580597891377537</v>
+        <v>0.01771448213445763</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1564958902595282</v>
+        <v>0.3250818107899778</v>
       </c>
       <c r="L264" t="n">
-        <v>0.02071368682792757</v>
+        <v>0.0356635003236182</v>
       </c>
       <c r="M264" t="n">
-        <v>0.154029081051746</v>
+        <v>0.3257341258286625</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01317185698821483</v>
+        <v>0.05311251851277887</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1535036827629597</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.0519787094106603</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005662741894727319</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.05197897793912431</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006321686131768992</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.05197924646758833</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.00697678750159219</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.05197951499605234</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007628000794721264</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.05197978352451636</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008275280801623722</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.05198005205298038</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.008918582312823588</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.0519803205814444</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009557860118788709</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.05198058910990842</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01019306901004274</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.05198085763837244</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01082416377705388</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.05198112616683645</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01145109921034546</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.05198139469530047</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01207383010038604</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.05198166322376448</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01269231123769856</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.0519819317522285</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01330649741275194</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.05198220028069252</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01391634341606877</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.05198246880915654</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01452180403811836</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.05198273733762055</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01512283406942289</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.05198300586608457</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01571938830045206</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.05198327439454858</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01631142152171484</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.0519835429230126</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01689888852371981</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.05198381145147662</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01748174409693726</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.05198407997994064</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01805994303188839</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.05198434850840466</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01863344011904389</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.05198461703686867</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01920219014892456</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.05198488556533269</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.01976614791200149</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.05198515409379671</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02032545280427041</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.05198542262226073</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02088116724905453</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.05198569115072474</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02143343064234918</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.05198595967918876</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.0219821977746262</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.05198622820765277</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.0225274234364053</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.05198649673611679</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02306906241815857</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.05198676526458081</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.0236070695104055</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.05198703379304483</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02414139950361845</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.05198730232150885</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02467200718830505</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.05198757084997286</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02519884735497255</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.05198783937843688</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02572187479409391</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.05198810790690089</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.0262410442961877</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.05198837643536491</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02675631065172718</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.05198864496382893</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02726762865123063</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.05198891349229295</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02777495308517162</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.05198918202075696</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02827823874406813</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.05198945054922098</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02877744041839404</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.05198971907768499</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02927251289866694</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.05198998760614901</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.02976341097536115</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.05199025613461303</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03025008943899387</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.05199052466307705</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03073250308003975</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.05199079319154107</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03121060668901566</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.05199106172000509</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03168435505639663</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.0519913302484691</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03215370297269911</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.05199159877693312</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03261860522839852</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.05199186730539714</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03261860522839852</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.0519787094106603</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03311378082409324</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.05207216137047652</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03360427477824012</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.05216561333029274</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03408995490992086</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.05225906529010896</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03457068903821719</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.05235251724992518</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03504634498221091</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.05244596920974141</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03551679056098368</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.05253942116955762</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03598189359361726</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.05263287312937384</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03644152189919341</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.05272632508919006</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03689554329679389</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.05281977704900629</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03734382560550035</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.05291322900882251</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03778623664439457</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.05300668096863873</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.0382226442325583</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.05310013292845495</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03865291618907326</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.05319358488827117</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03907692033302126</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.0532870368480874</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.03949452448348389</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.05338048880790362</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.03990559645954298</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.05347394076771984</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04031000408028026</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.05356739272753606</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04070761516477745</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.05366084468735228</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04109829753211629</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.0537542966471685</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04148191900137859</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.05384774860698473</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04185834739164594</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.05394120056680095</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04222745052200017</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.05403465252661717</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04258909621152301</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.05412810448643339</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04294315227929619</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.05422155644624961</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04329002628315103</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.05431500840606584</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.0436328244746667</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.05440846036588206</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04397195441167453</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.05450191232569828</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04430728391325624</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.0545953642855145</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04463868079849358</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.05468881624533072</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04496601288646831</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.05478226820514694</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04528914799626215</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.05487572016496317</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04560795394695682</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.05496917212477938</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04592229855763404</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.05506262408459561</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04623204964737559</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.05515607604441183</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04653707503526317</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.05524952800422805</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.0468372425403786</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.05534297996404428</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.04713241998180347</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.0554364319238605</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.04742247517861963</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.05552988388367672</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04770727594990879</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.05562333584349294</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.04798669011475266</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.05571678780330915</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.04826058549223302</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.05581023976312537</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.0485288299014316</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.05590369172294161</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.04879129116143009</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.05599714368275782</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.04904783709131025</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.05609059564257404</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.04929833551015384</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.05618404760239026</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.04954265423704258</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.05627749956220648</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.04978066109105821</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.05637095152202271</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05001222389128245</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.05646440348183893</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.05023721045679704</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.05655785544165515</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04382480697119803</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.05655785544165515</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.05045286252291079</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.05815291155022746</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.05065242725464939</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.05974796765879976</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.05083652825866131</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.06134302376737207</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05100578914159511</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.06293807987594435</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05116083351009929</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.06453313598451667</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.05130228497082235</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.06612819209308897</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.05143076713041283</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.06772324820166127</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.05154690359551922</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.06931830431023357</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.05165131797279004</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.07091336041880587</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.05174463386887383</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.07250841652737817</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.05182747489041908</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.07410347263595048</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.05190046464407429</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.07569852874452278</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.05196422673648802</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.07729358485309508</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05201938477430875</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.07888864096166739</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05206656236418502</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.0804836970702397</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05210638311276532</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.082078753178812</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.05213947062669818</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.0836738092873843</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.05216644851263213</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.08526886539595661</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.05218794037721563</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.08686392150452892</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05220456982709725</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.0884589776131012</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.0522169604689255</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.0900540337216735</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05222573590934885</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.09164908983024582</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.05223151975501587</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.09324414593881812</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.05223493561257506</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.09483920204739041</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05223660708867491</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.09643425815596271</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05223715778996394</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.09802931426453503</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.05223499778633942</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.09962437037310733</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.05216120229989841</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1012194264816796</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.05198849249026926</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1028144825902519</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.05172456288135404</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1044095386988242</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.05137710799705483</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1060045948073965</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.05095382236127374</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1075996509159688</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.05046240049791286</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1091947070245411</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.04991053693087422</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1107897631331134</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.04930592618405998</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1123848192416857</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.04865626278137219</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.113979875350258</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.04796924124671293</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1155749314588303</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.04725255610398427</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1171699875674026</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.04651390187708835</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.118765043675975</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04576097308992721</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1203600997845473</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.04500146426640294</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1219551558931196</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04424306993041766</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1235502120016919</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04349348460587341</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1251452681102642</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04276040281667231</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1267403242188365</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04205151908671641</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1283353803274088</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04137452793990783</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1299304364359811</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04073712390014866</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1315254925445534</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04014700149134093</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1331205486531257</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.03961185523738681</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.134715604761698</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.03913937966218831</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1363106608702703</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.03872123585755998</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1379057169788426</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.03829949238720102</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1395007730874149</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.03786996009384652</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1410958291959872</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.03743477416902557</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1426908853045595</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.03699606980426731</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1442859414131318</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.03655598219110087</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1458809975217041</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.03611664652105536</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1474760536302764</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.03568019798565992</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1490711097388487</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.03524877177644365</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.0348245030849357</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1522612219559933</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.03440952710266518</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1538562780645656</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03400597902116121</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1554513341731379</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03361599403195292</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1570463902817102</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03324170732656943</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1586414463902825</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03288525409653987</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1602365024988548</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.03254876953339336</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1618315586074271</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03223438882865901</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1634266147159994</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03194424717386595</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1650216708245717</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03168047976054331</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.166616726933144</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03144522178022024</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1682117830417163</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.0312406084244258</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1698068391502886</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03106877488468916</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.171401895258861</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03093185635253943</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1729969513674333</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03083198801950574</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1745920074760056</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03077130507711722</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1761870635845779</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03075189621620831</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.1777821196931502</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03075194346568585</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1793771758017225</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03075224970006341</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.1809722319102948</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03075306244414163</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.182567288018867</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.0307546292227211</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.1841623441274394</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03075719756060245</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.1857574002360117</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03076101498258626</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.187352456344584</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03076632901347316</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.1889475124531563</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03077338717806375</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.1905425685617286</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03078243700115866</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.1921376246703009</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03079372600755847</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.1937326807788732</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03080750172206381</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.1953277368874455</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03082401166947529</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.1969227929960178</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.0308435033745935</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.1985178491045901</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03086622436221906</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2001129052131624</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03089242215715259</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2017079613217347</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03092234428419469</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.203303017430307</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03095623826814598</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2048980735388793</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03099435163380706</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2064931296474516</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03103693190597854</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2080881857560239</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03108422660946102</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2096832418645962</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03113648326905514</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2112782979731685</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03119394940956147</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2128733540817408</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03125687255578066</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2144684101903131</v>
-      </c>
-    </row>
+        <v>0.324595163062705</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1220.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1220.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.004076690752076076</v>
+        <v>0.001557397574240504</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001626429733925144</v>
+        <v>0.0005935334195338715</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003755785765647515</v>
+        <v>0.001852433605553913</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001633576938643104</v>
+        <v>0.0008485798038729161</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01518271045946726</v>
+        <v>0.006484148078155977</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.002445409965606488</v>
+        <v>0.0008258395681800294</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.02617434696171911</v>
+        <v>0.009062866995756369</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.002264477593203274</v>
+        <v>0.000828171300128747</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006456201742799504</v>
+        <v>0.003050554759131414</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.002932436177951092</v>
+        <v>0.001187066839067743</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.004206076549107367</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003406534090909087</v>
+        <v>0.001697159607745832</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01780441371140942</v>
+        <v>0.01233778844737299</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003273709807323241</v>
+        <v>0.001651679136360059</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.0309625957026971</v>
+        <v>0.01778127371822941</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003262262945353819</v>
+        <v>0.001656342600257494</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.006665521133249488</v>
+        <v>0.004415231165323136</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004879289201775432</v>
+        <v>0.001780600258601614</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.009752012097613783</v>
+        <v>0.005827276840843311</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004900730815929314</v>
+        <v>0.002545739411618748</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.0214846768780122</v>
+        <v>0.01485967406671265</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004910564710984861</v>
+        <v>0.002122431290903747</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03646522946109643</v>
+        <v>0.02520492670387764</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004893394418030728</v>
+        <v>0.00254404272816664</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.009064373447697574</v>
+        <v>0.005587186403466081</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006505718935700578</v>
+        <v>0.002374133678135486</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01213213533650075</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006534307754572417</v>
+        <v>0.003406534090909087</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02504189207313032</v>
+        <v>0.01981095256055143</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006547419614646482</v>
+        <v>0.003303358272720117</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.04138397549282596</v>
+        <v>0.02873895816370448</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006524525890707638</v>
+        <v>0.003312685200514988</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006456201742799504</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01162116313703911</v>
+        <v>0.006456201742799504</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008797308533853278</v>
+        <v>0.002932436177951092</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01410375248679199</v>
+        <v>0.008541067098947308</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008167884693215522</v>
+        <v>0.004242899019364581</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02770287889699868</v>
+        <v>0.02237197959386994</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008184274518308101</v>
+        <v>0.004129197840900147</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04450077896073074</v>
+        <v>0.03310423015663744</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008155657363384548</v>
+        <v>0.004140856500643735</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01121276808361161</v>
+        <v>0.007268118656103023</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009758578403550865</v>
+        <v>0.003561200517203229</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01613626565885214</v>
+        <v>0.00968369030148724</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.01021960227272726</v>
+        <v>0.005091478823237496</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03009445694985219</v>
+        <v>0.02538650959619607</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009821129421969723</v>
+        <v>0.004955037409080176</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.0484710128920724</v>
+        <v>0.03694062055812447</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009732954545454539</v>
+        <v>0.004969027800772482</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01318871542756255</v>
+        <v>0.007995557766344544</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01138500813747601</v>
+        <v>0.004154733936737101</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01698008361918851</v>
+        <v>0.01052694095476561</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01143503857050173</v>
+        <v>0.005940058627110412</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03230363927546226</v>
+        <v>0.0274124825680383</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01087191731141198</v>
+        <v>0.005780876977260205</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05151684573204074</v>
+        <v>0.04065683413412163</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01141792030873837</v>
+        <v>0.005797199100901229</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01412943768511205</v>
+        <v>0.008678333246127864</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01301143787140116</v>
+        <v>0.004748267356270972</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01824119379481678</v>
+        <v>0.01128746973656189</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01306861550914483</v>
+        <v>0.006788638430983329</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03548439482259061</v>
+        <v>0.02920783850990491</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01309483922929296</v>
+        <v>0.006606716545440235</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05530816751301387</v>
+        <v>0.04276157565058469</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01304905178141528</v>
+        <v>0.006625370401029976</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01503057167566325</v>
+        <v>0.009309774263551215</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.0146378676053263</v>
+        <v>0.005341800775804844</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01984912735506839</v>
+        <v>0.01228192732465554</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01470219244778794</v>
+        <v>0.007637218234856244</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03811537326409245</v>
+        <v>0.03230363927546226</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01473169413295458</v>
+        <v>0.007689968445303423</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05933834238178015</v>
+        <v>0.04546354987346968</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01468018325409218</v>
+        <v>0.007453541701158722</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01388775421861931</v>
+        <v>0.009883209986712826</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01626429733925144</v>
+        <v>0.005935334195338715</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02079816286282256</v>
+        <v>0.01272696439682602</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01633576938643104</v>
+        <v>0.008485798038729161</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04019495194252676</v>
+        <v>0.03316078952262475</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.0163685490366162</v>
+        <v>0.008258395681800293</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.06297456514260596</v>
+        <v>0.0484710128920724</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.0163113147267691</v>
+        <v>0.008153983103098205</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01569662213338339</v>
+        <v>0.01039196958371091</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01789072707317659</v>
+        <v>0.006528867614872587</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02208257888095852</v>
+        <v>0.01373923163085279</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01796934632507415</v>
+        <v>0.009334377842602076</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04290152380292397</v>
+        <v>0.03479329874657314</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01800540394027782</v>
+        <v>0.009084235249980322</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.06678403059975768</v>
+        <v>0.05099248965264169</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01794244619944601</v>
+        <v>0.009109884301416215</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01545281223935864</v>
+        <v>0.01082938222264369</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01951715680710173</v>
+        <v>0.007122401034406457</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02319665397235555</v>
+        <v>0.01413537970451532</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01960292326371725</v>
+        <v>0.01018295764647499</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04501348179031453</v>
+        <v>0.03702708159945878</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01964225884393945</v>
+        <v>0.009910074818160352</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07013393355750169</v>
+        <v>0.05394176001515755</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01957357767212291</v>
+        <v>0.009938055601544964</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01715196135594824</v>
+        <v>0.0111887770716094</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02114358654102688</v>
+        <v>0.00771593445394033</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02423466669989285</v>
+        <v>0.01503205929559305</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02123650020236036</v>
+        <v>0.01103153745034791</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0474092188497289</v>
+        <v>0.0390555503873338</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02127911374760106</v>
+        <v>0.01073591438634038</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07319146882010441</v>
+        <v>0.05600839104081967</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02120470914479982</v>
+        <v>0.01076622690167371</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01878970630255533</v>
+        <v>0.01146348329870626</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02277001627495202</v>
+        <v>0.008309467873474202</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02509089562644969</v>
+        <v>0.01613626565885214</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02287007714100346</v>
+        <v>0.01221527534818788</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04966712792619749</v>
+        <v>0.04037211741625038</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02291596865126269</v>
+        <v>0.01156175395452041</v>
       </c>
       <c r="N79" t="n">
-        <v>0.07632383119183228</v>
+        <v>0.05868105247372751</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02283584061747673</v>
+        <v>0.01159439820180246</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01836168389858307</v>
+        <v>0.01162116313703911</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02439644600887717</v>
+        <v>0.008797308533853278</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02615961931490529</v>
+        <v>0.01649229484578917</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02450365407964656</v>
+        <v>0.01272869705809374</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05146560196475072</v>
+        <v>0.04267019499226066</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02455282355492431</v>
+        <v>0.01238759352270044</v>
       </c>
       <c r="N80" t="n">
-        <v>0.07889821547695142</v>
+        <v>0.06164841405798033</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02446697209015364</v>
+        <v>0.0124225695019312</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01986353096343463</v>
+        <v>0.01179954539815554</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02602287574280231</v>
+        <v>0.009496534712541945</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0270351163281389</v>
+        <v>0.01737300843581649</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02613723101828967</v>
+        <v>0.01357727686196666</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05278303391041914</v>
+        <v>0.04394319542141686</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02618967845858593</v>
+        <v>0.01321343309088047</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08148181647972857</v>
+        <v>0.06429914553767752</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02609810356283055</v>
+        <v>0.01325074080205995</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01829088431651315</v>
+        <v>0.01194843035717171</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02764930547672745</v>
+        <v>0.01009006813207582</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02761166522902973</v>
+        <v>0.01788262156594571</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02777080795693277</v>
+        <v>0.01442585666583957</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05449781670823312</v>
+        <v>0.04568453100977113</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02782653336224755</v>
+        <v>0.0140392726590605</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08304182900442986</v>
+        <v>0.06672191665691835</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02772923503550746</v>
+        <v>0.0140789121021887</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02063938077722179</v>
+        <v>0.01209500206151595</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0292757352106526</v>
+        <v>0.01068360155160969</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02828354458045704</v>
+        <v>0.0187156821776016</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02940438489557588</v>
+        <v>0.01527443646971249</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05618834330322311</v>
+        <v>0.0473876140633756</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02946338826590917</v>
+        <v>0.01486511222724053</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0846454478553218</v>
+        <v>0.06940539715980226</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02936036650818437</v>
+        <v>0.01490708340231744</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01892190898055688</v>
+        <v>0.01223927299204237</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03090216494457774</v>
+        <v>0.01127713497114356</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02854503294530009</v>
+        <v>0.01956673821220908</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03103796183421898</v>
+        <v>0.0161230162735854</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05693300664041956</v>
+        <v>0.04894585688828254</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03110024316957079</v>
+        <v>0.01569095179542056</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08626368016601765</v>
+        <v>0.07183825679042849</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03099149798086128</v>
+        <v>0.01573525470244619</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02119266791271409</v>
+        <v>0.0123812556296051</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03252859467850289</v>
+        <v>0.01187066839067743</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02883173264967229</v>
+        <v>0.02073033761119293</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03267153877286209</v>
+        <v>0.01697159607745832</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05794442490044616</v>
+        <v>0.05085267179054395</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03273709807323241</v>
+        <v>0.01651679136360059</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08711290685243406</v>
+        <v>0.07410916529289641</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03262262945353819</v>
+        <v>0.01656342600257494</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01945440266249292</v>
+        <v>0.01252096245505828</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03415502441242804</v>
+        <v>0.0124642018102113</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0292068360591973</v>
+        <v>0.02150102831597804</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03430511571150519</v>
+        <v>0.01782017588133123</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05870510988714914</v>
+        <v>0.05260147107621213</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03437395297689403</v>
+        <v>0.01734263093178062</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08892814707506952</v>
+        <v>0.0771067924113053</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0342537609262151</v>
+        <v>0.01739159730270369</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01970533015464384</v>
+        <v>0.012658405949256</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03578145414635318</v>
+        <v>0.01305773522974517</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02986875483067027</v>
+        <v>0.02247335826798927</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03593869265014829</v>
+        <v>0.01866875568520415</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05934109513142832</v>
+        <v>0.05408566705133921</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03601080788055565</v>
+        <v>0.01816847049996064</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08970189907410198</v>
+        <v>0.07941980788975467</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03588489239889201</v>
+        <v>0.01821976860283243</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01994366731391731</v>
+        <v>0.0127935985930524</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03740788388027832</v>
+        <v>0.01365126864927905</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02991498033777104</v>
+        <v>0.02304187540865145</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0375722695887914</v>
+        <v>0.01951733548907707</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06014732825149344</v>
+        <v>0.05559867202197738</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03764766278421727</v>
+        <v>0.01899431006814067</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09032666108970921</v>
+        <v>0.08103688147234378</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03751602387156892</v>
+        <v>0.01904793990296118</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02216763106506376</v>
+        <v>0.01292655286730161</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03903431361420346</v>
+        <v>0.01424480206881291</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03034300395417938</v>
+        <v>0.02410112767938938</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03920584652743451</v>
+        <v>0.02036591529294998</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06071875686555397</v>
+        <v>0.05643389829417877</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03928451768787889</v>
+        <v>0.0198201496363207</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09119493136206885</v>
+        <v>0.08384668290317199</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03914715534424582</v>
+        <v>0.01987611120308993</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02137543833283365</v>
+        <v>0.01305728125285773</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04066074334812861</v>
+        <v>0.01483833548834679</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03085031705357513</v>
+        <v>0.025045663021628</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04083942346607761</v>
+        <v>0.0212144950968229</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06095032859181965</v>
+        <v>0.0578847581739956</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04092137259154052</v>
+        <v>0.02064598920450074</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0920992081313588</v>
+        <v>0.08563788192633848</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04077828681692273</v>
+        <v>0.02070428250321868</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02256530604197739</v>
+        <v>0.01318579623057491</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04228717308205375</v>
+        <v>0.01543186890788066</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03113441100963808</v>
+        <v>0.02557002937679208</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04247300040472071</v>
+        <v>0.02206307490069582</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06193699104849984</v>
+        <v>0.05904466396747995</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04255822749520213</v>
+        <v>0.02147182877268076</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09343198963775684</v>
+        <v>0.0874991482859428</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04240941828959965</v>
+        <v>0.02153245380334742</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02273545111724547</v>
+        <v>0.01331211028130725</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0439136028159789</v>
+        <v>0.01602540232741453</v>
       </c>
       <c r="J92" t="n">
-        <v>0.031192777196048</v>
+        <v>0.0265687746863065</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04410657734336382</v>
+        <v>0.02291165470456873</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06257369185380429</v>
+        <v>0.06000702798068405</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04419508239886375</v>
+        <v>0.02229766834086079</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09428577412144068</v>
+        <v>0.08871915172608419</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04404054976227656</v>
+        <v>0.02236062510347617</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02188409048338835</v>
+        <v>0.01343623588590889</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04554003254990404</v>
+        <v>0.0166189357469484</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03162290698648475</v>
+        <v>0.0272364468915961</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04574015428200692</v>
+        <v>0.02376023450844165</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06255537862594254</v>
+        <v>0.06116526251966012</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04583193730252538</v>
+        <v>0.02312350790904082</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09475305982258803</v>
+        <v>0.09068656199086195</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04567168123495347</v>
+        <v>0.02318879640360491</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02300944106515641</v>
+        <v>0.01355818552523394</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04716646228382918</v>
+        <v>0.01721246916648227</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03182229175462807</v>
+        <v>0.02796759393408574</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04737373122065002</v>
+        <v>0.02460881431231457</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06307699898312413</v>
+        <v>0.06211277989046021</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04746879220618699</v>
+        <v>0.02394934747722085</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09482634498137676</v>
+        <v>0.09169004882437554</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04730281270763038</v>
+        <v>0.02401696770373366</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02210971978730016</v>
+        <v>0.01367797168013653</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04879289201775433</v>
+        <v>0.01780600258601615</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03168842287415784</v>
+        <v>0.02865676375520027</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04900730815929313</v>
+        <v>0.02545739411618748</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06353350054355872</v>
+        <v>0.06284299239913657</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04910564710984861</v>
+        <v>0.02477518704540088</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09609812783798471</v>
+        <v>0.0930182819707242</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04893394418030729</v>
+        <v>0.02484513900386241</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02318314357457</v>
+        <v>0.01379560683147078</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05041932175167947</v>
+        <v>0.01839953600555002</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0320187917187538</v>
+        <v>0.02919850429636453</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05064088509793623</v>
+        <v>0.0263059739200604</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06401983092545588</v>
+        <v>0.06314931235174134</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05074250201351023</v>
+        <v>0.02560102661358091</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09596090663258944</v>
+        <v>0.09475993117400733</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0505650756529842</v>
+        <v>0.02567331030399116</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02324232627407822</v>
+        <v>0.01391110346009083</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05204575148560462</v>
+        <v>0.01899306942508389</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03211088966209576</v>
+        <v>0.02998736349900334</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05227446203657934</v>
+        <v>0.02715455372393331</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06383093774702517</v>
+        <v>0.06402515205432668</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05237935691717185</v>
+        <v>0.02642686618176094</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09650717960536881</v>
+        <v>0.09550366617832423</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05219620712566111</v>
+        <v>0.0265014816041199</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02224231050396303</v>
+        <v>0.01402447404685076</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05367218121952975</v>
+        <v>0.01958660284461776</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03227253131770426</v>
+        <v>0.0303178893045416</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05390803897522244</v>
+        <v>0.02800313352780623</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06460727855092452</v>
+        <v>0.06386392381294478</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05401621182083347</v>
+        <v>0.02725270574994097</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09694202578414479</v>
+        <v>0.09613815672777432</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05382733859833801</v>
+        <v>0.02732965290424865</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02223391150659212</v>
+        <v>0.01413573107260473</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0552986109534549</v>
+        <v>0.02018013626415163</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03227142116974913</v>
+        <v>0.0310846296544041</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05554161591386555</v>
+        <v>0.02885171333167915</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06450727118201846</v>
+        <v>0.06460727855092452</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0556530667244951</v>
+        <v>0.028078545318121</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09673155955704654</v>
+        <v>0.09675207256645668</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05545847007101493</v>
+        <v>0.02815782420437739</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02321074915241576</v>
+        <v>0.01424488701820686</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05692504068738004</v>
+        <v>0.0207736696836855</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03195387121917947</v>
+        <v>0.03118213249001575</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05717519285250865</v>
+        <v>0.02970029313555206</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06458610283533026</v>
+        <v>0.06440727855092451</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05728992162815671</v>
+        <v>0.02890438488630103</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09636354962643245</v>
+        <v>0.09694202578414479</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05708960154369183</v>
+        <v>0.02898599550450614</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02117376317351149</v>
+        <v>0.01435195436451126</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05855147042130519</v>
+        <v>0.02136720310321938</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03191600910407275</v>
+        <v>0.03170494575280135</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05880876979115175</v>
+        <v>0.03054887293942498</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0640232293723656</v>
+        <v>0.06460727855092452</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05892677653181833</v>
+        <v>0.02973022445448106</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09663567953408897</v>
+        <v>0.0963420257841448</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05872073301636874</v>
+        <v>0.02981416680463489</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02212389330195685</v>
+        <v>0.01445694559237206</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06017790015523033</v>
+        <v>0.02196073652275325</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03185915694284447</v>
+        <v>0.03204761738418578</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06044234672979485</v>
+        <v>0.03139745274329789</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06422131729941571</v>
+        <v>0.06410727855092452</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06056363143547996</v>
+        <v>0.03055606402266108</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09645190292378109</v>
+        <v>0.0963420257841448</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06035186448904566</v>
+        <v>0.03064233810476364</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.0210620792698294</v>
+        <v>0.01455987318264337</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06180432988915548</v>
+        <v>0.02255426994228712</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03198463685391015</v>
+        <v>0.03200469532559384</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06207592366843797</v>
+        <v>0.03224603254717081</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06378302936738675</v>
+        <v>0.06450727855092453</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06220048633914158</v>
+        <v>0.03138190359084111</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09591617343927394</v>
+        <v>0.09664202578414477</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06198299596172256</v>
+        <v>0.03147050940489238</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02298926080920671</v>
+        <v>0.01466074961617934</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06343075962308063</v>
+        <v>0.02314780336182099</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03169377095568533</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06370950060708107</v>
+        <v>0.03309461235104372</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06371102832718484</v>
+        <v>0.06410727855092452</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0638373412428032</v>
+        <v>0.03220774315902114</v>
       </c>
       <c r="N104" t="n">
-        <v>0.0955324447243327</v>
+        <v>0.09604202578414478</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06361412743439947</v>
+        <v>0.03229868070502113</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0209063776521663</v>
+        <v>0.01475958737383407</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06505718935700577</v>
+        <v>0.02374133678135486</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0315878813665855</v>
+        <v>0.03217253131770426</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06534307754572417</v>
+        <v>0.03394319215491665</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06390797692971614</v>
+        <v>0.06420727855092451</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06547419614646481</v>
+        <v>0.03303358272720117</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09490467042272221</v>
+        <v>0.09604202578414478</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06524525890707639</v>
+        <v>0.03312685200514988</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02281436953078577</v>
+        <v>0.01485639893646168</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06668361909093092</v>
+        <v>0.02433487020088873</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03166829020502616</v>
+        <v>0.03207253131770425</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06697665448436728</v>
+        <v>0.03479177195878955</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06307653792588686</v>
+        <v>0.06450727855092453</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06711105105012644</v>
+        <v>0.03385942229538121</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09483680417820778</v>
+        <v>0.0963420257841448</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06687639037975329</v>
+        <v>0.03395502330527862</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02271417617714264</v>
+        <v>0.01495119678491631</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06831004882485607</v>
+        <v>0.0249284036204226</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03143631958942288</v>
+        <v>0.03217253131770426</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06861023142301038</v>
+        <v>0.03564035176266247</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06311937406660306</v>
+        <v>0.06400727855092453</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06874790595378806</v>
+        <v>0.03468526186356123</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09493279963455431</v>
+        <v>0.09624202578414481</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0685075218524302</v>
+        <v>0.03478319460540737</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02060673732331447</v>
+        <v>0.01504399340005207</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06993647855878121</v>
+        <v>0.02552193703995648</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03149329163819112</v>
+        <v>0.03197253131770426</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07024380836165349</v>
+        <v>0.03648893156653539</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06303914810277103</v>
+        <v>0.06430727855092452</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07038476085744967</v>
+        <v>0.03551110143174126</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09359661043552697</v>
+        <v>0.09614202578414477</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07013865332510712</v>
+        <v>0.03561136590553612</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02249299270137883</v>
+        <v>0.01513480126272309</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07156290829270635</v>
+        <v>0.02611547045949035</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03104052846974643</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07187738530029658</v>
+        <v>0.03733751137040831</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06223852278529685</v>
+        <v>0.06440727855092451</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0720216157611113</v>
+        <v>0.03633694099992129</v>
       </c>
       <c r="N109" t="n">
-        <v>0.09373219022489082</v>
+        <v>0.09614202578414477</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07176978479778402</v>
+        <v>0.03643953720566486</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02037388204341323</v>
+        <v>0.0152236328537835</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07318933802663148</v>
+        <v>0.02670900387902422</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03107935220250432</v>
+        <v>0.03217253131770426</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0735109622389397</v>
+        <v>0.03818609117428122</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0619201608650867</v>
+        <v>0.06450727855092453</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07365847066477292</v>
+        <v>0.03716278056810132</v>
       </c>
       <c r="N110" t="n">
-        <v>0.09274349264641085</v>
+        <v>0.09654202578414478</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07340091627046093</v>
+        <v>0.03726770850579361</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02025034508149526</v>
+        <v>0.01531050065408739</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07481576776055664</v>
+        <v>0.02730253729855809</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03081108495488029</v>
+        <v>0.03207253131770425</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07514453917758279</v>
+        <v>0.03903467097815414</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06168672509304673</v>
+        <v>0.06400727855092453</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07529532556843453</v>
+        <v>0.03798862013628135</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09273447134385226</v>
+        <v>0.09604202578414478</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07503204774313783</v>
+        <v>0.03809587980592236</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02212332154770249</v>
+        <v>0.01539541714448892</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07644219749448178</v>
+        <v>0.02789607071809196</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03063704884528988</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0767781161162259</v>
+        <v>0.03988325078202706</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06124087822008317</v>
+        <v>0.06460727855092452</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07693218047209616</v>
+        <v>0.03881445970446138</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09180907996098009</v>
+        <v>0.09674202578414481</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07666317921581474</v>
+        <v>0.03892405110605111</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02199375117411242</v>
+        <v>0.0154783948058422</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07806862722840692</v>
+        <v>0.02848960413762583</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03055856599214858</v>
+        <v>0.03207253131770425</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07841169305486902</v>
+        <v>0.04073183058589996</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06138528299710208</v>
+        <v>0.06450727855092453</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07856903537575778</v>
+        <v>0.03964029927264141</v>
       </c>
       <c r="N113" t="n">
-        <v>0.0915712721415593</v>
+        <v>0.0963420257841448</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07829431068849164</v>
+        <v>0.03975222240617986</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02086257369280264</v>
+        <v>0.01555944611900135</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07969505696233208</v>
+        <v>0.0290831375571597</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03027695851387194</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08004526999351211</v>
+        <v>0.04158041038977289</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06112260217500967</v>
+        <v>0.06460727855092452</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08020589027941941</v>
+        <v>0.04046613884082144</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09122500152935509</v>
+        <v>0.0968420257841448</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07992544216116856</v>
+        <v>0.0405803937063086</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01973072883585072</v>
+        <v>0.0156385835648205</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08132148669625722</v>
+        <v>0.02967667097669358</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03029354852887543</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08167884693215521</v>
+        <v>0.0424289901936458</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06015549850471213</v>
+        <v>0.06450727855092453</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08184274518308103</v>
+        <v>0.04129197840900147</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09027422176813243</v>
+        <v>0.09654202578414478</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08155657363384547</v>
+        <v>0.04140856500643735</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02159915633533415</v>
+        <v>0.01571581962415376</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08294791643018236</v>
+        <v>0.03027020439622745</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02980965815557461</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08331242387079832</v>
+        <v>0.04327756999751872</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06028663473711557</v>
+        <v>0.06440727855092451</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08347960008674264</v>
+        <v>0.0421178179771815</v>
       </c>
       <c r="N116" t="n">
-        <v>0.08942288650165647</v>
+        <v>0.0963420257841448</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08318770510652239</v>
+        <v>0.0422367363065661</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02046879592333056</v>
+        <v>0.01579116677785525</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0845743461641075</v>
+        <v>0.03086373781576132</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02972660951238497</v>
+        <v>0.03197253131770426</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08494600080944142</v>
+        <v>0.04412614980139164</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06001867362312618</v>
+        <v>0.06410727855092452</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08511645499040425</v>
+        <v>0.04294365754536153</v>
       </c>
       <c r="N117" t="n">
-        <v>0.08897494937369232</v>
+        <v>0.09664202578414477</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08481883657919929</v>
+        <v>0.04306490760669485</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02133483440955313</v>
+        <v>0.01586463750677912</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08620077589803266</v>
+        <v>0.03145727123529519</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02974567658257814</v>
+        <v>0.03197253131770426</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08657957774808453</v>
+        <v>0.04497472960526455</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05905427791365012</v>
+        <v>0.06400727855092453</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08675330989406588</v>
+        <v>0.04376949711354156</v>
       </c>
       <c r="N118" t="n">
-        <v>0.08923061646899122</v>
+        <v>0.09614202578414477</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0864499680518762</v>
+        <v>0.04389307890682359</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02118226991136984</v>
+        <v>0.01593624429177947</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0878272056319578</v>
+        <v>0.03205080465482907</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02955002087964002</v>
+        <v>0.03197253131770426</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08821315468672764</v>
+        <v>0.04582330940913747</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05907674712108446</v>
+        <v>0.06440727855092451</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0883901647977275</v>
+        <v>0.04459533668172158</v>
       </c>
       <c r="N119" t="n">
-        <v>0.08812562155662584</v>
+        <v>0.09674202578414481</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08808109952455312</v>
+        <v>0.04472125020695233</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02001302366629581</v>
+        <v>0.01600599961371042</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08945363536588294</v>
+        <v>0.03264433807436293</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02902826538213547</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08984673162537073</v>
+        <v>0.04667188921301038</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05844621034517686</v>
+        <v>0.06400727855092453</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09002701970138913</v>
+        <v>0.04542117624990161</v>
       </c>
       <c r="N120" t="n">
-        <v>0.08744526148693482</v>
+        <v>0.09614202578414477</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08971223099723002</v>
+        <v>0.04554942150708109</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02083015743377081</v>
+        <v>0.01607391595342611</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09108006509980808</v>
+        <v>0.03323787149389681</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02898471770990189</v>
+        <v>0.03217253131770426</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09148030856401385</v>
+        <v>0.0475204690168833</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05826937014051961</v>
+        <v>0.06460727855092452</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09166387460505075</v>
+        <v>0.04624701581808164</v>
       </c>
       <c r="N121" t="n">
-        <v>0.08720241770390452</v>
+        <v>0.09624202578414481</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09134336246990693</v>
+        <v>0.04637759280720983</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01863673297323454</v>
+        <v>0.01614000579178065</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09270649483373324</v>
+        <v>0.03383140491343067</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02852368548277687</v>
+        <v>0.03207253131770425</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09311388550265694</v>
+        <v>0.04836904882075622</v>
       </c>
       <c r="L122" t="n">
-        <v>0.0574549020678575</v>
+        <v>0.06460727855092452</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09330072950871236</v>
+        <v>0.04707285538626167</v>
       </c>
       <c r="N122" t="n">
-        <v>0.08580997165152127</v>
+        <v>0.09694202578414479</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09297449394258385</v>
+        <v>0.04720576410733858</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01943581204412683</v>
+        <v>0.01620428160962817</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09433292456765836</v>
+        <v>0.03442493833296455</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02834947632059777</v>
+        <v>0.03197253131770426</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09474746244130004</v>
+        <v>0.04921762862462913</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0573114816879354</v>
+        <v>0.06440727855092451</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09493758441237399</v>
+        <v>0.0478986949544417</v>
       </c>
       <c r="N123" t="n">
-        <v>0.08478080477377126</v>
+        <v>0.0968420257841448</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09460562541526076</v>
+        <v>0.04803393540746732</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01823045640588739</v>
+        <v>0.01626675588782278</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0959593543015835</v>
+        <v>0.03501847175249842</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02806639784320213</v>
+        <v>0.03217253131770426</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09638103937994316</v>
+        <v>0.05006620842850205</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05624778456149801</v>
+        <v>0.06410727855092452</v>
       </c>
       <c r="M124" t="n">
-        <v>0.0965744393160356</v>
+        <v>0.04872453452262173</v>
       </c>
       <c r="N124" t="n">
-        <v>0.08452779851464093</v>
+        <v>0.09694202578414479</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09623675688793766</v>
+        <v>0.04886210670759607</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01902372781795596</v>
+        <v>0.01632744110721863</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09758578403550866</v>
+        <v>0.03561200517203229</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02787875767042737</v>
+        <v>0.03217253131770426</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09801461631858625</v>
+        <v>0.05091478823237496</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05597248624929022</v>
+        <v>0.06450727855092453</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09821129421969722</v>
+        <v>0.04955037409080176</v>
       </c>
       <c r="N125" t="n">
-        <v>0.08316383431811647</v>
+        <v>0.09604202578414478</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09786788836061458</v>
+        <v>0.04969027800772482</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01781868803977233</v>
+        <v>0.01638634974866981</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0992122137694338</v>
+        <v>0.03620553859156616</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02749086342211102</v>
+        <v>0.03217253131770426</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09964819325722936</v>
+        <v>0.05176336803624788</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05509426231205675</v>
+        <v>0.06450727855092453</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09984814912335885</v>
+        <v>0.05037621365898179</v>
       </c>
       <c r="N126" t="n">
-        <v>0.08230179362818424</v>
+        <v>0.09604202578414478</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09949901983329149</v>
+        <v>0.05051844930785356</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01761839883077623</v>
+        <v>0.01644349429303046</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1008386435033589</v>
+        <v>0.03679907201110003</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02720702271809051</v>
+        <v>0.03207253131770425</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1012817701958725</v>
+        <v>0.05261194784012079</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05452178831054247</v>
+        <v>0.06400727855092453</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1014850040270205</v>
+        <v>0.05120205322716181</v>
       </c>
       <c r="N127" t="n">
-        <v>0.08175455788883046</v>
+        <v>0.09654202578414478</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1011301513059684</v>
+        <v>0.05134662060798231</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01742592195040742</v>
+        <v>0.0164988872211547</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1024650732372841</v>
+        <v>0.03739260543063391</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02713154317820335</v>
+        <v>0.03197253131770426</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1029153471345156</v>
+        <v>0.05346052764399371</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05406373980549212</v>
+        <v>0.06400727855092453</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1031218589306821</v>
+        <v>0.05202789279534185</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0811350085440416</v>
+        <v>0.09624202578414481</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1027612827786453</v>
+        <v>0.05217479190811106</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.018239015264058</v>
+        <v>0.01655254101389665</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1040915029712092</v>
+        <v>0.03798613885016778</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02686873242228696</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1045489240731587</v>
+        <v>0.05430910744786663</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05352879235765057</v>
+        <v>0.06420727855092451</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1047587138343437</v>
+        <v>0.05285373236352188</v>
       </c>
       <c r="N129" t="n">
-        <v>0.08005397583133139</v>
+        <v>0.09644202578414479</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1043924142513222</v>
+        <v>0.05300296320823981</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01903607666608938</v>
+        <v>0.01660446815211045</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1057179327051344</v>
+        <v>0.03857967226970165</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02660088518652361</v>
+        <v>0.03197253131770426</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1061825010118018</v>
+        <v>0.05515768725173955</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05320256475105348</v>
+        <v>0.06420727855092451</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1063955687380053</v>
+        <v>0.0536795719317019</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0796343604222895</v>
+        <v>0.09694202578414479</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1060235457239991</v>
+        <v>0.05383113450836856</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01881818559295204</v>
+        <v>0.01665468111665019</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1073443624390595</v>
+        <v>0.03917320568923553</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02620850334459331</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1078160779504449</v>
+        <v>0.05600626705561246</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05282804950701159</v>
+        <v>0.06450727855092453</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1080324236416669</v>
+        <v>0.05450541149988194</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07864489578030753</v>
+        <v>0.09674202578414481</v>
       </c>
       <c r="O131" t="n">
-        <v>0.107654677196676</v>
+        <v>0.0546593058084973</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01858972495418095</v>
+        <v>0.01670319238837003</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1089707921729847</v>
+        <v>0.0397667391087694</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02599772793283935</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="K132" t="n">
-        <v>0.109449654889088</v>
+        <v>0.05685484685948537</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05201325597169751</v>
+        <v>0.06420727855092451</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1096692785453286</v>
+        <v>0.05533125106806196</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07730402169622541</v>
+        <v>0.09664202578414477</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1092858086693529</v>
+        <v>0.05548747710862605</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01635507765931105</v>
+        <v>0.01675001444812407</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1105972219069098</v>
+        <v>0.04036027252830326</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02567472531032103</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1110832318277311</v>
+        <v>0.05770342666335829</v>
       </c>
       <c r="L133" t="n">
-        <v>0.051370603212859</v>
+        <v>0.06440727855092451</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1113061334489902</v>
+        <v>0.056157090636242</v>
       </c>
       <c r="N133" t="n">
-        <v>0.07693017796088325</v>
+        <v>0.09644202578414479</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1109169401420299</v>
+        <v>0.05631564840875479</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01611862661787733</v>
+        <v>0.01679515977676643</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1122236516408349</v>
+        <v>0.04095380594783713</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0250456618360976</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1127168087663742</v>
+        <v>0.0585520064672312</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05051251029824372</v>
+        <v>0.06450727855092453</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1129429883526518</v>
+        <v>0.05698293020442202</v>
       </c>
       <c r="N134" t="n">
-        <v>0.07504180436512103</v>
+        <v>0.09644202578414479</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1125480716147068</v>
+        <v>0.05714381970888355</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0168847547394147</v>
+        <v>0.01683864085515125</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1138500813747601</v>
+        <v>0.041547339367371</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02501670386922833</v>
+        <v>0.03217253131770426</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1143503857050173</v>
+        <v>0.05940058627110412</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05025139629559941</v>
+        <v>0.06420727855092451</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1145798432563134</v>
+        <v>0.05780876977260205</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07445734069977883</v>
+        <v>0.09614202578414477</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1141792030873837</v>
+        <v>0.05797199100901228</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01565784493345815</v>
+        <v>0.01688047016413264</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1154765111086852</v>
+        <v>0.04214087278690488</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02469401776877247</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1159839626436604</v>
+        <v>0.06024916607497705</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04959968027267372</v>
+        <v>0.06450727855092453</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1162166981599751</v>
+        <v>0.05863460934078208</v>
       </c>
       <c r="N136" t="n">
-        <v>0.0739952267556967</v>
+        <v>0.09644202578414479</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1158103345600606</v>
+        <v>0.05880016230914104</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01744228010954261</v>
+        <v>0.01692066018456472</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1171029408426104</v>
+        <v>0.04273440620643875</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02438376989378929</v>
+        <v>0.03217253131770426</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1176175395823035</v>
+        <v>0.06109774587884995</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04846978129721435</v>
+        <v>0.06450727855092453</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1178535530636367</v>
+        <v>0.05946044890896212</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07267390232371446</v>
+        <v>0.0963420257841448</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1174414660327375</v>
+        <v>0.05962833360926978</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01524244317720304</v>
+        <v>0.01695922339730162</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1187293705765355</v>
+        <v>0.04332793962597262</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02409212660333807</v>
+        <v>0.03197253131770426</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1192511165209466</v>
+        <v>0.06194632568272287</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0480741184369691</v>
+        <v>0.06460727855092452</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1194904079672983</v>
+        <v>0.06028628847714215</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07151180719467237</v>
+        <v>0.09644202578414479</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1190725975054144</v>
+        <v>0.06045650490939853</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01506271704597439</v>
+        <v>0.01699617228319746</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1203558003104607</v>
+        <v>0.04392147304550649</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02362525425647805</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1208846934595897</v>
+        <v>0.06279490548659579</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04732511075968551</v>
+        <v>0.06450727855092453</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1211272628709599</v>
+        <v>0.06111212804532216</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07082738115941034</v>
+        <v>0.0968420257841448</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1207037289780913</v>
+        <v>0.06128467620952727</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01590748462539163</v>
+        <v>0.01703151932310638</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1219822300443858</v>
+        <v>0.04451500646504036</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0232893192122685</v>
+        <v>0.03217253131770426</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1225182703982328</v>
+        <v>0.0636434852904687</v>
       </c>
       <c r="L140" t="n">
-        <v>0.04713517733311146</v>
+        <v>0.06400727855092453</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1227641177746215</v>
+        <v>0.0619379676135022</v>
       </c>
       <c r="N140" t="n">
-        <v>0.06993906400876843</v>
+        <v>0.09674202578414481</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1223348604507682</v>
+        <v>0.06211284750965602</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01678112882498971</v>
+        <v>0.01706527699788247</v>
       </c>
       <c r="G141" t="n">
-        <v>0.123608659778311</v>
+        <v>0.04510853988457424</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02309048782976869</v>
+        <v>0.03197253131770426</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1241518473368759</v>
+        <v>0.06449206509434162</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04681673722499449</v>
+        <v>0.06450727855092453</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1244009726782832</v>
+        <v>0.06276380718168223</v>
       </c>
       <c r="N141" t="n">
-        <v>0.06936529553358661</v>
+        <v>0.09604202578414478</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1239659919234451</v>
+        <v>0.06294101880978477</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01568803255430357</v>
+        <v>0.01709745778837988</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1252350895122361</v>
+        <v>0.04570207330410811</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02313492646803786</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="K142" t="n">
-        <v>0.125785424275519</v>
+        <v>0.06534064489821453</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04648220950308241</v>
+        <v>0.06400727855092453</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1260378275819448</v>
+        <v>0.06358964674986227</v>
       </c>
       <c r="N142" t="n">
-        <v>0.06922451552470504</v>
+        <v>0.09624202578414481</v>
       </c>
       <c r="O142" t="n">
-        <v>0.125597123396122</v>
+        <v>0.06376919010991351</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01663257872286818</v>
+        <v>0.01712807417545271</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1268615192461613</v>
+        <v>0.04629560672364198</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02282880148613532</v>
+        <v>0.03197253131770426</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1274190012141621</v>
+        <v>0.06618922470208745</v>
       </c>
       <c r="L143" t="n">
-        <v>0.04634401323512283</v>
+        <v>0.06420727855092451</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1276746824856064</v>
+        <v>0.06441548631804228</v>
       </c>
       <c r="N143" t="n">
-        <v>0.06863516377296358</v>
+        <v>0.09614202578414477</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1272282548687989</v>
+        <v>0.06459736141004226</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01561839140137125</v>
+        <v>0.0171571386399551</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1284879489800864</v>
+        <v>0.04688914014317586</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02287827924312026</v>
+        <v>0.03217253131770426</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1290525781528052</v>
+        <v>0.06703780450596036</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04621456748886349</v>
+        <v>0.06410727855092452</v>
       </c>
       <c r="M144" t="n">
-        <v>0.129311537389268</v>
+        <v>0.06524132588622232</v>
       </c>
       <c r="N144" t="n">
-        <v>0.06921568006920242</v>
+        <v>0.09664202578414477</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1288593863414759</v>
+        <v>0.06542553271017101</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01562292715220932</v>
+        <v>0.01718466366274117</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1301143787140115</v>
+        <v>0.04748267356270972</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02307693046615054</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1306861550914483</v>
+        <v>0.06788638430983329</v>
       </c>
       <c r="L145" t="n">
-        <v>0.04599593031645532</v>
+        <v>0.06430727855092452</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1309483922929296</v>
+        <v>0.06606716545440235</v>
       </c>
       <c r="N145" t="n">
-        <v>0.06862348087562675</v>
+        <v>0.09624202578414481</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1304905178141528</v>
+        <v>0.06625370401029976</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01563371898162998</v>
+        <v>0.01721066172466503</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1317408084479367</v>
+        <v>0.0480762069822436</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02298749353142483</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1323197320300914</v>
+        <v>0.06873496411370619</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04591290903032422</v>
+        <v>0.06420549649773993</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1325852471965913</v>
+        <v>0.06689300502258237</v>
       </c>
       <c r="N146" t="n">
-        <v>0.06895980971528598</v>
+        <v>0.09664090099491845</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1321216492868297</v>
+        <v>0.0670818753104285</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01465044483503714</v>
+        <v>0.01723514530658083</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1333672381818618</v>
+        <v>0.04866974040177746</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02300660263108771</v>
+        <v>0.03207253131770425</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1339533089687346</v>
+        <v>0.06958354391757911</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04594728065917023</v>
+        <v>0.06409981843762169</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1342221021002529</v>
+        <v>0.06771884459076241</v>
       </c>
       <c r="N147" t="n">
-        <v>0.06942149310174089</v>
+        <v>0.09633428047187576</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1337527807595066</v>
+        <v>0.06791004661055725</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01567278265783474</v>
+        <v>0.01725812688934268</v>
       </c>
       <c r="G148" t="n">
-        <v>0.134993667915787</v>
+        <v>0.04926327382131133</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02313380466332174</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1355868859073777</v>
+        <v>0.07043212372145204</v>
       </c>
       <c r="L148" t="n">
-        <v>0.04569813265441919</v>
+        <v>0.06449038623055076</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1358589570039145</v>
+        <v>0.06854468415894244</v>
       </c>
       <c r="N148" t="n">
-        <v>0.06860717608587757</v>
+        <v>0.09672192124390411</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1353839122321835</v>
+        <v>0.068738217910686</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01470041039542671</v>
+        <v>0.01727961895380469</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1366200976497121</v>
+        <v>0.04985680724084521</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02316864652630941</v>
+        <v>0.03207192629423243</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1372204628460208</v>
+        <v>0.07128070352532494</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04576455246749681</v>
+        <v>0.06447734797179347</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1374958119075761</v>
+        <v>0.06937052372712246</v>
       </c>
       <c r="N149" t="n">
-        <v>0.06911550371858205</v>
+        <v>0.09690404741277392</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1370150437048604</v>
+        <v>0.06956638921081475</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01573300599321695</v>
+        <v>0.017299633980821</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1382465273836373</v>
+        <v>0.05045034066037908</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02321067511823328</v>
+        <v>0.03206931332021162</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1388540397846639</v>
+        <v>0.07212928332919787</v>
       </c>
       <c r="L150" t="n">
-        <v>0.0463456275498289</v>
+        <v>0.0645608517566163</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1391326668112377</v>
+        <v>0.07019636329530249</v>
       </c>
       <c r="N150" t="n">
-        <v>0.06904512105074062</v>
+        <v>0.09678088308025545</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1386461751775373</v>
+        <v>0.07039456051094349</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01577024739660942</v>
+        <v>0.0173181844512457</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1398729571175624</v>
+        <v>0.05104387407991295</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02325943733727591</v>
+        <v>0.03206470952014294</v>
       </c>
       <c r="K151" t="n">
-        <v>0.140487616723307</v>
+        <v>0.07297786313307078</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04614044535284123</v>
+        <v>0.06454104568028565</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1407695217148993</v>
+        <v>0.07102220286348253</v>
       </c>
       <c r="N151" t="n">
-        <v>0.06979467313323912</v>
+        <v>0.09625265234811903</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1402773066502142</v>
+        <v>0.07122273181107223</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01481181255100803</v>
+        <v>0.01733528284593296</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1414993868514876</v>
+        <v>0.05163740749944682</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02311448008161977</v>
+        <v>0.03225819515118369</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1421211936619501</v>
+        <v>0.0738264429369437</v>
       </c>
       <c r="L152" t="n">
-        <v>0.04654809332795956</v>
+        <v>0.06431807783806798</v>
       </c>
       <c r="M152" t="n">
-        <v>0.142406376618561</v>
+        <v>0.07184804243166255</v>
       </c>
       <c r="N152" t="n">
-        <v>0.06946280501696384</v>
+        <v>0.09621957931813502</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1419084381228911</v>
+        <v>0.07205090311120099</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0168573794018167</v>
+        <v>0.01735094164573688</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1431258165854127</v>
+        <v>0.05223094091898069</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02317535024944743</v>
+        <v>0.0321498504704912</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1437547706005932</v>
+        <v>0.07467502274081661</v>
       </c>
       <c r="L153" t="n">
-        <v>0.0463676589266096</v>
+        <v>0.0639920963252297</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1440432315222226</v>
+        <v>0.07267388199984258</v>
       </c>
       <c r="N153" t="n">
-        <v>0.07004816175280082</v>
+        <v>0.09598188809207364</v>
       </c>
       <c r="O153" t="n">
-        <v>0.143539569595568</v>
+        <v>0.07287907441132972</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01490662589443936</v>
+        <v>0.01736517333151158</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1447522463193379</v>
+        <v>0.05282447433851457</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02344159473894143</v>
+        <v>0.03223975573522271</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1453883475392363</v>
+        <v>0.07552360254468952</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04669822960021724</v>
+        <v>0.06386324923703718</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1456800864258842</v>
+        <v>0.07349972156802261</v>
       </c>
       <c r="N154" t="n">
-        <v>0.06954938839163616</v>
+        <v>0.0967398027717053</v>
       </c>
       <c r="O154" t="n">
-        <v>0.145170701068245</v>
+        <v>0.07370724571145848</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01495922997427995</v>
+        <v>0.01737799038411118</v>
       </c>
       <c r="G155" t="n">
-        <v>0.146378676053263</v>
+        <v>0.05341800775804844</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02331276044828429</v>
+        <v>0.03212799120253558</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1470219244778794</v>
+        <v>0.07637218234856244</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04693889280020819</v>
+        <v>0.06403168466875686</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1473169413295458</v>
+        <v>0.07432556113620263</v>
       </c>
       <c r="N155" t="n">
-        <v>0.07036512998435596</v>
+        <v>0.09659354745880039</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1468018325409219</v>
+        <v>0.07453541701158722</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01501520366525396</v>
+        <v>0.01738940528438982</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1480051057871881</v>
+        <v>0.05401154117758231</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02348839427565855</v>
+        <v>0.03211463712958708</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1486555014165225</v>
+        <v>0.07722076215243535</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04668873597800816</v>
+        <v>0.06429755071565518</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1489537962332075</v>
+        <v>0.07515140070438267</v>
       </c>
       <c r="N156" t="n">
-        <v>0.07009403158184635</v>
+        <v>0.09634334625512908</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1484329640135988</v>
+        <v>0.07536358831171597</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01710656935306587</v>
+        <v>0.0173994305132016</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1496315355211133</v>
+        <v>0.05460507459711619</v>
       </c>
       <c r="J157" t="n">
-        <v>0.0236837976335767</v>
+        <v>0.03199977377353454</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1502890783551656</v>
+        <v>0.07806934195630828</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04736082676622469</v>
+        <v>0.06386099547299853</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1505906511368691</v>
+        <v>0.0759772402725627</v>
       </c>
       <c r="N157" t="n">
-        <v>0.0712082867957825</v>
+        <v>0.09658942326246189</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1500640954862757</v>
+        <v>0.07619175961184471</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01624772733264366</v>
+        <v>0.01740807855140067</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1512579652550384</v>
+        <v>0.05519860801665005</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02354984409221716</v>
+        <v>0.03218348139153525</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1519226552938087</v>
+        <v>0.07891792176018118</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04766356342272962</v>
+        <v>0.06392216703605338</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1522275060405307</v>
+        <v>0.07680307984074274</v>
       </c>
       <c r="N158" t="n">
-        <v>0.07113894726095321</v>
+        <v>0.09643200258256895</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1516952269589526</v>
+        <v>0.07701993091197347</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01642895555303832</v>
+        <v>0.01741536187984113</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1528843949889636</v>
+        <v>0.05579214143618393</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02387836258650532</v>
+        <v>0.0320658402407465</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1535562322324518</v>
+        <v>0.07976650156405411</v>
       </c>
       <c r="L159" t="n">
-        <v>0.0480977146933883</v>
+        <v>0.0638812135000861</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1538643609441923</v>
+        <v>0.07762891940892276</v>
       </c>
       <c r="N159" t="n">
-        <v>0.07225020303153401</v>
+        <v>0.09627130831722069</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1533263584316295</v>
+        <v>0.07784810221210221</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01564053196330084</v>
+        <v>0.0174212929793771</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1545108247228887</v>
+        <v>0.0563856748557178</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02435567506617212</v>
+        <v>0.03204693057832561</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1551898091710949</v>
+        <v>0.08061508136792703</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04803573293925933</v>
+        <v>0.06363828296036317</v>
       </c>
       <c r="M160" t="n">
-        <v>0.155501215847854</v>
+        <v>0.07845475897710279</v>
       </c>
       <c r="N160" t="n">
-        <v>0.07250115146406244</v>
+        <v>0.09620756456818746</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1549574899043064</v>
+        <v>0.07867627351223096</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01787273451248224</v>
+        <v>0.01742588433086272</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1561372544568138</v>
+        <v>0.05697920827525166</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02466810348094843</v>
+        <v>0.03202683266142989</v>
       </c>
       <c r="K161" t="n">
-        <v>0.156823386109738</v>
+        <v>0.08146366117179993</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04865007052140111</v>
+        <v>0.06369352351215093</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1571380707515156</v>
+        <v>0.07928059854528281</v>
       </c>
       <c r="N161" t="n">
-        <v>0.07405088991507636</v>
+        <v>0.09634099543723945</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1565886213769833</v>
+        <v>0.07950444481235971</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.0171158411496335</v>
+        <v>0.01742914841515211</v>
       </c>
       <c r="G162" t="n">
-        <v>0.157763684190739</v>
+        <v>0.05757274169478553</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02480196978056516</v>
+        <v>0.03180562674721663</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1584569630483811</v>
+        <v>0.08231224097567286</v>
       </c>
       <c r="L162" t="n">
-        <v>0.04971317980087209</v>
+        <v>0.06394708325071585</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1587749256551772</v>
+        <v>0.08010643811346284</v>
       </c>
       <c r="N162" t="n">
-        <v>0.07505851574111339</v>
+        <v>0.09577182502614712</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1582197528496602</v>
+        <v>0.08033261611248846</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0163601298238056</v>
+        <v>0.01743109771309938</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1593901139246642</v>
+        <v>0.0581662751143194</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02514359591475322</v>
+        <v>0.03198339309284312</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1600905399870242</v>
+        <v>0.08316082077954577</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05059751313873079</v>
+        <v>0.06409911027132434</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1604117805588388</v>
+        <v>0.08093227768164288</v>
       </c>
       <c r="N163" t="n">
-        <v>0.07588312629871125</v>
+        <v>0.09530027743668074</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1598508843223371</v>
+        <v>0.0811607874126172</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01759587848404957</v>
+        <v>0.01743174470555867</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1610165436585893</v>
+        <v>0.05875980853385328</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02537930383324354</v>
+        <v>0.03186021195546666</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1617241169256673</v>
+        <v>0.0840094005834187</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05117552289603572</v>
+        <v>0.0636497526692428</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1620486354625004</v>
+        <v>0.0817581172498229</v>
       </c>
       <c r="N164" t="n">
-        <v>0.07718381894440773</v>
+        <v>0.09612657677061065</v>
       </c>
       <c r="O164" t="n">
-        <v>0.161482015795014</v>
+        <v>0.08198895871274595</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01881336507941637</v>
+        <v>0.01743174470555868</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1626429733925144</v>
+        <v>0.05875980853385328</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02599541548576695</v>
+        <v>0.0319361635922446</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1633576938643104</v>
+        <v>0.0848579803872916</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05191966143384527</v>
+        <v>0.06379915853973767</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1636854903661621</v>
+        <v>0.08258395681800294</v>
       </c>
       <c r="N165" t="n">
-        <v>0.07791969103474033</v>
+        <v>0.09575094712970711</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1631131472676909</v>
+        <v>0.0828171300128747</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01900289382384602</v>
+        <v>0.01699949175596507</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1642694031264396</v>
+        <v>0.05875954000538926</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0262782528220544</v>
+        <v>0.0319113282603342</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1649912708029535</v>
+        <v>0.08570656019116452</v>
       </c>
       <c r="L166" t="n">
-        <v>0.052002381113218</v>
+        <v>0.06354747597807539</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1653223452698237</v>
+        <v>0.08340979638618295</v>
       </c>
       <c r="N166" t="n">
-        <v>0.07884983992624706</v>
+        <v>0.09567361261574064</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1647442787403678</v>
+        <v>0.08364530131300345</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01917425921187701</v>
+        <v>0.01657207579046004</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1658958328603647</v>
+        <v>0.05875927147692525</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02632324034900305</v>
+        <v>0.03178578621689278</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1666248477415966</v>
+        <v>0.08655513999503744</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05240443746446272</v>
+        <v>0.06369485307952233</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1669592001734853</v>
+        <v>0.08423563595436299</v>
       </c>
       <c r="N167" t="n">
-        <v>0.07917583275360096</v>
+        <v>0.09519479733048136</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1663754102130448</v>
+        <v>0.08447347261313219</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01934138720059947</v>
+        <v>0.0161501089064612</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1675222625942899</v>
+        <v>0.05875900294846122</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02665877502815196</v>
+        <v>0.03185961771907762</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1682584246802397</v>
+        <v>0.08740371979891035</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05307921632049273</v>
+        <v>0.06374143793934497</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1685960550771469</v>
+        <v>0.08506147552254302</v>
       </c>
       <c r="N168" t="n">
-        <v>0.07987974160638495</v>
+        <v>0.09551472537569961</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1680065416857217</v>
+        <v>0.08530164391326094</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01950458620273076</v>
+        <v>0.01573420320144119</v>
       </c>
       <c r="G169" t="n">
-        <v>0.169148692328215</v>
+        <v>0.05875873441999721</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02668862391226436</v>
+        <v>0.03163290302404607</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1698920016188828</v>
+        <v>0.08825229960278327</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05364239889276737</v>
+        <v>0.06328737865280964</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1702329099808085</v>
+        <v>0.08588731509072306</v>
       </c>
       <c r="N169" t="n">
-        <v>0.08046680900266667</v>
+        <v>0.09513362085316579</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1696376731583986</v>
+        <v>0.08612981521338969</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01766416463098826</v>
+        <v>0.01532497077281737</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1707751220621402</v>
+        <v>0.0587584658915332</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02701322091026273</v>
+        <v>0.03190572238895538</v>
       </c>
       <c r="K170" t="n">
-        <v>0.171525578557526</v>
+        <v>0.08910087940665619</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05379485907530632</v>
+        <v>0.06363282331518286</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1718697648844701</v>
+        <v>0.08671315465890309</v>
       </c>
       <c r="N170" t="n">
-        <v>0.0813383324974048</v>
+        <v>0.09515170786465021</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1712688046310755</v>
+        <v>0.08695798651351842</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01782043089808934</v>
+        <v>0.01492302371802564</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1724015517960653</v>
+        <v>0.05875819736306918</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02743299993106965</v>
+        <v>0.03187815607096288</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1731591554961691</v>
+        <v>0.0899494592105291</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05433747076212914</v>
+        <v>0.06317792002173095</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1735066197881318</v>
+        <v>0.08753899422708311</v>
       </c>
       <c r="N171" t="n">
-        <v>0.08169560964555816</v>
+        <v>0.09516921051192317</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1728999361037524</v>
+        <v>0.08778615781364718</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01997369341675139</v>
+        <v>0.01452897413448487</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1740279815299904</v>
+        <v>0.05875792883460516</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02754839488360755</v>
+        <v>0.03155028432722587</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1747927324348122</v>
+        <v>0.09079803901440202</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05527110784725561</v>
+        <v>0.06342224348888925</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1751434746917934</v>
+        <v>0.08836483379526314</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0828399380020855</v>
+        <v>0.09488634900641096</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1745310675764293</v>
+        <v>0.08861432911377592</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01812426059969174</v>
+        <v>0.01414343411966529</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1756544112639156</v>
+        <v>0.05875766030614114</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02765983967679897</v>
+        <v>0.03162218741490164</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1764263093734553</v>
+        <v>0.09164661881827493</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05569664422470533</v>
+        <v>0.06305595122419877</v>
       </c>
       <c r="M173" t="n">
-        <v>0.176780329595455</v>
+        <v>0.08919067336344316</v>
       </c>
       <c r="N173" t="n">
-        <v>0.0832726151219455</v>
+        <v>0.09479204744592357</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1761621990491062</v>
+        <v>0.08944250041390467</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01927244085962781</v>
+        <v>0.01376701577098541</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1772808409978407</v>
+        <v>0.05875739177767712</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02806776821956643</v>
+        <v>0.03159394559114752</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1780598863120983</v>
+        <v>0.09249519862214785</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05571495378849792</v>
+        <v>0.06347661093376114</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1784171844991166</v>
+        <v>0.0900165129316232</v>
       </c>
       <c r="N174" t="n">
-        <v>0.08409493856009687</v>
+        <v>0.09487745960484578</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1777933305217831</v>
+        <v>0.09027067171403341</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01841854260927695</v>
+        <v>0.01340033118588112</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1789072707317659</v>
+        <v>0.05875712324921311</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02817261442083241</v>
+        <v>0.03166315112835894</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1796934632507415</v>
+        <v>0.09334377842602076</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05602691043265312</v>
+        <v>0.06318576307310572</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1800540394027783</v>
+        <v>0.09084235249980323</v>
       </c>
       <c r="N175" t="n">
-        <v>0.08450820587149838</v>
+        <v>0.09484491654222871</v>
       </c>
       <c r="O175" t="n">
-        <v>0.17942446199446</v>
+        <v>0.09109884301416217</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01956287426135653</v>
+        <v>0.01304399246177302</v>
       </c>
       <c r="G176" t="n">
-        <v>0.180533700465691</v>
+        <v>0.05875685472074908</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02847481218951946</v>
+        <v>0.03152525865072056</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1813270401893846</v>
+        <v>0.09419235822989369</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05633338805119054</v>
+        <v>0.06268494809776182</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1816908943064399</v>
+        <v>0.09166819206798327</v>
       </c>
       <c r="N176" t="n">
-        <v>0.0848137146111087</v>
+        <v>0.09439674931712355</v>
       </c>
       <c r="O176" t="n">
-        <v>0.181055593467137</v>
+        <v>0.09192701431429091</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01870574422858391</v>
+        <v>0.01269861169612799</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1821601301996162</v>
+        <v>0.05875658619228507</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02857479543455003</v>
+        <v>0.03168095320996998</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1829606171280277</v>
+        <v>0.09504093803376659</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05713526053812981</v>
+        <v>0.06317570646325862</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1833277492101015</v>
+        <v>0.09249403163616328</v>
       </c>
       <c r="N177" t="n">
-        <v>0.08621276233388669</v>
+        <v>0.09463528898858137</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1826867249398139</v>
+        <v>0.09275518561441966</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01885053401395128</v>
+        <v>0.01236480098636621</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1837865599335413</v>
+        <v>0.05875631766382106</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02867395091464296</v>
+        <v>0.0313310696240235</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1845941940666708</v>
+        <v>0.09588951783763951</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05763381737106141</v>
+        <v>0.06295957862512555</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1849646041137631</v>
+        <v>0.0933198712043433</v>
       </c>
       <c r="N178" t="n">
-        <v>0.08601217001878181</v>
+        <v>0.09396286661565334</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1843178564124908</v>
+        <v>0.0935833569145484</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.0200037711497433</v>
+        <v>0.0120431724299235</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1854129896674665</v>
+        <v>0.05875604913535704</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02908375575393689</v>
+        <v>0.03157644271079744</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1862277710053139</v>
+        <v>0.09673809764151244</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05755038312297736</v>
+        <v>0.06243810503889174</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1866014590174247</v>
+        <v>0.09414571077252334</v>
       </c>
       <c r="N179" t="n">
-        <v>0.08674580823284073</v>
+        <v>0.09388181325739064</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1859489878851677</v>
+        <v>0.09441152821467716</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02116080863578291</v>
+        <v>0.01173433812422262</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1870394194013916</v>
+        <v>0.05875578060689302</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02920165594747717</v>
+        <v>0.03121790728820821</v>
       </c>
       <c r="K180" t="n">
-        <v>0.187861347943957</v>
+        <v>0.09758667744538534</v>
       </c>
       <c r="L180" t="n">
-        <v>0.0580857756448841</v>
+        <v>0.06241282616008662</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1882383139210864</v>
+        <v>0.09497155034070337</v>
       </c>
       <c r="N180" t="n">
-        <v>0.08810085046375349</v>
+        <v>0.0933944599728444</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1875801193578446</v>
+        <v>0.09523969951480589</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01931634848554186</v>
+        <v>0.01143891016672631</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1886658491353167</v>
+        <v>0.058755512078429</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02922019770527257</v>
+        <v>0.03115629817417206</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1894949248826001</v>
+        <v>0.09843525724925827</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05892498297883544</v>
+        <v>0.06248528244423943</v>
       </c>
       <c r="M181" t="n">
-        <v>0.189875168824748</v>
+        <v>0.09579738990888341</v>
       </c>
       <c r="N181" t="n">
-        <v>0.08825500700586353</v>
+        <v>0.09320313782106582</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1892112508305215</v>
+        <v>0.09606787081493465</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01946509271249196</v>
+        <v>0.01115750065485674</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1902922788692419</v>
+        <v>0.05875524354996499</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02973192723733184</v>
+        <v>0.0313924501866054</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1911285018212432</v>
+        <v>0.09928383705313118</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05885299316688536</v>
+        <v>0.06255701434687944</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1915120237284096</v>
+        <v>0.09662322947706344</v>
       </c>
       <c r="N182" t="n">
-        <v>0.08938598815351428</v>
+        <v>0.09321017786110608</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1908423823031984</v>
+        <v>0.09689604211506339</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01960174333010501</v>
+        <v>0.01089072168604979</v>
       </c>
       <c r="G183" t="n">
-        <v>0.191918708603167</v>
+        <v>0.05875497502150098</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02992939075366378</v>
+        <v>0.03112719814342452</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1927620787598863</v>
+        <v>0.1001324168570041</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05965479425108763</v>
+        <v>0.06232956232353595</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1931488786320712</v>
+        <v>0.09744906904524346</v>
       </c>
       <c r="N183" t="n">
-        <v>0.08937150420104906</v>
+        <v>0.09361791115201623</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1924735137758753</v>
+        <v>0.09772421341519215</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01972100235185272</v>
+        <v>0.01063918535773069</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1935451383370922</v>
+        <v>0.05875470649303695</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03000513446427709</v>
+        <v>0.03116137686254582</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1943956556985294</v>
+        <v>0.100980996660877</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05961537427349622</v>
+        <v>0.06210446682973822</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1947857335357328</v>
+        <v>0.09827490861342349</v>
       </c>
       <c r="N184" t="n">
-        <v>0.09038926544281128</v>
+        <v>0.09322866875284741</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1941046452485522</v>
+        <v>0.09855238471532088</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02081757179120695</v>
+        <v>0.01040350376735726</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1951715680710173</v>
+        <v>0.05875443796457294</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03025170457918058</v>
+        <v>0.03109582116188557</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1960292326371725</v>
+        <v>0.1018295764647499</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06021972127616501</v>
+        <v>0.06208326832101563</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1964225884393944</v>
+        <v>0.09910074818160351</v>
       </c>
       <c r="N185" t="n">
-        <v>0.09061698217314429</v>
+        <v>0.09264478172265106</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1957357767212292</v>
+        <v>0.09938055601544964</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02188649702080315</v>
+        <v>0.01018428901235406</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1967979978049424</v>
+        <v>0.05875416943610891</v>
       </c>
       <c r="J186" t="n">
-        <v>0.030161647308383</v>
+        <v>0.03093136585936015</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1976628095758156</v>
+        <v>0.1026781562686228</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06055282330114783</v>
+        <v>0.06146750725289737</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1980594433430561</v>
+        <v>0.09992658774978355</v>
       </c>
       <c r="N186" t="n">
-        <v>0.09063236468639169</v>
+        <v>0.09296858112047796</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1973669081939061</v>
+        <v>0.1002087273155784</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01994338352064389</v>
+        <v>0.009982153190156967</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1984244275388676</v>
+        <v>0.0587539009076449</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03044238087394294</v>
+        <v>0.0309688457728859</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1992963865144587</v>
+        <v>0.1035267360724958</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06041895366749256</v>
+        <v>0.0619587240809128</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1996962982467177</v>
+        <v>0.1007524273179636</v>
       </c>
       <c r="N187" t="n">
-        <v>0.09067185858653859</v>
+        <v>0.09300239800537946</v>
       </c>
       <c r="O187" t="n">
-        <v>0.198998039666583</v>
+        <v>0.1010368986157071</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02199903767884655</v>
+        <v>0.009797708398194244</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2000508572727927</v>
+        <v>0.05875363237918087</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03032057839334441</v>
+        <v>0.03070909572037918</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2009299634531018</v>
+        <v>0.1043753158763687</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06107634584843546</v>
+        <v>0.06155845926059111</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2013331531503793</v>
+        <v>0.1015782668861436</v>
       </c>
       <c r="N188" t="n">
-        <v>0.09170580601268569</v>
+        <v>0.09234856343640674</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2006291711392599</v>
+        <v>0.1018650699158359</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02105343999810378</v>
+        <v>0.009631566733917817</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2016772870067179</v>
+        <v>0.05875336385071686</v>
       </c>
       <c r="J189" t="n">
-        <v>0.030397031514941</v>
+        <v>0.03085295051975624</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2025635403917449</v>
+        <v>0.1052238956802416</v>
       </c>
       <c r="L189" t="n">
-        <v>0.0611302402502629</v>
+        <v>0.06116825324746175</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2029700080540409</v>
+        <v>0.1024041064543236</v>
       </c>
       <c r="N189" t="n">
-        <v>0.09163451984958576</v>
+        <v>0.0926094084726109</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2022603026119368</v>
+        <v>0.1026932412159646</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02010657098110825</v>
+        <v>0.009482015754308681</v>
       </c>
       <c r="G190" t="n">
-        <v>0.203303716740643</v>
+        <v>0.05875309532225285</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03037171280777694</v>
+        <v>0.03080124498893354</v>
       </c>
       <c r="K190" t="n">
-        <v>0.204197117330388</v>
+        <v>0.1060724754841145</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06118058162693818</v>
+        <v>0.06168964649705383</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2046068629577026</v>
+        <v>0.1032299460225037</v>
       </c>
       <c r="N190" t="n">
-        <v>0.09195791806810594</v>
+        <v>0.09168726417304296</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2038914340846137</v>
+        <v>0.1035214125160934</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02115841113055262</v>
+        <v>0.00933565474259393</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2049301464745682</v>
+        <v>0.05875282679378883</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03074459484089638</v>
+        <v>0.03085481394582733</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2058306942690311</v>
+        <v>0.1069210552879874</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06142731473242469</v>
+        <v>0.06122417946489678</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2062437178613642</v>
+        <v>0.1040557855906837</v>
       </c>
       <c r="N191" t="n">
-        <v>0.09147591863911314</v>
+        <v>0.09228446159675441</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2055225655572906</v>
+        <v>0.1043495838162221</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02220894094912957</v>
+        <v>0.009190603684065865</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2065565762084933</v>
+        <v>0.05875255826532481</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03081565018334356</v>
+        <v>0.03051449220835396</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2074642712076742</v>
+        <v>0.1077696350918603</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06147038432068583</v>
+        <v>0.0613707194788744</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2078805727650258</v>
+        <v>0.1048816251588637</v>
       </c>
       <c r="N192" t="n">
-        <v>0.09228843953347438</v>
+        <v>0.09170153539020692</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2071536970299675</v>
+        <v>0.1051777551163509</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02025814093953176</v>
+        <v>0.009047299818756106</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2081830059424185</v>
+        <v>0.05875228973686079</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03088485140416272</v>
+        <v>0.03078111459442981</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2090978481463173</v>
+        <v>0.1086182148957333</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06170973514568501</v>
+        <v>0.06091986226361518</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2095174276686874</v>
+        <v>0.1057074647270438</v>
       </c>
       <c r="N193" t="n">
-        <v>0.0925953987220568</v>
+        <v>0.0917245196801908</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2087848285026444</v>
+        <v>0.1060059264164796</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02130599160445188</v>
+        <v>0.008906180386677259</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2098094356763436</v>
+        <v>0.05875202120839678</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03065217107239805</v>
+        <v>0.03065384527853059</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2107314250849605</v>
+        <v>0.1094667946996062</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06154531196138557</v>
+        <v>0.06147058819486531</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2111542825723491</v>
+        <v>0.1065333042952238</v>
       </c>
       <c r="N194" t="n">
-        <v>0.09289671417572715</v>
+        <v>0.09174990781725623</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2104159599753213</v>
+        <v>0.1068340977166083</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02135247344658257</v>
+        <v>0.008767682627848265</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2114358654102687</v>
+        <v>0.05875175267993277</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03071758175709373</v>
+        <v>0.03072781266211583</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2123650020236036</v>
+        <v>0.1103153745034791</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06207705952175099</v>
+        <v>0.06082284791043344</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2127911374760106</v>
+        <v>0.1073591438634038</v>
       </c>
       <c r="N195" t="n">
-        <v>0.09319230386535271</v>
+        <v>0.09147762510519758</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2120470914479982</v>
+        <v>0.1076622690167371</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02039756696861651</v>
+        <v>0.008632243782282271</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2130622951441939</v>
+        <v>0.05875148415146874</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03088105602729396</v>
+        <v>0.03070261240368788</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2139985789622466</v>
+        <v>0.111163954307352</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06190492258074456</v>
+        <v>0.06107659204812813</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2144279923796723</v>
+        <v>0.1081849834315839</v>
       </c>
       <c r="N196" t="n">
-        <v>0.0927820857618003</v>
+        <v>0.09150759684780924</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2136782229206751</v>
+        <v>0.1084904403168659</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02144125267324636</v>
+        <v>0.008500301090010029</v>
       </c>
       <c r="G197" t="n">
-        <v>0.214688724878119</v>
+        <v>0.05875121562300473</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03104256645204299</v>
+        <v>0.03047821775243116</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2156321559008897</v>
+        <v>0.1120125341112249</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06222884589232969</v>
+        <v>0.06123177124575804</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2160648472833339</v>
+        <v>0.1090108229997639</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09336597783593698</v>
+        <v>0.09143974834888557</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2153093543933521</v>
+        <v>0.1093186116169946</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02048351106316481</v>
+        <v>0.008372291791044525</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2163151546120442</v>
+        <v>0.05875094709454071</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03110208560038501</v>
+        <v>0.0305546019575301</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2172657328395328</v>
+        <v>0.1128611139150978</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06194877421046974</v>
+        <v>0.0608883361411317</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2177017021869955</v>
+        <v>0.1098366625679439</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09304389805862978</v>
+        <v>0.09107400491222084</v>
       </c>
       <c r="O198" t="n">
-        <v>0.216940485866029</v>
+        <v>0.1101467829171233</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02152432264106451</v>
+        <v>0.008248653125404709</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2179415843459693</v>
+        <v>0.05875067856607669</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03105958604136423</v>
+        <v>0.03063173826816915</v>
       </c>
       <c r="K199" t="n">
-        <v>0.218899309778176</v>
+        <v>0.1137096937189707</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06216465228912815</v>
+        <v>0.06064623737205788</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2193385570906571</v>
+        <v>0.1106625021361239</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09341576440074562</v>
+        <v>0.09131029184160944</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2185716173387059</v>
+        <v>0.1109749542172521</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02256366790963813</v>
+        <v>0.00812982233310449</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2195680140798945</v>
+        <v>0.05875041003761267</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03101504034402487</v>
+        <v>0.03050959993353274</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2205328867168191</v>
+        <v>0.1145582735228437</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06227642488226826</v>
+        <v>0.06120542557634506</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2209754119943187</v>
+        <v>0.111488341704304</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09328149483315168</v>
+        <v>0.09164853444084575</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2202027488113828</v>
+        <v>0.1118031255173808</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02160152737157835</v>
+        <v>0.00801623665417317</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2211944438138196</v>
+        <v>0.05875014150914865</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03136842107741108</v>
+        <v>0.03048816020280526</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2221664636554622</v>
+        <v>0.1154068533267166</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06258403674385349</v>
+        <v>0.0610658513918019</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2226122668979804</v>
+        <v>0.112314181272484</v>
       </c>
       <c r="N201" t="n">
-        <v>0.0938410073267148</v>
+        <v>0.091188658013724</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2218338802840597</v>
+        <v>0.1126312968175096</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02163788152957783</v>
+        <v>0.007908333328624423</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2228208735477448</v>
+        <v>0.05874987298068464</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03121970081056713</v>
+        <v>0.03046739232517118</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2238000405941053</v>
+        <v>0.1162554331305895</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06288743262784721</v>
+        <v>0.060727465456237</v>
       </c>
       <c r="M202" t="n">
-        <v>0.224249121801642</v>
+        <v>0.113140020840664</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09439421985230206</v>
+        <v>0.09083058786403869</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2234650117567366</v>
+        <v>0.1134594681176383</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02267271088632924</v>
+        <v>0.007806549596477204</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2244473032816699</v>
+        <v>0.05874960445222063</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03126885211253722</v>
+        <v>0.0304472695498149</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2254336175327484</v>
+        <v>0.1171040129344624</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06268655728821279</v>
+        <v>0.06109021840745901</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2258859767053036</v>
+        <v>0.113965860408844</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09394105038078054</v>
+        <v>0.09137424929558408</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2250961432294135</v>
+        <v>0.1142876394177671</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02270599594452524</v>
+        <v>0.007711322697746464</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2260737330155951</v>
+        <v>0.0587493359237566</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03131584755236554</v>
+        <v>0.03032776512592086</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2270671944713915</v>
+        <v>0.1179525927383353</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06258135547891364</v>
+        <v>0.0608540608832765</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2275228316089652</v>
+        <v>0.1147916999770241</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09408141688301708</v>
+        <v>0.09131956761215448</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2267272747020904</v>
+        <v>0.1151158107178958</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02273771720685851</v>
+        <v>0.007623089872459479</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2277001627495202</v>
+        <v>0.05874906739529259</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0312606596990963</v>
+        <v>0.03020885230267352</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2287007714100346</v>
+        <v>0.1188011725422082</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06297177195391312</v>
+        <v>0.0604189435214981</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2291596865126268</v>
+        <v>0.1156175395452041</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09421523732987885</v>
+        <v>0.0912664681175443</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2283584061747673</v>
+        <v>0.1159439820180246</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02276785517602172</v>
+        <v>0.007542288360630894</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2293265924834454</v>
+        <v>0.05874879886682857</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0314032611217737</v>
+        <v>0.03039050432925725</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2303343483486777</v>
+        <v>0.1196497523460812</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06295775146717461</v>
+        <v>0.06048481695993244</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2307965414162885</v>
+        <v>0.1164433791133841</v>
       </c>
       <c r="N206" t="n">
-        <v>0.0945424296922327</v>
+        <v>0.09081487611554789</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2299895376474442</v>
+        <v>0.1167721533181533</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02179639035470751</v>
+        <v>0.007469355402279665</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2309530222173705</v>
+        <v>0.05874853033836456</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03164362438944197</v>
+        <v>0.0302726944548565</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2319679252873208</v>
+        <v>0.1204983321499541</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06323923877266152</v>
+        <v>0.0604516318363881</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2324333963199501</v>
+        <v>0.1172692186815642</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09456291194094579</v>
+        <v>0.09136471690995962</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2316206691201211</v>
+        <v>0.1176003246182821</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02082330324560858</v>
+        <v>0.007404728237422137</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2325794519512956</v>
+        <v>0.05874826180990053</v>
       </c>
       <c r="J208" t="n">
-        <v>0.0315817220711453</v>
+        <v>0.03035539592865573</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2336015022259639</v>
+        <v>0.121346911953827</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06341617862433724</v>
+        <v>0.06071933878867367</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2340702512236117</v>
+        <v>0.1180950582497442</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09497660204688507</v>
+        <v>0.09081591580457371</v>
       </c>
       <c r="O208" t="n">
-        <v>0.233251800592798</v>
+        <v>0.1184284959184108</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02184857435141759</v>
+        <v>0.007348844106082886</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2342058816852208</v>
+        <v>0.05874799328143652</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03161752673592789</v>
+        <v>0.03043858199983934</v>
       </c>
       <c r="K209" t="n">
-        <v>0.235235079164607</v>
+        <v>0.1221954917576999</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06308851577616512</v>
+        <v>0.06068788845459785</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2357071061272733</v>
+        <v>0.1189208978179242</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09468341798091739</v>
+        <v>0.09126839810318466</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2348829320654749</v>
+        <v>0.1192566672185396</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02187218417482722</v>
+        <v>0.007302140248277883</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2358323114191459</v>
+        <v>0.0587477247529725</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03165101095283399</v>
+        <v>0.03032222591759176</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2368686561032501</v>
+        <v>0.1230440715615728</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06315619498210856</v>
+        <v>0.06045723147196919</v>
       </c>
       <c r="M210" t="n">
-        <v>0.237343961030935</v>
+        <v>0.1197467373861043</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09518327771391005</v>
+        <v>0.09062208910958669</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2365140635381519</v>
+        <v>0.1200848385186683</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02189411321853011</v>
+        <v>0.007265053904026077</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2374587411530711</v>
+        <v>0.05874745622450848</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03158214729090775</v>
+        <v>0.03030630093109743</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2385022330418932</v>
+        <v>0.1238926513654457</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06331916099613097</v>
+        <v>0.06072731847859636</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2389808159345966</v>
+        <v>0.1205725769542843</v>
       </c>
       <c r="N211" t="n">
-        <v>0.09457609921672983</v>
+        <v>0.09107691412757418</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2381451950108288</v>
+        <v>0.1209130098187971</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02191434198521896</v>
+        <v>0.007238022313345457</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2390851708869962</v>
+        <v>0.05874718769604446</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03181090831919341</v>
+        <v>0.03009078028954075</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2401358099805363</v>
+        <v>0.1247412311693187</v>
       </c>
       <c r="L212" t="n">
-        <v>0.0631773585721957</v>
+        <v>0.06069810011228793</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2406176708382582</v>
+        <v>0.1213984165224643</v>
       </c>
       <c r="N212" t="n">
-        <v>0.09546180046024388</v>
+        <v>0.09053279846094153</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2397763264835057</v>
+        <v>0.1217411811189258</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02193285097758641</v>
+        <v>0.00722148271625736</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2407116006209213</v>
+        <v>0.05874691916758044</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03183726660673517</v>
+        <v>0.03027563724210619</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2417693869191794</v>
+        <v>0.1255898109731916</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06323073246426619</v>
+        <v>0.06036952701085244</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2422545257419198</v>
+        <v>0.1222242560906443</v>
       </c>
       <c r="N213" t="n">
-        <v>0.09504029941531905</v>
+        <v>0.09088966741348298</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2414074579561826</v>
+        <v>0.1225693524190545</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02294962069832516</v>
+        <v>0.007215872352779339</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2423380303548465</v>
+        <v>0.05874665063911643</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03186119472257726</v>
+        <v>0.03006084503797816</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2434029638578225</v>
+        <v>0.1264383907770645</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06357922742630573</v>
+        <v>0.06044154981209865</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2438913806455814</v>
+        <v>0.1230500956588244</v>
       </c>
       <c r="N214" t="n">
-        <v>0.09491151405282244</v>
+        <v>0.09094744628899298</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2430385894288595</v>
+        <v>0.1233975237191833</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02196463165012782</v>
+        <v>0.007215872352779339</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2439644600887717</v>
+        <v>0.05874665063911643</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03168266523576385</v>
+        <v>0.0303463769263411</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2450365407964657</v>
+        <v>0.1272869705809374</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06372278821227778</v>
+        <v>0.06021411915383507</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2455282355492431</v>
+        <v>0.1238759352270044</v>
       </c>
       <c r="N215" t="n">
-        <v>0.09507536234362118</v>
+        <v>0.09060606039126584</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2446697209015364</v>
+        <v>0.124225695019312</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02197786433568714</v>
+        <v>0.006972364772069119</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2455908898226968</v>
+        <v>0.05872589811229081</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03170165071533917</v>
+        <v>0.03033220615637941</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2466701177351088</v>
+        <v>0.1281355503848103</v>
       </c>
       <c r="L216" t="n">
-        <v>0.0635613595761457</v>
+        <v>0.06058718567387036</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2471650904529047</v>
+        <v>0.1247017747951844</v>
       </c>
       <c r="N216" t="n">
-        <v>0.09573176225858204</v>
+        <v>0.09076543502409595</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2463008523742133</v>
+        <v>0.1250538663194408</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02098929925769571</v>
+        <v>0.006733805774563492</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2472173195566219</v>
+        <v>0.05870514558546518</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03191812373034741</v>
+        <v>0.03031830597727754</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2483036946737519</v>
+        <v>0.1289841301886832</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06349488627187289</v>
+        <v>0.06006070001001307</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2488019453565663</v>
+        <v>0.1255276143633645</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09498063176857219</v>
+        <v>0.09032549549127761</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2479319838468902</v>
+        <v>0.1258820376195695</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02199891691884625</v>
+        <v>0.00650064739076394</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2488437492905471</v>
+        <v>0.05868439305863955</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03163205684983282</v>
+        <v>0.03000464963821993</v>
       </c>
       <c r="K218" t="n">
-        <v>0.249937271612395</v>
+        <v>0.1298327099925562</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06342331305342272</v>
+        <v>0.06003461280007194</v>
       </c>
       <c r="M218" t="n">
-        <v>0.250438800260228</v>
+        <v>0.1263534539315445</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09572188884445854</v>
+        <v>0.09008616709660505</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2495631153195672</v>
+        <v>0.1267102089196983</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02300669782183142</v>
+        <v>0.006273341651171917</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2504701790244722</v>
+        <v>0.05866364053181392</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03174342264283954</v>
+        <v>0.03019121038839098</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2515708485510381</v>
+        <v>0.1306812897964291</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06384658467475859</v>
+        <v>0.06020887468185543</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2520756551638895</v>
+        <v>0.1271792934997245</v>
       </c>
       <c r="N219" t="n">
-        <v>0.09555545145710814</v>
+        <v>0.09054737514387279</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2511942467922441</v>
+        <v>0.127538380219827</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02301262246934386</v>
+        <v>0.006052340586288889</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2520966087583973</v>
+        <v>0.05864288800498829</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03185219367841184</v>
+        <v>0.03027796147697513</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2532044254896812</v>
+        <v>0.131529869600302</v>
       </c>
       <c r="L220" t="n">
-        <v>0.0636646458898438</v>
+        <v>0.06008343629317225</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2537125100675512</v>
+        <v>0.1280051330679045</v>
       </c>
       <c r="N220" t="n">
-        <v>0.09508123757738801</v>
+        <v>0.09020904493687532</v>
       </c>
       <c r="O220" t="n">
-        <v>0.252825378264921</v>
+        <v>0.1283665515199558</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02301667136407628</v>
+        <v>0.00583809622661631</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2537230384923225</v>
+        <v>0.05862213547816266</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03165834252559391</v>
+        <v>0.03026487615315683</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2548380024283243</v>
+        <v>0.1323784494041749</v>
       </c>
       <c r="L221" t="n">
-        <v>0.0633774414526419</v>
+        <v>0.05995824827183099</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2553493649712128</v>
+        <v>0.1288309726360846</v>
       </c>
       <c r="N221" t="n">
-        <v>0.09529916517616521</v>
+        <v>0.09047110177940648</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2544565097375979</v>
+        <v>0.1291947228200845</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02201882500872133</v>
+        <v>0.005631060602655662</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2553494682262477</v>
+        <v>0.05860138295133704</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03166184175342994</v>
+        <v>0.03015192766612049</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2564715793669674</v>
+        <v>0.1332270292080478</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06388491611711614</v>
+        <v>0.06003326125564029</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2569862198748744</v>
+        <v>0.1296568122042646</v>
       </c>
       <c r="N222" t="n">
-        <v>0.09550915222430667</v>
+        <v>0.09063347097526109</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2560876412102748</v>
+        <v>0.1300228941202133</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02101495421409904</v>
+        <v>0.005431685744908397</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2569758979601728</v>
+        <v>0.05858063042451141</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03186110996251086</v>
+        <v>0.02993908926505054</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2581051563056105</v>
+        <v>0.1340756090119207</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06348597594501784</v>
+        <v>0.06010842588240872</v>
       </c>
       <c r="M223" t="n">
-        <v>0.258623074778536</v>
+        <v>0.1304826517724446</v>
       </c>
       <c r="N223" t="n">
-        <v>0.09550305510769058</v>
+        <v>0.09009607782823331</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2577187726829517</v>
+        <v>0.130851065420342</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02196415041817424</v>
+        <v>0.005240423683875978</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2586023276940979</v>
+        <v>0.05855987789768578</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03160420907896218</v>
+        <v>0.0301263341991314</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2597387332442536</v>
+        <v>0.1349241888157937</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06348485134177351</v>
+        <v>0.06028369278994489</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2602599296821976</v>
+        <v>0.1313084913406247</v>
       </c>
       <c r="N224" t="n">
-        <v>0.0951179806469708</v>
+        <v>0.08985884764211738</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2593499041556286</v>
+        <v>0.1316792367204708</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02186073031091621</v>
+        <v>0.00505772645005987</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2602287574280231</v>
+        <v>0.05853912537086015</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03147210910026624</v>
+        <v>0.0302136357175475</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2613723101828967</v>
+        <v>0.1357727686196666</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06303119920803268</v>
+        <v>0.05995901261605746</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2618967845858592</v>
+        <v>0.1321343309088047</v>
       </c>
       <c r="N225" t="n">
-        <v>0.09530922830959637</v>
+        <v>0.09032170572070791</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2609810356283055</v>
+        <v>0.1325074080205995</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02071077204886228</v>
+        <v>0.004884046073961541</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2618551871619482</v>
+        <v>0.05851837284403452</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03127336144536715</v>
+        <v>0.03010096706948329</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2630058871215398</v>
+        <v>0.1366213484235395</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06314224213011982</v>
+        <v>0.059834335998555</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2635336394895209</v>
+        <v>0.1329601704769847</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09440237013495073</v>
+        <v>0.08988457736779903</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2626121671009825</v>
+        <v>0.1333355793207283</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02252035378854981</v>
+        <v>0.004719834586082453</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2634816168958734</v>
+        <v>0.0584976203172089</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03131651753320909</v>
+        <v>0.03008830150412317</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2646394640601828</v>
+        <v>0.1374699282274124</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06263520269435949</v>
+        <v>0.06020961357524615</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2651704943931825</v>
+        <v>0.1337860100451647</v>
       </c>
       <c r="N227" t="n">
-        <v>0.09352297816241734</v>
+        <v>0.08994738788718526</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2642432985736594</v>
+        <v>0.134163750620857</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02229555368651611</v>
+        <v>0.004565544016924064</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2651080466297985</v>
+        <v>0.05847686779038327</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03081012878273617</v>
+        <v>0.03017561227065162</v>
       </c>
       <c r="K228" t="n">
-        <v>0.266273040998826</v>
+        <v>0.1383185080312853</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06212730348707624</v>
+        <v>0.05998479598393952</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2668073492968441</v>
+        <v>0.1346118496133448</v>
       </c>
       <c r="N228" t="n">
-        <v>0.0924966244313794</v>
+        <v>0.0900100625826607</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2658744300463363</v>
+        <v>0.1349919219209857</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02104244989929855</v>
+        <v>0.004421626396987843</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2667344763637237</v>
+        <v>0.05845611526355764</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03056274661289257</v>
+        <v>0.03006287261825301</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2679066179374691</v>
+        <v>0.1391670878351582</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06113576709459465</v>
+        <v>0.06025983386244374</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2684442042005057</v>
+        <v>0.1354376891815248</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09144888098122039</v>
+        <v>0.08987252675801999</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2675055615190132</v>
+        <v>0.1358200932211145</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02176712058343449</v>
+        <v>0.004288533756775258</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2683609060976488</v>
+        <v>0.05843536273673201</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03018292244262241</v>
+        <v>0.02985005579611182</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2695401948761122</v>
+        <v>0.1400156676390311</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06027781610323915</v>
+        <v>0.06013467784856735</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2700810591041674</v>
+        <v>0.1362635287497048</v>
       </c>
       <c r="N230" t="n">
-        <v>0.09020531985132368</v>
+        <v>0.08973470571705722</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2691366929916901</v>
+        <v>0.1366482645212433</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02147564389546123</v>
+        <v>0.004166718126787768</v>
       </c>
       <c r="G231" t="n">
-        <v>0.269987335831574</v>
+        <v>0.05841461020990638</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02987920769086982</v>
+        <v>0.0299371350534124</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2711737718147553</v>
+        <v>0.1408642474429041</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05977067309933443</v>
+        <v>0.06010927858011902</v>
       </c>
       <c r="M231" t="n">
-        <v>0.271717914007829</v>
+        <v>0.1370893683178849</v>
       </c>
       <c r="N231" t="n">
-        <v>0.08939151308107246</v>
+        <v>0.09019652476356682</v>
       </c>
       <c r="O231" t="n">
-        <v>0.270767824464367</v>
+        <v>0.137476435821372</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02017409799191616</v>
+        <v>0.004056631537526827</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2716137655654991</v>
+        <v>0.05839385768308075</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02946015377657897</v>
+        <v>0.03012408363933927</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2728073487533984</v>
+        <v>0.141712827246777</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05893156066920494</v>
+        <v>0.06018367064458321</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2733547689114906</v>
+        <v>0.1379152078860649</v>
       </c>
       <c r="N232" t="n">
-        <v>0.08823303270985028</v>
+        <v>0.09005799743784182</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2723989559370439</v>
+        <v>0.1383046071215007</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02086856102933658</v>
+        <v>0.003958726019493916</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2732401952994243</v>
+        <v>0.05837310515625513</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02883431211869399</v>
+        <v>0.02981094192884023</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2744409256920415</v>
+        <v>0.1425614070506499</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05817770139917516</v>
+        <v>0.06025822834798106</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2749916238151522</v>
+        <v>0.1387410474542449</v>
       </c>
       <c r="N233" t="n">
-        <v>0.08635545077704032</v>
+        <v>0.090019684737081</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2740300874097208</v>
+        <v>0.1391327784216295</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01956511116425986</v>
+        <v>0.00387345360319049</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2748666250333494</v>
+        <v>0.0583523526294295</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02841023413615903</v>
+        <v>0.03009790107657288</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2760745026306846</v>
+        <v>0.1434099868545228</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05672631787556975</v>
+        <v>0.06023300671700615</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2766284787188139</v>
+        <v>0.139566887022425</v>
       </c>
       <c r="N234" t="n">
-        <v>0.08498433932202604</v>
+        <v>0.08998170444760206</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2756612188823978</v>
+        <v>0.1399609497217582</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01926982655322334</v>
+        <v>0.003801266319118007</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2764930547672745</v>
+        <v>0.05833160010260387</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02809647124791823</v>
+        <v>0.03008497699775808</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2777080795693277</v>
+        <v>0.1442585666583957</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05649463268471319</v>
+        <v>0.06010801003535982</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2782653336224755</v>
+        <v>0.140392726590605</v>
       </c>
       <c r="N235" t="n">
-        <v>0.08384527038419087</v>
+        <v>0.09034406305161835</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2772923503550747</v>
+        <v>0.140789121021887</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01898878535276436</v>
+        <v>0.003742616197777944</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2781194845011997</v>
+        <v>0.05831084757577824</v>
       </c>
       <c r="J236" t="n">
-        <v>0.0277015748729157</v>
+        <v>0.03007217201385894</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2793416565079708</v>
+        <v>0.1451071464622686</v>
       </c>
       <c r="L236" t="n">
-        <v>0.05569986841293006</v>
+        <v>0.05998324258674348</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2799021885261371</v>
+        <v>0.141218566158785</v>
       </c>
       <c r="N236" t="n">
-        <v>0.08346381600291813</v>
+        <v>0.09020676703134267</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2789234818277516</v>
+        <v>0.1416172923220157</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01972806571942027</v>
+        <v>0.003697955269671753</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2797459142351248</v>
+        <v>0.05829009504895261</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02723409643009564</v>
+        <v>0.02985948844633853</v>
       </c>
       <c r="K237" t="n">
-        <v>0.280975233446614</v>
+        <v>0.1459557262661416</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05445924764654483</v>
+        <v>0.05975870865485847</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2815390434297987</v>
+        <v>0.1420444057269651</v>
       </c>
       <c r="N237" t="n">
-        <v>0.08166554821759114</v>
+        <v>0.08956982286898807</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2805546133004285</v>
+        <v>0.1424454636221445</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01848692988140068</v>
+        <v>0.003667735565300909</v>
       </c>
       <c r="G238" t="n">
-        <v>0.28137234396905</v>
+        <v>0.05826934252212699</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02699613818180559</v>
+        <v>0.02984692861665993</v>
       </c>
       <c r="K238" t="n">
-        <v>0.282608810385257</v>
+        <v>0.1468043060700145</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0536794522292203</v>
+        <v>0.06003441252340622</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2831758983334604</v>
+        <v>0.1428702452951451</v>
       </c>
       <c r="N238" t="n">
-        <v>0.08095377017636479</v>
+        <v>0.08933323704676749</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2821857447731054</v>
+        <v>0.1432736349222732</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01924648751129553</v>
+        <v>0.003652409115166864</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2829987737029751</v>
+        <v>0.05824858999530136</v>
       </c>
       <c r="J239" t="n">
-        <v>0.0266609521841995</v>
+        <v>0.03003449484628626</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2842423873239001</v>
+        <v>0.1476528858738874</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05340721727228556</v>
+        <v>0.05951035847608804</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2848127532371219</v>
+        <v>0.1436960848633251</v>
       </c>
       <c r="N239" t="n">
-        <v>0.07964828229752385</v>
+        <v>0.08929701604689394</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2838168762457823</v>
+        <v>0.144101806222402</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01700513383485035</v>
+        <v>0.003650582158556778</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2846252034369002</v>
+        <v>0.05822783746847572</v>
       </c>
       <c r="J240" t="n">
-        <v>0.0262244918860542</v>
+        <v>0.02982218945668057</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2858759642625432</v>
+        <v>0.1485014656777603</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05283242305206914</v>
+        <v>0.06008655079660527</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2864496081407836</v>
+        <v>0.1445219244315051</v>
       </c>
       <c r="N240" t="n">
-        <v>0.07853897578505575</v>
+        <v>0.08936116635158048</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2854480077184592</v>
+        <v>0.1449299775225307</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01876285445268689</v>
+        <v>0.003651631978686252</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2862516331708254</v>
+        <v>0.05820708494165009</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02608673702874112</v>
+        <v>0.030010014769306</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2875095412011863</v>
+        <v>0.1493500454816332</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05205502876762538</v>
+        <v>0.05996299376865941</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2880864630444452</v>
+        <v>0.1453477639996852</v>
       </c>
       <c r="N241" t="n">
-        <v>0.07822579005785119</v>
+        <v>0.0894256944430401</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2870791391911361</v>
+        <v>0.1457581488226594</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01851963496542691</v>
+        <v>0.003654164814842445</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2878780629047505</v>
+        <v>0.05818633241482446</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02564766735363162</v>
+        <v>0.02999797310562562</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2891431181398295</v>
+        <v>0.1501986252855061</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05137499361800865</v>
+        <v>0.05953969167595174</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2897233179481068</v>
+        <v>0.1461736035678652</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0764086645348005</v>
+        <v>0.0900906068034858</v>
       </c>
       <c r="O242" t="n">
-        <v>0.288710270663813</v>
+        <v>0.1465863201227882</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0172754609736922</v>
+        <v>0.003658632697526823</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2895044926386757</v>
+        <v>0.05816557988799884</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02520726260209712</v>
+        <v>0.02998606678710251</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2907766950784726</v>
+        <v>0.151047205089379</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05039227680227321</v>
+        <v>0.0595166488021836</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2913601728517684</v>
+        <v>0.1469994431360452</v>
       </c>
       <c r="N243" t="n">
-        <v>0.07588753863479403</v>
+        <v>0.0891559099151305</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2903414021364899</v>
+        <v>0.147414491422917</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01803031807810451</v>
+        <v>0.003665487657240833</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2911309223726009</v>
+        <v>0.05814482736117321</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02496550251550904</v>
+        <v>0.02977429813519977</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2924102720171157</v>
+        <v>0.151895784893252</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04970683751947336</v>
+        <v>0.05959386943105646</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2929970277554301</v>
+        <v>0.1478252827042252</v>
       </c>
       <c r="N244" t="n">
-        <v>0.07476235177672214</v>
+        <v>0.08942161026018725</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2919725336091668</v>
+        <v>0.1482426627230457</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01778419187928559</v>
+        <v>0.00367518172448595</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2927573521065259</v>
+        <v>0.05812407483434758</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02462236683523879</v>
+        <v>0.02966266947138052</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2940438489557588</v>
+        <v>0.1527443646971249</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04901863496866352</v>
+        <v>0.0596713578462717</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2946338826590917</v>
+        <v>0.1486511222724053</v>
       </c>
       <c r="N245" t="n">
-        <v>0.07383304337947538</v>
+        <v>0.08998771432086911</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2936036650818437</v>
+        <v>0.1490708340231744</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01653706797785723</v>
+        <v>0.003688166929763641</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2943837818404511</v>
+        <v>0.05810332230752195</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02417783530265774</v>
+        <v>0.02995118311710777</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2956774258944019</v>
+        <v>0.1535929445009978</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04882762834889792</v>
+        <v>0.05934911833153056</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2962707375627533</v>
+        <v>0.1494769618405853</v>
       </c>
       <c r="N246" t="n">
-        <v>0.07319955286194407</v>
+        <v>0.08995422857938895</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2952347965545206</v>
+        <v>0.1498990053233032</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01728893197444117</v>
+        <v>0.003704895303575359</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2960102115743762</v>
+        <v>0.05808256978069632</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02373188765913734</v>
+        <v>0.02983984139384468</v>
       </c>
       <c r="K247" t="n">
-        <v>0.297311002833045</v>
+        <v>0.1544415243048707</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04783377685923099</v>
+        <v>0.05992715517053449</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2979075924664149</v>
+        <v>0.1503028014087653</v>
       </c>
       <c r="N247" t="n">
-        <v>0.07156181964301861</v>
+        <v>0.08972115951795989</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2968659280271975</v>
+        <v>0.1507271766234319</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01603976946965919</v>
+        <v>0.003725818876422586</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2976366413083014</v>
+        <v>0.0580618172538707</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02358450364604896</v>
+        <v>0.02982864662305434</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2989445797716881</v>
+        <v>0.1552901041087436</v>
       </c>
       <c r="L248" t="n">
-        <v>0.0472370396987169</v>
+        <v>0.05950547264698491</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2995444473700766</v>
+        <v>0.1511286409769454</v>
       </c>
       <c r="N248" t="n">
-        <v>0.07081978314158938</v>
+        <v>0.08938851361879491</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2984970594998744</v>
+        <v>0.1515553479235607</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01478956606413304</v>
+        <v>0.003751389678806755</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2992630710422265</v>
+        <v>0.05804106472704507</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02323566300476401</v>
+        <v>0.02961760112619981</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3005781567103312</v>
+        <v>0.1561386839126166</v>
       </c>
       <c r="L249" t="n">
-        <v>0.0462373760664101</v>
+        <v>0.05938407504458315</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3011813022737381</v>
+        <v>0.1519544805451254</v>
       </c>
       <c r="N249" t="n">
-        <v>0.0694733827765468</v>
+        <v>0.08925629736410695</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3001281909725513</v>
+        <v>0.1523835192236894</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.0155383073584845</v>
+        <v>0.00378205974122936</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3008895007761517</v>
+        <v>0.05802031220021944</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02288534547665391</v>
+        <v>0.02970670722474418</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3022117336489743</v>
+        <v>0.1569872637164895</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04563474516136484</v>
+        <v>0.05986296664703053</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3028181571773998</v>
+        <v>0.1527803201133054</v>
       </c>
       <c r="N250" t="n">
-        <v>0.06842255796678126</v>
+        <v>0.08932451723610907</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3017593224452282</v>
+        <v>0.1532116905238182</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01628597895333533</v>
+        <v>0.003818281094191849</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3025159305100768</v>
+        <v>0.05799955967339381</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02253353080309006</v>
+        <v>0.02979596724015057</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3038453105876174</v>
+        <v>0.1578358435203624</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04492910618263551</v>
+        <v>0.05974215173802855</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3044550120810614</v>
+        <v>0.1536061596814855</v>
       </c>
       <c r="N251" t="n">
-        <v>0.06736724813118328</v>
+        <v>0.08939317971701416</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3033904539179051</v>
+        <v>0.1540398618239469</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01403256644930728</v>
+        <v>0.003860505768195688</v>
       </c>
       <c r="G252" t="n">
-        <v>0.304142360244002</v>
+        <v>0.05797880714656818</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02198019872544386</v>
+        <v>0.02988538349388206</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3054788875262605</v>
+        <v>0.1586844233242353</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04422041832927642</v>
+        <v>0.05922163460127844</v>
       </c>
       <c r="M252" t="n">
-        <v>0.306091866984723</v>
+        <v>0.1544319992496655</v>
       </c>
       <c r="N252" t="n">
-        <v>0.06640739268864304</v>
+        <v>0.0892622912890354</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3050215853905821</v>
+        <v>0.1548680331240757</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01577805544702212</v>
+        <v>0.003909185793742352</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3057687899779271</v>
+        <v>0.05795805461974255</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02172532898508669</v>
+        <v>0.02967495830740172</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3071124644649036</v>
+        <v>0.1595330031281082</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04380864080034186</v>
+        <v>0.05970141952048166</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3077287218883846</v>
+        <v>0.1552578388178455</v>
       </c>
       <c r="N253" t="n">
-        <v>0.06554293105805098</v>
+        <v>0.08903185843438571</v>
       </c>
       <c r="O253" t="n">
-        <v>0.306652716863259</v>
+        <v>0.1556962044242044</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01552243154710162</v>
+        <v>0.003964773201333281</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3073952197118523</v>
+        <v>0.05793730209291693</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02126890132339002</v>
+        <v>0.02976469400217266</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3087460414035467</v>
+        <v>0.1603815829319811</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04269373279488614</v>
+        <v>0.05948151077933955</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3093655767920462</v>
+        <v>0.1560836783860255</v>
       </c>
       <c r="N254" t="n">
-        <v>0.06407380265829776</v>
+        <v>0.08880188763527791</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3082838483359359</v>
+        <v>0.1565243757243332</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01326568035016754</v>
+        <v>0.00402772002146997</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3090216494457774</v>
+        <v>0.0579165495660913</v>
       </c>
       <c r="J255" t="n">
-        <v>0.0210108954817252</v>
+        <v>0.02975459289965797</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3103796183421898</v>
+        <v>0.1612301627358541</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04197565351196364</v>
+        <v>0.0595619126615535</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3110024316957079</v>
+        <v>0.1569095179542056</v>
       </c>
       <c r="N255" t="n">
-        <v>0.06309994690827353</v>
+        <v>0.0891723853739253</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3099149798086128</v>
+        <v>0.1573525470244619</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01500778745684166</v>
+        <v>0.004098478284653852</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3106480791797026</v>
+        <v>0.05789579703926567</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02055129120146366</v>
+        <v>0.02954465732132074</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3120131952808329</v>
+        <v>0.162078742539727</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04175436215062869</v>
+        <v>0.05944262945082485</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3126392865993695</v>
+        <v>0.1577353575223856</v>
       </c>
       <c r="N256" t="n">
-        <v>0.06252130322686866</v>
+        <v>0.08914335813254071</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3115461112812897</v>
+        <v>0.1581807183245907</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01474873846774571</v>
+        <v>0.004177500021386407</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3122745089136277</v>
+        <v>0.05787504451244004</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02029006822397679</v>
+        <v>0.02973488958862402</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3136467722194761</v>
+        <v>0.1629273223435999</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04072981790993552</v>
+        <v>0.05962366543085504</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3142761415030311</v>
+        <v>0.1585611970905656</v>
       </c>
       <c r="N257" t="n">
-        <v>0.0614378110329738</v>
+        <v>0.08911481239333713</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3131772427539666</v>
+        <v>0.1590088896247194</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01348851898350147</v>
+        <v>0.004265237262169097</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3139009386475529</v>
+        <v>0.05785429198561441</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02002720629063598</v>
+        <v>0.02972529202303098</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3152803491581191</v>
+        <v>0.1637759021474728</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03990197998893852</v>
+        <v>0.0597050248853454</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3159129964066927</v>
+        <v>0.1593870366587457</v>
       </c>
       <c r="N258" t="n">
-        <v>0.059649409745479</v>
+        <v>0.0891867546385276</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3148083742266435</v>
+        <v>0.1598370609248482</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01322711460473072</v>
+        <v>0.004362142037503382</v>
       </c>
       <c r="G259" t="n">
-        <v>0.315527368381478</v>
+        <v>0.05783353945878879</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01966268514281268</v>
+        <v>0.02951586694600468</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3169139260967622</v>
+        <v>0.1646244819513457</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03917080758669206</v>
+        <v>0.05948671209799725</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3175498513103543</v>
+        <v>0.1602128762269257</v>
       </c>
       <c r="N259" t="n">
-        <v>0.05885603878327506</v>
+        <v>0.08885919135032522</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3164395056993204</v>
+        <v>0.1606652322249769</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0139645109320552</v>
+        <v>0.004468666377890729</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3171537981154032</v>
+        <v>0.05781278693196316</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01939648452187827</v>
+        <v>0.02970661667900817</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3185475030354054</v>
+        <v>0.1654730617552186</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03833625990225037</v>
+        <v>0.05926873135251204</v>
       </c>
       <c r="M260" t="n">
-        <v>0.319186706214016</v>
+        <v>0.1610387157951057</v>
       </c>
       <c r="N260" t="n">
-        <v>0.0582576375652521</v>
+        <v>0.08953212901094276</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3180706371719974</v>
+        <v>0.1614934035251057</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.0137006935660967</v>
+        <v>0.004585262313832598</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3187802278493283</v>
+        <v>0.05779203440513753</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01892858416920416</v>
+        <v>0.02969754354350458</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3201810799740484</v>
+        <v>0.1663216415590915</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03749829613466782</v>
+        <v>0.05945108693259113</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3208235611176776</v>
+        <v>0.1618645553632858</v>
       </c>
       <c r="N261" t="n">
-        <v>0.0567541455103005</v>
+        <v>0.08920557410259339</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3197017686446743</v>
+        <v>0.1623215748252344</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01143564810747695</v>
+        <v>0.004712381875830458</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3204066575832534</v>
+        <v>0.0577712818783119</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01835896382616174</v>
+        <v>0.029788649860957</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3218146569126916</v>
+        <v>0.1671702213629645</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03725687548299869</v>
+        <v>0.05903378312193588</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3224604160213392</v>
+        <v>0.1626903949314658</v>
       </c>
       <c r="N262" t="n">
-        <v>0.0555455020373109</v>
+        <v>0.08897953310749007</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3213329001173512</v>
+        <v>0.1631497461253631</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01316936015681774</v>
+        <v>0.004850477094385769</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3220330873171786</v>
+        <v>0.05775052935148627</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01798760323412243</v>
+        <v>0.0296799379528285</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3234482338513346</v>
+        <v>0.1680188011668374</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03661195714629742</v>
+        <v>0.05911682420424769</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3240972709250008</v>
+        <v>0.1635162344996458</v>
       </c>
       <c r="N263" t="n">
-        <v>0.05493164656517352</v>
+        <v>0.08865401250784577</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3229640315900281</v>
+        <v>0.1639779174254919</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01290181531474082</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3236595170511037</v>
+        <v>0.05772977682466065</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01771448213445763</v>
+        <v>0.02957141014058219</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3250818107899778</v>
+        <v>0.1688673809707103</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0356635003236182</v>
+        <v>0.05950021446322787</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3257341258286625</v>
+        <v>0.1643420740678259</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05311251851277887</v>
+        <v>0.08932901878587357</v>
       </c>
       <c r="O264" t="n">
-        <v>0.324595163062705</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1648060887256206</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.0577166189299238</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005293844114040741</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05771688745838782</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005584793232590715</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05771715598685183</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005872757102523295</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05771742451531586</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006157645470674253</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05771769304377987</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006439368083917082</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05771796157224388</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006717834689112662</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.0577182301007079</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.006992955033133769</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05771849862917192</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007264638862817321</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05771876715763594</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007532795925036258</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05771903568609995</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007797335966651456</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05771930421456397</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008058168734535041</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05771957274302799</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008315203975525202</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05771984127149201</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008568351436494252</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05772010979995602</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008817520864303069</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05772037832842004</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009062622005823091</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05772064685688406</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009303564607893874</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05772091538534808</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009540258417387044</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05772118391381209</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.009772613181163486</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.0577214524422761</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01000053864609389</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05772172097074013</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01022394455901931</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05772198949920414</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01044274066681061</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05772225802766816</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.0106568367163287</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05772252655613217</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01086614245444344</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.0577227950845962</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01107056762799748</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05772306361306021</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01127039051751239</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05772333214152423</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01146773207175755</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05772360066998825</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01166287057125366</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05772386919845227</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01185571576284463</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05772413772691629</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01204617739339987</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.0577244062553803</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01223416520978024</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05772467478384431</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01241958895885466</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05772494331230834</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01260235838746784</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05772521184077235</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01278238324248881</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05772548036923637</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01295957327077842</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05772574889770038</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01313383821920509</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05772601742616441</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01330508783461452</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05772628595462842</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01347323186387523</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05772655448309244</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.0136381800538481</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05772682301155645</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01379984215140097</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05772709154002048</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01395812790338064</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05772736006848449</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01411294705665511</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05772762859694851</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01426420935808526</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05772789712541252</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01441182455453829</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05772816565387655</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01455570239286224</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05772843418234056</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01469575261992449</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05772870271080457</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01483188498258591</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05772897123926859</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01496400922771306</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05772923976773262</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01509203510215529</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05772950829619663</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01521587235277934</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05772977682466065</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01521587235277933</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.0577166189299238</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01531379574183664</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05773790851367747</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.0154081453414132</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05775919809743112</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01549887711427577</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05778048768118479</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.0155859470231909</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05780177726493845</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01566931103092531</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05782306684869212</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01574892510024557</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05784435643244577</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01582474519391841</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05786564601619944</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.0158967272747104</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.0578869355999531</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01596482730538827</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05790822518370677</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01602900124871859</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05792951476746042</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01608920506746808</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05795080435121409</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01614539472440331</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05797209393496775</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01619752618229098</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05799338351872142</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01624555540389772</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05801467310247508</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01628943835199019</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05803596268622874</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01632913098933501</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.0580572522699824</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01636458927869887</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05807854185373607</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01639576918284838</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05809983143748973</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01642262666455021</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05812112102124339</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01644511768657098</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05814241060499705</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01646319821167737</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05816370018875072</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.016476824202636</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05818498977250438</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01648595162221354</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05820627935625805</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01649053643317661</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05822756894001171</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01649071441699475</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05824885852376537</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01648752044865173</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05827014810751903</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01648109030961704</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.0582914376912727</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01647137996265734</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05831272727502636</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01645834537053927</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05833401685878002</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.0164419424960295</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05835530644253368</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01642212730189465</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05837659602628735</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01639885575090139</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05839788561004101</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01637208380581634</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05841917519379467</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01634176742940618</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05844046477754833</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01630786258443753</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.058461754361302</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01627032523367706</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05848304394505566</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01622911133989139</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05850433352880933</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01618417686584719</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05852562311256299</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01613547777431109</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05854691269631665</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01608297002804977</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05856820228007031</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01602660958982983</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05858949186382398</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01596635242241798</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05861078144757764</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01590215448858078</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.0586320710313313</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01583397175108497</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05865336061508496</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01576176017269711</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05867465019883863</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01568547571618394</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05869593978259229</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01560507434431202</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05871722936634596</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01552051201984803</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05873851895009962</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01543174470555867</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05875980853385328</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01543174470555867</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05875980853385328</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01581150756680814</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06034215303509088</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01618393947635811</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06192449753632848</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01654886562441896</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06350684203756607</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01690611120120111</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06508918653880368</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01725550139691497</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06667153104004128</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01759686140177095</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06825387554127889</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01793001640597946</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06983622004251648</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.0182547915997509</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07141856454375407</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.01857101217329569</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07300090904499168</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.01887850331682424</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07458325354622929</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.01917709022054694</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07616559804746688</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.01946659807467421</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07774794254870447</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.01974685206941647</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07933028704994208</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02001767739498412</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08091263155117968</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02027889924158755</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08249497605241729</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02053034279943721</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08407732055365488</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02077183325874348</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08565966505489248</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02100319580971675</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08724200955613008</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02122425564256749</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08882435405736769</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02143483794750605</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09040669855860528</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02163476791474287</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09198904305984289</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02182387073448833</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09357138756108048</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02200197159695286</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09515373206231809</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02216889569234689</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09673607656355569</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02232446821088078</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09831842106479327</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02246851434276498</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09990076556603089</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02260085927820989</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1014831100672685</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.0227213282074259</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1030654545685061</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02282974632062345</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1046477990697437</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02292593880801291</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1062301435709813</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.0230097308598047</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1078124880722189</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02308094766620925</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1093948325734565</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02313941441743696</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1109771770746941</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02318495630369823</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1125595215759317</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02321739851520347</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1141418660771693</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02324232627407822</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1157242105784069</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.0232423099927143</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1173065550796445</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02323930168933584</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1188888995808821</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02323135896553077</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1204712440821197</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02321885658316101</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1220535885833573</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02320216930408851</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1236359330845949</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02318167189017515</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1252182775858325</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02315773910328291</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1268006220870701</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.0231307457052737</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1283829665883077</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02310106645800947</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1299653110895453</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02306907612335212</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1315476555907829</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02303514946316362</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1331300000920205</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02299966123930585</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1347123445932581</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02296298621364077</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1362946890944957</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02292549914803032</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1378770335957333</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02288732206147346</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1394593780969709</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02283722438918023</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1410417225982085</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02277181855568151</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1426240670994461</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02269500275432502</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1442064116006837</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02261067517845839</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1457887561019213</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02252273402142927</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1473711006031589</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02243507747658537</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1489534451043965</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02235160373727429</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02227621099684377</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1521181341068717</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02221279744864143</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1537004786081093</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.0221652612860149</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1552828231093469</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02212972236567372</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1568651676105845</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02209635523215849</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1584475121118221</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02206494713341433</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1600298566130597</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02203537315615269</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1616122011142973</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02200750838708494</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1631945456155349</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.0219812279129225</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1647768901167725</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02195640682037681</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1663592346180101</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02193292019615924</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1679415791192477</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02191064312698122</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1695239236204853</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02188945069955418</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1711062681217229</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02186921800058949</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1726886126229605</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02184982011679856</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1742709571241981</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02183113213489284</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1758533016254357</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02181302914158374</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1774356461266733</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.0217953862235826</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1790179906279109</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02177807846760093</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1806003351291485</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02176098096035006</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1821826796303861</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02174396878854142</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1837650241316237</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02172691703888645</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1853473686328613</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02170970079809654</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1869297131340989</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02169219515288307</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1885120576353365</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02167464105879933</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1900944021365741</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02165738032378702</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1916767466378117</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02164042380737225</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1932590911390493</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02162378234965773</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1948414356402869</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02160746679074622</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1964237801415245</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02159148797074043</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1980061246427621</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02157585672974314</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1995884691439997</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02156058390785703</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2011708136452373</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02154568034518487</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2027531581464749</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02153115688182936</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2043355026477125</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02151702435789327</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2059178471489501</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02150329361347928</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2075001916501877</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02148997548869019</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2090825361514253</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.0214770808236287</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2106648806526629</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02146462045839754</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2122472251539005</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02145260523309945</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2138295696551381</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02144104598783716</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2154119141563757</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
